--- a/database/industries/ghaza/ghefars/product/monthly.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghefars\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185D8ABB-4CA6-43B9-B93B-A273FA7A0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA9512-2657-43B0-8ACB-BDE23DB7901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غفارس-شیر پاستوریزه پگاه فارس</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>دوغ</t>
@@ -1427,154 +1427,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>816</v>
+        <v>731</v>
       </c>
       <c r="F11" s="11">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="G11" s="11">
-        <v>705</v>
+        <v>905</v>
       </c>
       <c r="H11" s="11">
-        <v>905</v>
+        <v>1246</v>
       </c>
       <c r="I11" s="11">
-        <v>1246</v>
+        <v>878</v>
       </c>
       <c r="J11" s="11">
-        <v>878</v>
+        <v>1228</v>
       </c>
       <c r="K11" s="11">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="L11" s="11">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="M11" s="11">
-        <v>1212</v>
+        <v>1254</v>
       </c>
       <c r="N11" s="11">
-        <v>1254</v>
+        <v>1140</v>
       </c>
       <c r="O11" s="11">
-        <v>1140</v>
+        <v>951</v>
       </c>
       <c r="P11" s="11">
-        <v>951</v>
+        <v>1030</v>
       </c>
       <c r="Q11" s="11">
-        <v>1030</v>
+        <v>723</v>
       </c>
       <c r="R11" s="11">
-        <v>723</v>
+        <v>501</v>
       </c>
       <c r="S11" s="11">
-        <v>501</v>
+        <v>795</v>
       </c>
       <c r="T11" s="11">
-        <v>795</v>
-      </c>
-      <c r="U11" s="11">
         <v>681</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
+      <c r="U11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" s="11">
+        <v>1102</v>
       </c>
       <c r="W11" s="11">
-        <v>1102</v>
+        <v>1051</v>
       </c>
       <c r="X11" s="11">
-        <v>1051</v>
+        <v>1128</v>
       </c>
       <c r="Y11" s="11">
-        <v>1128</v>
+        <v>1149</v>
       </c>
       <c r="Z11" s="11">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="AA11" s="11">
+        <v>1136</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>762</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>989</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>633</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>726</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>917</v>
+      </c>
+      <c r="AG11" s="11">
         <v>1185</v>
       </c>
-      <c r="AB11" s="11">
-        <v>1136</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>762</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>989</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>633</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>726</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>917</v>
-      </c>
       <c r="AH11" s="11">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="AI11" s="11">
-        <v>1161</v>
+        <v>1061</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1061</v>
+        <v>800</v>
       </c>
       <c r="AK11" s="11">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="AL11" s="11">
-        <v>1046</v>
+        <v>837</v>
       </c>
       <c r="AM11" s="11">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AN11" s="11">
         <v>716</v>
       </c>
       <c r="AO11" s="11">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AP11" s="11">
-        <v>667</v>
+        <v>494</v>
       </c>
       <c r="AQ11" s="11">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="AR11" s="11">
-        <v>701</v>
+        <v>514</v>
       </c>
       <c r="AS11" s="11">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="AT11" s="11">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="AU11" s="11">
-        <v>990</v>
+        <v>581</v>
       </c>
       <c r="AV11" s="11">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="AW11" s="11">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="AX11" s="11">
-        <v>708</v>
+        <v>935</v>
       </c>
       <c r="AY11" s="11">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="AZ11" s="11">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="BA11" s="11">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="BB11" s="11">
-        <v>656</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1586,109 +1586,109 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="F12" s="13">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="G12" s="13">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="H12" s="13">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13">
+        <v>24</v>
+      </c>
+      <c r="J12" s="13">
+        <v>11</v>
+      </c>
+      <c r="K12" s="13">
+        <v>36</v>
+      </c>
+      <c r="L12" s="13">
+        <v>25</v>
+      </c>
+      <c r="M12" s="13">
+        <v>11</v>
+      </c>
+      <c r="N12" s="13">
+        <v>19</v>
+      </c>
+      <c r="O12" s="13">
+        <v>21</v>
+      </c>
+      <c r="P12" s="13">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>18</v>
+      </c>
+      <c r="R12" s="13">
+        <v>16</v>
+      </c>
+      <c r="S12" s="13">
         <v>23</v>
       </c>
-      <c r="I12" s="13">
-        <v>30</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="T12" s="13">
+        <v>17</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V12" s="13">
         <v>24</v>
       </c>
-      <c r="K12" s="13">
-        <v>11</v>
-      </c>
-      <c r="L12" s="13">
-        <v>36</v>
-      </c>
-      <c r="M12" s="13">
-        <v>25</v>
-      </c>
-      <c r="N12" s="13">
-        <v>11</v>
-      </c>
-      <c r="O12" s="13">
-        <v>19</v>
-      </c>
-      <c r="P12" s="13">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>22</v>
-      </c>
-      <c r="R12" s="13">
+      <c r="W12" s="13">
+        <v>34</v>
+      </c>
+      <c r="X12" s="13">
+        <v>13</v>
+      </c>
+      <c r="Y12" s="13">
         <v>18</v>
       </c>
-      <c r="S12" s="13">
-        <v>16</v>
-      </c>
-      <c r="T12" s="13">
-        <v>23</v>
-      </c>
-      <c r="U12" s="13">
-        <v>17</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="13">
-        <v>24</v>
-      </c>
-      <c r="X12" s="13">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>13</v>
-      </c>
       <c r="Z12" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AA12" s="13">
         <v>29</v>
       </c>
       <c r="AB12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>38</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="13">
         <v>29</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AG12" s="13">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>182</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>239</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AL12" s="13">
         <v>17</v>
       </c>
-      <c r="AD12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>38</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>28</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>116</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>182</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>82</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>239</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>18</v>
-      </c>
       <c r="AM12" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AN12" s="13">
         <v>20</v>
@@ -1697,43 +1697,43 @@
         <v>20</v>
       </c>
       <c r="AP12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>34</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AY12" s="13">
         <v>20</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>34</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AY12" s="13">
+      <c r="AZ12" s="13">
         <v>16</v>
       </c>
-      <c r="AZ12" s="13">
-        <v>20</v>
-      </c>
       <c r="BA12" s="13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BB12" s="13">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1745,154 +1745,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>3497</v>
+        <v>3769</v>
       </c>
       <c r="F13" s="11">
-        <v>3769</v>
+        <v>3673</v>
       </c>
       <c r="G13" s="11">
-        <v>3673</v>
+        <v>3557</v>
       </c>
       <c r="H13" s="11">
-        <v>3557</v>
+        <v>3517</v>
       </c>
       <c r="I13" s="11">
-        <v>3517</v>
+        <v>3159</v>
       </c>
       <c r="J13" s="11">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="K13" s="11">
-        <v>3154</v>
+        <v>3000</v>
       </c>
       <c r="L13" s="11">
-        <v>3000</v>
+        <v>3293</v>
       </c>
       <c r="M13" s="11">
-        <v>3293</v>
+        <v>2131</v>
       </c>
       <c r="N13" s="11">
-        <v>2131</v>
+        <v>2366</v>
       </c>
       <c r="O13" s="11">
-        <v>2366</v>
+        <v>2860</v>
       </c>
       <c r="P13" s="11">
-        <v>2860</v>
+        <v>3401</v>
       </c>
       <c r="Q13" s="11">
-        <v>3401</v>
+        <v>3144</v>
       </c>
       <c r="R13" s="11">
-        <v>3144</v>
+        <v>4159</v>
       </c>
       <c r="S13" s="11">
-        <v>4159</v>
+        <v>4441</v>
       </c>
       <c r="T13" s="11">
-        <v>4441</v>
-      </c>
-      <c r="U13" s="11">
         <v>4190</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>57</v>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2578</v>
       </c>
       <c r="W13" s="11">
-        <v>2578</v>
+        <v>3286</v>
       </c>
       <c r="X13" s="11">
-        <v>3286</v>
+        <v>4634</v>
       </c>
       <c r="Y13" s="11">
-        <v>4634</v>
+        <v>2364</v>
       </c>
       <c r="Z13" s="11">
-        <v>2364</v>
+        <v>2283</v>
       </c>
       <c r="AA13" s="11">
-        <v>2283</v>
+        <v>2103</v>
       </c>
       <c r="AB13" s="11">
-        <v>2103</v>
+        <v>2709</v>
       </c>
       <c r="AC13" s="11">
-        <v>2709</v>
+        <v>3188</v>
       </c>
       <c r="AD13" s="11">
-        <v>3188</v>
+        <v>2437</v>
       </c>
       <c r="AE13" s="11">
-        <v>2437</v>
+        <v>3200</v>
       </c>
       <c r="AF13" s="11">
-        <v>3200</v>
+        <v>2889</v>
       </c>
       <c r="AG13" s="11">
-        <v>2889</v>
+        <v>1917</v>
       </c>
       <c r="AH13" s="11">
-        <v>1917</v>
+        <v>2985</v>
       </c>
       <c r="AI13" s="11">
-        <v>2985</v>
+        <v>2133</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2133</v>
+        <v>2391</v>
       </c>
       <c r="AK13" s="11">
-        <v>2391</v>
+        <v>2371</v>
       </c>
       <c r="AL13" s="11">
-        <v>2371</v>
+        <v>2262</v>
       </c>
       <c r="AM13" s="11">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AN13" s="11">
         <v>2259</v>
       </c>
       <c r="AO13" s="11">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AP13" s="11">
-        <v>2684</v>
+        <v>2852</v>
       </c>
       <c r="AQ13" s="11">
+        <v>2854</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>2337</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>2248</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>1899</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>2265</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>1976</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>2351</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>2410</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>2716</v>
+      </c>
+      <c r="BB13" s="11">
         <v>2852</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2854</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>2337</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>2248</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>2201</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>1899</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>2265</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>1976</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>2165</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>2351</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>2410</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>2716</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1904,154 +1904,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>355</v>
+        <v>511</v>
       </c>
       <c r="F14" s="13">
-        <v>511</v>
+        <v>605</v>
       </c>
       <c r="G14" s="13">
-        <v>605</v>
+        <v>177</v>
       </c>
       <c r="H14" s="13">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="I14" s="13">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="J14" s="13">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="K14" s="13">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="L14" s="13">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="M14" s="13">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="N14" s="13">
-        <v>493</v>
+        <v>205</v>
       </c>
       <c r="O14" s="13">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="P14" s="13">
-        <v>337</v>
+        <v>530</v>
       </c>
       <c r="Q14" s="13">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="R14" s="13">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="S14" s="13">
-        <v>498</v>
+        <v>590</v>
       </c>
       <c r="T14" s="13">
-        <v>590</v>
-      </c>
-      <c r="U14" s="13">
         <v>897</v>
       </c>
-      <c r="V14" s="13" t="s">
-        <v>57</v>
+      <c r="U14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="13">
+        <v>582</v>
       </c>
       <c r="W14" s="13">
-        <v>582</v>
+        <v>358</v>
       </c>
       <c r="X14" s="13">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="Y14" s="13">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="Z14" s="13">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="AA14" s="13">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="AB14" s="13">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="AC14" s="13">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="AD14" s="13">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="AE14" s="13">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="AF14" s="13">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AG14" s="13">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="AH14" s="13">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AI14" s="13">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AJ14" s="13">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AK14" s="13">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AL14" s="13">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AM14" s="13">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AN14" s="13">
         <v>282</v>
       </c>
       <c r="AO14" s="13">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="AP14" s="13">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AQ14" s="13">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AR14" s="13">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AS14" s="13">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="AT14" s="13">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AU14" s="13">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="AV14" s="13">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AW14" s="13">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AX14" s="13">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AY14" s="13">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AZ14" s="13">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="BA14" s="13">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="BB14" s="13">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2063,154 +2063,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1529</v>
+        <v>1281</v>
       </c>
       <c r="F15" s="11">
-        <v>1281</v>
+        <v>1336</v>
       </c>
       <c r="G15" s="11">
+        <v>1421</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1366</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1312</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1559</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1543</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1576</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1826</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1676</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1368</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1482</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1223</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1212</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1194</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1236</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1629</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1753</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1734</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1783</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1640</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1638</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1296</v>
+      </c>
+      <c r="AC15" s="11">
         <v>1336</v>
       </c>
-      <c r="H15" s="11">
-        <v>1421</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1366</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1312</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1559</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1543</v>
-      </c>
-      <c r="M15" s="11">
-        <v>1576</v>
-      </c>
-      <c r="N15" s="11">
-        <v>1826</v>
-      </c>
-      <c r="O15" s="11">
-        <v>1676</v>
-      </c>
-      <c r="P15" s="11">
-        <v>1368</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>1482</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1223</v>
-      </c>
-      <c r="S15" s="11">
-        <v>1212</v>
-      </c>
-      <c r="T15" s="11">
-        <v>1194</v>
-      </c>
-      <c r="U15" s="11">
-        <v>1236</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W15" s="11">
-        <v>1629</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1753</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>1734</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>1783</v>
-      </c>
-      <c r="AA15" s="11">
+      <c r="AD15" s="11">
+        <v>1317</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1255</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>1610</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AI15" s="11">
         <v>1640</v>
       </c>
-      <c r="AB15" s="11">
-        <v>1638</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1296</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1336</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1317</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1255</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>1610</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>1909</v>
-      </c>
       <c r="AJ15" s="11">
-        <v>1640</v>
+        <v>1824</v>
       </c>
       <c r="AK15" s="11">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="AL15" s="11">
-        <v>1831</v>
+        <v>1347</v>
       </c>
       <c r="AM15" s="11">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AN15" s="11">
         <v>1494</v>
       </c>
       <c r="AO15" s="11">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AP15" s="11">
-        <v>1139</v>
+        <v>1017</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AR15" s="11">
-        <v>1009</v>
+        <v>1138</v>
       </c>
       <c r="AS15" s="11">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="AT15" s="11">
-        <v>1043</v>
+        <v>1583</v>
       </c>
       <c r="AU15" s="11">
-        <v>1583</v>
+        <v>1176</v>
       </c>
       <c r="AV15" s="11">
-        <v>1176</v>
+        <v>1338</v>
       </c>
       <c r="AW15" s="11">
-        <v>1338</v>
+        <v>1226</v>
       </c>
       <c r="AX15" s="11">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="AY15" s="11">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1247</v>
+        <v>1127</v>
       </c>
       <c r="BA15" s="11">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="BB15" s="11">
-        <v>1113</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2222,154 +2222,154 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>643</v>
+        <v>523</v>
       </c>
       <c r="F16" s="13">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G16" s="13">
-        <v>533</v>
+        <v>632</v>
       </c>
       <c r="H16" s="13">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="I16" s="13">
-        <v>678</v>
+        <v>431</v>
       </c>
       <c r="J16" s="13">
-        <v>431</v>
+        <v>596</v>
       </c>
       <c r="K16" s="13">
-        <v>596</v>
+        <v>450</v>
       </c>
       <c r="L16" s="13">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="M16" s="13">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="N16" s="13">
+        <v>591</v>
+      </c>
+      <c r="O16" s="13">
+        <v>550</v>
+      </c>
+      <c r="P16" s="13">
+        <v>512</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>529</v>
+      </c>
+      <c r="R16" s="13">
+        <v>508</v>
+      </c>
+      <c r="S16" s="13">
+        <v>415</v>
+      </c>
+      <c r="T16" s="13">
+        <v>403</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="13">
+        <v>458</v>
+      </c>
+      <c r="W16" s="13">
         <v>485</v>
       </c>
-      <c r="O16" s="13">
-        <v>591</v>
-      </c>
-      <c r="P16" s="13">
-        <v>550</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>512</v>
-      </c>
-      <c r="R16" s="13">
-        <v>529</v>
-      </c>
-      <c r="S16" s="13">
-        <v>508</v>
-      </c>
-      <c r="T16" s="13">
-        <v>415</v>
-      </c>
-      <c r="U16" s="13">
-        <v>403</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" s="13">
-        <v>458</v>
-      </c>
       <c r="X16" s="13">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="Y16" s="13">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="Z16" s="13">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="AA16" s="13">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="AB16" s="13">
+        <v>376</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>357</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>414</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AF16" s="13">
         <v>440</v>
       </c>
-      <c r="AC16" s="13">
-        <v>376</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>357</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>414</v>
-      </c>
-      <c r="AF16" s="13">
+      <c r="AG16" s="13">
+        <v>408</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>427</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>425</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>347</v>
+      </c>
+      <c r="AK16" s="13">
         <v>473</v>
       </c>
-      <c r="AG16" s="13">
-        <v>440</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>408</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>427</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>425</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>347</v>
-      </c>
       <c r="AL16" s="13">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="AM16" s="13">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AN16" s="13">
         <v>412</v>
       </c>
       <c r="AO16" s="13">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AP16" s="13">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AQ16" s="13">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AR16" s="13">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AS16" s="13">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="AT16" s="13">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AU16" s="13">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AV16" s="13">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AW16" s="13">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AX16" s="13">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="AY16" s="13">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AZ16" s="13">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="BA16" s="13">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="BB16" s="13">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2381,154 +2381,154 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F17" s="11">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G17" s="11">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H17" s="11">
-        <v>93</v>
+        <v>319</v>
       </c>
       <c r="I17" s="11">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="J17" s="11">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K17" s="11">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L17" s="11">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M17" s="11">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N17" s="11">
+        <v>38</v>
+      </c>
+      <c r="O17" s="11">
         <v>19</v>
       </c>
-      <c r="O17" s="11">
-        <v>38</v>
-      </c>
       <c r="P17" s="11">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="11">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="R17" s="11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="S17" s="11">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T17" s="11">
         <v>14</v>
       </c>
-      <c r="U17" s="11">
-        <v>14</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>57</v>
+      <c r="U17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="11">
+        <v>15</v>
       </c>
       <c r="W17" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="X17" s="11">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="11">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="Z17" s="11">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="AA17" s="11">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="AB17" s="11">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="11">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AD17" s="11">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AE17" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF17" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG17" s="11">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AH17" s="11">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AI17" s="11">
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="11">
         <v>18</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>13</v>
-      </c>
       <c r="AK17" s="11">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AL17" s="11">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AM17" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AN17" s="11">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AO17" s="11">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AP17" s="11">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AQ17" s="11">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AR17" s="11">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AS17" s="11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AT17" s="11">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="AU17" s="11">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="AV17" s="11">
+        <v>181</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>228</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>194</v>
+      </c>
+      <c r="AY17" s="11">
         <v>195</v>
       </c>
-      <c r="AW17" s="11">
-        <v>181</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>228</v>
-      </c>
-      <c r="AY17" s="11">
-        <v>194</v>
-      </c>
       <c r="AZ17" s="11">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="BA17" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="BB17" s="11">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2540,154 +2540,154 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="F18" s="13">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="G18" s="13">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="H18" s="13">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="I18" s="13">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="J18" s="13">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K18" s="13">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="L18" s="13">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="M18" s="13">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="N18" s="13">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="O18" s="13">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="P18" s="13">
         <v>303</v>
       </c>
       <c r="Q18" s="13">
-        <v>303</v>
+        <v>513</v>
       </c>
       <c r="R18" s="13">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="S18" s="13">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="T18" s="13">
-        <v>439</v>
-      </c>
-      <c r="U18" s="13">
         <v>496</v>
       </c>
-      <c r="V18" s="13" t="s">
-        <v>57</v>
+      <c r="U18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V18" s="13">
+        <v>478</v>
       </c>
       <c r="W18" s="13">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="X18" s="13">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="Y18" s="13">
-        <v>348</v>
+        <v>257</v>
       </c>
       <c r="Z18" s="13">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AA18" s="13">
+        <v>237</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>742</v>
+      </c>
+      <c r="AC18" s="13">
         <v>265</v>
       </c>
-      <c r="AB18" s="13">
-        <v>237</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>742</v>
-      </c>
       <c r="AD18" s="13">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="AE18" s="13">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AF18" s="13">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="AG18" s="13">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="13">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AI18" s="13">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AJ18" s="13">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="AK18" s="13">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="AL18" s="13">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AM18" s="13">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AN18" s="13">
         <v>264</v>
       </c>
       <c r="AO18" s="13">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AP18" s="13">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AQ18" s="13">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="AR18" s="13">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AS18" s="13">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AT18" s="13">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AU18" s="13">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AV18" s="13">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AW18" s="13">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AX18" s="13">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AY18" s="13">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AZ18" s="13">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="BA18" s="13">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="BB18" s="13">
-        <v>475</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2785,8 +2785,8 @@
       <c r="AG19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>57</v>
+      <c r="AH19" s="11">
+        <v>0</v>
       </c>
       <c r="AI19" s="11">
         <v>0</v>
@@ -2818,8 +2818,8 @@
       <c r="AR19" s="11">
         <v>0</v>
       </c>
-      <c r="AS19" s="11">
-        <v>0</v>
+      <c r="AS19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>57</v>
@@ -2944,14 +2944,14 @@
       <c r="AG20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>57</v>
+      <c r="AH20" s="13">
+        <v>0</v>
       </c>
       <c r="AI20" s="13">
         <v>0</v>
       </c>
-      <c r="AJ20" s="13">
-        <v>0</v>
+      <c r="AJ20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>57</v>
@@ -3103,8 +3103,8 @@
       <c r="AG21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>57</v>
+      <c r="AH21" s="11">
+        <v>0</v>
       </c>
       <c r="AI21" s="11">
         <v>0</v>
@@ -3136,8 +3136,8 @@
       <c r="AR21" s="11">
         <v>0</v>
       </c>
-      <c r="AS21" s="11">
-        <v>0</v>
+      <c r="AS21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT21" s="11" t="s">
         <v>57</v>
@@ -3262,8 +3262,8 @@
       <c r="AG22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>57</v>
+      <c r="AH22" s="13">
+        <v>0</v>
       </c>
       <c r="AI22" s="13">
         <v>0</v>
@@ -3295,8 +3295,8 @@
       <c r="AR22" s="13">
         <v>0</v>
       </c>
-      <c r="AS22" s="13">
-        <v>0</v>
+      <c r="AS22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT22" s="13" t="s">
         <v>57</v>
@@ -3478,11 +3478,11 @@
       <c r="AG24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI24" s="11">
-        <v>0</v>
+      <c r="AH24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ24" s="11" t="s">
         <v>57</v>
@@ -3514,8 +3514,8 @@
       <c r="AS24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT24" s="11" t="s">
-        <v>57</v>
+      <c r="AT24" s="11">
+        <v>0</v>
       </c>
       <c r="AU24" s="11">
         <v>0</v>
@@ -3523,23 +3523,23 @@
       <c r="AV24" s="11">
         <v>0</v>
       </c>
-      <c r="AW24" s="11">
-        <v>0</v>
+      <c r="AW24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ24" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB24" s="11">
-        <v>0</v>
+      <c r="AY24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA24" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3608,8 +3608,8 @@
       <c r="X25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="15" t="s">
-        <v>57</v>
+      <c r="Y25" s="15">
+        <v>0</v>
       </c>
       <c r="Z25" s="15">
         <v>0</v>
@@ -3706,154 +3706,154 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>7212</v>
+        <v>7382</v>
       </c>
       <c r="F26" s="17">
-        <v>7382</v>
+        <v>7590</v>
       </c>
       <c r="G26" s="17">
-        <v>7590</v>
+        <v>7223</v>
       </c>
       <c r="H26" s="17">
-        <v>7223</v>
+        <v>7851</v>
       </c>
       <c r="I26" s="17">
-        <v>7851</v>
+        <v>6550</v>
       </c>
       <c r="J26" s="17">
-        <v>6550</v>
+        <v>7240</v>
       </c>
       <c r="K26" s="17">
-        <v>7240</v>
+        <v>6975</v>
       </c>
       <c r="L26" s="17">
-        <v>6975</v>
+        <v>7343</v>
       </c>
       <c r="M26" s="17">
-        <v>7343</v>
+        <v>6388</v>
       </c>
       <c r="N26" s="17">
-        <v>6388</v>
+        <v>6310</v>
       </c>
       <c r="O26" s="17">
-        <v>6310</v>
+        <v>6409</v>
       </c>
       <c r="P26" s="17">
-        <v>6409</v>
+        <v>7338</v>
       </c>
       <c r="Q26" s="17">
-        <v>7338</v>
+        <v>6743</v>
       </c>
       <c r="R26" s="17">
-        <v>6743</v>
+        <v>7336</v>
       </c>
       <c r="S26" s="17">
-        <v>7336</v>
+        <v>7911</v>
       </c>
       <c r="T26" s="17">
-        <v>7911</v>
+        <v>7934</v>
       </c>
       <c r="U26" s="17">
-        <v>7934</v>
+        <v>0</v>
       </c>
       <c r="V26" s="17">
-        <v>0</v>
+        <v>6866</v>
       </c>
       <c r="W26" s="17">
-        <v>6866</v>
+        <v>7380</v>
       </c>
       <c r="X26" s="17">
-        <v>7380</v>
+        <v>8538</v>
       </c>
       <c r="Y26" s="17">
-        <v>8538</v>
+        <v>6538</v>
       </c>
       <c r="Z26" s="17">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="AA26" s="17">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="AB26" s="17">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="AC26" s="17">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="AD26" s="17">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="AE26" s="17">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AF26" s="17">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AG26" s="17">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AH26" s="17">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AI26" s="17">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AJ26" s="17">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AK26" s="17">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AL26" s="17">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AM26" s="17">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AN26" s="17">
+        <v>5486</v>
+      </c>
+      <c r="AO26" s="17">
         <v>5508</v>
       </c>
-      <c r="AO26" s="17">
-        <v>5486</v>
-      </c>
       <c r="AP26" s="17">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AQ26" s="17">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AR26" s="17">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AS26" s="17">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AT26" s="17">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AU26" s="17">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AV26" s="17">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AW26" s="17">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AX26" s="17">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AY26" s="17">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AZ26" s="17">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="BA26" s="17">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="BB26" s="17">
-        <v>5788</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4299,154 +4299,154 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>930</v>
+        <v>777</v>
       </c>
       <c r="F33" s="11">
-        <v>777</v>
+        <v>684</v>
       </c>
       <c r="G33" s="11">
-        <v>684</v>
+        <v>935</v>
       </c>
       <c r="H33" s="11">
-        <v>935</v>
+        <v>1233</v>
       </c>
       <c r="I33" s="11">
-        <v>1233</v>
+        <v>659</v>
       </c>
       <c r="J33" s="11">
-        <v>659</v>
+        <v>1237</v>
       </c>
       <c r="K33" s="11">
-        <v>1237</v>
+        <v>1442</v>
       </c>
       <c r="L33" s="11">
-        <v>1442</v>
+        <v>1213</v>
       </c>
       <c r="M33" s="11">
-        <v>1213</v>
+        <v>1266</v>
       </c>
       <c r="N33" s="11">
-        <v>1266</v>
+        <v>1174</v>
       </c>
       <c r="O33" s="11">
-        <v>1174</v>
+        <v>966</v>
       </c>
       <c r="P33" s="11">
-        <v>966</v>
+        <v>858</v>
       </c>
       <c r="Q33" s="11">
-        <v>858</v>
+        <v>762</v>
       </c>
       <c r="R33" s="11">
-        <v>762</v>
+        <v>702</v>
       </c>
       <c r="S33" s="11">
-        <v>702</v>
+        <v>657</v>
       </c>
       <c r="T33" s="11">
-        <v>657</v>
-      </c>
-      <c r="U33" s="11">
         <v>783</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>57</v>
+      <c r="U33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V33" s="11">
+        <v>1182</v>
       </c>
       <c r="W33" s="11">
-        <v>1182</v>
+        <v>1055</v>
       </c>
       <c r="X33" s="11">
-        <v>1055</v>
+        <v>1091</v>
       </c>
       <c r="Y33" s="11">
-        <v>1091</v>
+        <v>1149</v>
       </c>
       <c r="Z33" s="11">
-        <v>1149</v>
+        <v>1226</v>
       </c>
       <c r="AA33" s="11">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="AB33" s="11">
-        <v>1142</v>
+        <v>797</v>
       </c>
       <c r="AC33" s="11">
-        <v>797</v>
+        <v>739</v>
       </c>
       <c r="AD33" s="11">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AE33" s="11">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="AF33" s="11">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="AG33" s="11">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="AH33" s="11">
-        <v>1121</v>
+        <v>1268</v>
       </c>
       <c r="AI33" s="11">
-        <v>1268</v>
+        <v>1006</v>
       </c>
       <c r="AJ33" s="11">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="AK33" s="11">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="AL33" s="11">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="AM33" s="11">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AN33" s="11">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="AO33" s="11">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="AP33" s="11">
-        <v>697</v>
+        <v>558</v>
       </c>
       <c r="AQ33" s="11">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="AR33" s="11">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AS33" s="11">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="AT33" s="11">
-        <v>675</v>
+        <v>971</v>
       </c>
       <c r="AU33" s="11">
-        <v>971</v>
+        <v>647</v>
       </c>
       <c r="AV33" s="11">
-        <v>647</v>
+        <v>876</v>
       </c>
       <c r="AW33" s="11">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="AX33" s="11">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="AY33" s="11">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="AZ33" s="11">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="BA33" s="11">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="BB33" s="11">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4458,70 +4458,70 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>21</v>
+      </c>
+      <c r="F34" s="13">
+        <v>17</v>
+      </c>
+      <c r="G34" s="13">
         <v>25</v>
       </c>
-      <c r="F34" s="13">
-        <v>21</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="H34" s="13">
+        <v>40</v>
+      </c>
+      <c r="I34" s="13">
+        <v>6</v>
+      </c>
+      <c r="J34" s="13">
         <v>17</v>
       </c>
-      <c r="H34" s="13">
-        <v>25</v>
-      </c>
-      <c r="I34" s="13">
-        <v>40</v>
-      </c>
-      <c r="J34" s="13">
-        <v>6</v>
-      </c>
       <c r="K34" s="13">
+        <v>28</v>
+      </c>
+      <c r="L34" s="13">
+        <v>27</v>
+      </c>
+      <c r="M34" s="13">
         <v>17</v>
-      </c>
-      <c r="L34" s="13">
-        <v>28</v>
-      </c>
-      <c r="M34" s="13">
-        <v>27</v>
       </c>
       <c r="N34" s="13">
         <v>17</v>
       </c>
       <c r="O34" s="13">
+        <v>18</v>
+      </c>
+      <c r="P34" s="13">
+        <v>23</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>21</v>
+      </c>
+      <c r="R34" s="13">
         <v>17</v>
-      </c>
-      <c r="P34" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>23</v>
-      </c>
-      <c r="R34" s="13">
-        <v>21</v>
       </c>
       <c r="S34" s="13">
         <v>17</v>
       </c>
       <c r="T34" s="13">
-        <v>17</v>
-      </c>
-      <c r="U34" s="13">
         <v>23</v>
       </c>
-      <c r="V34" s="13" t="s">
-        <v>57</v>
+      <c r="U34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V34" s="13">
+        <v>18</v>
       </c>
       <c r="W34" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="X34" s="13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Y34" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z34" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA34" s="13">
         <v>24</v>
@@ -4530,79 +4530,79 @@
         <v>24</v>
       </c>
       <c r="AC34" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD34" s="13">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AE34" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AF34" s="13">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AG34" s="13">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="AH34" s="13">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="AI34" s="13">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AJ34" s="13">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AK34" s="13">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="AL34" s="13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AM34" s="13">
         <v>20</v>
       </c>
       <c r="AN34" s="13">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AO34" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AP34" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AQ34" s="13">
+        <v>14</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS34" s="13">
         <v>22</v>
       </c>
-      <c r="AR34" s="13">
+      <c r="AT34" s="13">
+        <v>13</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>18</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>19</v>
+      </c>
+      <c r="AW34" s="13">
         <v>14</v>
       </c>
-      <c r="AS34" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT34" s="13">
-        <v>22</v>
-      </c>
-      <c r="AU34" s="13">
-        <v>13</v>
-      </c>
-      <c r="AV34" s="13">
+      <c r="AX34" s="13">
         <v>18</v>
-      </c>
-      <c r="AW34" s="13">
-        <v>19</v>
-      </c>
-      <c r="AX34" s="13">
-        <v>14</v>
       </c>
       <c r="AY34" s="13">
         <v>18</v>
       </c>
       <c r="AZ34" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA34" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB34" s="13">
         <v>20</v>
@@ -4617,154 +4617,154 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>3637</v>
+        <v>3654</v>
       </c>
       <c r="F35" s="11">
-        <v>3654</v>
+        <v>3683</v>
       </c>
       <c r="G35" s="11">
-        <v>3683</v>
+        <v>3273</v>
       </c>
       <c r="H35" s="11">
-        <v>3273</v>
+        <v>3352</v>
       </c>
       <c r="I35" s="11">
-        <v>3352</v>
+        <v>3233</v>
       </c>
       <c r="J35" s="11">
-        <v>3233</v>
+        <v>3216</v>
       </c>
       <c r="K35" s="11">
-        <v>3216</v>
+        <v>2919</v>
       </c>
       <c r="L35" s="11">
-        <v>2919</v>
+        <v>3397</v>
       </c>
       <c r="M35" s="11">
-        <v>3397</v>
+        <v>2478</v>
       </c>
       <c r="N35" s="11">
-        <v>2478</v>
+        <v>2621</v>
       </c>
       <c r="O35" s="11">
-        <v>2621</v>
+        <v>2786</v>
       </c>
       <c r="P35" s="11">
-        <v>2786</v>
+        <v>3360</v>
       </c>
       <c r="Q35" s="11">
-        <v>3360</v>
+        <v>3257</v>
       </c>
       <c r="R35" s="11">
-        <v>3257</v>
+        <v>4063</v>
       </c>
       <c r="S35" s="11">
-        <v>4063</v>
+        <v>4580</v>
       </c>
       <c r="T35" s="11">
-        <v>4580</v>
-      </c>
-      <c r="U35" s="11">
         <v>4338</v>
       </c>
-      <c r="V35" s="11" t="s">
-        <v>57</v>
+      <c r="U35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V35" s="11">
+        <v>2035</v>
       </c>
       <c r="W35" s="11">
-        <v>2035</v>
+        <v>3338</v>
       </c>
       <c r="X35" s="11">
-        <v>3338</v>
+        <v>4898</v>
       </c>
       <c r="Y35" s="11">
-        <v>4898</v>
+        <v>2297</v>
       </c>
       <c r="Z35" s="11">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="AA35" s="11">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="AB35" s="11">
-        <v>2205</v>
+        <v>2756</v>
       </c>
       <c r="AC35" s="11">
-        <v>2756</v>
+        <v>3649</v>
       </c>
       <c r="AD35" s="11">
-        <v>3649</v>
+        <v>2493</v>
       </c>
       <c r="AE35" s="11">
+        <v>2633</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>2858</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>3040</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>2687</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>2496</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>2279</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>2285</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>2118</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AN35" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AO35" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AQ35" s="11">
+        <v>2607</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>2415</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AT35" s="11">
+        <v>2191</v>
+      </c>
+      <c r="AU35" s="11">
+        <v>2092</v>
+      </c>
+      <c r="AV35" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AW35" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AX35" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AY35" s="11">
+        <v>2116</v>
+      </c>
+      <c r="AZ35" s="11">
         <v>2493</v>
       </c>
-      <c r="AF35" s="11">
-        <v>2633</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>2858</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>2687</v>
-      </c>
-      <c r="AJ35" s="11">
-        <v>2496</v>
-      </c>
-      <c r="AK35" s="11">
-        <v>2279</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>2285</v>
-      </c>
-      <c r="AM35" s="11">
-        <v>2118</v>
-      </c>
-      <c r="AN35" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>2280</v>
-      </c>
-      <c r="AP35" s="11">
-        <v>2716</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>2860</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>2607</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>2415</v>
-      </c>
-      <c r="AT35" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>2191</v>
-      </c>
-      <c r="AV35" s="11">
-        <v>2092</v>
-      </c>
-      <c r="AW35" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AX35" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AY35" s="11">
-        <v>2016</v>
-      </c>
-      <c r="AZ35" s="11">
-        <v>2116</v>
-      </c>
       <c r="BA35" s="11">
-        <v>2493</v>
+        <v>2732</v>
       </c>
       <c r="BB35" s="11">
-        <v>2732</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4776,154 +4776,154 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="F36" s="13">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="G36" s="13">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="H36" s="13">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="I36" s="13">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="J36" s="13">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="K36" s="13">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="L36" s="13">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="M36" s="13">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="N36" s="13">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="O36" s="13">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="P36" s="13">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="Q36" s="13">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="R36" s="13">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="S36" s="13">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="T36" s="13">
-        <v>589</v>
-      </c>
-      <c r="U36" s="13">
         <v>921</v>
       </c>
-      <c r="V36" s="13" t="s">
-        <v>57</v>
+      <c r="U36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" s="13">
+        <v>121</v>
       </c>
       <c r="W36" s="13">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="X36" s="13">
-        <v>272</v>
+        <v>584</v>
       </c>
       <c r="Y36" s="13">
-        <v>584</v>
+        <v>259</v>
       </c>
       <c r="Z36" s="13">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AA36" s="13">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="AB36" s="13">
         <v>305</v>
       </c>
       <c r="AC36" s="13">
+        <v>390</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>527</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>363</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>412</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>297</v>
+      </c>
+      <c r="AH36" s="13">
         <v>305</v>
       </c>
-      <c r="AD36" s="13">
-        <v>390</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>527</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>363</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>412</v>
-      </c>
-      <c r="AH36" s="13">
-        <v>297</v>
-      </c>
       <c r="AI36" s="13">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="AJ36" s="13">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AK36" s="13">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL36" s="13">
+        <v>143</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>170</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>203</v>
+      </c>
+      <c r="AO36" s="13">
         <v>156</v>
       </c>
-      <c r="AM36" s="13">
-        <v>143</v>
-      </c>
-      <c r="AN36" s="13">
-        <v>170</v>
-      </c>
-      <c r="AO36" s="13">
-        <v>203</v>
-      </c>
       <c r="AP36" s="13">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="AQ36" s="13">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="AR36" s="13">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="AS36" s="13">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="AT36" s="13">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AU36" s="13">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="AV36" s="13">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AW36" s="13">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AX36" s="13">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="AY36" s="13">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AZ36" s="13">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="BA36" s="13">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="BB36" s="13">
-        <v>228</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4935,154 +4935,154 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>1556</v>
+        <v>1364</v>
       </c>
       <c r="F37" s="11">
-        <v>1364</v>
+        <v>1311</v>
       </c>
       <c r="G37" s="11">
-        <v>1311</v>
+        <v>1375</v>
       </c>
       <c r="H37" s="11">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="I37" s="11">
-        <v>1356</v>
+        <v>1321</v>
       </c>
       <c r="J37" s="11">
-        <v>1321</v>
+        <v>1535</v>
       </c>
       <c r="K37" s="11">
-        <v>1535</v>
+        <v>1590</v>
       </c>
       <c r="L37" s="11">
-        <v>1590</v>
+        <v>1573</v>
       </c>
       <c r="M37" s="11">
-        <v>1573</v>
+        <v>1804</v>
       </c>
       <c r="N37" s="11">
-        <v>1804</v>
+        <v>1669</v>
       </c>
       <c r="O37" s="11">
-        <v>1669</v>
+        <v>1500</v>
       </c>
       <c r="P37" s="11">
-        <v>1500</v>
+        <v>1468</v>
       </c>
       <c r="Q37" s="11">
-        <v>1468</v>
+        <v>1304</v>
       </c>
       <c r="R37" s="11">
-        <v>1304</v>
+        <v>1139</v>
       </c>
       <c r="S37" s="11">
+        <v>1206</v>
+      </c>
+      <c r="T37" s="11">
+        <v>1310</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V37" s="11">
+        <v>1562</v>
+      </c>
+      <c r="W37" s="11">
+        <v>1704</v>
+      </c>
+      <c r="X37" s="11">
+        <v>1774</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>1752</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>1685</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>1619</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>1348</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>1274</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>1285</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>1300</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>1431</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>1630</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>1915</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>1664</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>1879</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>1786</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>1410</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>1420</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>1189</v>
+      </c>
+      <c r="AO37" s="11">
+        <v>1122</v>
+      </c>
+      <c r="AP37" s="11">
+        <v>1029</v>
+      </c>
+      <c r="AQ37" s="11">
+        <v>988</v>
+      </c>
+      <c r="AR37" s="11">
         <v>1139</v>
       </c>
-      <c r="T37" s="11">
-        <v>1206</v>
-      </c>
-      <c r="U37" s="11">
-        <v>1310</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W37" s="11">
-        <v>1562</v>
-      </c>
-      <c r="X37" s="11">
-        <v>1704</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>1774</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>1752</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>1685</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>1619</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>1348</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>1274</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>1285</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>1300</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>1431</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>1630</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>1915</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>1664</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>1879</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>1786</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>1410</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>1420</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>1189</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>1122</v>
-      </c>
-      <c r="AQ37" s="11">
-        <v>1029</v>
-      </c>
-      <c r="AR37" s="11">
-        <v>988</v>
-      </c>
       <c r="AS37" s="11">
-        <v>1139</v>
+        <v>1353</v>
       </c>
       <c r="AT37" s="11">
-        <v>1353</v>
+        <v>1501</v>
       </c>
       <c r="AU37" s="11">
-        <v>1501</v>
+        <v>1243</v>
       </c>
       <c r="AV37" s="11">
-        <v>1243</v>
+        <v>1318</v>
       </c>
       <c r="AW37" s="11">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="AX37" s="11">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="AY37" s="11">
-        <v>1297</v>
+        <v>1221</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1221</v>
+        <v>1111</v>
       </c>
       <c r="BA37" s="11">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="BB37" s="11">
-        <v>1197</v>
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5094,154 +5094,154 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>651</v>
+        <v>490</v>
       </c>
       <c r="F38" s="13">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="G38" s="13">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="H38" s="13">
-        <v>555</v>
+        <v>684</v>
       </c>
       <c r="I38" s="13">
-        <v>684</v>
+        <v>444</v>
       </c>
       <c r="J38" s="13">
-        <v>444</v>
+        <v>577</v>
       </c>
       <c r="K38" s="13">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="L38" s="13">
-        <v>612</v>
+        <v>515</v>
       </c>
       <c r="M38" s="13">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="N38" s="13">
+        <v>554</v>
+      </c>
+      <c r="O38" s="13">
+        <v>571</v>
+      </c>
+      <c r="P38" s="13">
+        <v>448</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>553</v>
+      </c>
+      <c r="R38" s="13">
+        <v>431</v>
+      </c>
+      <c r="S38" s="13">
+        <v>448</v>
+      </c>
+      <c r="T38" s="13">
+        <v>437</v>
+      </c>
+      <c r="U38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V38" s="13">
+        <v>422</v>
+      </c>
+      <c r="W38" s="13">
+        <v>534</v>
+      </c>
+      <c r="X38" s="13">
+        <v>568</v>
+      </c>
+      <c r="Y38" s="13">
+        <v>609</v>
+      </c>
+      <c r="Z38" s="13">
+        <v>534</v>
+      </c>
+      <c r="AA38" s="13">
         <v>504</v>
       </c>
-      <c r="O38" s="13">
-        <v>554</v>
-      </c>
-      <c r="P38" s="13">
-        <v>571</v>
-      </c>
-      <c r="Q38" s="13">
-        <v>448</v>
-      </c>
-      <c r="R38" s="13">
-        <v>553</v>
-      </c>
-      <c r="S38" s="13">
-        <v>431</v>
-      </c>
-      <c r="T38" s="13">
-        <v>448</v>
-      </c>
-      <c r="U38" s="13">
-        <v>437</v>
-      </c>
-      <c r="V38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W38" s="13">
-        <v>422</v>
-      </c>
-      <c r="X38" s="13">
-        <v>534</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>568</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>609</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>534</v>
-      </c>
       <c r="AB38" s="13">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="AC38" s="13">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="AD38" s="13">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AE38" s="13">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AF38" s="13">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AG38" s="13">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="AH38" s="13">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AI38" s="13">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AJ38" s="13">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AK38" s="13">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="AL38" s="13">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="AM38" s="13">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="AN38" s="13">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="AO38" s="13">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AP38" s="13">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="AQ38" s="13">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AR38" s="13">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AS38" s="13">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="AT38" s="13">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="AU38" s="13">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AV38" s="13">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AW38" s="13">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AX38" s="13">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="AY38" s="13">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AZ38" s="13">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="BA38" s="13">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="BB38" s="13">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5253,154 +5253,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F39" s="11">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G39" s="11">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H39" s="11">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I39" s="11">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J39" s="11">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="K39" s="11">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="L39" s="11">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="M39" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N39" s="11">
+        <v>30</v>
+      </c>
+      <c r="O39" s="11">
+        <v>24</v>
+      </c>
+      <c r="P39" s="11">
+        <v>66</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>29</v>
+      </c>
+      <c r="R39" s="11">
+        <v>26</v>
+      </c>
+      <c r="S39" s="11">
+        <v>12</v>
+      </c>
+      <c r="T39" s="11">
         <v>37</v>
       </c>
-      <c r="O39" s="11">
-        <v>30</v>
-      </c>
-      <c r="P39" s="11">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="11">
+      <c r="U39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V39" s="11">
+        <v>16</v>
+      </c>
+      <c r="W39" s="11">
         <v>66</v>
-      </c>
-      <c r="R39" s="11">
-        <v>29</v>
-      </c>
-      <c r="S39" s="11">
-        <v>26</v>
-      </c>
-      <c r="T39" s="11">
-        <v>12</v>
-      </c>
-      <c r="U39" s="11">
-        <v>37</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W39" s="11">
-        <v>16</v>
       </c>
       <c r="X39" s="11">
         <v>66</v>
       </c>
       <c r="Y39" s="11">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Z39" s="11">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AA39" s="11">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="AB39" s="11">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AC39" s="11">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AD39" s="11">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AE39" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="AF39" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AG39" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AH39" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AI39" s="11">
         <v>26</v>
       </c>
       <c r="AJ39" s="11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AK39" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL39" s="11">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AM39" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AN39" s="11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AO39" s="11">
+        <v>37</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>34</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>84</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>323</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>143</v>
+      </c>
+      <c r="AV39" s="11">
         <v>30</v>
       </c>
-      <c r="AP39" s="11">
-        <v>37</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>58</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>34</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>84</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>323</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>143</v>
-      </c>
       <c r="AW39" s="11">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AX39" s="11">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="AY39" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AZ39" s="11">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="BA39" s="11">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="BB39" s="11">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5412,154 +5412,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F40" s="13">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="G40" s="13">
-        <v>83</v>
+        <v>623</v>
       </c>
       <c r="H40" s="13">
-        <v>623</v>
+        <v>153</v>
       </c>
       <c r="I40" s="13">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="J40" s="13">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="K40" s="13">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="L40" s="13">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="M40" s="13">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="N40" s="13">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="O40" s="13">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="P40" s="13">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="13">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R40" s="13">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="S40" s="13">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="T40" s="13">
-        <v>106</v>
-      </c>
-      <c r="U40" s="13">
         <v>97</v>
       </c>
-      <c r="V40" s="13" t="s">
-        <v>57</v>
+      <c r="U40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V40" s="13">
+        <v>101</v>
       </c>
       <c r="W40" s="13">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="X40" s="13">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Y40" s="13">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="Z40" s="13">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="AA40" s="13">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="AB40" s="13">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AC40" s="13">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AD40" s="13">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="AE40" s="13">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="AF40" s="13">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AG40" s="13">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="AH40" s="13">
-        <v>437</v>
+        <v>247</v>
       </c>
       <c r="AI40" s="13">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AJ40" s="13">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="AK40" s="13">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AL40" s="13">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="AM40" s="13">
+        <v>232</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>273</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>285</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>187</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>183</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>199</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>489</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>372</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>142</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>71</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>56</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>488</v>
+      </c>
+      <c r="AY40" s="13">
         <v>172</v>
       </c>
-      <c r="AN40" s="13">
-        <v>232</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>273</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>285</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>187</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>183</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>199</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>489</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>372</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>142</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>71</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>56</v>
-      </c>
-      <c r="AY40" s="13">
-        <v>488</v>
-      </c>
       <c r="AZ40" s="13">
-        <v>172</v>
+        <v>354</v>
       </c>
       <c r="BA40" s="13">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="BB40" s="13">
-        <v>387</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5657,8 +5657,8 @@
       <c r="AG41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH41" s="11" t="s">
-        <v>57</v>
+      <c r="AH41" s="11">
+        <v>0</v>
       </c>
       <c r="AI41" s="11">
         <v>0</v>
@@ -5690,8 +5690,8 @@
       <c r="AR41" s="11">
         <v>0</v>
       </c>
-      <c r="AS41" s="11">
-        <v>0</v>
+      <c r="AS41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT41" s="11" t="s">
         <v>57</v>
@@ -5816,14 +5816,14 @@
       <c r="AG42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH42" s="13" t="s">
-        <v>57</v>
+      <c r="AH42" s="13">
+        <v>0</v>
       </c>
       <c r="AI42" s="13">
         <v>0</v>
       </c>
-      <c r="AJ42" s="13">
-        <v>0</v>
+      <c r="AJ42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK42" s="13" t="s">
         <v>57</v>
@@ -5975,8 +5975,8 @@
       <c r="AG43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH43" s="11" t="s">
-        <v>57</v>
+      <c r="AH43" s="11">
+        <v>0</v>
       </c>
       <c r="AI43" s="11">
         <v>0</v>
@@ -6008,8 +6008,8 @@
       <c r="AR43" s="11">
         <v>0</v>
       </c>
-      <c r="AS43" s="11">
-        <v>0</v>
+      <c r="AS43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT43" s="11" t="s">
         <v>57</v>
@@ -6134,8 +6134,8 @@
       <c r="AG44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH44" s="13" t="s">
-        <v>57</v>
+      <c r="AH44" s="13">
+        <v>0</v>
       </c>
       <c r="AI44" s="13">
         <v>0</v>
@@ -6167,8 +6167,8 @@
       <c r="AR44" s="13">
         <v>0</v>
       </c>
-      <c r="AS44" s="13">
-        <v>0</v>
+      <c r="AS44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT44" s="13" t="s">
         <v>57</v>
@@ -6350,11 +6350,11 @@
       <c r="AG46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI46" s="11">
-        <v>0</v>
+      <c r="AH46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ46" s="11" t="s">
         <v>57</v>
@@ -6386,8 +6386,8 @@
       <c r="AS46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT46" s="11" t="s">
-        <v>57</v>
+      <c r="AT46" s="11">
+        <v>0</v>
       </c>
       <c r="AU46" s="11">
         <v>0</v>
@@ -6395,23 +6395,23 @@
       <c r="AV46" s="11">
         <v>0</v>
       </c>
-      <c r="AW46" s="11">
-        <v>0</v>
+      <c r="AW46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ46" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB46" s="11">
-        <v>0</v>
+      <c r="AY46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA46" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB46" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6480,8 +6480,8 @@
       <c r="X47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y47" s="15" t="s">
-        <v>57</v>
+      <c r="Y47" s="15">
+        <v>0</v>
       </c>
       <c r="Z47" s="15">
         <v>0</v>
@@ -6759,8 +6759,8 @@
       <c r="AS49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>57</v>
+      <c r="AT49" s="11">
+        <v>0</v>
       </c>
       <c r="AU49" s="11">
         <v>0</v>
@@ -6768,23 +6768,23 @@
       <c r="AV49" s="11">
         <v>0</v>
       </c>
-      <c r="AW49" s="11">
-        <v>0</v>
+      <c r="AW49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ49" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB49" s="11">
-        <v>0</v>
+      <c r="AY49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA49" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6853,8 +6853,8 @@
       <c r="X50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y50" s="15" t="s">
-        <v>57</v>
+      <c r="Y50" s="15">
+        <v>0</v>
       </c>
       <c r="Z50" s="15">
         <v>0</v>
@@ -6951,154 +6951,154 @@
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17">
-        <v>7363</v>
+        <v>6785</v>
       </c>
       <c r="F51" s="17">
-        <v>6785</v>
+        <v>6696</v>
       </c>
       <c r="G51" s="17">
-        <v>6696</v>
+        <v>6997</v>
       </c>
       <c r="H51" s="17">
-        <v>6997</v>
+        <v>7146</v>
       </c>
       <c r="I51" s="17">
-        <v>7146</v>
+        <v>6186</v>
       </c>
       <c r="J51" s="17">
-        <v>6186</v>
+        <v>6967</v>
       </c>
       <c r="K51" s="17">
-        <v>6967</v>
+        <v>7377</v>
       </c>
       <c r="L51" s="17">
-        <v>7377</v>
+        <v>7434</v>
       </c>
       <c r="M51" s="17">
-        <v>7434</v>
+        <v>6795</v>
       </c>
       <c r="N51" s="17">
-        <v>6795</v>
+        <v>6462</v>
       </c>
       <c r="O51" s="17">
-        <v>6462</v>
+        <v>6221</v>
       </c>
       <c r="P51" s="17">
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="Q51" s="17">
-        <v>6834</v>
+        <v>6592</v>
       </c>
       <c r="R51" s="17">
-        <v>6592</v>
+        <v>7044</v>
       </c>
       <c r="S51" s="17">
-        <v>7044</v>
+        <v>7615</v>
       </c>
       <c r="T51" s="17">
-        <v>7615</v>
+        <v>7946</v>
       </c>
       <c r="U51" s="17">
-        <v>7946</v>
+        <v>0</v>
       </c>
       <c r="V51" s="17">
-        <v>0</v>
+        <v>5457</v>
       </c>
       <c r="W51" s="17">
-        <v>5457</v>
+        <v>7292</v>
       </c>
       <c r="X51" s="17">
-        <v>7292</v>
+        <v>9303</v>
       </c>
       <c r="Y51" s="17">
-        <v>9303</v>
+        <v>6396</v>
       </c>
       <c r="Z51" s="17">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="AA51" s="17">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="AB51" s="17">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="AC51" s="17">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="AD51" s="17">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="AE51" s="17">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AF51" s="17">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AG51" s="17">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AH51" s="17">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AI51" s="17">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AJ51" s="17">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AK51" s="17">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AL51" s="17">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AM51" s="17">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AN51" s="17">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AO51" s="17">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AP51" s="17">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AQ51" s="17">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AR51" s="17">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AS51" s="17">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AT51" s="17">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AU51" s="17">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AV51" s="17">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AW51" s="17">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AX51" s="17">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AY51" s="17">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AZ51" s="17">
-        <v>5123</v>
+        <v>5672</v>
       </c>
       <c r="BA51" s="17">
-        <v>5672</v>
+        <v>5662</v>
       </c>
       <c r="BB51" s="17">
-        <v>5662</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7544,154 +7544,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>21559</v>
+        <v>19147</v>
       </c>
       <c r="F58" s="11">
-        <v>19147</v>
+        <v>16851</v>
       </c>
       <c r="G58" s="11">
-        <v>16851</v>
+        <v>22348</v>
       </c>
       <c r="H58" s="11">
-        <v>22348</v>
+        <v>28927</v>
       </c>
       <c r="I58" s="11">
-        <v>28927</v>
+        <v>13312</v>
       </c>
       <c r="J58" s="11">
-        <v>13312</v>
+        <v>29616</v>
       </c>
       <c r="K58" s="11">
-        <v>29616</v>
+        <v>34082</v>
       </c>
       <c r="L58" s="11">
-        <v>34082</v>
+        <v>29549</v>
       </c>
       <c r="M58" s="11">
-        <v>29549</v>
+        <v>35510</v>
       </c>
       <c r="N58" s="11">
-        <v>35510</v>
+        <v>32352</v>
       </c>
       <c r="O58" s="11">
-        <v>32352</v>
+        <v>28018</v>
       </c>
       <c r="P58" s="11">
-        <v>28018</v>
+        <v>25279</v>
       </c>
       <c r="Q58" s="11">
-        <v>25279</v>
+        <v>22643</v>
       </c>
       <c r="R58" s="11">
-        <v>22643</v>
+        <v>21047</v>
       </c>
       <c r="S58" s="11">
-        <v>21047</v>
+        <v>19660</v>
       </c>
       <c r="T58" s="11">
-        <v>19660</v>
-      </c>
-      <c r="U58" s="11">
         <v>23424</v>
       </c>
-      <c r="V58" s="11" t="s">
-        <v>57</v>
+      <c r="U58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V58" s="11">
+        <v>35232</v>
       </c>
       <c r="W58" s="11">
-        <v>35232</v>
+        <v>31622</v>
       </c>
       <c r="X58" s="11">
-        <v>31622</v>
+        <v>33482</v>
       </c>
       <c r="Y58" s="11">
-        <v>33482</v>
+        <v>38785</v>
       </c>
       <c r="Z58" s="11">
-        <v>38785</v>
+        <v>43113</v>
       </c>
       <c r="AA58" s="11">
-        <v>43113</v>
+        <v>40291</v>
       </c>
       <c r="AB58" s="11">
-        <v>40291</v>
+        <v>27438</v>
       </c>
       <c r="AC58" s="11">
-        <v>27438</v>
+        <v>26664</v>
       </c>
       <c r="AD58" s="11">
-        <v>26664</v>
+        <v>30851</v>
       </c>
       <c r="AE58" s="11">
-        <v>30851</v>
+        <v>35225</v>
       </c>
       <c r="AF58" s="11">
-        <v>35225</v>
+        <v>37469</v>
       </c>
       <c r="AG58" s="11">
-        <v>37469</v>
+        <v>47172</v>
       </c>
       <c r="AH58" s="11">
-        <v>47172</v>
+        <v>54250</v>
       </c>
       <c r="AI58" s="11">
-        <v>54250</v>
+        <v>46828</v>
       </c>
       <c r="AJ58" s="11">
-        <v>46828</v>
+        <v>47051</v>
       </c>
       <c r="AK58" s="11">
-        <v>47051</v>
+        <v>63130</v>
       </c>
       <c r="AL58" s="11">
-        <v>63130</v>
+        <v>45245</v>
       </c>
       <c r="AM58" s="11">
-        <v>45245</v>
+        <v>52279</v>
       </c>
       <c r="AN58" s="11">
-        <v>52279</v>
+        <v>36911</v>
       </c>
       <c r="AO58" s="11">
-        <v>36911</v>
+        <v>44912</v>
       </c>
       <c r="AP58" s="11">
-        <v>44912</v>
+        <v>36669</v>
       </c>
       <c r="AQ58" s="11">
-        <v>36669</v>
+        <v>39775</v>
       </c>
       <c r="AR58" s="11">
-        <v>39775</v>
+        <v>39040</v>
       </c>
       <c r="AS58" s="11">
-        <v>39040</v>
+        <v>44815</v>
       </c>
       <c r="AT58" s="11">
-        <v>44815</v>
+        <v>66346</v>
       </c>
       <c r="AU58" s="11">
-        <v>66346</v>
+        <v>47689</v>
       </c>
       <c r="AV58" s="11">
-        <v>47689</v>
+        <v>94269</v>
       </c>
       <c r="AW58" s="11">
-        <v>94269</v>
+        <v>75662</v>
       </c>
       <c r="AX58" s="11">
-        <v>75662</v>
+        <v>88218</v>
       </c>
       <c r="AY58" s="11">
-        <v>88218</v>
+        <v>80680</v>
       </c>
       <c r="AZ58" s="11">
-        <v>80680</v>
+        <v>67454</v>
       </c>
       <c r="BA58" s="11">
-        <v>67454</v>
+        <v>65471</v>
       </c>
       <c r="BB58" s="11">
-        <v>65471</v>
+        <v>64946</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7703,154 +7703,154 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>2275</v>
+        <v>2007</v>
       </c>
       <c r="F59" s="13">
-        <v>2007</v>
+        <v>1605</v>
       </c>
       <c r="G59" s="13">
-        <v>1605</v>
+        <v>2357</v>
       </c>
       <c r="H59" s="13">
-        <v>2357</v>
+        <v>3869</v>
       </c>
       <c r="I59" s="13">
-        <v>3869</v>
+        <v>646</v>
       </c>
       <c r="J59" s="13">
-        <v>646</v>
+        <v>1586</v>
       </c>
       <c r="K59" s="13">
-        <v>1586</v>
+        <v>2682</v>
       </c>
       <c r="L59" s="13">
-        <v>2682</v>
+        <v>2483</v>
       </c>
       <c r="M59" s="13">
-        <v>2483</v>
+        <v>1823</v>
       </c>
       <c r="N59" s="13">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="O59" s="13">
-        <v>1772</v>
+        <v>1852</v>
       </c>
       <c r="P59" s="13">
-        <v>1852</v>
+        <v>2451</v>
       </c>
       <c r="Q59" s="13">
-        <v>2451</v>
+        <v>2386</v>
       </c>
       <c r="R59" s="13">
-        <v>2386</v>
+        <v>2065</v>
       </c>
       <c r="S59" s="13">
-        <v>2065</v>
+        <v>2030</v>
       </c>
       <c r="T59" s="13">
-        <v>2030</v>
-      </c>
-      <c r="U59" s="13">
         <v>2717</v>
       </c>
-      <c r="V59" s="13" t="s">
-        <v>57</v>
+      <c r="U59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V59" s="13">
+        <v>2165</v>
       </c>
       <c r="W59" s="13">
-        <v>2165</v>
+        <v>3464</v>
       </c>
       <c r="X59" s="13">
-        <v>3464</v>
+        <v>2745</v>
       </c>
       <c r="Y59" s="13">
-        <v>2745</v>
+        <v>2697</v>
       </c>
       <c r="Z59" s="13">
-        <v>2697</v>
+        <v>3596</v>
       </c>
       <c r="AA59" s="13">
-        <v>3596</v>
+        <v>3573</v>
       </c>
       <c r="AB59" s="13">
-        <v>3573</v>
+        <v>3323</v>
       </c>
       <c r="AC59" s="13">
-        <v>3323</v>
+        <v>3981</v>
       </c>
       <c r="AD59" s="13">
-        <v>3981</v>
+        <v>4572</v>
       </c>
       <c r="AE59" s="13">
-        <v>4572</v>
+        <v>5883</v>
       </c>
       <c r="AF59" s="13">
-        <v>5883</v>
+        <v>3920</v>
       </c>
       <c r="AG59" s="13">
-        <v>3920</v>
+        <v>632</v>
       </c>
       <c r="AH59" s="13">
-        <v>632</v>
+        <v>4547</v>
       </c>
       <c r="AI59" s="13">
-        <v>4547</v>
+        <v>7168</v>
       </c>
       <c r="AJ59" s="13">
-        <v>7168</v>
+        <v>60738</v>
       </c>
       <c r="AK59" s="13">
-        <v>60738</v>
+        <v>5312</v>
       </c>
       <c r="AL59" s="13">
-        <v>5312</v>
+        <v>4772</v>
       </c>
       <c r="AM59" s="13">
-        <v>4772</v>
+        <v>4780</v>
       </c>
       <c r="AN59" s="13">
-        <v>4780</v>
+        <v>6978</v>
       </c>
       <c r="AO59" s="13">
-        <v>6978</v>
+        <v>2488</v>
       </c>
       <c r="AP59" s="13">
-        <v>2488</v>
+        <v>5440</v>
       </c>
       <c r="AQ59" s="13">
-        <v>5440</v>
+        <v>3026</v>
       </c>
       <c r="AR59" s="13">
-        <v>3026</v>
+        <v>7998</v>
       </c>
       <c r="AS59" s="13">
-        <v>7998</v>
+        <v>5923</v>
       </c>
       <c r="AT59" s="13">
-        <v>5923</v>
+        <v>3354</v>
       </c>
       <c r="AU59" s="13">
-        <v>3354</v>
+        <v>5118</v>
       </c>
       <c r="AV59" s="13">
-        <v>5118</v>
+        <v>9112</v>
       </c>
       <c r="AW59" s="13">
-        <v>9112</v>
+        <v>5711</v>
       </c>
       <c r="AX59" s="13">
-        <v>5711</v>
+        <v>7885</v>
       </c>
       <c r="AY59" s="13">
-        <v>7885</v>
+        <v>7531</v>
       </c>
       <c r="AZ59" s="13">
-        <v>7531</v>
+        <v>8214</v>
       </c>
       <c r="BA59" s="13">
-        <v>8214</v>
+        <v>8030</v>
       </c>
       <c r="BB59" s="13">
-        <v>8030</v>
+        <v>11333</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7862,154 +7862,154 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>109322</v>
+        <v>117106</v>
       </c>
       <c r="F60" s="11">
-        <v>117106</v>
+        <v>125341</v>
       </c>
       <c r="G60" s="11">
-        <v>125341</v>
+        <v>113191</v>
       </c>
       <c r="H60" s="11">
-        <v>113191</v>
+        <v>115723</v>
       </c>
       <c r="I60" s="11">
-        <v>115723</v>
+        <v>113624</v>
       </c>
       <c r="J60" s="11">
-        <v>113624</v>
+        <v>113287</v>
       </c>
       <c r="K60" s="11">
-        <v>113287</v>
+        <v>99237</v>
       </c>
       <c r="L60" s="11">
-        <v>99237</v>
+        <v>104528</v>
       </c>
       <c r="M60" s="11">
-        <v>104528</v>
+        <v>103205</v>
       </c>
       <c r="N60" s="11">
-        <v>103205</v>
+        <v>113058</v>
       </c>
       <c r="O60" s="11">
-        <v>113058</v>
+        <v>121405</v>
       </c>
       <c r="P60" s="11">
-        <v>121405</v>
+        <v>149869</v>
       </c>
       <c r="Q60" s="11">
-        <v>149869</v>
+        <v>144163</v>
       </c>
       <c r="R60" s="11">
-        <v>144163</v>
+        <v>172360</v>
       </c>
       <c r="S60" s="11">
-        <v>172360</v>
+        <v>177692</v>
       </c>
       <c r="T60" s="11">
-        <v>177692</v>
-      </c>
-      <c r="U60" s="11">
         <v>168284</v>
       </c>
-      <c r="V60" s="11" t="s">
-        <v>57</v>
+      <c r="U60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V60" s="11">
+        <v>69791</v>
       </c>
       <c r="W60" s="11">
-        <v>69791</v>
+        <v>122876</v>
       </c>
       <c r="X60" s="11">
-        <v>122876</v>
+        <v>182342</v>
       </c>
       <c r="Y60" s="11">
-        <v>182342</v>
+        <v>121887</v>
       </c>
       <c r="Z60" s="11">
-        <v>121887</v>
+        <v>132660</v>
       </c>
       <c r="AA60" s="11">
-        <v>132660</v>
+        <v>145124</v>
       </c>
       <c r="AB60" s="11">
-        <v>145124</v>
+        <v>167809</v>
       </c>
       <c r="AC60" s="11">
-        <v>167809</v>
+        <v>185579</v>
       </c>
       <c r="AD60" s="11">
-        <v>185579</v>
+        <v>185852</v>
       </c>
       <c r="AE60" s="11">
-        <v>185852</v>
+        <v>237485</v>
       </c>
       <c r="AF60" s="11">
-        <v>237485</v>
+        <v>185541</v>
       </c>
       <c r="AG60" s="11">
-        <v>185541</v>
+        <v>288955</v>
       </c>
       <c r="AH60" s="11">
-        <v>288955</v>
+        <v>173889</v>
       </c>
       <c r="AI60" s="11">
-        <v>173889</v>
+        <v>176230</v>
       </c>
       <c r="AJ60" s="11">
-        <v>176230</v>
+        <v>176151</v>
       </c>
       <c r="AK60" s="11">
-        <v>176151</v>
+        <v>173479</v>
       </c>
       <c r="AL60" s="11">
-        <v>173479</v>
+        <v>194080</v>
       </c>
       <c r="AM60" s="11">
-        <v>194080</v>
+        <v>234992</v>
       </c>
       <c r="AN60" s="11">
-        <v>234992</v>
+        <v>253784</v>
       </c>
       <c r="AO60" s="11">
-        <v>253784</v>
+        <v>307531</v>
       </c>
       <c r="AP60" s="11">
-        <v>307531</v>
+        <v>369184</v>
       </c>
       <c r="AQ60" s="11">
-        <v>369184</v>
+        <v>271129</v>
       </c>
       <c r="AR60" s="11">
-        <v>271129</v>
+        <v>246789</v>
       </c>
       <c r="AS60" s="11">
-        <v>246789</v>
+        <v>236627</v>
       </c>
       <c r="AT60" s="11">
-        <v>236627</v>
+        <v>237213</v>
       </c>
       <c r="AU60" s="11">
-        <v>237213</v>
+        <v>269696</v>
       </c>
       <c r="AV60" s="11">
-        <v>269696</v>
+        <v>369703</v>
       </c>
       <c r="AW60" s="11">
-        <v>369703</v>
+        <v>434957</v>
       </c>
       <c r="AX60" s="11">
-        <v>434957</v>
+        <v>389340</v>
       </c>
       <c r="AY60" s="11">
-        <v>389340</v>
+        <v>394070</v>
       </c>
       <c r="AZ60" s="11">
-        <v>394070</v>
+        <v>459721</v>
       </c>
       <c r="BA60" s="11">
-        <v>459721</v>
+        <v>523819</v>
       </c>
       <c r="BB60" s="11">
-        <v>523819</v>
+        <v>541941</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8021,154 +8021,154 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>43352</v>
+        <v>39470</v>
       </c>
       <c r="F61" s="13">
-        <v>39470</v>
+        <v>42144</v>
       </c>
       <c r="G61" s="13">
-        <v>42144</v>
+        <v>23026</v>
       </c>
       <c r="H61" s="13">
-        <v>23026</v>
+        <v>33214</v>
       </c>
       <c r="I61" s="13">
-        <v>33214</v>
+        <v>21545</v>
       </c>
       <c r="J61" s="13">
-        <v>21545</v>
+        <v>28137</v>
       </c>
       <c r="K61" s="13">
-        <v>28137</v>
+        <v>66268</v>
       </c>
       <c r="L61" s="13">
-        <v>66268</v>
+        <v>74531</v>
       </c>
       <c r="M61" s="13">
-        <v>74531</v>
+        <v>79243</v>
       </c>
       <c r="N61" s="13">
-        <v>79243</v>
+        <v>49106</v>
       </c>
       <c r="O61" s="13">
-        <v>49106</v>
+        <v>45675</v>
       </c>
       <c r="P61" s="13">
-        <v>45675</v>
+        <v>100089</v>
       </c>
       <c r="Q61" s="13">
-        <v>100089</v>
+        <v>118697</v>
       </c>
       <c r="R61" s="13">
-        <v>118697</v>
+        <v>124595</v>
       </c>
       <c r="S61" s="13">
-        <v>124595</v>
+        <v>136158</v>
       </c>
       <c r="T61" s="13">
-        <v>136158</v>
-      </c>
-      <c r="U61" s="13">
         <v>226270</v>
       </c>
-      <c r="V61" s="13" t="s">
-        <v>57</v>
+      <c r="U61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V61" s="13">
+        <v>24846</v>
       </c>
       <c r="W61" s="13">
-        <v>24846</v>
+        <v>40922</v>
       </c>
       <c r="X61" s="13">
-        <v>40922</v>
+        <v>128052</v>
       </c>
       <c r="Y61" s="13">
-        <v>128052</v>
+        <v>62147</v>
       </c>
       <c r="Z61" s="13">
-        <v>62147</v>
+        <v>69917</v>
       </c>
       <c r="AA61" s="13">
-        <v>69917</v>
+        <v>93762</v>
       </c>
       <c r="AB61" s="13">
-        <v>93762</v>
+        <v>86896</v>
       </c>
       <c r="AC61" s="13">
-        <v>86896</v>
+        <v>108932</v>
       </c>
       <c r="AD61" s="13">
-        <v>108932</v>
+        <v>155633</v>
       </c>
       <c r="AE61" s="13">
-        <v>155633</v>
+        <v>121928</v>
       </c>
       <c r="AF61" s="13">
-        <v>121928</v>
+        <v>116762</v>
       </c>
       <c r="AG61" s="13">
-        <v>116762</v>
+        <v>89482</v>
       </c>
       <c r="AH61" s="13">
-        <v>89482</v>
+        <v>80919</v>
       </c>
       <c r="AI61" s="13">
-        <v>80919</v>
+        <v>61813</v>
       </c>
       <c r="AJ61" s="13">
-        <v>61813</v>
+        <v>47100</v>
       </c>
       <c r="AK61" s="13">
-        <v>47100</v>
+        <v>75672</v>
       </c>
       <c r="AL61" s="13">
-        <v>75672</v>
+        <v>53939</v>
       </c>
       <c r="AM61" s="13">
-        <v>53939</v>
+        <v>76395</v>
       </c>
       <c r="AN61" s="13">
-        <v>76395</v>
+        <v>86474</v>
       </c>
       <c r="AO61" s="13">
-        <v>86474</v>
+        <v>66704</v>
       </c>
       <c r="AP61" s="13">
-        <v>66704</v>
+        <v>91018</v>
       </c>
       <c r="AQ61" s="13">
-        <v>91018</v>
+        <v>104048</v>
       </c>
       <c r="AR61" s="13">
-        <v>104048</v>
+        <v>61267</v>
       </c>
       <c r="AS61" s="13">
-        <v>61267</v>
+        <v>154567</v>
       </c>
       <c r="AT61" s="13">
-        <v>154567</v>
+        <v>119681</v>
       </c>
       <c r="AU61" s="13">
-        <v>119681</v>
+        <v>71394</v>
       </c>
       <c r="AV61" s="13">
-        <v>71394</v>
+        <v>128928</v>
       </c>
       <c r="AW61" s="13">
-        <v>128928</v>
+        <v>274221</v>
       </c>
       <c r="AX61" s="13">
-        <v>274221</v>
+        <v>205927</v>
       </c>
       <c r="AY61" s="13">
-        <v>205927</v>
+        <v>213230</v>
       </c>
       <c r="AZ61" s="13">
-        <v>213230</v>
+        <v>239480</v>
       </c>
       <c r="BA61" s="13">
-        <v>239480</v>
+        <v>158213</v>
       </c>
       <c r="BB61" s="13">
-        <v>158213</v>
+        <v>201781</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8180,154 +8180,154 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>54323</v>
+        <v>47336</v>
       </c>
       <c r="F62" s="11">
-        <v>47336</v>
+        <v>46595</v>
       </c>
       <c r="G62" s="11">
-        <v>46595</v>
+        <v>48607</v>
       </c>
       <c r="H62" s="11">
-        <v>48607</v>
+        <v>49721</v>
       </c>
       <c r="I62" s="11">
-        <v>49721</v>
+        <v>43717</v>
       </c>
       <c r="J62" s="11">
-        <v>43717</v>
+        <v>59311</v>
       </c>
       <c r="K62" s="11">
-        <v>59311</v>
+        <v>62154</v>
       </c>
       <c r="L62" s="11">
-        <v>62154</v>
+        <v>63812</v>
       </c>
       <c r="M62" s="11">
-        <v>63812</v>
+        <v>83089</v>
       </c>
       <c r="N62" s="11">
-        <v>83089</v>
+        <v>76661</v>
       </c>
       <c r="O62" s="11">
-        <v>76661</v>
+        <v>69619</v>
       </c>
       <c r="P62" s="11">
-        <v>69619</v>
+        <v>68540</v>
       </c>
       <c r="Q62" s="11">
-        <v>68540</v>
+        <v>60842</v>
       </c>
       <c r="R62" s="11">
-        <v>60842</v>
+        <v>52820</v>
       </c>
       <c r="S62" s="11">
-        <v>52820</v>
+        <v>56095</v>
       </c>
       <c r="T62" s="11">
-        <v>56095</v>
-      </c>
-      <c r="U62" s="11">
         <v>60910</v>
       </c>
-      <c r="V62" s="11" t="s">
-        <v>57</v>
+      <c r="U62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V62" s="11">
+        <v>73043</v>
       </c>
       <c r="W62" s="11">
-        <v>73043</v>
+        <v>80567</v>
       </c>
       <c r="X62" s="11">
-        <v>80567</v>
+        <v>86577</v>
       </c>
       <c r="Y62" s="11">
-        <v>86577</v>
+        <v>94957</v>
       </c>
       <c r="Z62" s="11">
-        <v>94957</v>
+        <v>96407</v>
       </c>
       <c r="AA62" s="11">
-        <v>96407</v>
+        <v>93149</v>
       </c>
       <c r="AB62" s="11">
-        <v>93149</v>
+        <v>79445</v>
       </c>
       <c r="AC62" s="11">
-        <v>79445</v>
+        <v>76264</v>
       </c>
       <c r="AD62" s="11">
-        <v>76264</v>
+        <v>92072</v>
       </c>
       <c r="AE62" s="11">
-        <v>92072</v>
+        <v>96517</v>
       </c>
       <c r="AF62" s="11">
-        <v>96517</v>
+        <v>103839</v>
       </c>
       <c r="AG62" s="11">
-        <v>103839</v>
+        <v>115312</v>
       </c>
       <c r="AH62" s="11">
-        <v>115312</v>
+        <v>140015</v>
       </c>
       <c r="AI62" s="11">
-        <v>140015</v>
+        <v>129872</v>
       </c>
       <c r="AJ62" s="11">
-        <v>129872</v>
+        <v>154105</v>
       </c>
       <c r="AK62" s="11">
-        <v>154105</v>
+        <v>162073</v>
       </c>
       <c r="AL62" s="11">
-        <v>162073</v>
+        <v>149926</v>
       </c>
       <c r="AM62" s="11">
-        <v>149926</v>
+        <v>177580</v>
       </c>
       <c r="AN62" s="11">
-        <v>177580</v>
+        <v>149679</v>
       </c>
       <c r="AO62" s="11">
-        <v>149679</v>
+        <v>141875</v>
       </c>
       <c r="AP62" s="11">
-        <v>141875</v>
+        <v>129102</v>
       </c>
       <c r="AQ62" s="11">
-        <v>129102</v>
+        <v>124947</v>
       </c>
       <c r="AR62" s="11">
-        <v>124947</v>
+        <v>145480</v>
       </c>
       <c r="AS62" s="11">
-        <v>145480</v>
+        <v>174302</v>
       </c>
       <c r="AT62" s="11">
-        <v>174302</v>
+        <v>196260</v>
       </c>
       <c r="AU62" s="11">
-        <v>196260</v>
+        <v>181695</v>
       </c>
       <c r="AV62" s="11">
-        <v>181695</v>
+        <v>308028</v>
       </c>
       <c r="AW62" s="11">
-        <v>308028</v>
+        <v>270018</v>
       </c>
       <c r="AX62" s="11">
-        <v>270018</v>
+        <v>297226</v>
       </c>
       <c r="AY62" s="11">
-        <v>297226</v>
+        <v>278729</v>
       </c>
       <c r="AZ62" s="11">
-        <v>278729</v>
+        <v>250866</v>
       </c>
       <c r="BA62" s="11">
-        <v>250866</v>
+        <v>270141</v>
       </c>
       <c r="BB62" s="11">
-        <v>270141</v>
+        <v>206575</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8339,154 +8339,154 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>83298</v>
+        <v>66752</v>
       </c>
       <c r="F63" s="13">
-        <v>66752</v>
+        <v>67894</v>
       </c>
       <c r="G63" s="13">
-        <v>67894</v>
+        <v>79213</v>
       </c>
       <c r="H63" s="13">
-        <v>79213</v>
+        <v>98953</v>
       </c>
       <c r="I63" s="13">
-        <v>98953</v>
+        <v>65025</v>
       </c>
       <c r="J63" s="13">
-        <v>65025</v>
+        <v>84337</v>
       </c>
       <c r="K63" s="13">
-        <v>84337</v>
+        <v>90253</v>
       </c>
       <c r="L63" s="13">
-        <v>90253</v>
+        <v>73996</v>
       </c>
       <c r="M63" s="13">
-        <v>73996</v>
+        <v>86686</v>
       </c>
       <c r="N63" s="13">
-        <v>86686</v>
+        <v>95943</v>
       </c>
       <c r="O63" s="13">
-        <v>95943</v>
+        <v>102045</v>
       </c>
       <c r="P63" s="13">
-        <v>102045</v>
+        <v>82601</v>
       </c>
       <c r="Q63" s="13">
-        <v>82601</v>
+        <v>101593</v>
       </c>
       <c r="R63" s="13">
-        <v>101593</v>
+        <v>78951</v>
       </c>
       <c r="S63" s="13">
-        <v>78951</v>
+        <v>83574</v>
       </c>
       <c r="T63" s="13">
-        <v>83574</v>
-      </c>
-      <c r="U63" s="13">
         <v>79448</v>
       </c>
-      <c r="V63" s="13" t="s">
-        <v>57</v>
+      <c r="U63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V63" s="13">
+        <v>77529</v>
       </c>
       <c r="W63" s="13">
-        <v>77529</v>
+        <v>100441</v>
       </c>
       <c r="X63" s="13">
-        <v>100441</v>
+        <v>105831</v>
       </c>
       <c r="Y63" s="13">
-        <v>105831</v>
+        <v>129740</v>
       </c>
       <c r="Z63" s="13">
-        <v>129740</v>
+        <v>130365</v>
       </c>
       <c r="AA63" s="13">
-        <v>130365</v>
+        <v>118621</v>
       </c>
       <c r="AB63" s="13">
-        <v>118621</v>
+        <v>73158</v>
       </c>
       <c r="AC63" s="13">
-        <v>73158</v>
+        <v>94857</v>
       </c>
       <c r="AD63" s="13">
-        <v>94857</v>
+        <v>116023</v>
       </c>
       <c r="AE63" s="13">
-        <v>116023</v>
+        <v>147835</v>
       </c>
       <c r="AF63" s="13">
-        <v>147835</v>
+        <v>128504</v>
       </c>
       <c r="AG63" s="13">
-        <v>128504</v>
+        <v>118801</v>
       </c>
       <c r="AH63" s="13">
-        <v>118801</v>
+        <v>139778</v>
       </c>
       <c r="AI63" s="13">
-        <v>139778</v>
+        <v>139942</v>
       </c>
       <c r="AJ63" s="13">
-        <v>139942</v>
+        <v>127350</v>
       </c>
       <c r="AK63" s="13">
-        <v>127350</v>
+        <v>173600</v>
       </c>
       <c r="AL63" s="13">
-        <v>173600</v>
+        <v>145011</v>
       </c>
       <c r="AM63" s="13">
-        <v>145011</v>
+        <v>195894</v>
       </c>
       <c r="AN63" s="13">
-        <v>195894</v>
+        <v>168720</v>
       </c>
       <c r="AO63" s="13">
-        <v>168720</v>
+        <v>186597</v>
       </c>
       <c r="AP63" s="13">
-        <v>186597</v>
+        <v>167854</v>
       </c>
       <c r="AQ63" s="13">
-        <v>167854</v>
+        <v>145656</v>
       </c>
       <c r="AR63" s="13">
-        <v>145656</v>
+        <v>125182</v>
       </c>
       <c r="AS63" s="13">
-        <v>125182</v>
+        <v>173774</v>
       </c>
       <c r="AT63" s="13">
-        <v>173774</v>
+        <v>143584</v>
       </c>
       <c r="AU63" s="13">
-        <v>143584</v>
+        <v>211745</v>
       </c>
       <c r="AV63" s="13">
-        <v>211745</v>
+        <v>301171</v>
       </c>
       <c r="AW63" s="13">
-        <v>301171</v>
+        <v>253232</v>
       </c>
       <c r="AX63" s="13">
-        <v>253232</v>
+        <v>311621</v>
       </c>
       <c r="AY63" s="13">
-        <v>311621</v>
+        <v>287745</v>
       </c>
       <c r="AZ63" s="13">
-        <v>287745</v>
+        <v>272354</v>
       </c>
       <c r="BA63" s="13">
-        <v>272354</v>
+        <v>188880</v>
       </c>
       <c r="BB63" s="13">
-        <v>188880</v>
+        <v>208403</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8498,154 +8498,154 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>25113</v>
+        <v>16092</v>
       </c>
       <c r="F64" s="11">
-        <v>16092</v>
+        <v>23437</v>
       </c>
       <c r="G64" s="11">
-        <v>23437</v>
+        <v>10720</v>
       </c>
       <c r="H64" s="11">
-        <v>10720</v>
+        <v>19704</v>
       </c>
       <c r="I64" s="11">
-        <v>19704</v>
+        <v>11846</v>
       </c>
       <c r="J64" s="11">
-        <v>11846</v>
+        <v>32668</v>
       </c>
       <c r="K64" s="11">
-        <v>32668</v>
+        <v>2354</v>
       </c>
       <c r="L64" s="11">
-        <v>2354</v>
+        <v>9251</v>
       </c>
       <c r="M64" s="11">
-        <v>9251</v>
+        <v>11881</v>
       </c>
       <c r="N64" s="11">
-        <v>11881</v>
+        <v>9452</v>
       </c>
       <c r="O64" s="11">
-        <v>9452</v>
+        <v>7822</v>
       </c>
       <c r="P64" s="11">
-        <v>7822</v>
+        <v>22811</v>
       </c>
       <c r="Q64" s="11">
-        <v>22811</v>
+        <v>10231</v>
       </c>
       <c r="R64" s="11">
-        <v>10231</v>
+        <v>8995</v>
       </c>
       <c r="S64" s="11">
-        <v>8995</v>
+        <v>4086</v>
       </c>
       <c r="T64" s="11">
-        <v>4086</v>
-      </c>
-      <c r="U64" s="11">
         <v>12914</v>
       </c>
-      <c r="V64" s="11" t="s">
-        <v>57</v>
+      <c r="U64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V64" s="11">
+        <v>5326</v>
       </c>
       <c r="W64" s="11">
-        <v>5326</v>
+        <v>22702</v>
       </c>
       <c r="X64" s="11">
-        <v>22702</v>
+        <v>22904</v>
       </c>
       <c r="Y64" s="11">
-        <v>22904</v>
+        <v>16173</v>
       </c>
       <c r="Z64" s="11">
-        <v>16173</v>
+        <v>6410</v>
       </c>
       <c r="AA64" s="11">
-        <v>6410</v>
+        <v>31436</v>
       </c>
       <c r="AB64" s="11">
-        <v>31436</v>
+        <v>31557</v>
       </c>
       <c r="AC64" s="11">
-        <v>31557</v>
+        <v>36592</v>
       </c>
       <c r="AD64" s="11">
-        <v>36592</v>
+        <v>56165</v>
       </c>
       <c r="AE64" s="11">
-        <v>56165</v>
+        <v>15284</v>
       </c>
       <c r="AF64" s="11">
-        <v>15284</v>
+        <v>21132</v>
       </c>
       <c r="AG64" s="11">
-        <v>21132</v>
+        <v>28971</v>
       </c>
       <c r="AH64" s="11">
-        <v>28971</v>
+        <v>17678</v>
       </c>
       <c r="AI64" s="11">
-        <v>17678</v>
+        <v>18837</v>
       </c>
       <c r="AJ64" s="11">
-        <v>18837</v>
+        <v>8561</v>
       </c>
       <c r="AK64" s="11">
-        <v>8561</v>
+        <v>15527</v>
       </c>
       <c r="AL64" s="11">
-        <v>15527</v>
+        <v>45634</v>
       </c>
       <c r="AM64" s="11">
-        <v>45634</v>
+        <v>53651</v>
       </c>
       <c r="AN64" s="11">
-        <v>53651</v>
+        <v>23614</v>
       </c>
       <c r="AO64" s="11">
-        <v>23614</v>
+        <v>32109</v>
       </c>
       <c r="AP64" s="11">
-        <v>32109</v>
+        <v>50298</v>
       </c>
       <c r="AQ64" s="11">
-        <v>50298</v>
+        <v>28196</v>
       </c>
       <c r="AR64" s="11">
-        <v>28196</v>
+        <v>6560</v>
       </c>
       <c r="AS64" s="11">
-        <v>6560</v>
+        <v>65469</v>
       </c>
       <c r="AT64" s="11">
-        <v>65469</v>
+        <v>229861</v>
       </c>
       <c r="AU64" s="11">
-        <v>229861</v>
+        <v>111435</v>
       </c>
       <c r="AV64" s="11">
-        <v>111435</v>
+        <v>39228</v>
       </c>
       <c r="AW64" s="11">
-        <v>39228</v>
+        <v>304620</v>
       </c>
       <c r="AX64" s="11">
-        <v>304620</v>
+        <v>106890</v>
       </c>
       <c r="AY64" s="11">
-        <v>106890</v>
+        <v>170034</v>
       </c>
       <c r="AZ64" s="11">
-        <v>170034</v>
+        <v>401836</v>
       </c>
       <c r="BA64" s="11">
-        <v>401836</v>
+        <v>315556</v>
       </c>
       <c r="BB64" s="11">
-        <v>315556</v>
+        <v>337818</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8657,154 +8657,154 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>21830</v>
+        <v>28012</v>
       </c>
       <c r="F65" s="13">
-        <v>28012</v>
+        <v>13315</v>
       </c>
       <c r="G65" s="13">
-        <v>13315</v>
+        <v>105358</v>
       </c>
       <c r="H65" s="13">
-        <v>105358</v>
+        <v>24498</v>
       </c>
       <c r="I65" s="13">
-        <v>24498</v>
+        <v>39886</v>
       </c>
       <c r="J65" s="13">
-        <v>39886</v>
+        <v>12550</v>
       </c>
       <c r="K65" s="13">
-        <v>12550</v>
+        <v>63059</v>
       </c>
       <c r="L65" s="13">
-        <v>63059</v>
+        <v>34224</v>
       </c>
       <c r="M65" s="13">
-        <v>34224</v>
+        <v>25015</v>
       </c>
       <c r="N65" s="13">
-        <v>25015</v>
+        <v>20569</v>
       </c>
       <c r="O65" s="13">
-        <v>20569</v>
+        <v>25762</v>
       </c>
       <c r="P65" s="13">
-        <v>25762</v>
+        <v>20752</v>
       </c>
       <c r="Q65" s="13">
-        <v>20752</v>
+        <v>23597</v>
       </c>
       <c r="R65" s="13">
-        <v>23597</v>
+        <v>29678</v>
       </c>
       <c r="S65" s="13">
-        <v>29678</v>
+        <v>13027</v>
       </c>
       <c r="T65" s="13">
-        <v>13027</v>
-      </c>
-      <c r="U65" s="13">
         <v>17905</v>
       </c>
-      <c r="V65" s="13" t="s">
-        <v>57</v>
+      <c r="U65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V65" s="13">
+        <v>25876</v>
       </c>
       <c r="W65" s="13">
-        <v>25876</v>
+        <v>61835</v>
       </c>
       <c r="X65" s="13">
-        <v>61835</v>
+        <v>56866</v>
       </c>
       <c r="Y65" s="13">
-        <v>56866</v>
+        <v>67098</v>
       </c>
       <c r="Z65" s="13">
-        <v>67098</v>
+        <v>95674</v>
       </c>
       <c r="AA65" s="13">
-        <v>95674</v>
+        <v>28362</v>
       </c>
       <c r="AB65" s="13">
-        <v>28362</v>
+        <v>25380</v>
       </c>
       <c r="AC65" s="13">
-        <v>25380</v>
+        <v>26199</v>
       </c>
       <c r="AD65" s="13">
-        <v>26199</v>
+        <v>46704</v>
       </c>
       <c r="AE65" s="13">
-        <v>46704</v>
+        <v>50627</v>
       </c>
       <c r="AF65" s="13">
-        <v>50627</v>
+        <v>22594</v>
       </c>
       <c r="AG65" s="13">
-        <v>22594</v>
+        <v>138934</v>
       </c>
       <c r="AH65" s="13">
-        <v>138934</v>
+        <v>34153</v>
       </c>
       <c r="AI65" s="13">
-        <v>34153</v>
+        <v>41723</v>
       </c>
       <c r="AJ65" s="13">
-        <v>41723</v>
+        <v>86498</v>
       </c>
       <c r="AK65" s="13">
-        <v>86498</v>
+        <v>144255</v>
       </c>
       <c r="AL65" s="13">
-        <v>144255</v>
+        <v>89327</v>
       </c>
       <c r="AM65" s="13">
-        <v>89327</v>
+        <v>98615</v>
       </c>
       <c r="AN65" s="13">
-        <v>98615</v>
+        <v>131104</v>
       </c>
       <c r="AO65" s="13">
-        <v>131104</v>
+        <v>139543</v>
       </c>
       <c r="AP65" s="13">
-        <v>139543</v>
+        <v>114893</v>
       </c>
       <c r="AQ65" s="13">
-        <v>114893</v>
+        <v>120711</v>
       </c>
       <c r="AR65" s="13">
-        <v>120711</v>
+        <v>115427</v>
       </c>
       <c r="AS65" s="13">
-        <v>115427</v>
+        <v>272339</v>
       </c>
       <c r="AT65" s="13">
-        <v>272339</v>
+        <v>221316</v>
       </c>
       <c r="AU65" s="13">
-        <v>221316</v>
+        <v>106861</v>
       </c>
       <c r="AV65" s="13">
-        <v>106861</v>
+        <v>69614</v>
       </c>
       <c r="AW65" s="13">
-        <v>69614</v>
+        <v>69078</v>
       </c>
       <c r="AX65" s="13">
-        <v>69078</v>
+        <v>344727</v>
       </c>
       <c r="AY65" s="13">
-        <v>344727</v>
+        <v>165773</v>
       </c>
       <c r="AZ65" s="13">
-        <v>165773</v>
+        <v>298780</v>
       </c>
       <c r="BA65" s="13">
-        <v>298780</v>
+        <v>297850</v>
       </c>
       <c r="BB65" s="13">
-        <v>297850</v>
+        <v>368615</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8902,8 +8902,8 @@
       <c r="AG66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH66" s="11" t="s">
-        <v>57</v>
+      <c r="AH66" s="11">
+        <v>0</v>
       </c>
       <c r="AI66" s="11">
         <v>0</v>
@@ -8935,8 +8935,8 @@
       <c r="AR66" s="11">
         <v>0</v>
       </c>
-      <c r="AS66" s="11">
-        <v>0</v>
+      <c r="AS66" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT66" s="11" t="s">
         <v>57</v>
@@ -9061,14 +9061,14 @@
       <c r="AG67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH67" s="13" t="s">
-        <v>57</v>
+      <c r="AH67" s="13">
+        <v>0</v>
       </c>
       <c r="AI67" s="13">
         <v>0</v>
       </c>
-      <c r="AJ67" s="13">
-        <v>0</v>
+      <c r="AJ67" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK67" s="13" t="s">
         <v>57</v>
@@ -9220,8 +9220,8 @@
       <c r="AG68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>57</v>
+      <c r="AH68" s="11">
+        <v>0</v>
       </c>
       <c r="AI68" s="11">
         <v>0</v>
@@ -9253,8 +9253,8 @@
       <c r="AR68" s="11">
         <v>0</v>
       </c>
-      <c r="AS68" s="11">
-        <v>0</v>
+      <c r="AS68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT68" s="11" t="s">
         <v>57</v>
@@ -9379,8 +9379,8 @@
       <c r="AG69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH69" s="13" t="s">
-        <v>57</v>
+      <c r="AH69" s="13">
+        <v>0</v>
       </c>
       <c r="AI69" s="13">
         <v>0</v>
@@ -9412,8 +9412,8 @@
       <c r="AR69" s="13">
         <v>0</v>
       </c>
-      <c r="AS69" s="13">
-        <v>0</v>
+      <c r="AS69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT69" s="13" t="s">
         <v>57</v>
@@ -9595,8 +9595,8 @@
       <c r="AG71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH71" s="11" t="s">
-        <v>57</v>
+      <c r="AH71" s="11">
+        <v>0</v>
       </c>
       <c r="AI71" s="11">
         <v>0</v>
@@ -9727,8 +9727,8 @@
       <c r="X72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y72" s="15" t="s">
-        <v>57</v>
+      <c r="Y72" s="15">
+        <v>0</v>
       </c>
       <c r="Z72" s="15">
         <v>0</v>
@@ -10006,8 +10006,8 @@
       <c r="AS74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT74" s="11" t="s">
-        <v>57</v>
+      <c r="AT74" s="11">
+        <v>0</v>
       </c>
       <c r="AU74" s="11">
         <v>0</v>
@@ -10102,8 +10102,8 @@
       <c r="X75" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y75" s="15" t="s">
-        <v>57</v>
+      <c r="Y75" s="15">
+        <v>0</v>
       </c>
       <c r="Z75" s="15">
         <v>0</v>
@@ -10318,8 +10318,8 @@
       <c r="X77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>57</v>
+      <c r="Y77" s="11">
+        <v>0</v>
       </c>
       <c r="Z77" s="11">
         <v>0</v>
@@ -10416,154 +10416,154 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>361072</v>
+        <v>335922</v>
       </c>
       <c r="F78" s="15">
-        <v>335922</v>
+        <v>337182</v>
       </c>
       <c r="G78" s="15">
-        <v>337182</v>
+        <v>404820</v>
       </c>
       <c r="H78" s="15">
-        <v>404820</v>
+        <v>374609</v>
       </c>
       <c r="I78" s="15">
-        <v>374609</v>
+        <v>309601</v>
       </c>
       <c r="J78" s="15">
-        <v>309601</v>
+        <v>361492</v>
       </c>
       <c r="K78" s="15">
-        <v>361492</v>
+        <v>420089</v>
       </c>
       <c r="L78" s="15">
-        <v>420089</v>
+        <v>392374</v>
       </c>
       <c r="M78" s="15">
-        <v>392374</v>
+        <v>426452</v>
       </c>
       <c r="N78" s="15">
-        <v>426452</v>
+        <v>398913</v>
       </c>
       <c r="O78" s="15">
-        <v>398913</v>
+        <v>402198</v>
       </c>
       <c r="P78" s="15">
-        <v>402198</v>
+        <v>472392</v>
       </c>
       <c r="Q78" s="15">
-        <v>472392</v>
+        <v>484152</v>
       </c>
       <c r="R78" s="15">
-        <v>484152</v>
+        <v>490511</v>
       </c>
       <c r="S78" s="15">
-        <v>490511</v>
+        <v>492322</v>
       </c>
       <c r="T78" s="15">
-        <v>492322</v>
+        <v>591872</v>
       </c>
       <c r="U78" s="15">
-        <v>591872</v>
+        <v>0</v>
       </c>
       <c r="V78" s="15">
-        <v>0</v>
+        <v>313808</v>
       </c>
       <c r="W78" s="15">
-        <v>313808</v>
+        <v>464429</v>
       </c>
       <c r="X78" s="15">
-        <v>464429</v>
+        <v>618799</v>
       </c>
       <c r="Y78" s="15">
-        <v>618799</v>
+        <v>533484</v>
       </c>
       <c r="Z78" s="15">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="AA78" s="15">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="AB78" s="15">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="AC78" s="15">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="AD78" s="15">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="AE78" s="15">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AF78" s="15">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AG78" s="15">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AH78" s="15">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AI78" s="15">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AJ78" s="15">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AK78" s="15">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AL78" s="15">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AM78" s="15">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AN78" s="15">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AO78" s="15">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AP78" s="15">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AQ78" s="15">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AR78" s="15">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AS78" s="15">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AT78" s="15">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AU78" s="15">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AV78" s="15">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AW78" s="15">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AX78" s="15">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AY78" s="15">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AZ78" s="15">
-        <v>1597792</v>
+        <v>1998705</v>
       </c>
       <c r="BA78" s="15">
-        <v>1998705</v>
+        <v>1827960</v>
       </c>
       <c r="BB78" s="15">
-        <v>1827960</v>
+        <v>1941412</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -11009,154 +11009,154 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>23181720</v>
+        <v>24642214</v>
       </c>
       <c r="F85" s="11">
-        <v>24642214</v>
+        <v>24635965</v>
       </c>
       <c r="G85" s="11">
-        <v>24635965</v>
+        <v>23901604</v>
       </c>
       <c r="H85" s="11">
-        <v>23901604</v>
+        <v>23460665</v>
       </c>
       <c r="I85" s="11">
-        <v>23460665</v>
+        <v>20200303</v>
       </c>
       <c r="J85" s="11">
-        <v>20200303</v>
+        <v>23941795</v>
       </c>
       <c r="K85" s="11">
-        <v>23941795</v>
+        <v>23635229</v>
       </c>
       <c r="L85" s="11">
-        <v>23635229</v>
+        <v>24360264</v>
       </c>
       <c r="M85" s="11">
-        <v>24360264</v>
+        <v>28048973</v>
       </c>
       <c r="N85" s="11">
-        <v>28048973</v>
+        <v>27557070</v>
       </c>
       <c r="O85" s="11">
-        <v>27557070</v>
+        <v>29004141</v>
       </c>
       <c r="P85" s="11">
-        <v>29004141</v>
+        <v>29462704</v>
       </c>
       <c r="Q85" s="11">
-        <v>29462704</v>
+        <v>29715223</v>
       </c>
       <c r="R85" s="11">
-        <v>29715223</v>
+        <v>29981481</v>
       </c>
       <c r="S85" s="11">
-        <v>29981481</v>
+        <v>29923896</v>
       </c>
       <c r="T85" s="11">
-        <v>29923896</v>
-      </c>
-      <c r="U85" s="11">
         <v>29915709</v>
       </c>
-      <c r="V85" s="11" t="s">
-        <v>57</v>
+      <c r="U85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V85" s="11">
+        <v>29807107</v>
       </c>
       <c r="W85" s="11">
-        <v>29807107</v>
+        <v>29973460</v>
       </c>
       <c r="X85" s="11">
-        <v>29973460</v>
+        <v>30689276</v>
       </c>
       <c r="Y85" s="11">
-        <v>30689276</v>
+        <v>33755440</v>
       </c>
       <c r="Z85" s="11">
-        <v>33755440</v>
+        <v>35165579</v>
       </c>
       <c r="AA85" s="11">
-        <v>35165579</v>
+        <v>35281086</v>
       </c>
       <c r="AB85" s="11">
-        <v>35281086</v>
+        <v>34426600</v>
       </c>
       <c r="AC85" s="11">
-        <v>34426600</v>
+        <v>36081191</v>
       </c>
       <c r="AD85" s="11">
-        <v>36081191</v>
+        <v>41634278</v>
       </c>
       <c r="AE85" s="11">
-        <v>41634278</v>
+        <v>45865885</v>
       </c>
       <c r="AF85" s="11">
-        <v>45865885</v>
+        <v>43721120</v>
       </c>
       <c r="AG85" s="11">
-        <v>43721120</v>
+        <v>42080285</v>
       </c>
       <c r="AH85" s="11">
-        <v>42080285</v>
+        <v>42783912</v>
       </c>
       <c r="AI85" s="11">
-        <v>42783912</v>
+        <v>46548708</v>
       </c>
       <c r="AJ85" s="11">
-        <v>46548708</v>
+        <v>51704396</v>
       </c>
       <c r="AK85" s="11">
-        <v>51704396</v>
+        <v>61650391</v>
       </c>
       <c r="AL85" s="11">
-        <v>61650391</v>
+        <v>56627034</v>
       </c>
       <c r="AM85" s="11">
-        <v>56627034</v>
+        <v>65842569</v>
       </c>
       <c r="AN85" s="11">
-        <v>65842569</v>
+        <v>62139731</v>
       </c>
       <c r="AO85" s="11">
-        <v>62139731</v>
+        <v>64436155</v>
       </c>
       <c r="AP85" s="11">
-        <v>64436155</v>
+        <v>65715054</v>
       </c>
       <c r="AQ85" s="11">
-        <v>65715054</v>
+        <v>66624791</v>
       </c>
       <c r="AR85" s="11">
-        <v>66624791</v>
+        <v>66735043</v>
       </c>
       <c r="AS85" s="11">
-        <v>66735043</v>
+        <v>66392593</v>
       </c>
       <c r="AT85" s="11">
-        <v>66392593</v>
+        <v>68327497</v>
       </c>
       <c r="AU85" s="11">
-        <v>68327497</v>
+        <v>73707883</v>
       </c>
       <c r="AV85" s="11">
-        <v>73707883</v>
+        <v>107613014</v>
       </c>
       <c r="AW85" s="11">
-        <v>107613014</v>
+        <v>104074278</v>
       </c>
       <c r="AX85" s="11">
-        <v>104074278</v>
+        <v>105021429</v>
       </c>
       <c r="AY85" s="11">
-        <v>105021429</v>
+        <v>103969072</v>
       </c>
       <c r="AZ85" s="11">
-        <v>103969072</v>
+        <v>103298622</v>
       </c>
       <c r="BA85" s="11">
-        <v>103298622</v>
+        <v>103593354</v>
       </c>
       <c r="BB85" s="11">
-        <v>103593354</v>
+        <v>105431818</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11168,154 +11168,154 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>91000000</v>
+        <v>95571429</v>
       </c>
       <c r="F86" s="13">
-        <v>95571429</v>
+        <v>94411765</v>
       </c>
       <c r="G86" s="13">
-        <v>94411765</v>
+        <v>94280000</v>
       </c>
       <c r="H86" s="13">
-        <v>94280000</v>
+        <v>96725000</v>
       </c>
       <c r="I86" s="13">
-        <v>96725000</v>
+        <v>107666667</v>
       </c>
       <c r="J86" s="13">
-        <v>107666667</v>
+        <v>93294118</v>
       </c>
       <c r="K86" s="13">
-        <v>93294118</v>
+        <v>95785714</v>
       </c>
       <c r="L86" s="13">
-        <v>95785714</v>
+        <v>91962963</v>
       </c>
       <c r="M86" s="13">
-        <v>91962963</v>
+        <v>107235294</v>
       </c>
       <c r="N86" s="13">
-        <v>107235294</v>
+        <v>104235294</v>
       </c>
       <c r="O86" s="13">
-        <v>104235294</v>
+        <v>102888889</v>
       </c>
       <c r="P86" s="13">
-        <v>102888889</v>
+        <v>106565217</v>
       </c>
       <c r="Q86" s="13">
-        <v>106565217</v>
+        <v>113619048</v>
       </c>
       <c r="R86" s="13">
-        <v>113619048</v>
+        <v>121470588</v>
       </c>
       <c r="S86" s="13">
-        <v>121470588</v>
+        <v>119411765</v>
       </c>
       <c r="T86" s="13">
-        <v>119411765</v>
-      </c>
-      <c r="U86" s="13">
         <v>118130435</v>
       </c>
-      <c r="V86" s="13" t="s">
-        <v>57</v>
+      <c r="U86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V86" s="13">
+        <v>120277778</v>
       </c>
       <c r="W86" s="13">
-        <v>120277778</v>
+        <v>119448276</v>
       </c>
       <c r="X86" s="13">
-        <v>119448276</v>
+        <v>124772727</v>
       </c>
       <c r="Y86" s="13">
-        <v>124772727</v>
+        <v>141947368</v>
       </c>
       <c r="Z86" s="13">
-        <v>141947368</v>
+        <v>149833333</v>
       </c>
       <c r="AA86" s="13">
-        <v>149833333</v>
+        <v>148875000</v>
       </c>
       <c r="AB86" s="13">
-        <v>148875000</v>
+        <v>138458333</v>
       </c>
       <c r="AC86" s="13">
-        <v>138458333</v>
+        <v>189571429</v>
       </c>
       <c r="AD86" s="13">
-        <v>189571429</v>
+        <v>147483871</v>
       </c>
       <c r="AE86" s="13">
-        <v>147483871</v>
+        <v>168085714</v>
       </c>
       <c r="AF86" s="13">
-        <v>168085714</v>
+        <v>145185185</v>
       </c>
       <c r="AG86" s="13">
-        <v>145185185</v>
+        <v>5851852</v>
       </c>
       <c r="AH86" s="13">
-        <v>5851852</v>
+        <v>174884615</v>
       </c>
       <c r="AI86" s="13">
-        <v>174884615</v>
+        <v>89600000</v>
       </c>
       <c r="AJ86" s="13">
-        <v>89600000</v>
+        <v>164601626</v>
       </c>
       <c r="AK86" s="13">
-        <v>164601626</v>
+        <v>408615385</v>
       </c>
       <c r="AL86" s="13">
-        <v>408615385</v>
+        <v>238600000</v>
       </c>
       <c r="AM86" s="13">
-        <v>238600000</v>
+        <v>239000000</v>
       </c>
       <c r="AN86" s="13">
-        <v>239000000</v>
+        <v>240620690</v>
       </c>
       <c r="AO86" s="13">
-        <v>240620690</v>
+        <v>248800000</v>
       </c>
       <c r="AP86" s="13">
-        <v>248800000</v>
+        <v>247272727</v>
       </c>
       <c r="AQ86" s="13">
-        <v>247272727</v>
+        <v>216142857</v>
       </c>
       <c r="AR86" s="13">
-        <v>216142857</v>
+        <v>258000000</v>
       </c>
       <c r="AS86" s="13">
+        <v>269227273</v>
+      </c>
+      <c r="AT86" s="13">
         <v>258000000</v>
       </c>
-      <c r="AT86" s="13">
-        <v>269227273</v>
-      </c>
       <c r="AU86" s="13">
-        <v>258000000</v>
+        <v>284333333</v>
       </c>
       <c r="AV86" s="13">
-        <v>284333333</v>
+        <v>479578947</v>
       </c>
       <c r="AW86" s="13">
-        <v>479578947</v>
+        <v>407928571</v>
       </c>
       <c r="AX86" s="13">
-        <v>407928571</v>
+        <v>438055556</v>
       </c>
       <c r="AY86" s="13">
-        <v>438055556</v>
+        <v>418388889</v>
       </c>
       <c r="AZ86" s="13">
-        <v>418388889</v>
+        <v>432315789</v>
       </c>
       <c r="BA86" s="13">
-        <v>432315789</v>
+        <v>401500000</v>
       </c>
       <c r="BB86" s="13">
-        <v>401500000</v>
+        <v>566650000</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11327,154 +11327,154 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>30058290</v>
+        <v>32048714</v>
       </c>
       <c r="F87" s="11">
-        <v>32048714</v>
+        <v>34032311</v>
       </c>
       <c r="G87" s="11">
-        <v>34032311</v>
+        <v>34583257</v>
       </c>
       <c r="H87" s="11">
-        <v>34583257</v>
+        <v>34523568</v>
       </c>
       <c r="I87" s="11">
-        <v>34523568</v>
+        <v>35145067</v>
       </c>
       <c r="J87" s="11">
-        <v>35145067</v>
+        <v>35226057</v>
       </c>
       <c r="K87" s="11">
-        <v>35226057</v>
+        <v>33996917</v>
       </c>
       <c r="L87" s="11">
-        <v>33996917</v>
+        <v>30770680</v>
       </c>
       <c r="M87" s="11">
-        <v>30770680</v>
+        <v>41648507</v>
       </c>
       <c r="N87" s="11">
-        <v>41648507</v>
+        <v>43135444</v>
       </c>
       <c r="O87" s="11">
-        <v>43135444</v>
+        <v>43576813</v>
       </c>
       <c r="P87" s="11">
-        <v>43576813</v>
+        <v>44603869</v>
       </c>
       <c r="Q87" s="11">
-        <v>44603869</v>
+        <v>44262512</v>
       </c>
       <c r="R87" s="11">
-        <v>44262512</v>
+        <v>42421856</v>
       </c>
       <c r="S87" s="11">
-        <v>42421856</v>
+        <v>38797380</v>
       </c>
       <c r="T87" s="11">
-        <v>38797380</v>
-      </c>
-      <c r="U87" s="11">
         <v>38792992</v>
       </c>
-      <c r="V87" s="11" t="s">
-        <v>57</v>
+      <c r="U87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V87" s="11">
+        <v>34295332</v>
       </c>
       <c r="W87" s="11">
-        <v>34295332</v>
+        <v>36811264</v>
       </c>
       <c r="X87" s="11">
-        <v>36811264</v>
+        <v>37227848</v>
       </c>
       <c r="Y87" s="11">
-        <v>37227848</v>
+        <v>53063561</v>
       </c>
       <c r="Z87" s="11">
-        <v>53063561</v>
+        <v>59568927</v>
       </c>
       <c r="AA87" s="11">
-        <v>59568927</v>
+        <v>65815873</v>
       </c>
       <c r="AB87" s="11">
-        <v>65815873</v>
+        <v>60888607</v>
       </c>
       <c r="AC87" s="11">
-        <v>60888607</v>
+        <v>50857495</v>
       </c>
       <c r="AD87" s="11">
-        <v>50857495</v>
+        <v>74549539</v>
       </c>
       <c r="AE87" s="11">
-        <v>74549539</v>
+        <v>90195594</v>
       </c>
       <c r="AF87" s="11">
-        <v>90195594</v>
+        <v>64919874</v>
       </c>
       <c r="AG87" s="11">
-        <v>64919874</v>
+        <v>95050987</v>
       </c>
       <c r="AH87" s="11">
-        <v>95050987</v>
+        <v>64714924</v>
       </c>
       <c r="AI87" s="11">
-        <v>64714924</v>
+        <v>70604968</v>
       </c>
       <c r="AJ87" s="11">
-        <v>70604968</v>
+        <v>77293111</v>
       </c>
       <c r="AK87" s="11">
-        <v>77293111</v>
+        <v>75920788</v>
       </c>
       <c r="AL87" s="11">
-        <v>75920788</v>
+        <v>91633617</v>
       </c>
       <c r="AM87" s="11">
-        <v>91633617</v>
+        <v>97709771</v>
       </c>
       <c r="AN87" s="11">
-        <v>97709771</v>
+        <v>111308772</v>
       </c>
       <c r="AO87" s="11">
-        <v>111308772</v>
+        <v>113229381</v>
       </c>
       <c r="AP87" s="11">
-        <v>113229381</v>
+        <v>129085315</v>
       </c>
       <c r="AQ87" s="11">
-        <v>129085315</v>
+        <v>104000384</v>
       </c>
       <c r="AR87" s="11">
-        <v>104000384</v>
+        <v>102190062</v>
       </c>
       <c r="AS87" s="11">
-        <v>102190062</v>
+        <v>105731457</v>
       </c>
       <c r="AT87" s="11">
-        <v>105731457</v>
+        <v>108267001</v>
       </c>
       <c r="AU87" s="11">
-        <v>108267001</v>
+        <v>128917782</v>
       </c>
       <c r="AV87" s="11">
-        <v>128917782</v>
+        <v>188527792</v>
       </c>
       <c r="AW87" s="11">
-        <v>188527792</v>
+        <v>194350760</v>
       </c>
       <c r="AX87" s="11">
-        <v>194350760</v>
+        <v>193125000</v>
       </c>
       <c r="AY87" s="11">
-        <v>193125000</v>
+        <v>186233459</v>
       </c>
       <c r="AZ87" s="11">
-        <v>186233459</v>
+        <v>184404733</v>
       </c>
       <c r="BA87" s="11">
-        <v>184404733</v>
+        <v>191734627</v>
       </c>
       <c r="BB87" s="11">
-        <v>191734627</v>
+        <v>187263649</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11486,154 +11486,154 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>130578313</v>
+        <v>148383459</v>
       </c>
       <c r="F88" s="13">
-        <v>148383459</v>
+        <v>125428571</v>
       </c>
       <c r="G88" s="13">
-        <v>125428571</v>
+        <v>133098266</v>
       </c>
       <c r="H88" s="13">
-        <v>133098266</v>
+        <v>130250980</v>
       </c>
       <c r="I88" s="13">
-        <v>130250980</v>
+        <v>91680851</v>
       </c>
       <c r="J88" s="13">
-        <v>91680851</v>
+        <v>127895455</v>
       </c>
       <c r="K88" s="13">
-        <v>127895455</v>
+        <v>166921914</v>
       </c>
       <c r="L88" s="13">
-        <v>166921914</v>
+        <v>167109865</v>
       </c>
       <c r="M88" s="13">
-        <v>167109865</v>
+        <v>157228175</v>
       </c>
       <c r="N88" s="13">
-        <v>157228175</v>
+        <v>196424000</v>
       </c>
       <c r="O88" s="13">
-        <v>196424000</v>
+        <v>228375000</v>
       </c>
       <c r="P88" s="13">
-        <v>228375000</v>
+        <v>211158228</v>
       </c>
       <c r="Q88" s="13">
-        <v>211158228</v>
+        <v>224804924</v>
       </c>
       <c r="R88" s="13">
-        <v>224804924</v>
+        <v>241932039</v>
       </c>
       <c r="S88" s="13">
-        <v>241932039</v>
+        <v>231168081</v>
       </c>
       <c r="T88" s="13">
-        <v>231168081</v>
-      </c>
-      <c r="U88" s="13">
         <v>245678610</v>
       </c>
-      <c r="V88" s="13" t="s">
-        <v>57</v>
+      <c r="U88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V88" s="13">
+        <v>205338843</v>
       </c>
       <c r="W88" s="13">
-        <v>205338843</v>
+        <v>150448529</v>
       </c>
       <c r="X88" s="13">
-        <v>150448529</v>
+        <v>219267123</v>
       </c>
       <c r="Y88" s="13">
-        <v>219267123</v>
+        <v>239949807</v>
       </c>
       <c r="Z88" s="13">
-        <v>239949807</v>
+        <v>276351779</v>
       </c>
       <c r="AA88" s="13">
-        <v>276351779</v>
+        <v>307416393</v>
       </c>
       <c r="AB88" s="13">
-        <v>307416393</v>
+        <v>284904918</v>
       </c>
       <c r="AC88" s="13">
-        <v>284904918</v>
+        <v>279312821</v>
       </c>
       <c r="AD88" s="13">
-        <v>279312821</v>
+        <v>295318786</v>
       </c>
       <c r="AE88" s="13">
-        <v>295318786</v>
+        <v>335889807</v>
       </c>
       <c r="AF88" s="13">
-        <v>335889807</v>
+        <v>283402913</v>
       </c>
       <c r="AG88" s="13">
-        <v>283402913</v>
+        <v>301286195</v>
       </c>
       <c r="AH88" s="13">
-        <v>301286195</v>
+        <v>265308197</v>
       </c>
       <c r="AI88" s="13">
-        <v>265308197</v>
+        <v>330550802</v>
       </c>
       <c r="AJ88" s="13">
-        <v>330550802</v>
+        <v>305844156</v>
       </c>
       <c r="AK88" s="13">
-        <v>305844156</v>
+        <v>485076923</v>
       </c>
       <c r="AL88" s="13">
-        <v>485076923</v>
+        <v>377195804</v>
       </c>
       <c r="AM88" s="13">
-        <v>377195804</v>
+        <v>449382353</v>
       </c>
       <c r="AN88" s="13">
-        <v>449382353</v>
+        <v>425980296</v>
       </c>
       <c r="AO88" s="13">
-        <v>425980296</v>
+        <v>427589744</v>
       </c>
       <c r="AP88" s="13">
-        <v>427589744</v>
+        <v>459686869</v>
       </c>
       <c r="AQ88" s="13">
-        <v>459686869</v>
+        <v>388238806</v>
       </c>
       <c r="AR88" s="13">
-        <v>388238806</v>
+        <v>352109195</v>
       </c>
       <c r="AS88" s="13">
-        <v>352109195</v>
+        <v>352892694</v>
       </c>
       <c r="AT88" s="13">
-        <v>352892694</v>
+        <v>318300532</v>
       </c>
       <c r="AU88" s="13">
-        <v>318300532</v>
+        <v>449018868</v>
       </c>
       <c r="AV88" s="13">
-        <v>449018868</v>
+        <v>570477876</v>
       </c>
       <c r="AW88" s="13">
-        <v>570477876</v>
+        <v>577307368</v>
       </c>
       <c r="AX88" s="13">
-        <v>577307368</v>
+        <v>637544892</v>
       </c>
       <c r="AY88" s="13">
-        <v>637544892</v>
+        <v>623479532</v>
       </c>
       <c r="AZ88" s="13">
-        <v>623479532</v>
+        <v>578454106</v>
       </c>
       <c r="BA88" s="13">
-        <v>578454106</v>
+        <v>693916667</v>
       </c>
       <c r="BB88" s="13">
-        <v>693916667</v>
+        <v>607774096</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11645,154 +11645,154 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>34911954</v>
+        <v>34703812</v>
       </c>
       <c r="F89" s="11">
-        <v>34703812</v>
+        <v>35541571</v>
       </c>
       <c r="G89" s="11">
-        <v>35541571</v>
+        <v>35350545</v>
       </c>
       <c r="H89" s="11">
-        <v>35350545</v>
+        <v>36667404</v>
       </c>
       <c r="I89" s="11">
-        <v>36667404</v>
+        <v>33093868</v>
       </c>
       <c r="J89" s="11">
-        <v>33093868</v>
+        <v>38639088</v>
       </c>
       <c r="K89" s="11">
-        <v>38639088</v>
+        <v>39090566</v>
       </c>
       <c r="L89" s="11">
-        <v>39090566</v>
+        <v>40567069</v>
       </c>
       <c r="M89" s="11">
-        <v>40567069</v>
+        <v>46058204</v>
       </c>
       <c r="N89" s="11">
-        <v>46058204</v>
+        <v>45932295</v>
       </c>
       <c r="O89" s="11">
-        <v>45932295</v>
+        <v>46412667</v>
       </c>
       <c r="P89" s="11">
-        <v>46412667</v>
+        <v>46689373</v>
       </c>
       <c r="Q89" s="11">
-        <v>46689373</v>
+        <v>46657975</v>
       </c>
       <c r="R89" s="11">
-        <v>46657975</v>
+        <v>46374012</v>
       </c>
       <c r="S89" s="11">
-        <v>46374012</v>
+        <v>46513267</v>
       </c>
       <c r="T89" s="11">
-        <v>46513267</v>
-      </c>
-      <c r="U89" s="11">
         <v>46496183</v>
       </c>
-      <c r="V89" s="11" t="s">
-        <v>57</v>
+      <c r="U89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V89" s="11">
+        <v>46762484</v>
       </c>
       <c r="W89" s="11">
-        <v>46762484</v>
+        <v>47281103</v>
       </c>
       <c r="X89" s="11">
-        <v>47281103</v>
+        <v>48803269</v>
       </c>
       <c r="Y89" s="11">
-        <v>48803269</v>
+        <v>54199201</v>
       </c>
       <c r="Z89" s="11">
-        <v>54199201</v>
+        <v>57214837</v>
       </c>
       <c r="AA89" s="11">
-        <v>57214837</v>
+        <v>57534898</v>
       </c>
       <c r="AB89" s="11">
-        <v>57534898</v>
+        <v>58935460</v>
       </c>
       <c r="AC89" s="11">
-        <v>58935460</v>
+        <v>59861852</v>
       </c>
       <c r="AD89" s="11">
-        <v>59861852</v>
+        <v>71651362</v>
       </c>
       <c r="AE89" s="11">
-        <v>71651362</v>
+        <v>74243846</v>
       </c>
       <c r="AF89" s="11">
-        <v>74243846</v>
+        <v>72563941</v>
       </c>
       <c r="AG89" s="11">
-        <v>72563941</v>
+        <v>70743558</v>
       </c>
       <c r="AH89" s="11">
-        <v>70743558</v>
+        <v>73114883</v>
       </c>
       <c r="AI89" s="11">
-        <v>73114883</v>
+        <v>78048077</v>
       </c>
       <c r="AJ89" s="11">
-        <v>78048077</v>
+        <v>82014369</v>
       </c>
       <c r="AK89" s="11">
-        <v>82014369</v>
+        <v>90746361</v>
       </c>
       <c r="AL89" s="11">
-        <v>90746361</v>
+        <v>106330496</v>
       </c>
       <c r="AM89" s="11">
-        <v>106330496</v>
+        <v>125056338</v>
       </c>
       <c r="AN89" s="11">
-        <v>125056338</v>
+        <v>125886459</v>
       </c>
       <c r="AO89" s="11">
-        <v>125886459</v>
+        <v>126448307</v>
       </c>
       <c r="AP89" s="11">
-        <v>126448307</v>
+        <v>125463557</v>
       </c>
       <c r="AQ89" s="11">
-        <v>125463557</v>
+        <v>126464575</v>
       </c>
       <c r="AR89" s="11">
-        <v>126464575</v>
+        <v>127726076</v>
       </c>
       <c r="AS89" s="11">
-        <v>127726076</v>
+        <v>128826312</v>
       </c>
       <c r="AT89" s="11">
-        <v>128826312</v>
+        <v>130752831</v>
       </c>
       <c r="AU89" s="11">
-        <v>130752831</v>
+        <v>146174578</v>
       </c>
       <c r="AV89" s="11">
-        <v>146174578</v>
+        <v>233708649</v>
       </c>
       <c r="AW89" s="11">
-        <v>233708649</v>
+        <v>220963993</v>
       </c>
       <c r="AX89" s="11">
-        <v>220963993</v>
+        <v>229164225</v>
       </c>
       <c r="AY89" s="11">
-        <v>229164225</v>
+        <v>228279279</v>
       </c>
       <c r="AZ89" s="11">
-        <v>228279279</v>
+        <v>225801980</v>
       </c>
       <c r="BA89" s="11">
-        <v>225801980</v>
+        <v>225681704</v>
       </c>
       <c r="BB89" s="11">
-        <v>225681704</v>
+        <v>221172377</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11804,154 +11804,154 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>127953917</v>
+        <v>136228571</v>
       </c>
       <c r="F90" s="13">
-        <v>136228571</v>
+        <v>134177866</v>
       </c>
       <c r="G90" s="13">
-        <v>134177866</v>
+        <v>142726126</v>
       </c>
       <c r="H90" s="13">
-        <v>142726126</v>
+        <v>144668129</v>
       </c>
       <c r="I90" s="13">
-        <v>144668129</v>
+        <v>146452703</v>
       </c>
       <c r="J90" s="13">
-        <v>146452703</v>
+        <v>146164645</v>
       </c>
       <c r="K90" s="13">
-        <v>146164645</v>
+        <v>147472222</v>
       </c>
       <c r="L90" s="13">
-        <v>147472222</v>
+        <v>143681553</v>
       </c>
       <c r="M90" s="13">
-        <v>143681553</v>
+        <v>171996032</v>
       </c>
       <c r="N90" s="13">
-        <v>171996032</v>
+        <v>173182310</v>
       </c>
       <c r="O90" s="13">
-        <v>173182310</v>
+        <v>178712785</v>
       </c>
       <c r="P90" s="13">
-        <v>178712785</v>
+        <v>184377232</v>
       </c>
       <c r="Q90" s="13">
-        <v>184377232</v>
+        <v>183712477</v>
       </c>
       <c r="R90" s="13">
-        <v>183712477</v>
+        <v>183180974</v>
       </c>
       <c r="S90" s="13">
-        <v>183180974</v>
+        <v>186549107</v>
       </c>
       <c r="T90" s="13">
-        <v>186549107</v>
-      </c>
-      <c r="U90" s="13">
         <v>181803204</v>
       </c>
-      <c r="V90" s="13" t="s">
-        <v>57</v>
+      <c r="U90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V90" s="13">
+        <v>183718010</v>
       </c>
       <c r="W90" s="13">
-        <v>183718010</v>
+        <v>188091760</v>
       </c>
       <c r="X90" s="13">
-        <v>188091760</v>
+        <v>186322183</v>
       </c>
       <c r="Y90" s="13">
-        <v>186322183</v>
+        <v>213037767</v>
       </c>
       <c r="Z90" s="13">
-        <v>213037767</v>
+        <v>244129213</v>
       </c>
       <c r="AA90" s="13">
-        <v>244129213</v>
+        <v>235359127</v>
       </c>
       <c r="AB90" s="13">
-        <v>235359127</v>
+        <v>240651316</v>
       </c>
       <c r="AC90" s="13">
-        <v>240651316</v>
+        <v>256370270</v>
       </c>
       <c r="AD90" s="13">
-        <v>256370270</v>
+        <v>324086592</v>
       </c>
       <c r="AE90" s="13">
-        <v>324086592</v>
+        <v>367748756</v>
       </c>
       <c r="AF90" s="13">
-        <v>367748756</v>
+        <v>314190709</v>
       </c>
       <c r="AG90" s="13">
-        <v>314190709</v>
+        <v>244446502</v>
       </c>
       <c r="AH90" s="13">
-        <v>244446502</v>
+        <v>312702461</v>
       </c>
       <c r="AI90" s="13">
-        <v>312702461</v>
+        <v>310982222</v>
       </c>
       <c r="AJ90" s="13">
-        <v>310982222</v>
+        <v>336904762</v>
       </c>
       <c r="AK90" s="13">
-        <v>336904762</v>
+        <v>363941300</v>
       </c>
       <c r="AL90" s="13">
-        <v>363941300</v>
+        <v>392983740</v>
       </c>
       <c r="AM90" s="13">
-        <v>392983740</v>
+        <v>439224215</v>
       </c>
       <c r="AN90" s="13">
-        <v>439224215</v>
+        <v>438233766</v>
       </c>
       <c r="AO90" s="13">
-        <v>438233766</v>
+        <v>438021127</v>
       </c>
       <c r="AP90" s="13">
-        <v>438021127</v>
+        <v>445236074</v>
       </c>
       <c r="AQ90" s="13">
-        <v>445236074</v>
+        <v>442723404</v>
       </c>
       <c r="AR90" s="13">
-        <v>442723404</v>
+        <v>433155709</v>
       </c>
       <c r="AS90" s="13">
-        <v>433155709</v>
+        <v>434435000</v>
       </c>
       <c r="AT90" s="13">
-        <v>434435000</v>
+        <v>431183183</v>
       </c>
       <c r="AU90" s="13">
-        <v>431183183</v>
+        <v>525421836</v>
       </c>
       <c r="AV90" s="13">
-        <v>525421836</v>
+        <v>845985955</v>
       </c>
       <c r="AW90" s="13">
-        <v>845985955</v>
+        <v>772048780</v>
       </c>
       <c r="AX90" s="13">
-        <v>772048780</v>
+        <v>811513021</v>
       </c>
       <c r="AY90" s="13">
-        <v>811513021</v>
+        <v>790508242</v>
       </c>
       <c r="AZ90" s="13">
-        <v>790508242</v>
+        <v>805781065</v>
       </c>
       <c r="BA90" s="13">
-        <v>805781065</v>
+        <v>758554217</v>
       </c>
       <c r="BB90" s="13">
-        <v>758554217</v>
+        <v>771862963</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11963,154 +11963,154 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>282168539</v>
+        <v>315529412</v>
       </c>
       <c r="F91" s="11">
-        <v>315529412</v>
+        <v>308381579</v>
       </c>
       <c r="G91" s="11">
-        <v>308381579</v>
+        <v>282105263</v>
       </c>
       <c r="H91" s="11">
-        <v>282105263</v>
+        <v>269917808</v>
       </c>
       <c r="I91" s="11">
-        <v>269917808</v>
+        <v>215381818</v>
       </c>
       <c r="J91" s="11">
-        <v>215381818</v>
+        <v>323445545</v>
       </c>
       <c r="K91" s="11">
-        <v>323445545</v>
+        <v>294250000</v>
       </c>
       <c r="L91" s="11">
-        <v>294250000</v>
+        <v>272088235</v>
       </c>
       <c r="M91" s="11">
-        <v>272088235</v>
+        <v>321108108</v>
       </c>
       <c r="N91" s="11">
-        <v>321108108</v>
+        <v>315066667</v>
       </c>
       <c r="O91" s="11">
-        <v>315066667</v>
+        <v>325916667</v>
       </c>
       <c r="P91" s="11">
-        <v>325916667</v>
+        <v>345621212</v>
       </c>
       <c r="Q91" s="11">
-        <v>345621212</v>
+        <v>352793103</v>
       </c>
       <c r="R91" s="11">
-        <v>352793103</v>
+        <v>345961538</v>
       </c>
       <c r="S91" s="11">
-        <v>345961538</v>
+        <v>340500000</v>
       </c>
       <c r="T91" s="11">
-        <v>340500000</v>
-      </c>
-      <c r="U91" s="11">
         <v>349027027</v>
       </c>
-      <c r="V91" s="11" t="s">
-        <v>57</v>
+      <c r="U91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V91" s="11">
+        <v>332875000</v>
       </c>
       <c r="W91" s="11">
-        <v>332875000</v>
+        <v>343969697</v>
       </c>
       <c r="X91" s="11">
-        <v>343969697</v>
+        <v>347030303</v>
       </c>
       <c r="Y91" s="11">
-        <v>347030303</v>
+        <v>344106383</v>
       </c>
       <c r="Z91" s="11">
-        <v>344106383</v>
+        <v>356111111</v>
       </c>
       <c r="AA91" s="11">
-        <v>356111111</v>
+        <v>469194030</v>
       </c>
       <c r="AB91" s="11">
-        <v>469194030</v>
+        <v>631140000</v>
       </c>
       <c r="AC91" s="11">
-        <v>631140000</v>
+        <v>630896552</v>
       </c>
       <c r="AD91" s="11">
-        <v>630896552</v>
+        <v>676686747</v>
       </c>
       <c r="AE91" s="11">
-        <v>676686747</v>
+        <v>636833333</v>
       </c>
       <c r="AF91" s="11">
-        <v>636833333</v>
+        <v>681677419</v>
       </c>
       <c r="AG91" s="11">
-        <v>681677419</v>
+        <v>742846154</v>
       </c>
       <c r="AH91" s="11">
-        <v>742846154</v>
+        <v>679923077</v>
       </c>
       <c r="AI91" s="11">
-        <v>679923077</v>
+        <v>724500000</v>
       </c>
       <c r="AJ91" s="11">
-        <v>724500000</v>
+        <v>778272727</v>
       </c>
       <c r="AK91" s="11">
-        <v>778272727</v>
+        <v>913352941</v>
       </c>
       <c r="AL91" s="11">
-        <v>913352941</v>
+        <v>671088235</v>
       </c>
       <c r="AM91" s="11">
-        <v>671088235</v>
+        <v>755647887</v>
       </c>
       <c r="AN91" s="11">
-        <v>755647887</v>
+        <v>787133333</v>
       </c>
       <c r="AO91" s="11">
-        <v>787133333</v>
+        <v>867810811</v>
       </c>
       <c r="AP91" s="11">
-        <v>867810811</v>
+        <v>867206897</v>
       </c>
       <c r="AQ91" s="11">
-        <v>867206897</v>
+        <v>829294118</v>
       </c>
       <c r="AR91" s="11">
-        <v>829294118</v>
+        <v>820000000</v>
       </c>
       <c r="AS91" s="11">
-        <v>820000000</v>
+        <v>779392857</v>
       </c>
       <c r="AT91" s="11">
-        <v>779392857</v>
+        <v>711643963</v>
       </c>
       <c r="AU91" s="11">
-        <v>711643963</v>
+        <v>779265734</v>
       </c>
       <c r="AV91" s="11">
-        <v>779265734</v>
+        <v>1307600000</v>
       </c>
       <c r="AW91" s="11">
-        <v>1307600000</v>
+        <v>1347876106</v>
       </c>
       <c r="AX91" s="11">
-        <v>1347876106</v>
+        <v>1644461538</v>
       </c>
       <c r="AY91" s="11">
-        <v>1644461538</v>
+        <v>1491526316</v>
       </c>
       <c r="AZ91" s="11">
-        <v>1491526316</v>
+        <v>1385641379</v>
       </c>
       <c r="BA91" s="11">
-        <v>1385641379</v>
+        <v>1454175115</v>
       </c>
       <c r="BB91" s="11">
-        <v>1454175115</v>
+        <v>1407575000</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12122,154 +12122,154 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>152657343</v>
+        <v>172913580</v>
       </c>
       <c r="F92" s="13">
-        <v>172913580</v>
+        <v>160421687</v>
       </c>
       <c r="G92" s="13">
-        <v>160421687</v>
+        <v>169113965</v>
       </c>
       <c r="H92" s="13">
-        <v>169113965</v>
+        <v>160117647</v>
       </c>
       <c r="I92" s="13">
-        <v>160117647</v>
+        <v>171184549</v>
       </c>
       <c r="J92" s="13">
-        <v>171184549</v>
+        <v>196093750</v>
       </c>
       <c r="K92" s="13">
-        <v>196093750</v>
+        <v>165509186</v>
       </c>
       <c r="L92" s="13">
-        <v>165509186</v>
+        <v>149449782</v>
       </c>
       <c r="M92" s="13">
-        <v>149449782</v>
+        <v>135216216</v>
       </c>
       <c r="N92" s="13">
-        <v>135216216</v>
+        <v>139925170</v>
       </c>
       <c r="O92" s="13">
-        <v>139925170</v>
+        <v>165141026</v>
       </c>
       <c r="P92" s="13">
-        <v>165141026</v>
+        <v>151474453</v>
       </c>
       <c r="Q92" s="13">
-        <v>151474453</v>
+        <v>170992754</v>
       </c>
       <c r="R92" s="13">
-        <v>170992754</v>
+        <v>196543046</v>
       </c>
       <c r="S92" s="13">
-        <v>196543046</v>
+        <v>122896226</v>
       </c>
       <c r="T92" s="13">
-        <v>122896226</v>
-      </c>
-      <c r="U92" s="13">
         <v>184587629</v>
       </c>
-      <c r="V92" s="13" t="s">
-        <v>57</v>
+      <c r="U92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V92" s="13">
+        <v>256198020</v>
       </c>
       <c r="W92" s="13">
-        <v>256198020</v>
+        <v>210323129</v>
       </c>
       <c r="X92" s="13">
-        <v>210323129</v>
+        <v>189553333</v>
       </c>
       <c r="Y92" s="13">
-        <v>189553333</v>
+        <v>254159091</v>
       </c>
       <c r="Z92" s="13">
-        <v>254159091</v>
+        <v>272575499</v>
       </c>
       <c r="AA92" s="13">
-        <v>272575499</v>
+        <v>242410256</v>
       </c>
       <c r="AB92" s="13">
-        <v>242410256</v>
+        <v>173835616</v>
       </c>
       <c r="AC92" s="13">
-        <v>173835616</v>
+        <v>177020270</v>
       </c>
       <c r="AD92" s="13">
-        <v>177020270</v>
+        <v>205744493</v>
       </c>
       <c r="AE92" s="13">
-        <v>205744493</v>
+        <v>269292553</v>
       </c>
       <c r="AF92" s="13">
-        <v>269292553</v>
+        <v>151637584</v>
       </c>
       <c r="AG92" s="13">
-        <v>151637584</v>
+        <v>317926773</v>
       </c>
       <c r="AH92" s="13">
-        <v>317926773</v>
+        <v>138271255</v>
       </c>
       <c r="AI92" s="13">
-        <v>138271255</v>
+        <v>200591346</v>
       </c>
       <c r="AJ92" s="13">
-        <v>200591346</v>
+        <v>233778378</v>
       </c>
       <c r="AK92" s="13">
-        <v>233778378</v>
+        <v>357066832</v>
       </c>
       <c r="AL92" s="13">
-        <v>357066832</v>
+        <v>519343023</v>
       </c>
       <c r="AM92" s="13">
-        <v>519343023</v>
+        <v>425064655</v>
       </c>
       <c r="AN92" s="13">
-        <v>425064655</v>
+        <v>480234432</v>
       </c>
       <c r="AO92" s="13">
-        <v>480234432</v>
+        <v>489624561</v>
       </c>
       <c r="AP92" s="13">
-        <v>489624561</v>
+        <v>614401070</v>
       </c>
       <c r="AQ92" s="13">
-        <v>614401070</v>
+        <v>659622951</v>
       </c>
       <c r="AR92" s="13">
-        <v>659622951</v>
+        <v>580035176</v>
       </c>
       <c r="AS92" s="13">
-        <v>580035176</v>
+        <v>556930470</v>
       </c>
       <c r="AT92" s="13">
-        <v>556930470</v>
+        <v>594935484</v>
       </c>
       <c r="AU92" s="13">
-        <v>594935484</v>
+        <v>752542254</v>
       </c>
       <c r="AV92" s="13">
-        <v>752542254</v>
+        <v>980478873</v>
       </c>
       <c r="AW92" s="13">
-        <v>980478873</v>
+        <v>1233535714</v>
       </c>
       <c r="AX92" s="13">
-        <v>1233535714</v>
+        <v>706407787</v>
       </c>
       <c r="AY92" s="13">
-        <v>706407787</v>
+        <v>963796512</v>
       </c>
       <c r="AZ92" s="13">
-        <v>963796512</v>
+        <v>844011299</v>
       </c>
       <c r="BA92" s="13">
-        <v>844011299</v>
+        <v>769638243</v>
       </c>
       <c r="BB92" s="13">
-        <v>769638243</v>
+        <v>875570071</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12424,8 +12424,8 @@
       <c r="AG94" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH94" s="11" t="s">
-        <v>57</v>
+      <c r="AH94" s="11">
+        <v>0</v>
       </c>
       <c r="AI94" s="11">
         <v>0</v>

--- a/database/industries/ghaza/ghefars/product/monthly.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghefars\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghefars\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA9512-2657-43B0-8ACB-BDE23DB7901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDBE720-AD30-446D-8C98-DE9623E7319C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>دوغ</t>
@@ -751,12 +751,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -811,7 +811,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -980,7 +980,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1037,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1427,157 +1427,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>731</v>
+        <v>905</v>
       </c>
       <c r="F11" s="11">
-        <v>705</v>
+        <v>1246</v>
       </c>
       <c r="G11" s="11">
-        <v>905</v>
+        <v>878</v>
       </c>
       <c r="H11" s="11">
-        <v>1246</v>
+        <v>1228</v>
       </c>
       <c r="I11" s="11">
-        <v>878</v>
+        <v>1210</v>
       </c>
       <c r="J11" s="11">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="K11" s="11">
-        <v>1210</v>
+        <v>1254</v>
       </c>
       <c r="L11" s="11">
-        <v>1212</v>
+        <v>1140</v>
       </c>
       <c r="M11" s="11">
-        <v>1254</v>
+        <v>951</v>
       </c>
       <c r="N11" s="11">
-        <v>1140</v>
+        <v>1030</v>
       </c>
       <c r="O11" s="11">
-        <v>951</v>
+        <v>723</v>
       </c>
       <c r="P11" s="11">
-        <v>1030</v>
+        <v>501</v>
       </c>
       <c r="Q11" s="11">
-        <v>723</v>
+        <v>795</v>
       </c>
       <c r="R11" s="11">
-        <v>501</v>
-      </c>
-      <c r="S11" s="11">
-        <v>795</v>
+        <v>681</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T11" s="11">
-        <v>681</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
+        <v>1102</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1051</v>
       </c>
       <c r="V11" s="11">
-        <v>1102</v>
+        <v>1128</v>
       </c>
       <c r="W11" s="11">
-        <v>1051</v>
+        <v>1149</v>
       </c>
       <c r="X11" s="11">
-        <v>1128</v>
+        <v>1185</v>
       </c>
       <c r="Y11" s="11">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="Z11" s="11">
+        <v>762</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>989</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>633</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>726</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>917</v>
+      </c>
+      <c r="AE11" s="11">
         <v>1185</v>
       </c>
-      <c r="AA11" s="11">
-        <v>1136</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>762</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>989</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>633</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>726</v>
-      </c>
       <c r="AF11" s="11">
-        <v>917</v>
+        <v>1161</v>
       </c>
       <c r="AG11" s="11">
-        <v>1185</v>
+        <v>1061</v>
       </c>
       <c r="AH11" s="11">
-        <v>1161</v>
+        <v>800</v>
       </c>
       <c r="AI11" s="11">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="AJ11" s="11">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="AK11" s="11">
-        <v>1046</v>
+        <v>716</v>
       </c>
       <c r="AL11" s="11">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AM11" s="11">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AN11" s="11">
-        <v>716</v>
+        <v>494</v>
       </c>
       <c r="AO11" s="11">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="AP11" s="11">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="AQ11" s="11">
-        <v>701</v>
+        <v>625</v>
       </c>
       <c r="AR11" s="11">
-        <v>514</v>
+        <v>990</v>
       </c>
       <c r="AS11" s="11">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="AT11" s="11">
-        <v>990</v>
+        <v>903</v>
       </c>
       <c r="AU11" s="11">
-        <v>581</v>
+        <v>708</v>
       </c>
       <c r="AV11" s="11">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="AW11" s="11">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AX11" s="11">
-        <v>935</v>
+        <v>673</v>
       </c>
       <c r="AY11" s="11">
+        <v>656</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>536</v>
+      </c>
+      <c r="BA11" s="11">
         <v>709</v>
       </c>
-      <c r="AZ11" s="11">
-        <v>673</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>656</v>
-      </c>
       <c r="BB11" s="11">
-        <v>536</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1586,157 +1586,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="F12" s="13">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13">
+        <v>24</v>
+      </c>
+      <c r="H12" s="13">
+        <v>11</v>
+      </c>
+      <c r="I12" s="13">
+        <v>36</v>
+      </c>
+      <c r="J12" s="13">
+        <v>25</v>
+      </c>
+      <c r="K12" s="13">
+        <v>11</v>
+      </c>
+      <c r="L12" s="13">
+        <v>19</v>
+      </c>
+      <c r="M12" s="13">
+        <v>21</v>
+      </c>
+      <c r="N12" s="13">
+        <v>22</v>
+      </c>
+      <c r="O12" s="13">
+        <v>18</v>
+      </c>
+      <c r="P12" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="13">
         <v>23</v>
       </c>
-      <c r="H12" s="13">
-        <v>30</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="R12" s="13">
+        <v>17</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="13">
         <v>24</v>
       </c>
-      <c r="J12" s="13">
-        <v>11</v>
-      </c>
-      <c r="K12" s="13">
-        <v>36</v>
-      </c>
-      <c r="L12" s="13">
-        <v>25</v>
-      </c>
-      <c r="M12" s="13">
-        <v>11</v>
-      </c>
-      <c r="N12" s="13">
-        <v>19</v>
-      </c>
-      <c r="O12" s="13">
+      <c r="U12" s="13">
+        <v>34</v>
+      </c>
+      <c r="V12" s="13">
+        <v>13</v>
+      </c>
+      <c r="W12" s="13">
+        <v>18</v>
+      </c>
+      <c r="X12" s="13">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="13">
         <v>21</v>
       </c>
-      <c r="P12" s="13">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="13">
+      <c r="AB12" s="13">
+        <v>38</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>182</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>82</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>239</v>
+      </c>
+      <c r="AI12" s="13">
         <v>18</v>
       </c>
-      <c r="R12" s="13">
-        <v>16</v>
-      </c>
-      <c r="S12" s="13">
-        <v>23</v>
-      </c>
-      <c r="T12" s="13">
+      <c r="AJ12" s="13">
         <v>17</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V12" s="13">
-        <v>24</v>
-      </c>
-      <c r="W12" s="13">
-        <v>34</v>
-      </c>
-      <c r="X12" s="13">
-        <v>13</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>38</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>28</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>116</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>182</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>82</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>239</v>
-      </c>
       <c r="AK12" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL12" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM12" s="13">
         <v>20</v>
       </c>
       <c r="AN12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="13">
         <v>20</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>20</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>34</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>18</v>
       </c>
       <c r="AX12" s="13">
         <v>16</v>
       </c>
       <c r="AY12" s="13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ12" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA12" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB12" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1745,157 +1745,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>3769</v>
+        <v>3557</v>
       </c>
       <c r="F13" s="11">
-        <v>3673</v>
+        <v>3517</v>
       </c>
       <c r="G13" s="11">
-        <v>3557</v>
+        <v>3159</v>
       </c>
       <c r="H13" s="11">
-        <v>3517</v>
+        <v>3154</v>
       </c>
       <c r="I13" s="11">
-        <v>3159</v>
+        <v>3000</v>
       </c>
       <c r="J13" s="11">
-        <v>3154</v>
+        <v>3293</v>
       </c>
       <c r="K13" s="11">
-        <v>3000</v>
+        <v>2131</v>
       </c>
       <c r="L13" s="11">
-        <v>3293</v>
+        <v>2366</v>
       </c>
       <c r="M13" s="11">
-        <v>2131</v>
+        <v>2860</v>
       </c>
       <c r="N13" s="11">
-        <v>2366</v>
+        <v>3401</v>
       </c>
       <c r="O13" s="11">
-        <v>2860</v>
+        <v>3144</v>
       </c>
       <c r="P13" s="11">
-        <v>3401</v>
+        <v>4159</v>
       </c>
       <c r="Q13" s="11">
-        <v>3144</v>
+        <v>4441</v>
       </c>
       <c r="R13" s="11">
-        <v>4159</v>
-      </c>
-      <c r="S13" s="11">
-        <v>4441</v>
+        <v>4190</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T13" s="11">
-        <v>4190</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>57</v>
+        <v>2578</v>
+      </c>
+      <c r="U13" s="11">
+        <v>3286</v>
       </c>
       <c r="V13" s="11">
-        <v>2578</v>
+        <v>4634</v>
       </c>
       <c r="W13" s="11">
-        <v>3286</v>
+        <v>2364</v>
       </c>
       <c r="X13" s="11">
-        <v>4634</v>
+        <v>2283</v>
       </c>
       <c r="Y13" s="11">
-        <v>2364</v>
+        <v>2103</v>
       </c>
       <c r="Z13" s="11">
-        <v>2283</v>
+        <v>2709</v>
       </c>
       <c r="AA13" s="11">
-        <v>2103</v>
+        <v>3188</v>
       </c>
       <c r="AB13" s="11">
-        <v>2709</v>
+        <v>2437</v>
       </c>
       <c r="AC13" s="11">
-        <v>3188</v>
+        <v>3200</v>
       </c>
       <c r="AD13" s="11">
-        <v>2437</v>
+        <v>2889</v>
       </c>
       <c r="AE13" s="11">
-        <v>3200</v>
+        <v>1917</v>
       </c>
       <c r="AF13" s="11">
-        <v>2889</v>
+        <v>2985</v>
       </c>
       <c r="AG13" s="11">
-        <v>1917</v>
+        <v>2133</v>
       </c>
       <c r="AH13" s="11">
-        <v>2985</v>
+        <v>2391</v>
       </c>
       <c r="AI13" s="11">
-        <v>2133</v>
+        <v>2371</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2391</v>
+        <v>2262</v>
       </c>
       <c r="AK13" s="11">
-        <v>2371</v>
+        <v>2259</v>
       </c>
       <c r="AL13" s="11">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AM13" s="11">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AN13" s="11">
-        <v>2259</v>
+        <v>2852</v>
       </c>
       <c r="AO13" s="11">
-        <v>2684</v>
+        <v>2854</v>
       </c>
       <c r="AP13" s="11">
+        <v>2337</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>2248</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>1899</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2265</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>1976</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>2351</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>2410</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>2852</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>2854</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2337</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>2248</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>2201</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>1899</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>2265</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>1976</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>2165</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>2351</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>2410</v>
-      </c>
       <c r="BA13" s="11">
-        <v>2716</v>
+        <v>2749</v>
       </c>
       <c r="BB13" s="11">
-        <v>2852</v>
+        <v>2945</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1904,157 +1904,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>511</v>
+        <v>177</v>
       </c>
       <c r="F14" s="13">
-        <v>605</v>
+        <v>258</v>
       </c>
       <c r="G14" s="13">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="H14" s="13">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="I14" s="13">
-        <v>268</v>
+        <v>431</v>
       </c>
       <c r="J14" s="13">
-        <v>243</v>
+        <v>520</v>
       </c>
       <c r="K14" s="13">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="L14" s="13">
-        <v>520</v>
+        <v>205</v>
       </c>
       <c r="M14" s="13">
-        <v>493</v>
+        <v>337</v>
       </c>
       <c r="N14" s="13">
-        <v>205</v>
+        <v>530</v>
       </c>
       <c r="O14" s="13">
-        <v>337</v>
+        <v>570</v>
       </c>
       <c r="P14" s="13">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="Q14" s="13">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="R14" s="13">
-        <v>498</v>
-      </c>
-      <c r="S14" s="13">
-        <v>590</v>
+        <v>897</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T14" s="13">
-        <v>897</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>57</v>
+        <v>582</v>
+      </c>
+      <c r="U14" s="13">
+        <v>358</v>
       </c>
       <c r="V14" s="13">
-        <v>582</v>
+        <v>143</v>
       </c>
       <c r="W14" s="13">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="X14" s="13">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="Y14" s="13">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Z14" s="13">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AA14" s="13">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="AB14" s="13">
-        <v>229</v>
+        <v>510</v>
       </c>
       <c r="AC14" s="13">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="AD14" s="13">
-        <v>510</v>
+        <v>365</v>
       </c>
       <c r="AE14" s="13">
-        <v>379</v>
+        <v>558</v>
       </c>
       <c r="AF14" s="13">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="AG14" s="13">
-        <v>558</v>
+        <v>187</v>
       </c>
       <c r="AH14" s="13">
+        <v>167</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>186</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>263</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>282</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>282</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>195</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>188</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>320</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>296</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>427</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>375</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>179</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>201</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>476</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>416</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>289</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>376</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>257</v>
+      </c>
+      <c r="AZ14" s="13">
         <v>290</v>
       </c>
-      <c r="AI14" s="13">
-        <v>187</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>167</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>186</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>263</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>282</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>282</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>195</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>188</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>320</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>296</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>427</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>375</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>179</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>201</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>476</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>416</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>289</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>376</v>
-      </c>
       <c r="BA14" s="13">
-        <v>257</v>
+        <v>490</v>
       </c>
       <c r="BB14" s="13">
-        <v>290</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2063,157 +2063,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1281</v>
+        <v>1421</v>
       </c>
       <c r="F15" s="11">
+        <v>1366</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1312</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1559</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1543</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1576</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1826</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1676</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1368</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1482</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1223</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1212</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1194</v>
+      </c>
+      <c r="R15" s="11">
+        <v>1236</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1629</v>
+      </c>
+      <c r="U15" s="11">
+        <v>1753</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1734</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1783</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1640</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1638</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1296</v>
+      </c>
+      <c r="AA15" s="11">
         <v>1336</v>
       </c>
-      <c r="G15" s="11">
-        <v>1421</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1366</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1312</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1559</v>
-      </c>
-      <c r="K15" s="11">
-        <v>1543</v>
-      </c>
-      <c r="L15" s="11">
-        <v>1576</v>
-      </c>
-      <c r="M15" s="11">
-        <v>1826</v>
-      </c>
-      <c r="N15" s="11">
-        <v>1676</v>
-      </c>
-      <c r="O15" s="11">
-        <v>1368</v>
-      </c>
-      <c r="P15" s="11">
-        <v>1482</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>1223</v>
-      </c>
-      <c r="R15" s="11">
-        <v>1212</v>
-      </c>
-      <c r="S15" s="11">
-        <v>1194</v>
-      </c>
-      <c r="T15" s="11">
-        <v>1236</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V15" s="11">
-        <v>1629</v>
-      </c>
-      <c r="W15" s="11">
-        <v>1753</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1734</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>1783</v>
-      </c>
-      <c r="Z15" s="11">
+      <c r="AB15" s="11">
+        <v>1317</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1255</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1610</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AG15" s="11">
         <v>1640</v>
       </c>
-      <c r="AA15" s="11">
-        <v>1638</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>1296</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1336</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1317</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1255</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>1610</v>
-      </c>
       <c r="AH15" s="11">
-        <v>1909</v>
+        <v>1824</v>
       </c>
       <c r="AI15" s="11">
-        <v>1640</v>
+        <v>1831</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1824</v>
+        <v>1347</v>
       </c>
       <c r="AK15" s="11">
-        <v>1831</v>
+        <v>1494</v>
       </c>
       <c r="AL15" s="11">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AM15" s="11">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AN15" s="11">
-        <v>1494</v>
+        <v>1017</v>
       </c>
       <c r="AO15" s="11">
-        <v>1139</v>
+        <v>1009</v>
       </c>
       <c r="AP15" s="11">
-        <v>1017</v>
+        <v>1138</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1009</v>
+        <v>1043</v>
       </c>
       <c r="AR15" s="11">
-        <v>1138</v>
+        <v>1583</v>
       </c>
       <c r="AS15" s="11">
-        <v>1043</v>
+        <v>1176</v>
       </c>
       <c r="AT15" s="11">
-        <v>1583</v>
+        <v>1338</v>
       </c>
       <c r="AU15" s="11">
-        <v>1176</v>
+        <v>1226</v>
       </c>
       <c r="AV15" s="11">
-        <v>1338</v>
+        <v>1276</v>
       </c>
       <c r="AW15" s="11">
-        <v>1226</v>
+        <v>1247</v>
       </c>
       <c r="AX15" s="11">
-        <v>1276</v>
+        <v>1127</v>
       </c>
       <c r="AY15" s="11">
-        <v>1247</v>
+        <v>1113</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1127</v>
+        <v>1033</v>
       </c>
       <c r="BA15" s="11">
-        <v>1113</v>
+        <v>946</v>
       </c>
       <c r="BB15" s="11">
-        <v>1033</v>
+        <v>1112</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2222,157 +2222,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>523</v>
+        <v>632</v>
       </c>
       <c r="F16" s="13">
-        <v>533</v>
+        <v>678</v>
       </c>
       <c r="G16" s="13">
-        <v>632</v>
+        <v>431</v>
       </c>
       <c r="H16" s="13">
-        <v>678</v>
+        <v>596</v>
       </c>
       <c r="I16" s="13">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="J16" s="13">
-        <v>596</v>
+        <v>521</v>
       </c>
       <c r="K16" s="13">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="L16" s="13">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="M16" s="13">
+        <v>550</v>
+      </c>
+      <c r="N16" s="13">
+        <v>512</v>
+      </c>
+      <c r="O16" s="13">
+        <v>529</v>
+      </c>
+      <c r="P16" s="13">
+        <v>508</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>415</v>
+      </c>
+      <c r="R16" s="13">
+        <v>403</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" s="13">
+        <v>458</v>
+      </c>
+      <c r="U16" s="13">
         <v>485</v>
       </c>
-      <c r="N16" s="13">
-        <v>591</v>
-      </c>
-      <c r="O16" s="13">
-        <v>550</v>
-      </c>
-      <c r="P16" s="13">
-        <v>512</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>529</v>
-      </c>
-      <c r="R16" s="13">
-        <v>508</v>
-      </c>
-      <c r="S16" s="13">
-        <v>415</v>
-      </c>
-      <c r="T16" s="13">
-        <v>403</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="V16" s="13">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="W16" s="13">
-        <v>485</v>
+        <v>580</v>
       </c>
       <c r="X16" s="13">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Y16" s="13">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="Z16" s="13">
-        <v>527</v>
+        <v>376</v>
       </c>
       <c r="AA16" s="13">
+        <v>357</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>414</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AD16" s="13">
         <v>440</v>
       </c>
-      <c r="AB16" s="13">
-        <v>376</v>
-      </c>
-      <c r="AC16" s="13">
+      <c r="AE16" s="13">
+        <v>408</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>427</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>425</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>347</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>400</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>412</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>412</v>
+      </c>
+      <c r="AM16" s="13">
         <v>357</v>
       </c>
-      <c r="AD16" s="13">
-        <v>414</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>473</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>440</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>408</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>427</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>425</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>347</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>473</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>400</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>412</v>
-      </c>
       <c r="AN16" s="13">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="AO16" s="13">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AP16" s="13">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AQ16" s="13">
-        <v>335</v>
+        <v>466</v>
       </c>
       <c r="AR16" s="13">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="AS16" s="13">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="AT16" s="13">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="AU16" s="13">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AV16" s="13">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AW16" s="13">
-        <v>344</v>
+        <v>445</v>
       </c>
       <c r="AX16" s="13">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="AY16" s="13">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="AZ16" s="13">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="BA16" s="13">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="BB16" s="13">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2381,157 +2381,157 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F17" s="11">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="G17" s="11">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H17" s="11">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="I17" s="11">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J17" s="11">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K17" s="11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L17" s="11">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M17" s="11">
         <v>19</v>
       </c>
       <c r="N17" s="11">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O17" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P17" s="11">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R17" s="11">
-        <v>29</v>
-      </c>
-      <c r="S17" s="11">
         <v>14</v>
       </c>
+      <c r="S17" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="T17" s="11">
-        <v>14</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>57</v>
+        <v>15</v>
+      </c>
+      <c r="U17" s="11">
+        <v>80</v>
       </c>
       <c r="V17" s="11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="W17" s="11">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="X17" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="11">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="Z17" s="11">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="11">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AB17" s="11">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AC17" s="11">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD17" s="11">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AE17" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF17" s="11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AG17" s="11">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AH17" s="11">
         <v>18</v>
       </c>
       <c r="AI17" s="11">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="AJ17" s="11">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="AK17" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL17" s="11">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AM17" s="11">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="AN17" s="11">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AO17" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AP17" s="11">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AQ17" s="11">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="AR17" s="11">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AS17" s="11">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="AT17" s="11">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="AU17" s="11">
+        <v>228</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>194</v>
+      </c>
+      <c r="AW17" s="11">
         <v>195</v>
       </c>
-      <c r="AV17" s="11">
-        <v>181</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>228</v>
-      </c>
       <c r="AX17" s="11">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="AY17" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="AZ17" s="11">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="BA17" s="11">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="BB17" s="11">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2540,157 +2540,157 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="F18" s="13">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="G18" s="13">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H18" s="13">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="I18" s="13">
-        <v>421</v>
+        <v>277</v>
       </c>
       <c r="J18" s="13">
-        <v>412</v>
+        <v>153</v>
       </c>
       <c r="K18" s="13">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="L18" s="13">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="M18" s="13">
-        <v>169</v>
+        <v>303</v>
       </c>
       <c r="N18" s="13">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="O18" s="13">
+        <v>513</v>
+      </c>
+      <c r="P18" s="13">
+        <v>413</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>439</v>
+      </c>
+      <c r="R18" s="13">
+        <v>496</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="13">
+        <v>478</v>
+      </c>
+      <c r="U18" s="13">
+        <v>333</v>
+      </c>
+      <c r="V18" s="13">
+        <v>348</v>
+      </c>
+      <c r="W18" s="13">
+        <v>257</v>
+      </c>
+      <c r="X18" s="13">
+        <v>265</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>237</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>742</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>265</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>431</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>315</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>373</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>491</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>460</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>293</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>203</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>266</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>264</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>264</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>301</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>273</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>360</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>331</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>332</v>
+      </c>
+      <c r="AR18" s="13">
         <v>303</v>
       </c>
-      <c r="P18" s="13">
-        <v>303</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>513</v>
-      </c>
-      <c r="R18" s="13">
-        <v>413</v>
-      </c>
-      <c r="S18" s="13">
-        <v>439</v>
-      </c>
-      <c r="T18" s="13">
-        <v>496</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V18" s="13">
-        <v>478</v>
-      </c>
-      <c r="W18" s="13">
-        <v>333</v>
-      </c>
-      <c r="X18" s="13">
-        <v>348</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>257</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>265</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>237</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>742</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>265</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>431</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>315</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>373</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>491</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>460</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>293</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>203</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>266</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>264</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>264</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>301</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>273</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>360</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>331</v>
-      </c>
       <c r="AS18" s="13">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="AT18" s="13">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="AU18" s="13">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="AV18" s="13">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AW18" s="13">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="AX18" s="13">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AY18" s="13">
-        <v>298</v>
+        <v>475</v>
       </c>
       <c r="AZ18" s="13">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="BA18" s="13">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="BB18" s="13">
-        <v>425</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2779,11 +2779,11 @@
       <c r="AE19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="11" t="s">
-        <v>57</v>
+      <c r="AF19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>0</v>
       </c>
       <c r="AH19" s="11">
         <v>0</v>
@@ -2812,11 +2812,11 @@
       <c r="AP19" s="11">
         <v>0</v>
       </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
+      <c r="AQ19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS19" s="11" t="s">
         <v>57</v>
@@ -2849,7 +2849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2938,17 +2938,17 @@
       <c r="AE20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>0</v>
+      <c r="AF20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>57</v>
@@ -3008,7 +3008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3097,11 +3097,11 @@
       <c r="AE21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG21" s="11" t="s">
-        <v>57</v>
+      <c r="AF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>0</v>
       </c>
       <c r="AH21" s="11">
         <v>0</v>
@@ -3130,11 +3130,11 @@
       <c r="AP21" s="11">
         <v>0</v>
       </c>
-      <c r="AQ21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="11">
-        <v>0</v>
+      <c r="AQ21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS21" s="11" t="s">
         <v>57</v>
@@ -3167,7 +3167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3256,11 +3256,11 @@
       <c r="AE22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>57</v>
+      <c r="AF22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
       </c>
       <c r="AH22" s="13">
         <v>0</v>
@@ -3289,11 +3289,11 @@
       <c r="AP22" s="13">
         <v>0</v>
       </c>
-      <c r="AQ22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>0</v>
+      <c r="AQ22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS22" s="13" t="s">
         <v>57</v>
@@ -3326,7 +3326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>69</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
@@ -3472,14 +3472,14 @@
       <c r="AE24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="11" t="s">
-        <v>57</v>
+      <c r="AF24" s="11">
+        <v>0</v>
       </c>
       <c r="AG24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH24" s="11">
-        <v>0</v>
+      <c r="AH24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI24" s="11" t="s">
         <v>57</v>
@@ -3508,23 +3508,23 @@
       <c r="AQ24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS24" s="11" t="s">
-        <v>57</v>
+      <c r="AR24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="11">
+        <v>0</v>
       </c>
       <c r="AT24" s="11">
         <v>0</v>
       </c>
-      <c r="AU24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="11" t="s">
-        <v>57</v>
+      <c r="AU24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW24" s="11">
+        <v>0</v>
       </c>
       <c r="AX24" s="11" t="s">
         <v>57</v>
@@ -3535,14 +3535,14 @@
       <c r="AZ24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA24" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="11" t="s">
-        <v>57</v>
+      <c r="BA24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB24" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>70</v>
       </c>
@@ -3602,11 +3602,11 @@
       <c r="V25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>57</v>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0</v>
       </c>
       <c r="Y25" s="15">
         <v>0</v>
@@ -3699,164 +3699,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>7382</v>
+        <v>7223</v>
       </c>
       <c r="F26" s="17">
-        <v>7590</v>
+        <v>7851</v>
       </c>
       <c r="G26" s="17">
-        <v>7223</v>
+        <v>6550</v>
       </c>
       <c r="H26" s="17">
-        <v>7851</v>
+        <v>7240</v>
       </c>
       <c r="I26" s="17">
-        <v>6550</v>
+        <v>6975</v>
       </c>
       <c r="J26" s="17">
-        <v>7240</v>
+        <v>7343</v>
       </c>
       <c r="K26" s="17">
-        <v>6975</v>
+        <v>6388</v>
       </c>
       <c r="L26" s="17">
-        <v>7343</v>
+        <v>6310</v>
       </c>
       <c r="M26" s="17">
-        <v>6388</v>
+        <v>6409</v>
       </c>
       <c r="N26" s="17">
-        <v>6310</v>
+        <v>7338</v>
       </c>
       <c r="O26" s="17">
-        <v>6409</v>
+        <v>6743</v>
       </c>
       <c r="P26" s="17">
-        <v>7338</v>
+        <v>7336</v>
       </c>
       <c r="Q26" s="17">
-        <v>6743</v>
+        <v>7911</v>
       </c>
       <c r="R26" s="17">
-        <v>7336</v>
+        <v>7934</v>
       </c>
       <c r="S26" s="17">
-        <v>7911</v>
+        <v>0</v>
       </c>
       <c r="T26" s="17">
-        <v>7934</v>
+        <v>6866</v>
       </c>
       <c r="U26" s="17">
-        <v>0</v>
+        <v>7380</v>
       </c>
       <c r="V26" s="17">
-        <v>6866</v>
+        <v>8538</v>
       </c>
       <c r="W26" s="17">
-        <v>7380</v>
+        <v>6538</v>
       </c>
       <c r="X26" s="17">
-        <v>8538</v>
+        <v>6205</v>
       </c>
       <c r="Y26" s="17">
-        <v>6538</v>
+        <v>6026</v>
       </c>
       <c r="Z26" s="17">
-        <v>6205</v>
+        <v>6231</v>
       </c>
       <c r="AA26" s="17">
-        <v>6026</v>
+        <v>6641</v>
       </c>
       <c r="AB26" s="17">
-        <v>6231</v>
+        <v>5817</v>
       </c>
       <c r="AC26" s="17">
-        <v>6641</v>
+        <v>6416</v>
       </c>
       <c r="AD26" s="17">
-        <v>5817</v>
+        <v>6523</v>
       </c>
       <c r="AE26" s="17">
-        <v>6416</v>
+        <v>5835</v>
       </c>
       <c r="AF26" s="17">
-        <v>6523</v>
+        <v>7463</v>
       </c>
       <c r="AG26" s="17">
-        <v>5835</v>
+        <v>6001</v>
       </c>
       <c r="AH26" s="17">
-        <v>7463</v>
+        <v>6079</v>
       </c>
       <c r="AI26" s="17">
-        <v>6001</v>
+        <v>6190</v>
       </c>
       <c r="AJ26" s="17">
-        <v>6079</v>
+        <v>5475</v>
       </c>
       <c r="AK26" s="17">
-        <v>6190</v>
+        <v>5508</v>
       </c>
       <c r="AL26" s="17">
-        <v>5475</v>
+        <v>5486</v>
       </c>
       <c r="AM26" s="17">
         <v>5508</v>
       </c>
       <c r="AN26" s="17">
-        <v>5486</v>
+        <v>5315</v>
       </c>
       <c r="AO26" s="17">
-        <v>5508</v>
+        <v>5747</v>
       </c>
       <c r="AP26" s="17">
-        <v>5315</v>
+        <v>5149</v>
       </c>
       <c r="AQ26" s="17">
-        <v>5747</v>
+        <v>5206</v>
       </c>
       <c r="AR26" s="17">
-        <v>5149</v>
+        <v>5928</v>
       </c>
       <c r="AS26" s="17">
-        <v>5206</v>
+        <v>4786</v>
       </c>
       <c r="AT26" s="17">
-        <v>5928</v>
+        <v>5642</v>
       </c>
       <c r="AU26" s="17">
-        <v>4786</v>
+        <v>5348</v>
       </c>
       <c r="AV26" s="17">
-        <v>5642</v>
+        <v>5745</v>
       </c>
       <c r="AW26" s="17">
-        <v>5348</v>
+        <v>5554</v>
       </c>
       <c r="AX26" s="17">
-        <v>5745</v>
+        <v>5497</v>
       </c>
       <c r="AY26" s="17">
-        <v>5554</v>
+        <v>5788</v>
       </c>
       <c r="AZ26" s="17">
-        <v>5497</v>
+        <v>5676</v>
       </c>
       <c r="BA26" s="17">
-        <v>5788</v>
+        <v>5672</v>
       </c>
       <c r="BB26" s="17">
-        <v>5676</v>
+        <v>5690</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3911,7 +3911,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3966,7 +3966,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4021,7 +4021,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>72</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4233,7 +4233,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
@@ -4299,157 +4299,157 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>777</v>
+        <v>935</v>
       </c>
       <c r="F33" s="11">
-        <v>684</v>
+        <v>1233</v>
       </c>
       <c r="G33" s="11">
-        <v>935</v>
+        <v>659</v>
       </c>
       <c r="H33" s="11">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="I33" s="11">
-        <v>659</v>
+        <v>1442</v>
       </c>
       <c r="J33" s="11">
-        <v>1237</v>
+        <v>1213</v>
       </c>
       <c r="K33" s="11">
-        <v>1442</v>
+        <v>1266</v>
       </c>
       <c r="L33" s="11">
-        <v>1213</v>
+        <v>1174</v>
       </c>
       <c r="M33" s="11">
-        <v>1266</v>
+        <v>966</v>
       </c>
       <c r="N33" s="11">
-        <v>1174</v>
+        <v>858</v>
       </c>
       <c r="O33" s="11">
-        <v>966</v>
+        <v>762</v>
       </c>
       <c r="P33" s="11">
-        <v>858</v>
+        <v>702</v>
       </c>
       <c r="Q33" s="11">
-        <v>762</v>
+        <v>657</v>
       </c>
       <c r="R33" s="11">
-        <v>702</v>
-      </c>
-      <c r="S33" s="11">
-        <v>657</v>
+        <v>783</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T33" s="11">
-        <v>783</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>57</v>
+        <v>1182</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1055</v>
       </c>
       <c r="V33" s="11">
-        <v>1182</v>
+        <v>1091</v>
       </c>
       <c r="W33" s="11">
-        <v>1055</v>
+        <v>1149</v>
       </c>
       <c r="X33" s="11">
-        <v>1091</v>
+        <v>1226</v>
       </c>
       <c r="Y33" s="11">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="Z33" s="11">
-        <v>1226</v>
+        <v>797</v>
       </c>
       <c r="AA33" s="11">
-        <v>1142</v>
+        <v>739</v>
       </c>
       <c r="AB33" s="11">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="AC33" s="11">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="AD33" s="11">
-        <v>741</v>
+        <v>857</v>
       </c>
       <c r="AE33" s="11">
-        <v>768</v>
+        <v>1121</v>
       </c>
       <c r="AF33" s="11">
-        <v>857</v>
+        <v>1268</v>
       </c>
       <c r="AG33" s="11">
-        <v>1121</v>
+        <v>1006</v>
       </c>
       <c r="AH33" s="11">
-        <v>1268</v>
+        <v>910</v>
       </c>
       <c r="AI33" s="11">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="AJ33" s="11">
-        <v>910</v>
+        <v>799</v>
       </c>
       <c r="AK33" s="11">
-        <v>1024</v>
+        <v>794</v>
       </c>
       <c r="AL33" s="11">
-        <v>799</v>
+        <v>594</v>
       </c>
       <c r="AM33" s="11">
-        <v>794</v>
+        <v>697</v>
       </c>
       <c r="AN33" s="11">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="AO33" s="11">
-        <v>697</v>
+        <v>597</v>
       </c>
       <c r="AP33" s="11">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="AQ33" s="11">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="AR33" s="11">
-        <v>585</v>
+        <v>971</v>
       </c>
       <c r="AS33" s="11">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="AT33" s="11">
-        <v>971</v>
+        <v>876</v>
       </c>
       <c r="AU33" s="11">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="AV33" s="11">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="AW33" s="11">
-        <v>727</v>
+        <v>776</v>
       </c>
       <c r="AX33" s="11">
-        <v>840</v>
+        <v>653</v>
       </c>
       <c r="AY33" s="11">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="AZ33" s="11">
-        <v>653</v>
+        <v>616</v>
       </c>
       <c r="BA33" s="11">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="BB33" s="11">
-        <v>616</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>58</v>
       </c>
@@ -4458,157 +4458,157 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>25</v>
+      </c>
+      <c r="F34" s="13">
+        <v>40</v>
+      </c>
+      <c r="G34" s="13">
+        <v>6</v>
+      </c>
+      <c r="H34" s="13">
+        <v>17</v>
+      </c>
+      <c r="I34" s="13">
+        <v>28</v>
+      </c>
+      <c r="J34" s="13">
+        <v>27</v>
+      </c>
+      <c r="K34" s="13">
+        <v>17</v>
+      </c>
+      <c r="L34" s="13">
+        <v>17</v>
+      </c>
+      <c r="M34" s="13">
+        <v>18</v>
+      </c>
+      <c r="N34" s="13">
+        <v>23</v>
+      </c>
+      <c r="O34" s="13">
         <v>21</v>
       </c>
-      <c r="F34" s="13">
+      <c r="P34" s="13">
         <v>17</v>
       </c>
-      <c r="G34" s="13">
-        <v>25</v>
-      </c>
-      <c r="H34" s="13">
-        <v>40</v>
-      </c>
-      <c r="I34" s="13">
-        <v>6</v>
-      </c>
-      <c r="J34" s="13">
+      <c r="Q34" s="13">
         <v>17</v>
       </c>
-      <c r="K34" s="13">
-        <v>28</v>
-      </c>
-      <c r="L34" s="13">
-        <v>27</v>
-      </c>
-      <c r="M34" s="13">
-        <v>17</v>
-      </c>
-      <c r="N34" s="13">
-        <v>17</v>
-      </c>
-      <c r="O34" s="13">
+      <c r="R34" s="13">
+        <v>23</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" s="13">
         <v>18</v>
       </c>
-      <c r="P34" s="13">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>21</v>
-      </c>
-      <c r="R34" s="13">
-        <v>17</v>
-      </c>
-      <c r="S34" s="13">
-        <v>17</v>
-      </c>
-      <c r="T34" s="13">
-        <v>23</v>
-      </c>
-      <c r="U34" s="13" t="s">
-        <v>57</v>
+      <c r="U34" s="13">
+        <v>29</v>
       </c>
       <c r="V34" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W34" s="13">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="X34" s="13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y34" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z34" s="13">
         <v>24</v>
       </c>
       <c r="AA34" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB34" s="13">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC34" s="13">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AD34" s="13">
+        <v>27</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>108</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>26</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>80</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>369</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>13</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>20</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>20</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>29</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>10</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>22</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>14</v>
+      </c>
+      <c r="AP34" s="13">
         <v>31</v>
       </c>
-      <c r="AE34" s="13">
-        <v>35</v>
-      </c>
-      <c r="AF34" s="13">
-        <v>27</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>108</v>
-      </c>
-      <c r="AH34" s="13">
-        <v>26</v>
-      </c>
-      <c r="AI34" s="13">
-        <v>80</v>
-      </c>
-      <c r="AJ34" s="13">
-        <v>369</v>
-      </c>
-      <c r="AK34" s="13">
+      <c r="AQ34" s="13">
+        <v>22</v>
+      </c>
+      <c r="AR34" s="13">
         <v>13</v>
       </c>
-      <c r="AL34" s="13">
+      <c r="AS34" s="13">
+        <v>18</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>19</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>14</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>18</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>18</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>19</v>
+      </c>
+      <c r="AY34" s="13">
         <v>20</v>
       </c>
-      <c r="AM34" s="13">
+      <c r="AZ34" s="13">
         <v>20</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>29</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>10</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>22</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>14</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS34" s="13">
-        <v>22</v>
-      </c>
-      <c r="AT34" s="13">
-        <v>13</v>
-      </c>
-      <c r="AU34" s="13">
-        <v>18</v>
-      </c>
-      <c r="AV34" s="13">
-        <v>19</v>
-      </c>
-      <c r="AW34" s="13">
-        <v>14</v>
-      </c>
-      <c r="AX34" s="13">
-        <v>18</v>
-      </c>
-      <c r="AY34" s="13">
-        <v>18</v>
-      </c>
-      <c r="AZ34" s="13">
-        <v>19</v>
       </c>
       <c r="BA34" s="13">
         <v>20</v>
       </c>
       <c r="BB34" s="13">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
@@ -4617,157 +4617,157 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>3654</v>
+        <v>3273</v>
       </c>
       <c r="F35" s="11">
-        <v>3683</v>
+        <v>3352</v>
       </c>
       <c r="G35" s="11">
-        <v>3273</v>
+        <v>3233</v>
       </c>
       <c r="H35" s="11">
-        <v>3352</v>
+        <v>3216</v>
       </c>
       <c r="I35" s="11">
-        <v>3233</v>
+        <v>2919</v>
       </c>
       <c r="J35" s="11">
-        <v>3216</v>
+        <v>3397</v>
       </c>
       <c r="K35" s="11">
-        <v>2919</v>
+        <v>2478</v>
       </c>
       <c r="L35" s="11">
-        <v>3397</v>
+        <v>2621</v>
       </c>
       <c r="M35" s="11">
-        <v>2478</v>
+        <v>2786</v>
       </c>
       <c r="N35" s="11">
-        <v>2621</v>
+        <v>3360</v>
       </c>
       <c r="O35" s="11">
-        <v>2786</v>
+        <v>3257</v>
       </c>
       <c r="P35" s="11">
-        <v>3360</v>
+        <v>4063</v>
       </c>
       <c r="Q35" s="11">
-        <v>3257</v>
+        <v>4580</v>
       </c>
       <c r="R35" s="11">
-        <v>4063</v>
-      </c>
-      <c r="S35" s="11">
-        <v>4580</v>
+        <v>4338</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T35" s="11">
-        <v>4338</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>57</v>
+        <v>2035</v>
+      </c>
+      <c r="U35" s="11">
+        <v>3338</v>
       </c>
       <c r="V35" s="11">
-        <v>2035</v>
+        <v>4898</v>
       </c>
       <c r="W35" s="11">
-        <v>3338</v>
+        <v>2297</v>
       </c>
       <c r="X35" s="11">
-        <v>4898</v>
+        <v>2227</v>
       </c>
       <c r="Y35" s="11">
-        <v>2297</v>
+        <v>2205</v>
       </c>
       <c r="Z35" s="11">
-        <v>2227</v>
+        <v>2756</v>
       </c>
       <c r="AA35" s="11">
-        <v>2205</v>
+        <v>3649</v>
       </c>
       <c r="AB35" s="11">
-        <v>2756</v>
+        <v>2493</v>
       </c>
       <c r="AC35" s="11">
-        <v>3649</v>
+        <v>2633</v>
       </c>
       <c r="AD35" s="11">
+        <v>2858</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>3040</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>2687</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>2496</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>2279</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>2285</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>2118</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AN35" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AO35" s="11">
+        <v>2607</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>2415</v>
+      </c>
+      <c r="AQ35" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>2191</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>2092</v>
+      </c>
+      <c r="AT35" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AU35" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AV35" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AW35" s="11">
+        <v>2116</v>
+      </c>
+      <c r="AX35" s="11">
         <v>2493</v>
       </c>
-      <c r="AE35" s="11">
-        <v>2633</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>2858</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>2687</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>2496</v>
-      </c>
-      <c r="AJ35" s="11">
-        <v>2279</v>
-      </c>
-      <c r="AK35" s="11">
-        <v>2285</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>2118</v>
-      </c>
-      <c r="AM35" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AN35" s="11">
-        <v>2280</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>2716</v>
-      </c>
-      <c r="AP35" s="11">
-        <v>2860</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>2607</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>2415</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AT35" s="11">
-        <v>2191</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>2092</v>
-      </c>
-      <c r="AV35" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AW35" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AX35" s="11">
-        <v>2016</v>
-      </c>
       <c r="AY35" s="11">
-        <v>2116</v>
+        <v>2732</v>
       </c>
       <c r="AZ35" s="11">
-        <v>2493</v>
+        <v>2894</v>
       </c>
       <c r="BA35" s="11">
-        <v>2732</v>
+        <v>2838</v>
       </c>
       <c r="BB35" s="11">
-        <v>2894</v>
+        <v>2911</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>60</v>
       </c>
@@ -4776,157 +4776,157 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="F36" s="13">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="G36" s="13">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="H36" s="13">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="I36" s="13">
-        <v>235</v>
+        <v>397</v>
       </c>
       <c r="J36" s="13">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="K36" s="13">
-        <v>397</v>
+        <v>504</v>
       </c>
       <c r="L36" s="13">
-        <v>446</v>
+        <v>250</v>
       </c>
       <c r="M36" s="13">
-        <v>504</v>
+        <v>200</v>
       </c>
       <c r="N36" s="13">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="O36" s="13">
-        <v>200</v>
+        <v>528</v>
       </c>
       <c r="P36" s="13">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="Q36" s="13">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="R36" s="13">
-        <v>515</v>
-      </c>
-      <c r="S36" s="13">
-        <v>589</v>
+        <v>921</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T36" s="13">
-        <v>921</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>57</v>
+        <v>121</v>
+      </c>
+      <c r="U36" s="13">
+        <v>272</v>
       </c>
       <c r="V36" s="13">
-        <v>121</v>
+        <v>584</v>
       </c>
       <c r="W36" s="13">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="X36" s="13">
-        <v>584</v>
+        <v>253</v>
       </c>
       <c r="Y36" s="13">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Z36" s="13">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="AA36" s="13">
+        <v>390</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>527</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>363</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>412</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF36" s="13">
         <v>305</v>
       </c>
-      <c r="AB36" s="13">
-        <v>305</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>390</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>527</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>363</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>412</v>
-      </c>
       <c r="AG36" s="13">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="AH36" s="13">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="AI36" s="13">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="AJ36" s="13">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AK36" s="13">
+        <v>170</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>203</v>
+      </c>
+      <c r="AM36" s="13">
         <v>156</v>
       </c>
-      <c r="AL36" s="13">
-        <v>143</v>
-      </c>
-      <c r="AM36" s="13">
-        <v>170</v>
-      </c>
       <c r="AN36" s="13">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO36" s="13">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="AP36" s="13">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="AQ36" s="13">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="AR36" s="13">
-        <v>174</v>
+        <v>376</v>
       </c>
       <c r="AS36" s="13">
-        <v>438</v>
+        <v>159</v>
       </c>
       <c r="AT36" s="13">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="AU36" s="13">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="AV36" s="13">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="AW36" s="13">
-        <v>475</v>
+        <v>342</v>
       </c>
       <c r="AX36" s="13">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="AY36" s="13">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="AZ36" s="13">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="BA36" s="13">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="BB36" s="13">
-        <v>332</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>61</v>
       </c>
@@ -4935,157 +4935,157 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>1364</v>
+        <v>1375</v>
       </c>
       <c r="F37" s="11">
-        <v>1311</v>
+        <v>1356</v>
       </c>
       <c r="G37" s="11">
-        <v>1375</v>
+        <v>1321</v>
       </c>
       <c r="H37" s="11">
-        <v>1356</v>
+        <v>1535</v>
       </c>
       <c r="I37" s="11">
-        <v>1321</v>
+        <v>1590</v>
       </c>
       <c r="J37" s="11">
-        <v>1535</v>
+        <v>1573</v>
       </c>
       <c r="K37" s="11">
-        <v>1590</v>
+        <v>1804</v>
       </c>
       <c r="L37" s="11">
-        <v>1573</v>
+        <v>1669</v>
       </c>
       <c r="M37" s="11">
-        <v>1804</v>
+        <v>1500</v>
       </c>
       <c r="N37" s="11">
-        <v>1669</v>
+        <v>1468</v>
       </c>
       <c r="O37" s="11">
-        <v>1500</v>
+        <v>1304</v>
       </c>
       <c r="P37" s="11">
-        <v>1468</v>
+        <v>1139</v>
       </c>
       <c r="Q37" s="11">
-        <v>1304</v>
+        <v>1206</v>
       </c>
       <c r="R37" s="11">
+        <v>1310</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37" s="11">
+        <v>1562</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1704</v>
+      </c>
+      <c r="V37" s="11">
+        <v>1774</v>
+      </c>
+      <c r="W37" s="11">
+        <v>1752</v>
+      </c>
+      <c r="X37" s="11">
+        <v>1685</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>1619</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>1348</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>1274</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>1285</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>1300</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>1431</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>1630</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>1915</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>1664</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>1879</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>1786</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>1410</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>1420</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>1189</v>
+      </c>
+      <c r="AM37" s="11">
+        <v>1122</v>
+      </c>
+      <c r="AN37" s="11">
+        <v>1029</v>
+      </c>
+      <c r="AO37" s="11">
+        <v>988</v>
+      </c>
+      <c r="AP37" s="11">
         <v>1139</v>
       </c>
-      <c r="S37" s="11">
-        <v>1206</v>
-      </c>
-      <c r="T37" s="11">
-        <v>1310</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V37" s="11">
-        <v>1562</v>
-      </c>
-      <c r="W37" s="11">
-        <v>1704</v>
-      </c>
-      <c r="X37" s="11">
-        <v>1774</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>1752</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>1685</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>1619</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>1348</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>1274</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>1285</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>1300</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>1431</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>1630</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>1915</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>1664</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>1879</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>1786</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>1410</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>1420</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>1189</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>1122</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>1029</v>
-      </c>
       <c r="AQ37" s="11">
-        <v>988</v>
+        <v>1353</v>
       </c>
       <c r="AR37" s="11">
-        <v>1139</v>
+        <v>1501</v>
       </c>
       <c r="AS37" s="11">
-        <v>1353</v>
+        <v>1243</v>
       </c>
       <c r="AT37" s="11">
-        <v>1501</v>
+        <v>1318</v>
       </c>
       <c r="AU37" s="11">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="AV37" s="11">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="AW37" s="11">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AX37" s="11">
-        <v>1297</v>
+        <v>1111</v>
       </c>
       <c r="AY37" s="11">
-        <v>1221</v>
+        <v>1197</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1111</v>
+        <v>934</v>
       </c>
       <c r="BA37" s="11">
-        <v>1197</v>
+        <v>958</v>
       </c>
       <c r="BB37" s="11">
-        <v>934</v>
+        <v>1190</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>62</v>
       </c>
@@ -5094,157 +5094,157 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="F38" s="13">
-        <v>506</v>
+        <v>684</v>
       </c>
       <c r="G38" s="13">
-        <v>555</v>
+        <v>444</v>
       </c>
       <c r="H38" s="13">
-        <v>684</v>
+        <v>577</v>
       </c>
       <c r="I38" s="13">
-        <v>444</v>
+        <v>612</v>
       </c>
       <c r="J38" s="13">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="K38" s="13">
-        <v>612</v>
+        <v>504</v>
       </c>
       <c r="L38" s="13">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="M38" s="13">
+        <v>571</v>
+      </c>
+      <c r="N38" s="13">
+        <v>448</v>
+      </c>
+      <c r="O38" s="13">
+        <v>553</v>
+      </c>
+      <c r="P38" s="13">
+        <v>431</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>448</v>
+      </c>
+      <c r="R38" s="13">
+        <v>437</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T38" s="13">
+        <v>422</v>
+      </c>
+      <c r="U38" s="13">
+        <v>534</v>
+      </c>
+      <c r="V38" s="13">
+        <v>568</v>
+      </c>
+      <c r="W38" s="13">
+        <v>609</v>
+      </c>
+      <c r="X38" s="13">
+        <v>534</v>
+      </c>
+      <c r="Y38" s="13">
         <v>504</v>
       </c>
-      <c r="N38" s="13">
-        <v>554</v>
-      </c>
-      <c r="O38" s="13">
-        <v>571</v>
-      </c>
-      <c r="P38" s="13">
-        <v>448</v>
-      </c>
-      <c r="Q38" s="13">
-        <v>553</v>
-      </c>
-      <c r="R38" s="13">
-        <v>431</v>
-      </c>
-      <c r="S38" s="13">
-        <v>448</v>
-      </c>
-      <c r="T38" s="13">
-        <v>437</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V38" s="13">
-        <v>422</v>
-      </c>
-      <c r="W38" s="13">
-        <v>534</v>
-      </c>
-      <c r="X38" s="13">
-        <v>568</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>609</v>
-      </c>
       <c r="Z38" s="13">
-        <v>534</v>
+        <v>304</v>
       </c>
       <c r="AA38" s="13">
-        <v>504</v>
+        <v>370</v>
       </c>
       <c r="AB38" s="13">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="AC38" s="13">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="AD38" s="13">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="AE38" s="13">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="AF38" s="13">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="AG38" s="13">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="AH38" s="13">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="AI38" s="13">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="AJ38" s="13">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AK38" s="13">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="AL38" s="13">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="AM38" s="13">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AN38" s="13">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AO38" s="13">
-        <v>426</v>
+        <v>329</v>
       </c>
       <c r="AP38" s="13">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="AQ38" s="13">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="AR38" s="13">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="AS38" s="13">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AT38" s="13">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="AU38" s="13">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="AV38" s="13">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="AW38" s="13">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AX38" s="13">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="AY38" s="13">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="AZ38" s="13">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="BA38" s="13">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BB38" s="13">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
@@ -5253,157 +5253,157 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" s="11">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="H39" s="11">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I39" s="11">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J39" s="11">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="K39" s="11">
+        <v>37</v>
+      </c>
+      <c r="L39" s="11">
+        <v>30</v>
+      </c>
+      <c r="M39" s="11">
+        <v>24</v>
+      </c>
+      <c r="N39" s="11">
+        <v>66</v>
+      </c>
+      <c r="O39" s="11">
+        <v>29</v>
+      </c>
+      <c r="P39" s="11">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>12</v>
+      </c>
+      <c r="R39" s="11">
+        <v>37</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T39" s="11">
+        <v>16</v>
+      </c>
+      <c r="U39" s="11">
+        <v>66</v>
+      </c>
+      <c r="V39" s="11">
+        <v>66</v>
+      </c>
+      <c r="W39" s="11">
+        <v>47</v>
+      </c>
+      <c r="X39" s="11">
+        <v>18</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>67</v>
+      </c>
+      <c r="Z39" s="11">
+        <v>50</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>58</v>
+      </c>
+      <c r="AB39" s="11">
+        <v>83</v>
+      </c>
+      <c r="AC39" s="11">
+        <v>24</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>31</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>39</v>
+      </c>
+      <c r="AF39" s="11">
+        <v>26</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>26</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>11</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>17</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>68</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>71</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>30</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>37</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>58</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>34</v>
+      </c>
+      <c r="AP39" s="11">
         <v>8</v>
       </c>
-      <c r="L39" s="11">
-        <v>34</v>
-      </c>
-      <c r="M39" s="11">
-        <v>37</v>
-      </c>
-      <c r="N39" s="11">
+      <c r="AQ39" s="11">
+        <v>84</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>323</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>143</v>
+      </c>
+      <c r="AT39" s="11">
         <v>30</v>
       </c>
-      <c r="O39" s="11">
-        <v>24</v>
-      </c>
-      <c r="P39" s="11">
-        <v>66</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>29</v>
-      </c>
-      <c r="R39" s="11">
-        <v>26</v>
-      </c>
-      <c r="S39" s="11">
-        <v>12</v>
-      </c>
-      <c r="T39" s="11">
-        <v>37</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V39" s="11">
-        <v>16</v>
-      </c>
-      <c r="W39" s="11">
-        <v>66</v>
-      </c>
-      <c r="X39" s="11">
-        <v>66</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>47</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>18</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>67</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>50</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>58</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>83</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>24</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>31</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>39</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>26</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>26</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>11</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>17</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>68</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>71</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>30</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>37</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>58</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>34</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>84</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>323</v>
-      </c>
       <c r="AU39" s="11">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="AV39" s="11">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AW39" s="11">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="AX39" s="11">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AY39" s="11">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="AZ39" s="11">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="BA39" s="11">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="BB39" s="11">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>64</v>
       </c>
@@ -5412,157 +5412,157 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>162</v>
+        <v>623</v>
       </c>
       <c r="F40" s="13">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="G40" s="13">
-        <v>623</v>
+        <v>233</v>
       </c>
       <c r="H40" s="13">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="I40" s="13">
-        <v>233</v>
+        <v>381</v>
       </c>
       <c r="J40" s="13">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="K40" s="13">
-        <v>381</v>
+        <v>185</v>
       </c>
       <c r="L40" s="13">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="M40" s="13">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="N40" s="13">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="O40" s="13">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="P40" s="13">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q40" s="13">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="R40" s="13">
-        <v>151</v>
-      </c>
-      <c r="S40" s="13">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T40" s="13">
-        <v>97</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>57</v>
+        <v>101</v>
+      </c>
+      <c r="U40" s="13">
+        <v>294</v>
       </c>
       <c r="V40" s="13">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="W40" s="13">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="X40" s="13">
+        <v>351</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>117</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>146</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>148</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>227</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>188</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>149</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>437</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>247</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>208</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>370</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>404</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>172</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>232</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>273</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>285</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>187</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>183</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>199</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>489</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>372</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>142</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>71</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>56</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>488</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>172</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>354</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>387</v>
+      </c>
+      <c r="AZ40" s="13">
+        <v>421</v>
+      </c>
+      <c r="BA40" s="13">
         <v>300</v>
       </c>
-      <c r="Y40" s="13">
-        <v>264</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>351</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>117</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>146</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>148</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>227</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>188</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>149</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>437</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>247</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>208</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>370</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>404</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>172</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>232</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>273</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>285</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>187</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>183</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>199</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>489</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>372</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>142</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>71</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>56</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>488</v>
-      </c>
-      <c r="AY40" s="13">
-        <v>172</v>
-      </c>
-      <c r="AZ40" s="13">
-        <v>354</v>
-      </c>
-      <c r="BA40" s="13">
-        <v>387</v>
-      </c>
       <c r="BB40" s="13">
-        <v>421</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
@@ -5651,11 +5651,11 @@
       <c r="AE41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG41" s="11" t="s">
-        <v>57</v>
+      <c r="AF41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11">
+        <v>0</v>
       </c>
       <c r="AH41" s="11">
         <v>0</v>
@@ -5684,11 +5684,11 @@
       <c r="AP41" s="11">
         <v>0</v>
       </c>
-      <c r="AQ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="11">
-        <v>0</v>
+      <c r="AQ41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS41" s="11" t="s">
         <v>57</v>
@@ -5721,7 +5721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>66</v>
       </c>
@@ -5810,17 +5810,17 @@
       <c r="AE42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="13">
-        <v>0</v>
+      <c r="AF42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ42" s="13" t="s">
         <v>57</v>
@@ -5880,7 +5880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
@@ -5969,11 +5969,11 @@
       <c r="AE43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG43" s="11" t="s">
-        <v>57</v>
+      <c r="AF43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>0</v>
       </c>
       <c r="AH43" s="11">
         <v>0</v>
@@ -6002,11 +6002,11 @@
       <c r="AP43" s="11">
         <v>0</v>
       </c>
-      <c r="AQ43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>0</v>
+      <c r="AQ43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS43" s="11" t="s">
         <v>57</v>
@@ -6039,7 +6039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>68</v>
       </c>
@@ -6128,11 +6128,11 @@
       <c r="AE44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG44" s="13" t="s">
-        <v>57</v>
+      <c r="AF44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="13">
+        <v>0</v>
       </c>
       <c r="AH44" s="13">
         <v>0</v>
@@ -6161,11 +6161,11 @@
       <c r="AP44" s="13">
         <v>0</v>
       </c>
-      <c r="AQ44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="13">
-        <v>0</v>
+      <c r="AQ44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS44" s="13" t="s">
         <v>57</v>
@@ -6198,7 +6198,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>69</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>58</v>
       </c>
@@ -6344,14 +6344,14 @@
       <c r="AE46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF46" s="11" t="s">
-        <v>57</v>
+      <c r="AF46" s="11">
+        <v>0</v>
       </c>
       <c r="AG46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH46" s="11">
-        <v>0</v>
+      <c r="AH46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI46" s="11" t="s">
         <v>57</v>
@@ -6380,23 +6380,23 @@
       <c r="AQ46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS46" s="11" t="s">
-        <v>57</v>
+      <c r="AR46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="11">
+        <v>0</v>
       </c>
       <c r="AT46" s="11">
         <v>0</v>
       </c>
-      <c r="AU46" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="11" t="s">
-        <v>57</v>
+      <c r="AU46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW46" s="11">
+        <v>0</v>
       </c>
       <c r="AX46" s="11" t="s">
         <v>57</v>
@@ -6407,14 +6407,14 @@
       <c r="AZ46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA46" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB46" s="11" t="s">
-        <v>57</v>
+      <c r="BA46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB46" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>70</v>
       </c>
@@ -6474,11 +6474,11 @@
       <c r="V47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>57</v>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+      <c r="X47" s="15">
+        <v>0</v>
       </c>
       <c r="Y47" s="15">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>73</v>
       </c>
@@ -6628,7 +6628,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>58</v>
       </c>
@@ -6753,23 +6753,23 @@
       <c r="AQ49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>57</v>
+      <c r="AR49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>0</v>
       </c>
       <c r="AT49" s="11">
         <v>0</v>
       </c>
-      <c r="AU49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW49" s="11" t="s">
-        <v>57</v>
+      <c r="AU49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW49" s="11">
+        <v>0</v>
       </c>
       <c r="AX49" s="11" t="s">
         <v>57</v>
@@ -6780,14 +6780,14 @@
       <c r="AZ49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BA49" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="11" t="s">
-        <v>57</v>
+      <c r="BA49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB49" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>74</v>
       </c>
@@ -6847,11 +6847,11 @@
       <c r="V50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="15" t="s">
-        <v>57</v>
+      <c r="W50" s="15">
+        <v>0</v>
+      </c>
+      <c r="X50" s="15">
+        <v>0</v>
       </c>
       <c r="Y50" s="15">
         <v>0</v>
@@ -6944,164 +6944,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17">
-        <v>6785</v>
+        <v>6997</v>
       </c>
       <c r="F51" s="17">
-        <v>6696</v>
+        <v>7146</v>
       </c>
       <c r="G51" s="17">
-        <v>6997</v>
+        <v>6186</v>
       </c>
       <c r="H51" s="17">
-        <v>7146</v>
+        <v>6967</v>
       </c>
       <c r="I51" s="17">
-        <v>6186</v>
+        <v>7377</v>
       </c>
       <c r="J51" s="17">
-        <v>6967</v>
+        <v>7434</v>
       </c>
       <c r="K51" s="17">
-        <v>7377</v>
+        <v>6795</v>
       </c>
       <c r="L51" s="17">
-        <v>7434</v>
+        <v>6462</v>
       </c>
       <c r="M51" s="17">
-        <v>6795</v>
+        <v>6221</v>
       </c>
       <c r="N51" s="17">
-        <v>6462</v>
+        <v>6834</v>
       </c>
       <c r="O51" s="17">
-        <v>6221</v>
+        <v>6592</v>
       </c>
       <c r="P51" s="17">
-        <v>6834</v>
+        <v>7044</v>
       </c>
       <c r="Q51" s="17">
-        <v>6592</v>
+        <v>7615</v>
       </c>
       <c r="R51" s="17">
-        <v>7044</v>
+        <v>7946</v>
       </c>
       <c r="S51" s="17">
-        <v>7615</v>
+        <v>0</v>
       </c>
       <c r="T51" s="17">
-        <v>7946</v>
+        <v>5457</v>
       </c>
       <c r="U51" s="17">
-        <v>0</v>
+        <v>7292</v>
       </c>
       <c r="V51" s="17">
-        <v>5457</v>
+        <v>9303</v>
       </c>
       <c r="W51" s="17">
-        <v>7292</v>
+        <v>6396</v>
       </c>
       <c r="X51" s="17">
-        <v>9303</v>
+        <v>6318</v>
       </c>
       <c r="Y51" s="17">
-        <v>6396</v>
+        <v>5983</v>
       </c>
       <c r="Z51" s="17">
-        <v>6318</v>
+        <v>5730</v>
       </c>
       <c r="AA51" s="17">
-        <v>5983</v>
+        <v>6649</v>
       </c>
       <c r="AB51" s="17">
-        <v>5730</v>
+        <v>5745</v>
       </c>
       <c r="AC51" s="17">
-        <v>6649</v>
+        <v>5713</v>
       </c>
       <c r="AD51" s="17">
-        <v>5745</v>
+        <v>6174</v>
       </c>
       <c r="AE51" s="17">
-        <v>5713</v>
+        <v>7158</v>
       </c>
       <c r="AF51" s="17">
-        <v>6174</v>
+        <v>6921</v>
       </c>
       <c r="AG51" s="17">
-        <v>7158</v>
+        <v>6117</v>
       </c>
       <c r="AH51" s="17">
-        <v>6921</v>
+        <v>6350</v>
       </c>
       <c r="AI51" s="17">
-        <v>6117</v>
+        <v>6162</v>
       </c>
       <c r="AJ51" s="17">
-        <v>6350</v>
+        <v>5099</v>
       </c>
       <c r="AK51" s="17">
-        <v>6162</v>
+        <v>5558</v>
       </c>
       <c r="AL51" s="17">
-        <v>5099</v>
+        <v>4983</v>
       </c>
       <c r="AM51" s="17">
-        <v>5558</v>
+        <v>5449</v>
       </c>
       <c r="AN51" s="17">
-        <v>4983</v>
+        <v>5289</v>
       </c>
       <c r="AO51" s="17">
-        <v>5449</v>
+        <v>5020</v>
       </c>
       <c r="AP51" s="17">
-        <v>5289</v>
+        <v>4840</v>
       </c>
       <c r="AQ51" s="17">
-        <v>5020</v>
+        <v>5699</v>
       </c>
       <c r="AR51" s="17">
-        <v>4840</v>
+        <v>6080</v>
       </c>
       <c r="AS51" s="17">
-        <v>5699</v>
+        <v>4847</v>
       </c>
       <c r="AT51" s="17">
-        <v>6080</v>
+        <v>4857</v>
       </c>
       <c r="AU51" s="17">
-        <v>4847</v>
+        <v>5286</v>
       </c>
       <c r="AV51" s="17">
-        <v>4857</v>
+        <v>5431</v>
       </c>
       <c r="AW51" s="17">
-        <v>5286</v>
+        <v>5123</v>
       </c>
       <c r="AX51" s="17">
-        <v>5431</v>
+        <v>5672</v>
       </c>
       <c r="AY51" s="17">
-        <v>5123</v>
+        <v>5662</v>
       </c>
       <c r="AZ51" s="17">
-        <v>5672</v>
+        <v>5727</v>
       </c>
       <c r="BA51" s="17">
-        <v>5662</v>
+        <v>5444</v>
       </c>
       <c r="BB51" s="17">
-        <v>5727</v>
+        <v>6029</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -7156,7 +7156,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -7211,7 +7211,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -7266,7 +7266,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>75</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7478,7 +7478,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>75</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -7544,157 +7544,157 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>19147</v>
+        <v>22348</v>
       </c>
       <c r="F58" s="11">
-        <v>16851</v>
+        <v>28927</v>
       </c>
       <c r="G58" s="11">
-        <v>22348</v>
+        <v>13312</v>
       </c>
       <c r="H58" s="11">
-        <v>28927</v>
+        <v>29616</v>
       </c>
       <c r="I58" s="11">
-        <v>13312</v>
+        <v>34082</v>
       </c>
       <c r="J58" s="11">
-        <v>29616</v>
+        <v>29549</v>
       </c>
       <c r="K58" s="11">
-        <v>34082</v>
+        <v>35510</v>
       </c>
       <c r="L58" s="11">
-        <v>29549</v>
+        <v>32352</v>
       </c>
       <c r="M58" s="11">
-        <v>35510</v>
+        <v>28018</v>
       </c>
       <c r="N58" s="11">
-        <v>32352</v>
+        <v>25279</v>
       </c>
       <c r="O58" s="11">
-        <v>28018</v>
+        <v>22643</v>
       </c>
       <c r="P58" s="11">
-        <v>25279</v>
+        <v>21047</v>
       </c>
       <c r="Q58" s="11">
-        <v>22643</v>
+        <v>19660</v>
       </c>
       <c r="R58" s="11">
-        <v>21047</v>
-      </c>
-      <c r="S58" s="11">
-        <v>19660</v>
+        <v>23424</v>
+      </c>
+      <c r="S58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T58" s="11">
-        <v>23424</v>
-      </c>
-      <c r="U58" s="11" t="s">
-        <v>57</v>
+        <v>35232</v>
+      </c>
+      <c r="U58" s="11">
+        <v>31622</v>
       </c>
       <c r="V58" s="11">
-        <v>35232</v>
+        <v>33482</v>
       </c>
       <c r="W58" s="11">
-        <v>31622</v>
+        <v>38785</v>
       </c>
       <c r="X58" s="11">
-        <v>33482</v>
+        <v>43113</v>
       </c>
       <c r="Y58" s="11">
-        <v>38785</v>
+        <v>40291</v>
       </c>
       <c r="Z58" s="11">
-        <v>43113</v>
+        <v>27438</v>
       </c>
       <c r="AA58" s="11">
-        <v>40291</v>
+        <v>26664</v>
       </c>
       <c r="AB58" s="11">
-        <v>27438</v>
+        <v>30851</v>
       </c>
       <c r="AC58" s="11">
-        <v>26664</v>
+        <v>35225</v>
       </c>
       <c r="AD58" s="11">
-        <v>30851</v>
+        <v>37469</v>
       </c>
       <c r="AE58" s="11">
-        <v>35225</v>
+        <v>47172</v>
       </c>
       <c r="AF58" s="11">
-        <v>37469</v>
+        <v>54250</v>
       </c>
       <c r="AG58" s="11">
-        <v>47172</v>
+        <v>46828</v>
       </c>
       <c r="AH58" s="11">
-        <v>54250</v>
+        <v>47051</v>
       </c>
       <c r="AI58" s="11">
-        <v>46828</v>
+        <v>63130</v>
       </c>
       <c r="AJ58" s="11">
-        <v>47051</v>
+        <v>45245</v>
       </c>
       <c r="AK58" s="11">
-        <v>63130</v>
+        <v>52279</v>
       </c>
       <c r="AL58" s="11">
-        <v>45245</v>
+        <v>36911</v>
       </c>
       <c r="AM58" s="11">
-        <v>52279</v>
+        <v>44912</v>
       </c>
       <c r="AN58" s="11">
-        <v>36911</v>
+        <v>36669</v>
       </c>
       <c r="AO58" s="11">
-        <v>44912</v>
+        <v>39775</v>
       </c>
       <c r="AP58" s="11">
-        <v>36669</v>
+        <v>39040</v>
       </c>
       <c r="AQ58" s="11">
-        <v>39775</v>
+        <v>44815</v>
       </c>
       <c r="AR58" s="11">
-        <v>39040</v>
+        <v>66346</v>
       </c>
       <c r="AS58" s="11">
-        <v>44815</v>
+        <v>47689</v>
       </c>
       <c r="AT58" s="11">
-        <v>66346</v>
+        <v>94269</v>
       </c>
       <c r="AU58" s="11">
-        <v>47689</v>
+        <v>75662</v>
       </c>
       <c r="AV58" s="11">
-        <v>94269</v>
+        <v>88218</v>
       </c>
       <c r="AW58" s="11">
-        <v>75662</v>
+        <v>80680</v>
       </c>
       <c r="AX58" s="11">
-        <v>88218</v>
+        <v>67454</v>
       </c>
       <c r="AY58" s="11">
-        <v>80680</v>
+        <v>65471</v>
       </c>
       <c r="AZ58" s="11">
-        <v>67454</v>
+        <v>64946</v>
       </c>
       <c r="BA58" s="11">
-        <v>65471</v>
+        <v>59945</v>
       </c>
       <c r="BB58" s="11">
-        <v>64946</v>
+        <v>58401</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>58</v>
       </c>
@@ -7703,157 +7703,157 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>2007</v>
+        <v>2357</v>
       </c>
       <c r="F59" s="13">
-        <v>1605</v>
+        <v>3869</v>
       </c>
       <c r="G59" s="13">
-        <v>2357</v>
+        <v>646</v>
       </c>
       <c r="H59" s="13">
-        <v>3869</v>
+        <v>1586</v>
       </c>
       <c r="I59" s="13">
-        <v>646</v>
+        <v>2682</v>
       </c>
       <c r="J59" s="13">
-        <v>1586</v>
+        <v>2483</v>
       </c>
       <c r="K59" s="13">
-        <v>2682</v>
+        <v>1823</v>
       </c>
       <c r="L59" s="13">
-        <v>2483</v>
+        <v>1772</v>
       </c>
       <c r="M59" s="13">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="N59" s="13">
-        <v>1772</v>
+        <v>2451</v>
       </c>
       <c r="O59" s="13">
-        <v>1852</v>
+        <v>2386</v>
       </c>
       <c r="P59" s="13">
-        <v>2451</v>
+        <v>2065</v>
       </c>
       <c r="Q59" s="13">
-        <v>2386</v>
+        <v>2030</v>
       </c>
       <c r="R59" s="13">
-        <v>2065</v>
-      </c>
-      <c r="S59" s="13">
-        <v>2030</v>
+        <v>2717</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T59" s="13">
-        <v>2717</v>
-      </c>
-      <c r="U59" s="13" t="s">
-        <v>57</v>
+        <v>2165</v>
+      </c>
+      <c r="U59" s="13">
+        <v>3464</v>
       </c>
       <c r="V59" s="13">
-        <v>2165</v>
+        <v>2745</v>
       </c>
       <c r="W59" s="13">
-        <v>3464</v>
+        <v>2697</v>
       </c>
       <c r="X59" s="13">
-        <v>2745</v>
+        <v>3596</v>
       </c>
       <c r="Y59" s="13">
-        <v>2697</v>
+        <v>3573</v>
       </c>
       <c r="Z59" s="13">
-        <v>3596</v>
+        <v>3323</v>
       </c>
       <c r="AA59" s="13">
-        <v>3573</v>
+        <v>3981</v>
       </c>
       <c r="AB59" s="13">
-        <v>3323</v>
+        <v>4572</v>
       </c>
       <c r="AC59" s="13">
-        <v>3981</v>
+        <v>5883</v>
       </c>
       <c r="AD59" s="13">
-        <v>4572</v>
+        <v>3920</v>
       </c>
       <c r="AE59" s="13">
-        <v>5883</v>
+        <v>632</v>
       </c>
       <c r="AF59" s="13">
-        <v>3920</v>
+        <v>4547</v>
       </c>
       <c r="AG59" s="13">
-        <v>632</v>
+        <v>7168</v>
       </c>
       <c r="AH59" s="13">
-        <v>4547</v>
+        <v>60738</v>
       </c>
       <c r="AI59" s="13">
-        <v>7168</v>
+        <v>5312</v>
       </c>
       <c r="AJ59" s="13">
-        <v>60738</v>
+        <v>4772</v>
       </c>
       <c r="AK59" s="13">
-        <v>5312</v>
+        <v>4780</v>
       </c>
       <c r="AL59" s="13">
-        <v>4772</v>
+        <v>6978</v>
       </c>
       <c r="AM59" s="13">
-        <v>4780</v>
+        <v>2488</v>
       </c>
       <c r="AN59" s="13">
-        <v>6978</v>
+        <v>5440</v>
       </c>
       <c r="AO59" s="13">
-        <v>2488</v>
+        <v>3026</v>
       </c>
       <c r="AP59" s="13">
-        <v>5440</v>
+        <v>7998</v>
       </c>
       <c r="AQ59" s="13">
-        <v>3026</v>
+        <v>5923</v>
       </c>
       <c r="AR59" s="13">
-        <v>7998</v>
+        <v>3354</v>
       </c>
       <c r="AS59" s="13">
-        <v>5923</v>
+        <v>5118</v>
       </c>
       <c r="AT59" s="13">
-        <v>3354</v>
+        <v>9112</v>
       </c>
       <c r="AU59" s="13">
-        <v>5118</v>
+        <v>5711</v>
       </c>
       <c r="AV59" s="13">
-        <v>9112</v>
+        <v>7885</v>
       </c>
       <c r="AW59" s="13">
-        <v>5711</v>
+        <v>7531</v>
       </c>
       <c r="AX59" s="13">
-        <v>7885</v>
+        <v>8214</v>
       </c>
       <c r="AY59" s="13">
-        <v>7531</v>
+        <v>8030</v>
       </c>
       <c r="AZ59" s="13">
-        <v>8214</v>
+        <v>11333</v>
       </c>
       <c r="BA59" s="13">
-        <v>8030</v>
+        <v>8275</v>
       </c>
       <c r="BB59" s="13">
-        <v>11333</v>
+        <v>9311</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7862,157 +7862,157 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>117106</v>
+        <v>113191</v>
       </c>
       <c r="F60" s="11">
-        <v>125341</v>
+        <v>115723</v>
       </c>
       <c r="G60" s="11">
-        <v>113191</v>
+        <v>113624</v>
       </c>
       <c r="H60" s="11">
-        <v>115723</v>
+        <v>113287</v>
       </c>
       <c r="I60" s="11">
-        <v>113624</v>
+        <v>99237</v>
       </c>
       <c r="J60" s="11">
-        <v>113287</v>
+        <v>104528</v>
       </c>
       <c r="K60" s="11">
-        <v>99237</v>
+        <v>103205</v>
       </c>
       <c r="L60" s="11">
-        <v>104528</v>
+        <v>113058</v>
       </c>
       <c r="M60" s="11">
-        <v>103205</v>
+        <v>121405</v>
       </c>
       <c r="N60" s="11">
-        <v>113058</v>
+        <v>149869</v>
       </c>
       <c r="O60" s="11">
-        <v>121405</v>
+        <v>144163</v>
       </c>
       <c r="P60" s="11">
-        <v>149869</v>
+        <v>172360</v>
       </c>
       <c r="Q60" s="11">
-        <v>144163</v>
+        <v>177692</v>
       </c>
       <c r="R60" s="11">
-        <v>172360</v>
-      </c>
-      <c r="S60" s="11">
-        <v>177692</v>
+        <v>168284</v>
+      </c>
+      <c r="S60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T60" s="11">
-        <v>168284</v>
-      </c>
-      <c r="U60" s="11" t="s">
-        <v>57</v>
+        <v>69791</v>
+      </c>
+      <c r="U60" s="11">
+        <v>122876</v>
       </c>
       <c r="V60" s="11">
-        <v>69791</v>
+        <v>182342</v>
       </c>
       <c r="W60" s="11">
-        <v>122876</v>
+        <v>121887</v>
       </c>
       <c r="X60" s="11">
-        <v>182342</v>
+        <v>132660</v>
       </c>
       <c r="Y60" s="11">
-        <v>121887</v>
+        <v>145124</v>
       </c>
       <c r="Z60" s="11">
-        <v>132660</v>
+        <v>167809</v>
       </c>
       <c r="AA60" s="11">
-        <v>145124</v>
+        <v>185579</v>
       </c>
       <c r="AB60" s="11">
-        <v>167809</v>
+        <v>185852</v>
       </c>
       <c r="AC60" s="11">
-        <v>185579</v>
+        <v>237485</v>
       </c>
       <c r="AD60" s="11">
-        <v>185852</v>
+        <v>185541</v>
       </c>
       <c r="AE60" s="11">
-        <v>237485</v>
+        <v>288955</v>
       </c>
       <c r="AF60" s="11">
-        <v>185541</v>
+        <v>173889</v>
       </c>
       <c r="AG60" s="11">
-        <v>288955</v>
+        <v>176230</v>
       </c>
       <c r="AH60" s="11">
-        <v>173889</v>
+        <v>176151</v>
       </c>
       <c r="AI60" s="11">
-        <v>176230</v>
+        <v>173479</v>
       </c>
       <c r="AJ60" s="11">
-        <v>176151</v>
+        <v>194080</v>
       </c>
       <c r="AK60" s="11">
-        <v>173479</v>
+        <v>234992</v>
       </c>
       <c r="AL60" s="11">
-        <v>194080</v>
+        <v>253784</v>
       </c>
       <c r="AM60" s="11">
-        <v>234992</v>
+        <v>307531</v>
       </c>
       <c r="AN60" s="11">
-        <v>253784</v>
+        <v>369184</v>
       </c>
       <c r="AO60" s="11">
-        <v>307531</v>
+        <v>271129</v>
       </c>
       <c r="AP60" s="11">
-        <v>369184</v>
+        <v>246789</v>
       </c>
       <c r="AQ60" s="11">
-        <v>271129</v>
+        <v>236627</v>
       </c>
       <c r="AR60" s="11">
-        <v>246789</v>
+        <v>237213</v>
       </c>
       <c r="AS60" s="11">
-        <v>236627</v>
+        <v>269696</v>
       </c>
       <c r="AT60" s="11">
-        <v>237213</v>
+        <v>369703</v>
       </c>
       <c r="AU60" s="11">
-        <v>269696</v>
+        <v>434957</v>
       </c>
       <c r="AV60" s="11">
-        <v>369703</v>
+        <v>389340</v>
       </c>
       <c r="AW60" s="11">
-        <v>434957</v>
+        <v>394070</v>
       </c>
       <c r="AX60" s="11">
-        <v>389340</v>
+        <v>459721</v>
       </c>
       <c r="AY60" s="11">
-        <v>394070</v>
+        <v>523819</v>
       </c>
       <c r="AZ60" s="11">
-        <v>459721</v>
+        <v>541941</v>
       </c>
       <c r="BA60" s="11">
-        <v>523819</v>
+        <v>525099</v>
       </c>
       <c r="BB60" s="11">
-        <v>541941</v>
+        <v>550048</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>60</v>
       </c>
@@ -8021,157 +8021,157 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>39470</v>
+        <v>23026</v>
       </c>
       <c r="F61" s="13">
-        <v>42144</v>
+        <v>33214</v>
       </c>
       <c r="G61" s="13">
-        <v>23026</v>
+        <v>21545</v>
       </c>
       <c r="H61" s="13">
-        <v>33214</v>
+        <v>28137</v>
       </c>
       <c r="I61" s="13">
-        <v>21545</v>
+        <v>66268</v>
       </c>
       <c r="J61" s="13">
-        <v>28137</v>
+        <v>74531</v>
       </c>
       <c r="K61" s="13">
-        <v>66268</v>
+        <v>79243</v>
       </c>
       <c r="L61" s="13">
-        <v>74531</v>
+        <v>49106</v>
       </c>
       <c r="M61" s="13">
-        <v>79243</v>
+        <v>45675</v>
       </c>
       <c r="N61" s="13">
-        <v>49106</v>
+        <v>100089</v>
       </c>
       <c r="O61" s="13">
-        <v>45675</v>
+        <v>118697</v>
       </c>
       <c r="P61" s="13">
-        <v>100089</v>
+        <v>124595</v>
       </c>
       <c r="Q61" s="13">
-        <v>118697</v>
+        <v>136158</v>
       </c>
       <c r="R61" s="13">
-        <v>124595</v>
-      </c>
-      <c r="S61" s="13">
-        <v>136158</v>
+        <v>226270</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T61" s="13">
-        <v>226270</v>
-      </c>
-      <c r="U61" s="13" t="s">
-        <v>57</v>
+        <v>24846</v>
+      </c>
+      <c r="U61" s="13">
+        <v>40922</v>
       </c>
       <c r="V61" s="13">
-        <v>24846</v>
+        <v>128052</v>
       </c>
       <c r="W61" s="13">
-        <v>40922</v>
+        <v>62147</v>
       </c>
       <c r="X61" s="13">
-        <v>128052</v>
+        <v>69917</v>
       </c>
       <c r="Y61" s="13">
-        <v>62147</v>
+        <v>93762</v>
       </c>
       <c r="Z61" s="13">
-        <v>69917</v>
+        <v>86896</v>
       </c>
       <c r="AA61" s="13">
-        <v>93762</v>
+        <v>108932</v>
       </c>
       <c r="AB61" s="13">
-        <v>86896</v>
+        <v>155633</v>
       </c>
       <c r="AC61" s="13">
-        <v>108932</v>
+        <v>121928</v>
       </c>
       <c r="AD61" s="13">
-        <v>155633</v>
+        <v>116762</v>
       </c>
       <c r="AE61" s="13">
-        <v>121928</v>
+        <v>89482</v>
       </c>
       <c r="AF61" s="13">
-        <v>116762</v>
+        <v>80919</v>
       </c>
       <c r="AG61" s="13">
-        <v>89482</v>
+        <v>61813</v>
       </c>
       <c r="AH61" s="13">
-        <v>80919</v>
+        <v>47100</v>
       </c>
       <c r="AI61" s="13">
-        <v>61813</v>
+        <v>75672</v>
       </c>
       <c r="AJ61" s="13">
-        <v>47100</v>
+        <v>53939</v>
       </c>
       <c r="AK61" s="13">
-        <v>75672</v>
+        <v>76395</v>
       </c>
       <c r="AL61" s="13">
-        <v>53939</v>
+        <v>86474</v>
       </c>
       <c r="AM61" s="13">
-        <v>76395</v>
+        <v>66704</v>
       </c>
       <c r="AN61" s="13">
-        <v>86474</v>
+        <v>91018</v>
       </c>
       <c r="AO61" s="13">
-        <v>66704</v>
+        <v>104048</v>
       </c>
       <c r="AP61" s="13">
-        <v>91018</v>
+        <v>61267</v>
       </c>
       <c r="AQ61" s="13">
-        <v>104048</v>
+        <v>154567</v>
       </c>
       <c r="AR61" s="13">
-        <v>61267</v>
+        <v>119681</v>
       </c>
       <c r="AS61" s="13">
-        <v>154567</v>
+        <v>71394</v>
       </c>
       <c r="AT61" s="13">
-        <v>119681</v>
+        <v>128928</v>
       </c>
       <c r="AU61" s="13">
-        <v>71394</v>
+        <v>274221</v>
       </c>
       <c r="AV61" s="13">
-        <v>128928</v>
+        <v>205927</v>
       </c>
       <c r="AW61" s="13">
-        <v>274221</v>
+        <v>213230</v>
       </c>
       <c r="AX61" s="13">
-        <v>205927</v>
+        <v>239480</v>
       </c>
       <c r="AY61" s="13">
-        <v>213230</v>
+        <v>158213</v>
       </c>
       <c r="AZ61" s="13">
-        <v>239480</v>
+        <v>201781</v>
       </c>
       <c r="BA61" s="13">
-        <v>158213</v>
+        <v>262202</v>
       </c>
       <c r="BB61" s="13">
-        <v>201781</v>
+        <v>328898</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>61</v>
       </c>
@@ -8180,157 +8180,157 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>47336</v>
+        <v>48607</v>
       </c>
       <c r="F62" s="11">
-        <v>46595</v>
+        <v>49721</v>
       </c>
       <c r="G62" s="11">
-        <v>48607</v>
+        <v>43717</v>
       </c>
       <c r="H62" s="11">
-        <v>49721</v>
+        <v>59311</v>
       </c>
       <c r="I62" s="11">
-        <v>43717</v>
+        <v>62154</v>
       </c>
       <c r="J62" s="11">
-        <v>59311</v>
+        <v>63812</v>
       </c>
       <c r="K62" s="11">
-        <v>62154</v>
+        <v>83089</v>
       </c>
       <c r="L62" s="11">
-        <v>63812</v>
+        <v>76661</v>
       </c>
       <c r="M62" s="11">
-        <v>83089</v>
+        <v>69619</v>
       </c>
       <c r="N62" s="11">
-        <v>76661</v>
+        <v>68540</v>
       </c>
       <c r="O62" s="11">
-        <v>69619</v>
+        <v>60842</v>
       </c>
       <c r="P62" s="11">
-        <v>68540</v>
+        <v>52820</v>
       </c>
       <c r="Q62" s="11">
-        <v>60842</v>
+        <v>56095</v>
       </c>
       <c r="R62" s="11">
-        <v>52820</v>
-      </c>
-      <c r="S62" s="11">
-        <v>56095</v>
+        <v>60910</v>
+      </c>
+      <c r="S62" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T62" s="11">
-        <v>60910</v>
-      </c>
-      <c r="U62" s="11" t="s">
-        <v>57</v>
+        <v>73043</v>
+      </c>
+      <c r="U62" s="11">
+        <v>80567</v>
       </c>
       <c r="V62" s="11">
-        <v>73043</v>
+        <v>86577</v>
       </c>
       <c r="W62" s="11">
-        <v>80567</v>
+        <v>94957</v>
       </c>
       <c r="X62" s="11">
-        <v>86577</v>
+        <v>96407</v>
       </c>
       <c r="Y62" s="11">
-        <v>94957</v>
+        <v>93149</v>
       </c>
       <c r="Z62" s="11">
-        <v>96407</v>
+        <v>79445</v>
       </c>
       <c r="AA62" s="11">
-        <v>93149</v>
+        <v>76264</v>
       </c>
       <c r="AB62" s="11">
-        <v>79445</v>
+        <v>92072</v>
       </c>
       <c r="AC62" s="11">
-        <v>76264</v>
+        <v>96517</v>
       </c>
       <c r="AD62" s="11">
-        <v>92072</v>
+        <v>103839</v>
       </c>
       <c r="AE62" s="11">
-        <v>96517</v>
+        <v>115312</v>
       </c>
       <c r="AF62" s="11">
-        <v>103839</v>
+        <v>140015</v>
       </c>
       <c r="AG62" s="11">
-        <v>115312</v>
+        <v>129872</v>
       </c>
       <c r="AH62" s="11">
-        <v>140015</v>
+        <v>154105</v>
       </c>
       <c r="AI62" s="11">
-        <v>129872</v>
+        <v>162073</v>
       </c>
       <c r="AJ62" s="11">
-        <v>154105</v>
+        <v>149926</v>
       </c>
       <c r="AK62" s="11">
-        <v>162073</v>
+        <v>177580</v>
       </c>
       <c r="AL62" s="11">
-        <v>149926</v>
+        <v>149679</v>
       </c>
       <c r="AM62" s="11">
-        <v>177580</v>
+        <v>141875</v>
       </c>
       <c r="AN62" s="11">
-        <v>149679</v>
+        <v>129102</v>
       </c>
       <c r="AO62" s="11">
-        <v>141875</v>
+        <v>124947</v>
       </c>
       <c r="AP62" s="11">
-        <v>129102</v>
+        <v>145480</v>
       </c>
       <c r="AQ62" s="11">
-        <v>124947</v>
+        <v>174302</v>
       </c>
       <c r="AR62" s="11">
-        <v>145480</v>
+        <v>196260</v>
       </c>
       <c r="AS62" s="11">
-        <v>174302</v>
+        <v>181695</v>
       </c>
       <c r="AT62" s="11">
-        <v>196260</v>
+        <v>308028</v>
       </c>
       <c r="AU62" s="11">
-        <v>181695</v>
+        <v>270018</v>
       </c>
       <c r="AV62" s="11">
-        <v>308028</v>
+        <v>297226</v>
       </c>
       <c r="AW62" s="11">
-        <v>270018</v>
+        <v>278729</v>
       </c>
       <c r="AX62" s="11">
-        <v>297226</v>
+        <v>250866</v>
       </c>
       <c r="AY62" s="11">
-        <v>278729</v>
+        <v>270141</v>
       </c>
       <c r="AZ62" s="11">
-        <v>250866</v>
+        <v>206575</v>
       </c>
       <c r="BA62" s="11">
-        <v>270141</v>
+        <v>213462</v>
       </c>
       <c r="BB62" s="11">
-        <v>206575</v>
+        <v>265630</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>62</v>
       </c>
@@ -8339,157 +8339,157 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>66752</v>
+        <v>79213</v>
       </c>
       <c r="F63" s="13">
-        <v>67894</v>
+        <v>98953</v>
       </c>
       <c r="G63" s="13">
-        <v>79213</v>
+        <v>65025</v>
       </c>
       <c r="H63" s="13">
-        <v>98953</v>
+        <v>84337</v>
       </c>
       <c r="I63" s="13">
-        <v>65025</v>
+        <v>90253</v>
       </c>
       <c r="J63" s="13">
-        <v>84337</v>
+        <v>73996</v>
       </c>
       <c r="K63" s="13">
-        <v>90253</v>
+        <v>86686</v>
       </c>
       <c r="L63" s="13">
-        <v>73996</v>
+        <v>95943</v>
       </c>
       <c r="M63" s="13">
-        <v>86686</v>
+        <v>102045</v>
       </c>
       <c r="N63" s="13">
-        <v>95943</v>
+        <v>82601</v>
       </c>
       <c r="O63" s="13">
-        <v>102045</v>
+        <v>101593</v>
       </c>
       <c r="P63" s="13">
-        <v>82601</v>
+        <v>78951</v>
       </c>
       <c r="Q63" s="13">
-        <v>101593</v>
+        <v>83574</v>
       </c>
       <c r="R63" s="13">
-        <v>78951</v>
-      </c>
-      <c r="S63" s="13">
-        <v>83574</v>
+        <v>79448</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T63" s="13">
-        <v>79448</v>
-      </c>
-      <c r="U63" s="13" t="s">
-        <v>57</v>
+        <v>77529</v>
+      </c>
+      <c r="U63" s="13">
+        <v>100441</v>
       </c>
       <c r="V63" s="13">
-        <v>77529</v>
+        <v>105831</v>
       </c>
       <c r="W63" s="13">
-        <v>100441</v>
+        <v>129740</v>
       </c>
       <c r="X63" s="13">
-        <v>105831</v>
+        <v>130365</v>
       </c>
       <c r="Y63" s="13">
-        <v>129740</v>
+        <v>118621</v>
       </c>
       <c r="Z63" s="13">
-        <v>130365</v>
+        <v>73158</v>
       </c>
       <c r="AA63" s="13">
-        <v>118621</v>
+        <v>94857</v>
       </c>
       <c r="AB63" s="13">
-        <v>73158</v>
+        <v>116023</v>
       </c>
       <c r="AC63" s="13">
-        <v>94857</v>
+        <v>147835</v>
       </c>
       <c r="AD63" s="13">
-        <v>116023</v>
+        <v>128504</v>
       </c>
       <c r="AE63" s="13">
-        <v>147835</v>
+        <v>118801</v>
       </c>
       <c r="AF63" s="13">
-        <v>128504</v>
+        <v>139778</v>
       </c>
       <c r="AG63" s="13">
-        <v>118801</v>
+        <v>139942</v>
       </c>
       <c r="AH63" s="13">
-        <v>139778</v>
+        <v>127350</v>
       </c>
       <c r="AI63" s="13">
-        <v>139942</v>
+        <v>173600</v>
       </c>
       <c r="AJ63" s="13">
-        <v>127350</v>
+        <v>145011</v>
       </c>
       <c r="AK63" s="13">
-        <v>173600</v>
+        <v>195894</v>
       </c>
       <c r="AL63" s="13">
-        <v>145011</v>
+        <v>168720</v>
       </c>
       <c r="AM63" s="13">
-        <v>195894</v>
+        <v>186597</v>
       </c>
       <c r="AN63" s="13">
-        <v>168720</v>
+        <v>167854</v>
       </c>
       <c r="AO63" s="13">
-        <v>186597</v>
+        <v>145656</v>
       </c>
       <c r="AP63" s="13">
-        <v>167854</v>
+        <v>125182</v>
       </c>
       <c r="AQ63" s="13">
-        <v>145656</v>
+        <v>173774</v>
       </c>
       <c r="AR63" s="13">
-        <v>125182</v>
+        <v>143584</v>
       </c>
       <c r="AS63" s="13">
-        <v>173774</v>
+        <v>211745</v>
       </c>
       <c r="AT63" s="13">
-        <v>143584</v>
+        <v>301171</v>
       </c>
       <c r="AU63" s="13">
-        <v>211745</v>
+        <v>253232</v>
       </c>
       <c r="AV63" s="13">
-        <v>301171</v>
+        <v>311621</v>
       </c>
       <c r="AW63" s="13">
-        <v>253232</v>
+        <v>287745</v>
       </c>
       <c r="AX63" s="13">
-        <v>311621</v>
+        <v>272354</v>
       </c>
       <c r="AY63" s="13">
-        <v>287745</v>
+        <v>188880</v>
       </c>
       <c r="AZ63" s="13">
-        <v>272354</v>
+        <v>208403</v>
       </c>
       <c r="BA63" s="13">
-        <v>188880</v>
+        <v>183119</v>
       </c>
       <c r="BB63" s="13">
-        <v>208403</v>
+        <v>225210</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
@@ -8498,157 +8498,157 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>16092</v>
+        <v>10720</v>
       </c>
       <c r="F64" s="11">
-        <v>23437</v>
+        <v>19704</v>
       </c>
       <c r="G64" s="11">
-        <v>10720</v>
+        <v>11846</v>
       </c>
       <c r="H64" s="11">
-        <v>19704</v>
+        <v>32668</v>
       </c>
       <c r="I64" s="11">
-        <v>11846</v>
+        <v>2354</v>
       </c>
       <c r="J64" s="11">
-        <v>32668</v>
+        <v>9251</v>
       </c>
       <c r="K64" s="11">
-        <v>2354</v>
+        <v>11881</v>
       </c>
       <c r="L64" s="11">
-        <v>9251</v>
+        <v>9452</v>
       </c>
       <c r="M64" s="11">
-        <v>11881</v>
+        <v>7822</v>
       </c>
       <c r="N64" s="11">
-        <v>9452</v>
+        <v>22811</v>
       </c>
       <c r="O64" s="11">
-        <v>7822</v>
+        <v>10231</v>
       </c>
       <c r="P64" s="11">
-        <v>22811</v>
+        <v>8995</v>
       </c>
       <c r="Q64" s="11">
-        <v>10231</v>
+        <v>4086</v>
       </c>
       <c r="R64" s="11">
-        <v>8995</v>
-      </c>
-      <c r="S64" s="11">
-        <v>4086</v>
+        <v>12914</v>
+      </c>
+      <c r="S64" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T64" s="11">
-        <v>12914</v>
-      </c>
-      <c r="U64" s="11" t="s">
-        <v>57</v>
+        <v>5326</v>
+      </c>
+      <c r="U64" s="11">
+        <v>22702</v>
       </c>
       <c r="V64" s="11">
-        <v>5326</v>
+        <v>22904</v>
       </c>
       <c r="W64" s="11">
-        <v>22702</v>
+        <v>16173</v>
       </c>
       <c r="X64" s="11">
-        <v>22904</v>
+        <v>6410</v>
       </c>
       <c r="Y64" s="11">
-        <v>16173</v>
+        <v>31436</v>
       </c>
       <c r="Z64" s="11">
-        <v>6410</v>
+        <v>31557</v>
       </c>
       <c r="AA64" s="11">
-        <v>31436</v>
+        <v>36592</v>
       </c>
       <c r="AB64" s="11">
-        <v>31557</v>
+        <v>56165</v>
       </c>
       <c r="AC64" s="11">
-        <v>36592</v>
+        <v>15284</v>
       </c>
       <c r="AD64" s="11">
-        <v>56165</v>
+        <v>21132</v>
       </c>
       <c r="AE64" s="11">
-        <v>15284</v>
+        <v>28971</v>
       </c>
       <c r="AF64" s="11">
-        <v>21132</v>
+        <v>17678</v>
       </c>
       <c r="AG64" s="11">
-        <v>28971</v>
+        <v>18837</v>
       </c>
       <c r="AH64" s="11">
-        <v>17678</v>
+        <v>8561</v>
       </c>
       <c r="AI64" s="11">
-        <v>18837</v>
+        <v>15527</v>
       </c>
       <c r="AJ64" s="11">
-        <v>8561</v>
+        <v>45634</v>
       </c>
       <c r="AK64" s="11">
-        <v>15527</v>
+        <v>53651</v>
       </c>
       <c r="AL64" s="11">
-        <v>45634</v>
+        <v>23614</v>
       </c>
       <c r="AM64" s="11">
-        <v>53651</v>
+        <v>32109</v>
       </c>
       <c r="AN64" s="11">
-        <v>23614</v>
+        <v>50298</v>
       </c>
       <c r="AO64" s="11">
-        <v>32109</v>
+        <v>28196</v>
       </c>
       <c r="AP64" s="11">
-        <v>50298</v>
+        <v>6560</v>
       </c>
       <c r="AQ64" s="11">
-        <v>28196</v>
+        <v>65469</v>
       </c>
       <c r="AR64" s="11">
-        <v>6560</v>
+        <v>229861</v>
       </c>
       <c r="AS64" s="11">
-        <v>65469</v>
+        <v>111435</v>
       </c>
       <c r="AT64" s="11">
-        <v>229861</v>
+        <v>39228</v>
       </c>
       <c r="AU64" s="11">
-        <v>111435</v>
+        <v>304620</v>
       </c>
       <c r="AV64" s="11">
-        <v>39228</v>
+        <v>106890</v>
       </c>
       <c r="AW64" s="11">
-        <v>304620</v>
+        <v>170034</v>
       </c>
       <c r="AX64" s="11">
-        <v>106890</v>
+        <v>401836</v>
       </c>
       <c r="AY64" s="11">
-        <v>170034</v>
+        <v>315556</v>
       </c>
       <c r="AZ64" s="11">
-        <v>401836</v>
+        <v>337818</v>
       </c>
       <c r="BA64" s="11">
-        <v>315556</v>
+        <v>158336</v>
       </c>
       <c r="BB64" s="11">
-        <v>337818</v>
+        <v>312583</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>64</v>
       </c>
@@ -8657,157 +8657,157 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>28012</v>
+        <v>105358</v>
       </c>
       <c r="F65" s="13">
-        <v>13315</v>
+        <v>24498</v>
       </c>
       <c r="G65" s="13">
-        <v>105358</v>
+        <v>39886</v>
       </c>
       <c r="H65" s="13">
-        <v>24498</v>
+        <v>12550</v>
       </c>
       <c r="I65" s="13">
-        <v>39886</v>
+        <v>63059</v>
       </c>
       <c r="J65" s="13">
-        <v>12550</v>
+        <v>34224</v>
       </c>
       <c r="K65" s="13">
-        <v>63059</v>
+        <v>25015</v>
       </c>
       <c r="L65" s="13">
-        <v>34224</v>
+        <v>20569</v>
       </c>
       <c r="M65" s="13">
-        <v>25015</v>
+        <v>25762</v>
       </c>
       <c r="N65" s="13">
-        <v>20569</v>
+        <v>20752</v>
       </c>
       <c r="O65" s="13">
-        <v>25762</v>
+        <v>23597</v>
       </c>
       <c r="P65" s="13">
-        <v>20752</v>
+        <v>29678</v>
       </c>
       <c r="Q65" s="13">
-        <v>23597</v>
+        <v>13027</v>
       </c>
       <c r="R65" s="13">
-        <v>29678</v>
-      </c>
-      <c r="S65" s="13">
-        <v>13027</v>
+        <v>17905</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T65" s="13">
-        <v>17905</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>57</v>
+        <v>25876</v>
+      </c>
+      <c r="U65" s="13">
+        <v>61835</v>
       </c>
       <c r="V65" s="13">
-        <v>25876</v>
+        <v>56866</v>
       </c>
       <c r="W65" s="13">
-        <v>61835</v>
+        <v>67098</v>
       </c>
       <c r="X65" s="13">
-        <v>56866</v>
+        <v>95674</v>
       </c>
       <c r="Y65" s="13">
-        <v>67098</v>
+        <v>28362</v>
       </c>
       <c r="Z65" s="13">
-        <v>95674</v>
+        <v>25380</v>
       </c>
       <c r="AA65" s="13">
-        <v>28362</v>
+        <v>26199</v>
       </c>
       <c r="AB65" s="13">
-        <v>25380</v>
+        <v>46704</v>
       </c>
       <c r="AC65" s="13">
-        <v>26199</v>
+        <v>50627</v>
       </c>
       <c r="AD65" s="13">
-        <v>46704</v>
+        <v>22594</v>
       </c>
       <c r="AE65" s="13">
-        <v>50627</v>
+        <v>138934</v>
       </c>
       <c r="AF65" s="13">
-        <v>22594</v>
+        <v>34153</v>
       </c>
       <c r="AG65" s="13">
-        <v>138934</v>
+        <v>41723</v>
       </c>
       <c r="AH65" s="13">
-        <v>34153</v>
+        <v>86498</v>
       </c>
       <c r="AI65" s="13">
-        <v>41723</v>
+        <v>144255</v>
       </c>
       <c r="AJ65" s="13">
-        <v>86498</v>
+        <v>89327</v>
       </c>
       <c r="AK65" s="13">
-        <v>144255</v>
+        <v>98615</v>
       </c>
       <c r="AL65" s="13">
-        <v>89327</v>
+        <v>131104</v>
       </c>
       <c r="AM65" s="13">
-        <v>98615</v>
+        <v>139543</v>
       </c>
       <c r="AN65" s="13">
-        <v>131104</v>
+        <v>114893</v>
       </c>
       <c r="AO65" s="13">
-        <v>139543</v>
+        <v>120711</v>
       </c>
       <c r="AP65" s="13">
-        <v>114893</v>
+        <v>115427</v>
       </c>
       <c r="AQ65" s="13">
-        <v>120711</v>
+        <v>272339</v>
       </c>
       <c r="AR65" s="13">
-        <v>115427</v>
+        <v>221316</v>
       </c>
       <c r="AS65" s="13">
-        <v>272339</v>
+        <v>106861</v>
       </c>
       <c r="AT65" s="13">
-        <v>221316</v>
+        <v>69614</v>
       </c>
       <c r="AU65" s="13">
-        <v>106861</v>
+        <v>69078</v>
       </c>
       <c r="AV65" s="13">
-        <v>69614</v>
+        <v>344727</v>
       </c>
       <c r="AW65" s="13">
-        <v>69078</v>
+        <v>165773</v>
       </c>
       <c r="AX65" s="13">
-        <v>344727</v>
+        <v>298780</v>
       </c>
       <c r="AY65" s="13">
-        <v>165773</v>
+        <v>297850</v>
       </c>
       <c r="AZ65" s="13">
-        <v>298780</v>
+        <v>368615</v>
       </c>
       <c r="BA65" s="13">
-        <v>297850</v>
+        <v>275939</v>
       </c>
       <c r="BB65" s="13">
-        <v>368615</v>
+        <v>270928</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>65</v>
       </c>
@@ -8896,11 +8896,11 @@
       <c r="AE66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF66" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG66" s="11" t="s">
-        <v>57</v>
+      <c r="AF66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="11">
+        <v>0</v>
       </c>
       <c r="AH66" s="11">
         <v>0</v>
@@ -8929,11 +8929,11 @@
       <c r="AP66" s="11">
         <v>0</v>
       </c>
-      <c r="AQ66" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR66" s="11">
-        <v>0</v>
+      <c r="AQ66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR66" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS66" s="11" t="s">
         <v>57</v>
@@ -8966,7 +8966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>66</v>
       </c>
@@ -9055,17 +9055,17 @@
       <c r="AE67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="13">
-        <v>0</v>
+      <c r="AF67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI67" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ67" s="13" t="s">
         <v>57</v>
@@ -9125,7 +9125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>67</v>
       </c>
@@ -9214,11 +9214,11 @@
       <c r="AE68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF68" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG68" s="11" t="s">
-        <v>57</v>
+      <c r="AF68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11">
+        <v>0</v>
       </c>
       <c r="AH68" s="11">
         <v>0</v>
@@ -9247,11 +9247,11 @@
       <c r="AP68" s="11">
         <v>0</v>
       </c>
-      <c r="AQ68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="11">
-        <v>0</v>
+      <c r="AQ68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS68" s="11" t="s">
         <v>57</v>
@@ -9284,7 +9284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>68</v>
       </c>
@@ -9373,11 +9373,11 @@
       <c r="AE69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG69" s="13" t="s">
-        <v>57</v>
+      <c r="AF69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="13">
+        <v>0</v>
       </c>
       <c r="AH69" s="13">
         <v>0</v>
@@ -9406,11 +9406,11 @@
       <c r="AP69" s="13">
         <v>0</v>
       </c>
-      <c r="AQ69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR69" s="13">
-        <v>0</v>
+      <c r="AQ69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS69" s="13" t="s">
         <v>57</v>
@@ -9443,7 +9443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>77</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>58</v>
       </c>
@@ -9589,11 +9589,11 @@
       <c r="AE71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG71" s="11" t="s">
-        <v>57</v>
+      <c r="AF71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="11">
+        <v>0</v>
       </c>
       <c r="AH71" s="11">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>70</v>
       </c>
@@ -9721,11 +9721,11 @@
       <c r="V72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W72" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X72" s="15" t="s">
-        <v>57</v>
+      <c r="W72" s="15">
+        <v>0</v>
+      </c>
+      <c r="X72" s="15">
+        <v>0</v>
       </c>
       <c r="Y72" s="15">
         <v>0</v>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>78</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>58</v>
       </c>
@@ -10000,11 +10000,11 @@
       <c r="AQ74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS74" s="11" t="s">
-        <v>57</v>
+      <c r="AR74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="11">
+        <v>0</v>
       </c>
       <c r="AT74" s="11">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>74</v>
       </c>
@@ -10096,11 +10096,11 @@
       <c r="V75" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W75" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X75" s="15" t="s">
-        <v>57</v>
+      <c r="W75" s="15">
+        <v>0</v>
+      </c>
+      <c r="X75" s="15">
+        <v>0</v>
       </c>
       <c r="Y75" s="15">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>79</v>
       </c>
@@ -10250,7 +10250,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>80</v>
       </c>
@@ -10312,11 +10312,11 @@
       <c r="V77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>57</v>
+      <c r="W77" s="11">
+        <v>0</v>
+      </c>
+      <c r="X77" s="11">
+        <v>0</v>
       </c>
       <c r="Y77" s="11">
         <v>0</v>
@@ -10409,164 +10409,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>335922</v>
+        <v>404820</v>
       </c>
       <c r="F78" s="15">
-        <v>337182</v>
+        <v>374609</v>
       </c>
       <c r="G78" s="15">
-        <v>404820</v>
+        <v>309601</v>
       </c>
       <c r="H78" s="15">
-        <v>374609</v>
+        <v>361492</v>
       </c>
       <c r="I78" s="15">
-        <v>309601</v>
+        <v>420089</v>
       </c>
       <c r="J78" s="15">
-        <v>361492</v>
+        <v>392374</v>
       </c>
       <c r="K78" s="15">
-        <v>420089</v>
+        <v>426452</v>
       </c>
       <c r="L78" s="15">
-        <v>392374</v>
+        <v>398913</v>
       </c>
       <c r="M78" s="15">
-        <v>426452</v>
+        <v>402198</v>
       </c>
       <c r="N78" s="15">
-        <v>398913</v>
+        <v>472392</v>
       </c>
       <c r="O78" s="15">
-        <v>402198</v>
+        <v>484152</v>
       </c>
       <c r="P78" s="15">
-        <v>472392</v>
+        <v>490511</v>
       </c>
       <c r="Q78" s="15">
-        <v>484152</v>
+        <v>492322</v>
       </c>
       <c r="R78" s="15">
-        <v>490511</v>
+        <v>591872</v>
       </c>
       <c r="S78" s="15">
-        <v>492322</v>
+        <v>0</v>
       </c>
       <c r="T78" s="15">
-        <v>591872</v>
+        <v>313808</v>
       </c>
       <c r="U78" s="15">
-        <v>0</v>
+        <v>464429</v>
       </c>
       <c r="V78" s="15">
-        <v>313808</v>
+        <v>618799</v>
       </c>
       <c r="W78" s="15">
-        <v>464429</v>
+        <v>533484</v>
       </c>
       <c r="X78" s="15">
-        <v>618799</v>
+        <v>578142</v>
       </c>
       <c r="Y78" s="15">
-        <v>533484</v>
+        <v>554318</v>
       </c>
       <c r="Z78" s="15">
-        <v>578142</v>
+        <v>495006</v>
       </c>
       <c r="AA78" s="15">
-        <v>554318</v>
+        <v>559068</v>
       </c>
       <c r="AB78" s="15">
-        <v>495006</v>
+        <v>687872</v>
       </c>
       <c r="AC78" s="15">
-        <v>559068</v>
+        <v>710784</v>
       </c>
       <c r="AD78" s="15">
-        <v>687872</v>
+        <v>619761</v>
       </c>
       <c r="AE78" s="15">
-        <v>710784</v>
+        <v>828259</v>
       </c>
       <c r="AF78" s="15">
-        <v>619761</v>
+        <v>645229</v>
       </c>
       <c r="AG78" s="15">
-        <v>828259</v>
+        <v>622413</v>
       </c>
       <c r="AH78" s="15">
-        <v>645229</v>
+        <v>707554</v>
       </c>
       <c r="AI78" s="15">
-        <v>622413</v>
+        <v>813048</v>
       </c>
       <c r="AJ78" s="15">
-        <v>707554</v>
+        <v>727934</v>
       </c>
       <c r="AK78" s="15">
-        <v>813048</v>
+        <v>894186</v>
       </c>
       <c r="AL78" s="15">
-        <v>727934</v>
+        <v>857264</v>
       </c>
       <c r="AM78" s="15">
-        <v>894186</v>
+        <v>921759</v>
       </c>
       <c r="AN78" s="15">
-        <v>857264</v>
+        <v>964458</v>
       </c>
       <c r="AO78" s="15">
-        <v>921759</v>
+        <v>837488</v>
       </c>
       <c r="AP78" s="15">
-        <v>964458</v>
+        <v>747743</v>
       </c>
       <c r="AQ78" s="15">
-        <v>837488</v>
+        <v>1127816</v>
       </c>
       <c r="AR78" s="15">
-        <v>747743</v>
+        <v>1217615</v>
       </c>
       <c r="AS78" s="15">
-        <v>1127816</v>
+        <v>1005633</v>
       </c>
       <c r="AT78" s="15">
-        <v>1217615</v>
+        <v>1320053</v>
       </c>
       <c r="AU78" s="15">
-        <v>1005633</v>
+        <v>1687499</v>
       </c>
       <c r="AV78" s="15">
-        <v>1320053</v>
+        <v>1751834</v>
       </c>
       <c r="AW78" s="15">
-        <v>1687499</v>
+        <v>1597792</v>
       </c>
       <c r="AX78" s="15">
-        <v>1751834</v>
+        <v>1998705</v>
       </c>
       <c r="AY78" s="15">
-        <v>1597792</v>
+        <v>1827960</v>
       </c>
       <c r="AZ78" s="15">
-        <v>1998705</v>
+        <v>1941412</v>
       </c>
       <c r="BA78" s="15">
-        <v>1827960</v>
+        <v>1686377</v>
       </c>
       <c r="BB78" s="15">
-        <v>1941412</v>
+        <v>2021009</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10621,7 +10621,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -10676,7 +10676,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10731,7 +10731,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>81</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -10943,7 +10943,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>82</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>55</v>
       </c>
@@ -11009,157 +11009,157 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>24642214</v>
+        <v>23901604</v>
       </c>
       <c r="F85" s="11">
-        <v>24635965</v>
+        <v>23460665</v>
       </c>
       <c r="G85" s="11">
-        <v>23901604</v>
+        <v>20200303</v>
       </c>
       <c r="H85" s="11">
-        <v>23460665</v>
+        <v>23941795</v>
       </c>
       <c r="I85" s="11">
-        <v>20200303</v>
+        <v>23635229</v>
       </c>
       <c r="J85" s="11">
-        <v>23941795</v>
+        <v>24360264</v>
       </c>
       <c r="K85" s="11">
-        <v>23635229</v>
+        <v>28048973</v>
       </c>
       <c r="L85" s="11">
-        <v>24360264</v>
+        <v>27557070</v>
       </c>
       <c r="M85" s="11">
-        <v>28048973</v>
+        <v>29004141</v>
       </c>
       <c r="N85" s="11">
-        <v>27557070</v>
+        <v>29462704</v>
       </c>
       <c r="O85" s="11">
-        <v>29004141</v>
+        <v>29715223</v>
       </c>
       <c r="P85" s="11">
-        <v>29462704</v>
+        <v>29981481</v>
       </c>
       <c r="Q85" s="11">
-        <v>29715223</v>
+        <v>29923896</v>
       </c>
       <c r="R85" s="11">
-        <v>29981481</v>
-      </c>
-      <c r="S85" s="11">
-        <v>29923896</v>
+        <v>29915709</v>
+      </c>
+      <c r="S85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T85" s="11">
-        <v>29915709</v>
-      </c>
-      <c r="U85" s="11" t="s">
-        <v>57</v>
+        <v>29807107</v>
+      </c>
+      <c r="U85" s="11">
+        <v>29973460</v>
       </c>
       <c r="V85" s="11">
-        <v>29807107</v>
+        <v>30689276</v>
       </c>
       <c r="W85" s="11">
-        <v>29973460</v>
+        <v>33755440</v>
       </c>
       <c r="X85" s="11">
-        <v>30689276</v>
+        <v>35165579</v>
       </c>
       <c r="Y85" s="11">
-        <v>33755440</v>
+        <v>35281086</v>
       </c>
       <c r="Z85" s="11">
-        <v>35165579</v>
+        <v>34426600</v>
       </c>
       <c r="AA85" s="11">
-        <v>35281086</v>
+        <v>36081191</v>
       </c>
       <c r="AB85" s="11">
-        <v>34426600</v>
+        <v>41634278</v>
       </c>
       <c r="AC85" s="11">
-        <v>36081191</v>
+        <v>45865885</v>
       </c>
       <c r="AD85" s="11">
-        <v>41634278</v>
+        <v>43721120</v>
       </c>
       <c r="AE85" s="11">
-        <v>45865885</v>
+        <v>42080285</v>
       </c>
       <c r="AF85" s="11">
-        <v>43721120</v>
+        <v>42783912</v>
       </c>
       <c r="AG85" s="11">
-        <v>42080285</v>
+        <v>46548708</v>
       </c>
       <c r="AH85" s="11">
-        <v>42783912</v>
+        <v>51704396</v>
       </c>
       <c r="AI85" s="11">
-        <v>46548708</v>
+        <v>61650391</v>
       </c>
       <c r="AJ85" s="11">
-        <v>51704396</v>
+        <v>56627034</v>
       </c>
       <c r="AK85" s="11">
-        <v>61650391</v>
+        <v>65842569</v>
       </c>
       <c r="AL85" s="11">
-        <v>56627034</v>
+        <v>62139731</v>
       </c>
       <c r="AM85" s="11">
-        <v>65842569</v>
+        <v>64436155</v>
       </c>
       <c r="AN85" s="11">
-        <v>62139731</v>
+        <v>65715054</v>
       </c>
       <c r="AO85" s="11">
-        <v>64436155</v>
+        <v>66624791</v>
       </c>
       <c r="AP85" s="11">
-        <v>65715054</v>
+        <v>66735043</v>
       </c>
       <c r="AQ85" s="11">
-        <v>66624791</v>
+        <v>66392593</v>
       </c>
       <c r="AR85" s="11">
-        <v>66735043</v>
+        <v>68327497</v>
       </c>
       <c r="AS85" s="11">
-        <v>66392593</v>
+        <v>73707883</v>
       </c>
       <c r="AT85" s="11">
-        <v>68327497</v>
+        <v>107613014</v>
       </c>
       <c r="AU85" s="11">
-        <v>73707883</v>
+        <v>104074278</v>
       </c>
       <c r="AV85" s="11">
-        <v>107613014</v>
+        <v>105021429</v>
       </c>
       <c r="AW85" s="11">
-        <v>104074278</v>
+        <v>103969072</v>
       </c>
       <c r="AX85" s="11">
-        <v>105021429</v>
+        <v>103298622</v>
       </c>
       <c r="AY85" s="11">
-        <v>103969072</v>
+        <v>103593354</v>
       </c>
       <c r="AZ85" s="11">
-        <v>103298622</v>
+        <v>105431818</v>
       </c>
       <c r="BA85" s="11">
-        <v>103593354</v>
+        <v>100747899</v>
       </c>
       <c r="BB85" s="11">
-        <v>105431818</v>
+        <v>102637961</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>58</v>
       </c>
@@ -11168,157 +11168,157 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>95571429</v>
+        <v>94280000</v>
       </c>
       <c r="F86" s="13">
-        <v>94411765</v>
+        <v>96725000</v>
       </c>
       <c r="G86" s="13">
-        <v>94280000</v>
+        <v>107666667</v>
       </c>
       <c r="H86" s="13">
-        <v>96725000</v>
+        <v>93294118</v>
       </c>
       <c r="I86" s="13">
-        <v>107666667</v>
+        <v>95785714</v>
       </c>
       <c r="J86" s="13">
-        <v>93294118</v>
+        <v>91962963</v>
       </c>
       <c r="K86" s="13">
-        <v>95785714</v>
+        <v>107235294</v>
       </c>
       <c r="L86" s="13">
-        <v>91962963</v>
+        <v>104235294</v>
       </c>
       <c r="M86" s="13">
-        <v>107235294</v>
+        <v>102888889</v>
       </c>
       <c r="N86" s="13">
-        <v>104235294</v>
+        <v>106565217</v>
       </c>
       <c r="O86" s="13">
-        <v>102888889</v>
+        <v>113619048</v>
       </c>
       <c r="P86" s="13">
-        <v>106565217</v>
+        <v>121470588</v>
       </c>
       <c r="Q86" s="13">
-        <v>113619048</v>
+        <v>119411765</v>
       </c>
       <c r="R86" s="13">
-        <v>121470588</v>
-      </c>
-      <c r="S86" s="13">
-        <v>119411765</v>
+        <v>118130435</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T86" s="13">
-        <v>118130435</v>
-      </c>
-      <c r="U86" s="13" t="s">
-        <v>57</v>
+        <v>120277778</v>
+      </c>
+      <c r="U86" s="13">
+        <v>119448276</v>
       </c>
       <c r="V86" s="13">
-        <v>120277778</v>
+        <v>124772727</v>
       </c>
       <c r="W86" s="13">
-        <v>119448276</v>
+        <v>141947368</v>
       </c>
       <c r="X86" s="13">
-        <v>124772727</v>
+        <v>149833333</v>
       </c>
       <c r="Y86" s="13">
-        <v>141947368</v>
+        <v>148875000</v>
       </c>
       <c r="Z86" s="13">
-        <v>149833333</v>
+        <v>138458333</v>
       </c>
       <c r="AA86" s="13">
-        <v>148875000</v>
+        <v>189571429</v>
       </c>
       <c r="AB86" s="13">
-        <v>138458333</v>
+        <v>147483871</v>
       </c>
       <c r="AC86" s="13">
-        <v>189571429</v>
+        <v>168085714</v>
       </c>
       <c r="AD86" s="13">
-        <v>147483871</v>
+        <v>145185185</v>
       </c>
       <c r="AE86" s="13">
-        <v>168085714</v>
+        <v>5851852</v>
       </c>
       <c r="AF86" s="13">
-        <v>145185185</v>
+        <v>174884615</v>
       </c>
       <c r="AG86" s="13">
-        <v>5851852</v>
+        <v>89600000</v>
       </c>
       <c r="AH86" s="13">
-        <v>174884615</v>
+        <v>164601626</v>
       </c>
       <c r="AI86" s="13">
-        <v>89600000</v>
+        <v>408615385</v>
       </c>
       <c r="AJ86" s="13">
-        <v>164601626</v>
+        <v>238600000</v>
       </c>
       <c r="AK86" s="13">
-        <v>408615385</v>
+        <v>239000000</v>
       </c>
       <c r="AL86" s="13">
-        <v>238600000</v>
+        <v>240620690</v>
       </c>
       <c r="AM86" s="13">
-        <v>239000000</v>
+        <v>248800000</v>
       </c>
       <c r="AN86" s="13">
-        <v>240620690</v>
+        <v>247272727</v>
       </c>
       <c r="AO86" s="13">
-        <v>248800000</v>
+        <v>216142857</v>
       </c>
       <c r="AP86" s="13">
-        <v>247272727</v>
+        <v>258000000</v>
       </c>
       <c r="AQ86" s="13">
-        <v>216142857</v>
+        <v>269227273</v>
       </c>
       <c r="AR86" s="13">
         <v>258000000</v>
       </c>
       <c r="AS86" s="13">
-        <v>269227273</v>
+        <v>284333333</v>
       </c>
       <c r="AT86" s="13">
-        <v>258000000</v>
+        <v>479578947</v>
       </c>
       <c r="AU86" s="13">
-        <v>284333333</v>
+        <v>407928571</v>
       </c>
       <c r="AV86" s="13">
-        <v>479578947</v>
+        <v>438055556</v>
       </c>
       <c r="AW86" s="13">
-        <v>407928571</v>
+        <v>418388889</v>
       </c>
       <c r="AX86" s="13">
-        <v>438055556</v>
+        <v>432315789</v>
       </c>
       <c r="AY86" s="13">
-        <v>418388889</v>
+        <v>401500000</v>
       </c>
       <c r="AZ86" s="13">
-        <v>432315789</v>
+        <v>566650000</v>
       </c>
       <c r="BA86" s="13">
-        <v>401500000</v>
+        <v>413750000</v>
       </c>
       <c r="BB86" s="13">
-        <v>566650000</v>
+        <v>423227273</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>59</v>
       </c>
@@ -11327,157 +11327,157 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>32048714</v>
+        <v>34583257</v>
       </c>
       <c r="F87" s="11">
-        <v>34032311</v>
+        <v>34523568</v>
       </c>
       <c r="G87" s="11">
-        <v>34583257</v>
+        <v>35145067</v>
       </c>
       <c r="H87" s="11">
-        <v>34523568</v>
+        <v>35226057</v>
       </c>
       <c r="I87" s="11">
-        <v>35145067</v>
+        <v>33996917</v>
       </c>
       <c r="J87" s="11">
-        <v>35226057</v>
+        <v>30770680</v>
       </c>
       <c r="K87" s="11">
-        <v>33996917</v>
+        <v>41648507</v>
       </c>
       <c r="L87" s="11">
-        <v>30770680</v>
+        <v>43135444</v>
       </c>
       <c r="M87" s="11">
-        <v>41648507</v>
+        <v>43576813</v>
       </c>
       <c r="N87" s="11">
-        <v>43135444</v>
+        <v>44603869</v>
       </c>
       <c r="O87" s="11">
-        <v>43576813</v>
+        <v>44262512</v>
       </c>
       <c r="P87" s="11">
-        <v>44603869</v>
+        <v>42421856</v>
       </c>
       <c r="Q87" s="11">
-        <v>44262512</v>
+        <v>38797380</v>
       </c>
       <c r="R87" s="11">
-        <v>42421856</v>
-      </c>
-      <c r="S87" s="11">
-        <v>38797380</v>
+        <v>38792992</v>
+      </c>
+      <c r="S87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T87" s="11">
-        <v>38792992</v>
-      </c>
-      <c r="U87" s="11" t="s">
-        <v>57</v>
+        <v>34295332</v>
+      </c>
+      <c r="U87" s="11">
+        <v>36811264</v>
       </c>
       <c r="V87" s="11">
-        <v>34295332</v>
+        <v>37227848</v>
       </c>
       <c r="W87" s="11">
-        <v>36811264</v>
+        <v>53063561</v>
       </c>
       <c r="X87" s="11">
-        <v>37227848</v>
+        <v>59568927</v>
       </c>
       <c r="Y87" s="11">
-        <v>53063561</v>
+        <v>65815873</v>
       </c>
       <c r="Z87" s="11">
-        <v>59568927</v>
+        <v>60888607</v>
       </c>
       <c r="AA87" s="11">
-        <v>65815873</v>
+        <v>50857495</v>
       </c>
       <c r="AB87" s="11">
-        <v>60888607</v>
+        <v>74549539</v>
       </c>
       <c r="AC87" s="11">
-        <v>50857495</v>
+        <v>90195594</v>
       </c>
       <c r="AD87" s="11">
-        <v>74549539</v>
+        <v>64919874</v>
       </c>
       <c r="AE87" s="11">
-        <v>90195594</v>
+        <v>95050987</v>
       </c>
       <c r="AF87" s="11">
-        <v>64919874</v>
+        <v>64714924</v>
       </c>
       <c r="AG87" s="11">
-        <v>95050987</v>
+        <v>70604968</v>
       </c>
       <c r="AH87" s="11">
-        <v>64714924</v>
+        <v>77293111</v>
       </c>
       <c r="AI87" s="11">
-        <v>70604968</v>
+        <v>75920788</v>
       </c>
       <c r="AJ87" s="11">
-        <v>77293111</v>
+        <v>91633617</v>
       </c>
       <c r="AK87" s="11">
-        <v>75920788</v>
+        <v>97709771</v>
       </c>
       <c r="AL87" s="11">
-        <v>91633617</v>
+        <v>111308772</v>
       </c>
       <c r="AM87" s="11">
-        <v>97709771</v>
+        <v>113229381</v>
       </c>
       <c r="AN87" s="11">
-        <v>111308772</v>
+        <v>129085315</v>
       </c>
       <c r="AO87" s="11">
-        <v>113229381</v>
+        <v>104000384</v>
       </c>
       <c r="AP87" s="11">
-        <v>129085315</v>
+        <v>102190062</v>
       </c>
       <c r="AQ87" s="11">
-        <v>104000384</v>
+        <v>105731457</v>
       </c>
       <c r="AR87" s="11">
-        <v>102190062</v>
+        <v>108267001</v>
       </c>
       <c r="AS87" s="11">
-        <v>105731457</v>
+        <v>128917782</v>
       </c>
       <c r="AT87" s="11">
-        <v>108267001</v>
+        <v>188527792</v>
       </c>
       <c r="AU87" s="11">
-        <v>128917782</v>
+        <v>194350760</v>
       </c>
       <c r="AV87" s="11">
-        <v>188527792</v>
+        <v>193125000</v>
       </c>
       <c r="AW87" s="11">
-        <v>194350760</v>
+        <v>186233459</v>
       </c>
       <c r="AX87" s="11">
-        <v>193125000</v>
+        <v>184404733</v>
       </c>
       <c r="AY87" s="11">
-        <v>186233459</v>
+        <v>191734627</v>
       </c>
       <c r="AZ87" s="11">
-        <v>184404733</v>
+        <v>187263649</v>
       </c>
       <c r="BA87" s="11">
-        <v>191734627</v>
+        <v>185024313</v>
       </c>
       <c r="BB87" s="11">
-        <v>187263649</v>
+        <v>188954998</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>60</v>
       </c>
@@ -11486,157 +11486,157 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>148383459</v>
+        <v>133098266</v>
       </c>
       <c r="F88" s="13">
-        <v>125428571</v>
+        <v>130250980</v>
       </c>
       <c r="G88" s="13">
-        <v>133098266</v>
+        <v>91680851</v>
       </c>
       <c r="H88" s="13">
-        <v>130250980</v>
+        <v>127895455</v>
       </c>
       <c r="I88" s="13">
-        <v>91680851</v>
+        <v>166921914</v>
       </c>
       <c r="J88" s="13">
-        <v>127895455</v>
+        <v>167109865</v>
       </c>
       <c r="K88" s="13">
-        <v>166921914</v>
+        <v>157228175</v>
       </c>
       <c r="L88" s="13">
-        <v>167109865</v>
+        <v>196424000</v>
       </c>
       <c r="M88" s="13">
-        <v>157228175</v>
+        <v>228375000</v>
       </c>
       <c r="N88" s="13">
-        <v>196424000</v>
+        <v>211158228</v>
       </c>
       <c r="O88" s="13">
-        <v>228375000</v>
+        <v>224804924</v>
       </c>
       <c r="P88" s="13">
-        <v>211158228</v>
+        <v>241932039</v>
       </c>
       <c r="Q88" s="13">
-        <v>224804924</v>
+        <v>231168081</v>
       </c>
       <c r="R88" s="13">
-        <v>241932039</v>
-      </c>
-      <c r="S88" s="13">
-        <v>231168081</v>
+        <v>245678610</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T88" s="13">
-        <v>245678610</v>
-      </c>
-      <c r="U88" s="13" t="s">
-        <v>57</v>
+        <v>205338843</v>
+      </c>
+      <c r="U88" s="13">
+        <v>150448529</v>
       </c>
       <c r="V88" s="13">
-        <v>205338843</v>
+        <v>219267123</v>
       </c>
       <c r="W88" s="13">
-        <v>150448529</v>
+        <v>239949807</v>
       </c>
       <c r="X88" s="13">
-        <v>219267123</v>
+        <v>276351779</v>
       </c>
       <c r="Y88" s="13">
-        <v>239949807</v>
+        <v>307416393</v>
       </c>
       <c r="Z88" s="13">
-        <v>276351779</v>
+        <v>284904918</v>
       </c>
       <c r="AA88" s="13">
-        <v>307416393</v>
+        <v>279312821</v>
       </c>
       <c r="AB88" s="13">
-        <v>284904918</v>
+        <v>295318786</v>
       </c>
       <c r="AC88" s="13">
-        <v>279312821</v>
+        <v>335889807</v>
       </c>
       <c r="AD88" s="13">
-        <v>295318786</v>
+        <v>283402913</v>
       </c>
       <c r="AE88" s="13">
-        <v>335889807</v>
+        <v>301286195</v>
       </c>
       <c r="AF88" s="13">
-        <v>283402913</v>
+        <v>265308197</v>
       </c>
       <c r="AG88" s="13">
-        <v>301286195</v>
+        <v>330550802</v>
       </c>
       <c r="AH88" s="13">
-        <v>265308197</v>
+        <v>305844156</v>
       </c>
       <c r="AI88" s="13">
-        <v>330550802</v>
+        <v>485076923</v>
       </c>
       <c r="AJ88" s="13">
-        <v>305844156</v>
+        <v>377195804</v>
       </c>
       <c r="AK88" s="13">
-        <v>485076923</v>
+        <v>449382353</v>
       </c>
       <c r="AL88" s="13">
-        <v>377195804</v>
+        <v>425980296</v>
       </c>
       <c r="AM88" s="13">
-        <v>449382353</v>
+        <v>427589744</v>
       </c>
       <c r="AN88" s="13">
-        <v>425980296</v>
+        <v>459686869</v>
       </c>
       <c r="AO88" s="13">
-        <v>427589744</v>
+        <v>388238806</v>
       </c>
       <c r="AP88" s="13">
-        <v>459686869</v>
+        <v>352109195</v>
       </c>
       <c r="AQ88" s="13">
-        <v>388238806</v>
+        <v>352892694</v>
       </c>
       <c r="AR88" s="13">
-        <v>352109195</v>
+        <v>318300532</v>
       </c>
       <c r="AS88" s="13">
-        <v>352892694</v>
+        <v>449018868</v>
       </c>
       <c r="AT88" s="13">
-        <v>318300532</v>
+        <v>570477876</v>
       </c>
       <c r="AU88" s="13">
-        <v>449018868</v>
+        <v>577307368</v>
       </c>
       <c r="AV88" s="13">
-        <v>570477876</v>
+        <v>637544892</v>
       </c>
       <c r="AW88" s="13">
-        <v>577307368</v>
+        <v>623479532</v>
       </c>
       <c r="AX88" s="13">
-        <v>637544892</v>
+        <v>578454106</v>
       </c>
       <c r="AY88" s="13">
-        <v>623479532</v>
+        <v>693916667</v>
       </c>
       <c r="AZ88" s="13">
-        <v>578454106</v>
+        <v>607774096</v>
       </c>
       <c r="BA88" s="13">
-        <v>693916667</v>
+        <v>699205333</v>
       </c>
       <c r="BB88" s="13">
-        <v>607774096</v>
+        <v>621735350</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>61</v>
       </c>
@@ -11645,157 +11645,157 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>34703812</v>
+        <v>35350545</v>
       </c>
       <c r="F89" s="11">
-        <v>35541571</v>
+        <v>36667404</v>
       </c>
       <c r="G89" s="11">
-        <v>35350545</v>
+        <v>33093868</v>
       </c>
       <c r="H89" s="11">
-        <v>36667404</v>
+        <v>38639088</v>
       </c>
       <c r="I89" s="11">
-        <v>33093868</v>
+        <v>39090566</v>
       </c>
       <c r="J89" s="11">
-        <v>38639088</v>
+        <v>40567069</v>
       </c>
       <c r="K89" s="11">
-        <v>39090566</v>
+        <v>46058204</v>
       </c>
       <c r="L89" s="11">
-        <v>40567069</v>
+        <v>45932295</v>
       </c>
       <c r="M89" s="11">
-        <v>46058204</v>
+        <v>46412667</v>
       </c>
       <c r="N89" s="11">
-        <v>45932295</v>
+        <v>46689373</v>
       </c>
       <c r="O89" s="11">
-        <v>46412667</v>
+        <v>46657975</v>
       </c>
       <c r="P89" s="11">
-        <v>46689373</v>
+        <v>46374012</v>
       </c>
       <c r="Q89" s="11">
-        <v>46657975</v>
+        <v>46513267</v>
       </c>
       <c r="R89" s="11">
-        <v>46374012</v>
-      </c>
-      <c r="S89" s="11">
-        <v>46513267</v>
+        <v>46496183</v>
+      </c>
+      <c r="S89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T89" s="11">
-        <v>46496183</v>
-      </c>
-      <c r="U89" s="11" t="s">
-        <v>57</v>
+        <v>46762484</v>
+      </c>
+      <c r="U89" s="11">
+        <v>47281103</v>
       </c>
       <c r="V89" s="11">
-        <v>46762484</v>
+        <v>48803269</v>
       </c>
       <c r="W89" s="11">
-        <v>47281103</v>
+        <v>54199201</v>
       </c>
       <c r="X89" s="11">
-        <v>48803269</v>
+        <v>57214837</v>
       </c>
       <c r="Y89" s="11">
-        <v>54199201</v>
+        <v>57534898</v>
       </c>
       <c r="Z89" s="11">
-        <v>57214837</v>
+        <v>58935460</v>
       </c>
       <c r="AA89" s="11">
-        <v>57534898</v>
+        <v>59861852</v>
       </c>
       <c r="AB89" s="11">
-        <v>58935460</v>
+        <v>71651362</v>
       </c>
       <c r="AC89" s="11">
-        <v>59861852</v>
+        <v>74243846</v>
       </c>
       <c r="AD89" s="11">
-        <v>71651362</v>
+        <v>72563941</v>
       </c>
       <c r="AE89" s="11">
-        <v>74243846</v>
+        <v>70743558</v>
       </c>
       <c r="AF89" s="11">
-        <v>72563941</v>
+        <v>73114883</v>
       </c>
       <c r="AG89" s="11">
-        <v>70743558</v>
+        <v>78048077</v>
       </c>
       <c r="AH89" s="11">
-        <v>73114883</v>
+        <v>82014369</v>
       </c>
       <c r="AI89" s="11">
-        <v>78048077</v>
+        <v>90746361</v>
       </c>
       <c r="AJ89" s="11">
-        <v>82014369</v>
+        <v>106330496</v>
       </c>
       <c r="AK89" s="11">
-        <v>90746361</v>
+        <v>125056338</v>
       </c>
       <c r="AL89" s="11">
-        <v>106330496</v>
+        <v>125886459</v>
       </c>
       <c r="AM89" s="11">
-        <v>125056338</v>
+        <v>126448307</v>
       </c>
       <c r="AN89" s="11">
-        <v>125886459</v>
+        <v>125463557</v>
       </c>
       <c r="AO89" s="11">
-        <v>126448307</v>
+        <v>126464575</v>
       </c>
       <c r="AP89" s="11">
-        <v>125463557</v>
+        <v>127726076</v>
       </c>
       <c r="AQ89" s="11">
-        <v>126464575</v>
+        <v>128826312</v>
       </c>
       <c r="AR89" s="11">
-        <v>127726076</v>
+        <v>130752831</v>
       </c>
       <c r="AS89" s="11">
-        <v>128826312</v>
+        <v>146174578</v>
       </c>
       <c r="AT89" s="11">
-        <v>130752831</v>
+        <v>233708649</v>
       </c>
       <c r="AU89" s="11">
-        <v>146174578</v>
+        <v>220963993</v>
       </c>
       <c r="AV89" s="11">
-        <v>233708649</v>
+        <v>229164225</v>
       </c>
       <c r="AW89" s="11">
-        <v>220963993</v>
+        <v>228279279</v>
       </c>
       <c r="AX89" s="11">
-        <v>229164225</v>
+        <v>225801980</v>
       </c>
       <c r="AY89" s="11">
-        <v>228279279</v>
+        <v>225681704</v>
       </c>
       <c r="AZ89" s="11">
-        <v>225801980</v>
+        <v>221172377</v>
       </c>
       <c r="BA89" s="11">
-        <v>225681704</v>
+        <v>222820459</v>
       </c>
       <c r="BB89" s="11">
-        <v>221172377</v>
+        <v>223218487</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>62</v>
       </c>
@@ -11804,157 +11804,157 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>136228571</v>
+        <v>142726126</v>
       </c>
       <c r="F90" s="13">
-        <v>134177866</v>
+        <v>144668129</v>
       </c>
       <c r="G90" s="13">
-        <v>142726126</v>
+        <v>146452703</v>
       </c>
       <c r="H90" s="13">
-        <v>144668129</v>
+        <v>146164645</v>
       </c>
       <c r="I90" s="13">
-        <v>146452703</v>
+        <v>147472222</v>
       </c>
       <c r="J90" s="13">
-        <v>146164645</v>
+        <v>143681553</v>
       </c>
       <c r="K90" s="13">
-        <v>147472222</v>
+        <v>171996032</v>
       </c>
       <c r="L90" s="13">
-        <v>143681553</v>
+        <v>173182310</v>
       </c>
       <c r="M90" s="13">
-        <v>171996032</v>
+        <v>178712785</v>
       </c>
       <c r="N90" s="13">
-        <v>173182310</v>
+        <v>184377232</v>
       </c>
       <c r="O90" s="13">
-        <v>178712785</v>
+        <v>183712477</v>
       </c>
       <c r="P90" s="13">
-        <v>184377232</v>
+        <v>183180974</v>
       </c>
       <c r="Q90" s="13">
-        <v>183712477</v>
+        <v>186549107</v>
       </c>
       <c r="R90" s="13">
-        <v>183180974</v>
-      </c>
-      <c r="S90" s="13">
-        <v>186549107</v>
+        <v>181803204</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T90" s="13">
-        <v>181803204</v>
-      </c>
-      <c r="U90" s="13" t="s">
-        <v>57</v>
+        <v>183718010</v>
+      </c>
+      <c r="U90" s="13">
+        <v>188091760</v>
       </c>
       <c r="V90" s="13">
-        <v>183718010</v>
+        <v>186322183</v>
       </c>
       <c r="W90" s="13">
-        <v>188091760</v>
+        <v>213037767</v>
       </c>
       <c r="X90" s="13">
-        <v>186322183</v>
+        <v>244129213</v>
       </c>
       <c r="Y90" s="13">
-        <v>213037767</v>
+        <v>235359127</v>
       </c>
       <c r="Z90" s="13">
-        <v>244129213</v>
+        <v>240651316</v>
       </c>
       <c r="AA90" s="13">
-        <v>235359127</v>
+        <v>256370270</v>
       </c>
       <c r="AB90" s="13">
-        <v>240651316</v>
+        <v>324086592</v>
       </c>
       <c r="AC90" s="13">
-        <v>256370270</v>
+        <v>367748756</v>
       </c>
       <c r="AD90" s="13">
-        <v>324086592</v>
+        <v>314190709</v>
       </c>
       <c r="AE90" s="13">
-        <v>367748756</v>
+        <v>244446502</v>
       </c>
       <c r="AF90" s="13">
-        <v>314190709</v>
+        <v>312702461</v>
       </c>
       <c r="AG90" s="13">
-        <v>244446502</v>
+        <v>310982222</v>
       </c>
       <c r="AH90" s="13">
-        <v>312702461</v>
+        <v>336904762</v>
       </c>
       <c r="AI90" s="13">
-        <v>310982222</v>
+        <v>363941300</v>
       </c>
       <c r="AJ90" s="13">
-        <v>336904762</v>
+        <v>392983740</v>
       </c>
       <c r="AK90" s="13">
-        <v>363941300</v>
+        <v>439224215</v>
       </c>
       <c r="AL90" s="13">
-        <v>392983740</v>
+        <v>438233766</v>
       </c>
       <c r="AM90" s="13">
-        <v>439224215</v>
+        <v>438021127</v>
       </c>
       <c r="AN90" s="13">
-        <v>438233766</v>
+        <v>445236074</v>
       </c>
       <c r="AO90" s="13">
-        <v>438021127</v>
+        <v>442723404</v>
       </c>
       <c r="AP90" s="13">
-        <v>445236074</v>
+        <v>433155709</v>
       </c>
       <c r="AQ90" s="13">
-        <v>442723404</v>
+        <v>434435000</v>
       </c>
       <c r="AR90" s="13">
-        <v>433155709</v>
+        <v>431183183</v>
       </c>
       <c r="AS90" s="13">
-        <v>434435000</v>
+        <v>525421836</v>
       </c>
       <c r="AT90" s="13">
-        <v>431183183</v>
+        <v>845985955</v>
       </c>
       <c r="AU90" s="13">
-        <v>525421836</v>
+        <v>772048780</v>
       </c>
       <c r="AV90" s="13">
-        <v>845985955</v>
+        <v>811513021</v>
       </c>
       <c r="AW90" s="13">
-        <v>772048780</v>
+        <v>790508242</v>
       </c>
       <c r="AX90" s="13">
-        <v>811513021</v>
+        <v>805781065</v>
       </c>
       <c r="AY90" s="13">
-        <v>790508242</v>
+        <v>758554217</v>
       </c>
       <c r="AZ90" s="13">
-        <v>805781065</v>
+        <v>771862963</v>
       </c>
       <c r="BA90" s="13">
-        <v>758554217</v>
+        <v>729557769</v>
       </c>
       <c r="BB90" s="13">
-        <v>771862963</v>
+        <v>726483871</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>63</v>
       </c>
@@ -11963,157 +11963,157 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>315529412</v>
+        <v>282105263</v>
       </c>
       <c r="F91" s="11">
-        <v>308381579</v>
+        <v>269917808</v>
       </c>
       <c r="G91" s="11">
-        <v>282105263</v>
+        <v>215381818</v>
       </c>
       <c r="H91" s="11">
-        <v>269917808</v>
+        <v>323445545</v>
       </c>
       <c r="I91" s="11">
-        <v>215381818</v>
+        <v>294250000</v>
       </c>
       <c r="J91" s="11">
-        <v>323445545</v>
+        <v>272088235</v>
       </c>
       <c r="K91" s="11">
-        <v>294250000</v>
+        <v>321108108</v>
       </c>
       <c r="L91" s="11">
-        <v>272088235</v>
+        <v>315066667</v>
       </c>
       <c r="M91" s="11">
-        <v>321108108</v>
+        <v>325916667</v>
       </c>
       <c r="N91" s="11">
-        <v>315066667</v>
+        <v>345621212</v>
       </c>
       <c r="O91" s="11">
-        <v>325916667</v>
+        <v>352793103</v>
       </c>
       <c r="P91" s="11">
-        <v>345621212</v>
+        <v>345961538</v>
       </c>
       <c r="Q91" s="11">
-        <v>352793103</v>
+        <v>340500000</v>
       </c>
       <c r="R91" s="11">
-        <v>345961538</v>
-      </c>
-      <c r="S91" s="11">
-        <v>340500000</v>
+        <v>349027027</v>
+      </c>
+      <c r="S91" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T91" s="11">
-        <v>349027027</v>
-      </c>
-      <c r="U91" s="11" t="s">
-        <v>57</v>
+        <v>332875000</v>
+      </c>
+      <c r="U91" s="11">
+        <v>343969697</v>
       </c>
       <c r="V91" s="11">
-        <v>332875000</v>
+        <v>347030303</v>
       </c>
       <c r="W91" s="11">
-        <v>343969697</v>
+        <v>344106383</v>
       </c>
       <c r="X91" s="11">
-        <v>347030303</v>
+        <v>356111111</v>
       </c>
       <c r="Y91" s="11">
-        <v>344106383</v>
+        <v>469194030</v>
       </c>
       <c r="Z91" s="11">
-        <v>356111111</v>
+        <v>631140000</v>
       </c>
       <c r="AA91" s="11">
-        <v>469194030</v>
+        <v>630896552</v>
       </c>
       <c r="AB91" s="11">
-        <v>631140000</v>
+        <v>676686747</v>
       </c>
       <c r="AC91" s="11">
-        <v>630896552</v>
+        <v>636833333</v>
       </c>
       <c r="AD91" s="11">
-        <v>676686747</v>
+        <v>681677419</v>
       </c>
       <c r="AE91" s="11">
-        <v>636833333</v>
+        <v>742846154</v>
       </c>
       <c r="AF91" s="11">
-        <v>681677419</v>
+        <v>679923077</v>
       </c>
       <c r="AG91" s="11">
-        <v>742846154</v>
+        <v>724500000</v>
       </c>
       <c r="AH91" s="11">
-        <v>679923077</v>
+        <v>778272727</v>
       </c>
       <c r="AI91" s="11">
-        <v>724500000</v>
+        <v>913352941</v>
       </c>
       <c r="AJ91" s="11">
-        <v>778272727</v>
+        <v>671088235</v>
       </c>
       <c r="AK91" s="11">
-        <v>913352941</v>
+        <v>755647887</v>
       </c>
       <c r="AL91" s="11">
-        <v>671088235</v>
+        <v>787133333</v>
       </c>
       <c r="AM91" s="11">
-        <v>755647887</v>
+        <v>867810811</v>
       </c>
       <c r="AN91" s="11">
-        <v>787133333</v>
+        <v>867206897</v>
       </c>
       <c r="AO91" s="11">
-        <v>867810811</v>
+        <v>829294118</v>
       </c>
       <c r="AP91" s="11">
-        <v>867206897</v>
+        <v>820000000</v>
       </c>
       <c r="AQ91" s="11">
-        <v>829294118</v>
+        <v>779392857</v>
       </c>
       <c r="AR91" s="11">
-        <v>820000000</v>
+        <v>711643963</v>
       </c>
       <c r="AS91" s="11">
-        <v>779392857</v>
+        <v>779265734</v>
       </c>
       <c r="AT91" s="11">
-        <v>711643963</v>
+        <v>1307600000</v>
       </c>
       <c r="AU91" s="11">
-        <v>779265734</v>
+        <v>1347876106</v>
       </c>
       <c r="AV91" s="11">
-        <v>1307600000</v>
+        <v>1644461538</v>
       </c>
       <c r="AW91" s="11">
-        <v>1347876106</v>
+        <v>1491526316</v>
       </c>
       <c r="AX91" s="11">
-        <v>1644461538</v>
+        <v>1385641379</v>
       </c>
       <c r="AY91" s="11">
-        <v>1491526316</v>
+        <v>1454175115</v>
       </c>
       <c r="AZ91" s="11">
-        <v>1385641379</v>
+        <v>1407575000</v>
       </c>
       <c r="BA91" s="11">
-        <v>1454175115</v>
+        <v>1479775701</v>
       </c>
       <c r="BB91" s="11">
-        <v>1407575000</v>
+        <v>1488490476</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>64</v>
       </c>
@@ -12122,157 +12122,157 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>172913580</v>
+        <v>169113965</v>
       </c>
       <c r="F92" s="13">
-        <v>160421687</v>
+        <v>160117647</v>
       </c>
       <c r="G92" s="13">
-        <v>169113965</v>
+        <v>171184549</v>
       </c>
       <c r="H92" s="13">
-        <v>160117647</v>
+        <v>196093750</v>
       </c>
       <c r="I92" s="13">
-        <v>171184549</v>
+        <v>165509186</v>
       </c>
       <c r="J92" s="13">
-        <v>196093750</v>
+        <v>149449782</v>
       </c>
       <c r="K92" s="13">
-        <v>165509186</v>
+        <v>135216216</v>
       </c>
       <c r="L92" s="13">
-        <v>149449782</v>
+        <v>139925170</v>
       </c>
       <c r="M92" s="13">
-        <v>135216216</v>
+        <v>165141026</v>
       </c>
       <c r="N92" s="13">
-        <v>139925170</v>
+        <v>151474453</v>
       </c>
       <c r="O92" s="13">
-        <v>165141026</v>
+        <v>170992754</v>
       </c>
       <c r="P92" s="13">
-        <v>151474453</v>
+        <v>196543046</v>
       </c>
       <c r="Q92" s="13">
-        <v>170992754</v>
+        <v>122896226</v>
       </c>
       <c r="R92" s="13">
-        <v>196543046</v>
-      </c>
-      <c r="S92" s="13">
-        <v>122896226</v>
+        <v>184587629</v>
+      </c>
+      <c r="S92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="T92" s="13">
-        <v>184587629</v>
-      </c>
-      <c r="U92" s="13" t="s">
-        <v>57</v>
+        <v>256198020</v>
+      </c>
+      <c r="U92" s="13">
+        <v>210323129</v>
       </c>
       <c r="V92" s="13">
-        <v>256198020</v>
+        <v>189553333</v>
       </c>
       <c r="W92" s="13">
-        <v>210323129</v>
+        <v>254159091</v>
       </c>
       <c r="X92" s="13">
-        <v>189553333</v>
+        <v>272575499</v>
       </c>
       <c r="Y92" s="13">
-        <v>254159091</v>
+        <v>242410256</v>
       </c>
       <c r="Z92" s="13">
-        <v>272575499</v>
+        <v>173835616</v>
       </c>
       <c r="AA92" s="13">
-        <v>242410256</v>
+        <v>177020270</v>
       </c>
       <c r="AB92" s="13">
-        <v>173835616</v>
+        <v>205744493</v>
       </c>
       <c r="AC92" s="13">
-        <v>177020270</v>
+        <v>269292553</v>
       </c>
       <c r="AD92" s="13">
-        <v>205744493</v>
+        <v>151637584</v>
       </c>
       <c r="AE92" s="13">
-        <v>269292553</v>
+        <v>317926773</v>
       </c>
       <c r="AF92" s="13">
-        <v>151637584</v>
+        <v>138271255</v>
       </c>
       <c r="AG92" s="13">
-        <v>317926773</v>
+        <v>200591346</v>
       </c>
       <c r="AH92" s="13">
-        <v>138271255</v>
+        <v>233778378</v>
       </c>
       <c r="AI92" s="13">
-        <v>200591346</v>
+        <v>357066832</v>
       </c>
       <c r="AJ92" s="13">
-        <v>233778378</v>
+        <v>519343023</v>
       </c>
       <c r="AK92" s="13">
-        <v>357066832</v>
+        <v>425064655</v>
       </c>
       <c r="AL92" s="13">
-        <v>519343023</v>
+        <v>480234432</v>
       </c>
       <c r="AM92" s="13">
-        <v>425064655</v>
+        <v>489624561</v>
       </c>
       <c r="AN92" s="13">
-        <v>480234432</v>
+        <v>614401070</v>
       </c>
       <c r="AO92" s="13">
-        <v>489624561</v>
+        <v>659622951</v>
       </c>
       <c r="AP92" s="13">
-        <v>614401070</v>
+        <v>580035176</v>
       </c>
       <c r="AQ92" s="13">
-        <v>659622951</v>
+        <v>556930470</v>
       </c>
       <c r="AR92" s="13">
-        <v>580035176</v>
+        <v>594935484</v>
       </c>
       <c r="AS92" s="13">
-        <v>556930470</v>
+        <v>752542254</v>
       </c>
       <c r="AT92" s="13">
-        <v>594935484</v>
+        <v>980478873</v>
       </c>
       <c r="AU92" s="13">
-        <v>752542254</v>
+        <v>1233535714</v>
       </c>
       <c r="AV92" s="13">
-        <v>980478873</v>
+        <v>706407787</v>
       </c>
       <c r="AW92" s="13">
-        <v>1233535714</v>
+        <v>963796512</v>
       </c>
       <c r="AX92" s="13">
-        <v>706407787</v>
+        <v>844011299</v>
       </c>
       <c r="AY92" s="13">
-        <v>963796512</v>
+        <v>769638243</v>
       </c>
       <c r="AZ92" s="13">
-        <v>844011299</v>
+        <v>875570071</v>
       </c>
       <c r="BA92" s="13">
-        <v>769638243</v>
+        <v>919796667</v>
       </c>
       <c r="BB92" s="13">
-        <v>875570071</v>
+        <v>940722222</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>84</v>
       </c>
@@ -12329,7 +12329,7 @@
       <c r="BA93" s="9"/>
       <c r="BB93" s="9"/>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>58</v>
       </c>
@@ -12418,11 +12418,11 @@
       <c r="AE94" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF94" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG94" s="11" t="s">
-        <v>57</v>
+      <c r="AF94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="11">
+        <v>0</v>
       </c>
       <c r="AH94" s="11">
         <v>0</v>

--- a/database/industries/ghaza/ghefars/product/monthly.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="85">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3232,154 +3232,154 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>1246</v>
+        <v>878</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>878</v>
+        <v>1228</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>1212</v>
+        <v>1254</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>1254</v>
+        <v>1140</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>1140</v>
+        <v>951</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>951</v>
+        <v>1030</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>1030</v>
+        <v>723</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>723</v>
+        <v>501</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>501</v>
+        <v>795</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>795</v>
-      </c>
-      <c r="Q11" s="12" t="n">
         <v>681</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="Q11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="13" t="n">
+        <v>1102</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>1102</v>
+        <v>1051</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>1051</v>
+        <v>1128</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>1128</v>
+        <v>1149</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="W11" s="13" t="n">
+        <v>1136</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>762</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>989</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>633</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>726</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>917</v>
+      </c>
+      <c r="AC11" s="13" t="n">
         <v>1185</v>
       </c>
-      <c r="X11" s="13" t="n">
-        <v>1136</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>762</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>989</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>633</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>726</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>917</v>
-      </c>
       <c r="AD11" s="13" t="n">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>1161</v>
+        <v>1061</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>1061</v>
+        <v>800</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>1046</v>
+        <v>837</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AJ11" s="13" t="n">
         <v>716</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>667</v>
+        <v>494</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>701</v>
+        <v>514</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>990</v>
+        <v>581</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>708</v>
+        <v>935</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="AV11" s="13" t="n">
+        <v>673</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>656</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>536</v>
+      </c>
+      <c r="AY11" s="13" t="n">
         <v>709</v>
       </c>
-      <c r="AW11" s="13" t="n">
-        <v>673</v>
-      </c>
-      <c r="AX11" s="13" t="n">
-        <v>656</v>
-      </c>
-      <c r="AY11" s="13" t="n">
-        <v>536</v>
-      </c>
       <c r="AZ11" s="13" t="n">
-        <v>709</v>
+        <v>439</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>439</v>
+        <v>966</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>966</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,97 +3391,97 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>36</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="M12" s="15" t="n">
+        <v>18</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="G12" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>36</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>25</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>19</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>21</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>22</v>
-      </c>
-      <c r="N12" s="15" t="n">
+      <c r="S12" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="T12" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="U12" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="O12" s="15" t="n">
-        <v>16</v>
-      </c>
-      <c r="P12" s="15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="15" t="n">
-        <v>17</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="T12" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="U12" s="16" t="n">
-        <v>13</v>
-      </c>
       <c r="V12" s="16" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="W12" s="16" t="n">
         <v>29</v>
       </c>
       <c r="X12" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="Y12" s="16" t="n">
+      <c r="AC12" s="16" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="16" t="n">
+        <v>182</v>
+      </c>
+      <c r="AE12" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="AF12" s="16" t="n">
+        <v>239</v>
+      </c>
+      <c r="AG12" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH12" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="Z12" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" s="16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB12" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD12" s="16" t="n">
-        <v>116</v>
-      </c>
-      <c r="AE12" s="16" t="n">
-        <v>182</v>
-      </c>
-      <c r="AF12" s="16" t="n">
-        <v>82</v>
-      </c>
-      <c r="AG12" s="16" t="n">
-        <v>239</v>
-      </c>
-      <c r="AH12" s="16" t="n">
-        <v>18</v>
-      </c>
       <c r="AI12" s="16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ12" s="16" t="n">
         <v>20</v>
@@ -3490,55 +3490,55 @@
         <v>20</v>
       </c>
       <c r="AL12" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM12" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO12" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP12" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR12" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS12" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT12" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU12" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AM12" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN12" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO12" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP12" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS12" s="16" t="n">
+      <c r="AV12" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX12" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ12" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="AT12" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU12" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV12" s="16" t="n">
+      <c r="BA12" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AW12" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX12" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY12" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ12" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA12" s="16" t="n">
-        <v>21</v>
-      </c>
       <c r="BB12" s="16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,154 +3550,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>3517</v>
+        <v>3159</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>3154</v>
+        <v>3000</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>3000</v>
+        <v>3293</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>3293</v>
+        <v>2131</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>2131</v>
+        <v>2366</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>2366</v>
+        <v>2860</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>2860</v>
+        <v>3401</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>3401</v>
+        <v>3144</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>3144</v>
+        <v>4159</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>4159</v>
+        <v>4441</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>4441</v>
-      </c>
-      <c r="Q13" s="13" t="n">
         <v>4190</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>57</v>
+      <c r="Q13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>2578</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>2578</v>
+        <v>3286</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>3286</v>
+        <v>4634</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>4634</v>
+        <v>2364</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>2364</v>
+        <v>2283</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2283</v>
+        <v>2103</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>2103</v>
+        <v>2709</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>2709</v>
+        <v>3188</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>3188</v>
+        <v>2437</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>2437</v>
+        <v>3200</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>3200</v>
+        <v>2889</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>2889</v>
+        <v>1917</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>1917</v>
+        <v>2985</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>2985</v>
+        <v>2133</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>2133</v>
+        <v>2391</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>2391</v>
+        <v>2371</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>2371</v>
+        <v>2262</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AJ13" s="13" t="n">
         <v>2259</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>2684</v>
+        <v>2852</v>
       </c>
       <c r="AM13" s="13" t="n">
+        <v>2854</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>2337</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>2248</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>2201</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>2265</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>1976</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>2165</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>2351</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>2410</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>2716</v>
+      </c>
+      <c r="AX13" s="13" t="n">
         <v>2852</v>
       </c>
-      <c r="AN13" s="13" t="n">
-        <v>2854</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>2337</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>2248</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>2201</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>1899</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>2265</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>1976</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>2165</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>2351</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>2410</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>2716</v>
-      </c>
       <c r="AY13" s="13" t="n">
-        <v>2852</v>
+        <v>2749</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>2749</v>
+        <v>2945</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>2945</v>
+        <v>2461</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>2461</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,154 +3709,154 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>493</v>
+        <v>205</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>337</v>
+        <v>530</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>498</v>
+        <v>590</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>590</v>
-      </c>
-      <c r="Q14" s="16" t="n">
         <v>897</v>
       </c>
-      <c r="R14" s="16" t="s">
-        <v>57</v>
+      <c r="Q14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="16" t="n">
+        <v>582</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>582</v>
+        <v>358</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AJ14" s="16" t="n">
         <v>282</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>471</v>
+        <v>189</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>189</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,154 +3868,154 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>1366</v>
+        <v>1312</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>1312</v>
+        <v>1559</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>1543</v>
+        <v>1576</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>1576</v>
+        <v>1826</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>1826</v>
+        <v>1676</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>1676</v>
+        <v>1368</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>1368</v>
+        <v>1482</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>1482</v>
+        <v>1223</v>
       </c>
       <c r="N15" s="13" t="n">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="O15" s="13" t="n">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="P15" s="13" t="n">
-        <v>1194</v>
-      </c>
-      <c r="Q15" s="13" t="n">
         <v>1236</v>
       </c>
-      <c r="R15" s="13" t="s">
-        <v>57</v>
+      <c r="Q15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>1629</v>
       </c>
       <c r="S15" s="13" t="n">
-        <v>1629</v>
+        <v>1753</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>1753</v>
+        <v>1734</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>1734</v>
+        <v>1783</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>1783</v>
+        <v>1640</v>
       </c>
       <c r="W15" s="13" t="n">
+        <v>1638</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>1296</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>1336</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>1317</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>1610</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>1909</v>
+      </c>
+      <c r="AE15" s="13" t="n">
         <v>1640</v>
       </c>
-      <c r="X15" s="13" t="n">
-        <v>1638</v>
-      </c>
-      <c r="Y15" s="13" t="n">
-        <v>1296</v>
-      </c>
-      <c r="Z15" s="13" t="n">
-        <v>1336</v>
-      </c>
-      <c r="AA15" s="13" t="n">
-        <v>1317</v>
-      </c>
-      <c r="AB15" s="13" t="n">
-        <v>1255</v>
-      </c>
-      <c r="AC15" s="13" t="n">
-        <v>1480</v>
-      </c>
-      <c r="AD15" s="13" t="n">
-        <v>1610</v>
-      </c>
-      <c r="AE15" s="13" t="n">
-        <v>1909</v>
-      </c>
       <c r="AF15" s="13" t="n">
-        <v>1640</v>
+        <v>1824</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>1831</v>
+        <v>1347</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AJ15" s="13" t="n">
         <v>1494</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>1139</v>
+        <v>1017</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>1009</v>
+        <v>1138</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>1043</v>
+        <v>1583</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>1583</v>
+        <v>1176</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>1176</v>
+        <v>1338</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>1338</v>
+        <v>1226</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>1247</v>
+        <v>1127</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>1113</v>
+        <v>1033</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>1033</v>
+        <v>946</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>946</v>
+        <v>1112</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>1112</v>
+        <v>1212</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>1212</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,154 +4027,154 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>678</v>
+        <v>431</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>431</v>
+        <v>596</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>596</v>
+        <v>450</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="J16" s="16" t="n">
+        <v>591</v>
+      </c>
+      <c r="K16" s="16" t="n">
+        <v>550</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>512</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>529</v>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>508</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>415</v>
+      </c>
+      <c r="P16" s="16" t="n">
+        <v>403</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <v>458</v>
+      </c>
+      <c r="S16" s="16" t="n">
         <v>485</v>
       </c>
-      <c r="K16" s="16" t="n">
-        <v>591</v>
-      </c>
-      <c r="L16" s="16" t="n">
-        <v>550</v>
-      </c>
-      <c r="M16" s="16" t="n">
-        <v>512</v>
-      </c>
-      <c r="N16" s="16" t="n">
-        <v>529</v>
-      </c>
-      <c r="O16" s="16" t="n">
-        <v>508</v>
-      </c>
-      <c r="P16" s="16" t="n">
-        <v>415</v>
-      </c>
-      <c r="Q16" s="16" t="n">
-        <v>403</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <v>458</v>
-      </c>
       <c r="T16" s="16" t="n">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="X16" s="16" t="n">
+        <v>376</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>357</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>414</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>473</v>
+      </c>
+      <c r="AB16" s="16" t="n">
         <v>440</v>
       </c>
-      <c r="Y16" s="16" t="n">
-        <v>376</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>357</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>414</v>
-      </c>
-      <c r="AB16" s="16" t="n">
+      <c r="AC16" s="16" t="n">
+        <v>408</v>
+      </c>
+      <c r="AD16" s="16" t="n">
+        <v>427</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>425</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>347</v>
+      </c>
+      <c r="AG16" s="16" t="n">
         <v>473</v>
       </c>
-      <c r="AC16" s="16" t="n">
-        <v>440</v>
-      </c>
-      <c r="AD16" s="16" t="n">
-        <v>408</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>427</v>
-      </c>
-      <c r="AF16" s="16" t="n">
-        <v>425</v>
-      </c>
-      <c r="AG16" s="16" t="n">
-        <v>347</v>
-      </c>
       <c r="AH16" s="16" t="n">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AJ16" s="16" t="n">
         <v>412</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>347</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,154 +4186,154 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="n">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="F17" s="13" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I17" s="13" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J17" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="K17" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="K17" s="13" t="n">
-        <v>38</v>
-      </c>
       <c r="L17" s="13" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M17" s="13" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="N17" s="13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O17" s="13" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="P17" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="Q17" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>57</v>
+      <c r="Q17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="13" t="n">
+        <v>15</v>
       </c>
       <c r="S17" s="13" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="T17" s="13" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="U17" s="13" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AE17" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="AF17" s="13" t="n">
-        <v>13</v>
-      </c>
       <c r="AG17" s="13" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="AR17" s="13" t="n">
+        <v>181</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>228</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>194</v>
+      </c>
+      <c r="AU17" s="13" t="n">
         <v>195</v>
       </c>
-      <c r="AS17" s="13" t="n">
-        <v>181</v>
-      </c>
-      <c r="AT17" s="13" t="n">
-        <v>228</v>
-      </c>
-      <c r="AU17" s="13" t="n">
-        <v>194</v>
-      </c>
       <c r="AV17" s="13" t="n">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>166</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,154 +4345,154 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="n">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F18" s="16" t="n">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G18" s="16" t="n">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="H18" s="16" t="n">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="I18" s="16" t="n">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J18" s="16" t="n">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="K18" s="16" t="n">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L18" s="16" t="n">
         <v>303</v>
       </c>
       <c r="M18" s="16" t="n">
-        <v>303</v>
+        <v>513</v>
       </c>
       <c r="N18" s="16" t="n">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="O18" s="16" t="n">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>439</v>
-      </c>
-      <c r="Q18" s="16" t="n">
         <v>496</v>
       </c>
-      <c r="R18" s="16" t="s">
-        <v>57</v>
+      <c r="Q18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="16" t="n">
+        <v>478</v>
       </c>
       <c r="S18" s="16" t="n">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="T18" s="16" t="n">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="U18" s="16" t="n">
-        <v>348</v>
+        <v>257</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="W18" s="16" t="n">
+        <v>237</v>
+      </c>
+      <c r="X18" s="16" t="n">
+        <v>742</v>
+      </c>
+      <c r="Y18" s="16" t="n">
         <v>265</v>
       </c>
-      <c r="X18" s="16" t="n">
-        <v>237</v>
-      </c>
-      <c r="Y18" s="16" t="n">
-        <v>742</v>
-      </c>
       <c r="Z18" s="16" t="n">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AJ18" s="16" t="n">
         <v>264</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>311</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,8 +4578,8 @@
       <c r="AC19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="13" t="s">
-        <v>57</v>
+      <c r="AD19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE19" s="13" t="n">
         <v>0</v>
@@ -4611,8 +4611,8 @@
       <c r="AN19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" s="13" t="n">
-        <v>0</v>
+      <c r="AO19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP19" s="13" t="s">
         <v>57</v>
@@ -4737,14 +4737,14 @@
       <c r="AC20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>57</v>
+      <c r="AD20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" s="16" t="n">
-        <v>0</v>
+      <c r="AF20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AG20" s="16" t="s">
         <v>57</v>
@@ -4896,8 +4896,8 @@
       <c r="AC21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="13" t="s">
-        <v>57</v>
+      <c r="AD21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE21" s="13" t="n">
         <v>0</v>
@@ -4929,8 +4929,8 @@
       <c r="AN21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="13" t="n">
-        <v>0</v>
+      <c r="AO21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP21" s="13" t="s">
         <v>57</v>
@@ -5055,8 +5055,8 @@
       <c r="AC22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>57</v>
+      <c r="AD22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE22" s="16" t="n">
         <v>0</v>
@@ -5088,8 +5088,8 @@
       <c r="AN22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" s="16" t="n">
-        <v>0</v>
+      <c r="AO22" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP22" s="16" t="s">
         <v>57</v>
@@ -5271,11 +5271,11 @@
       <c r="AC24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE24" s="13" t="n">
-        <v>0</v>
+      <c r="AD24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF24" s="13" t="s">
         <v>57</v>
@@ -5307,8 +5307,8 @@
       <c r="AO24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP24" s="13" t="s">
-        <v>57</v>
+      <c r="AP24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ24" s="13" t="n">
         <v>0</v>
@@ -5316,29 +5316,29 @@
       <c r="AR24" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS24" s="13" t="n">
-        <v>0</v>
+      <c r="AS24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV24" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX24" s="13" t="n">
-        <v>0</v>
+      <c r="AU24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ24" s="13" t="s">
-        <v>57</v>
+      <c r="AZ24" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA24" s="13" t="n">
         <v>0</v>
@@ -5401,8 +5401,8 @@
       <c r="T25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U25" s="18" t="s">
-        <v>57</v>
+      <c r="U25" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="18" t="n">
         <v>0</v>
@@ -5511,154 +5511,154 @@
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="n">
-        <v>7851</v>
+        <v>6550</v>
       </c>
       <c r="F26" s="20" t="n">
-        <v>6550</v>
+        <v>7240</v>
       </c>
       <c r="G26" s="20" t="n">
-        <v>7240</v>
+        <v>6975</v>
       </c>
       <c r="H26" s="20" t="n">
-        <v>6975</v>
+        <v>7343</v>
       </c>
       <c r="I26" s="20" t="n">
-        <v>7343</v>
+        <v>6388</v>
       </c>
       <c r="J26" s="20" t="n">
-        <v>6388</v>
+        <v>6310</v>
       </c>
       <c r="K26" s="20" t="n">
-        <v>6310</v>
+        <v>6409</v>
       </c>
       <c r="L26" s="20" t="n">
-        <v>6409</v>
+        <v>7338</v>
       </c>
       <c r="M26" s="20" t="n">
-        <v>7338</v>
+        <v>6743</v>
       </c>
       <c r="N26" s="20" t="n">
-        <v>6743</v>
+        <v>7336</v>
       </c>
       <c r="O26" s="20" t="n">
-        <v>7336</v>
+        <v>7911</v>
       </c>
       <c r="P26" s="20" t="n">
-        <v>7911</v>
+        <v>7934</v>
       </c>
       <c r="Q26" s="20" t="n">
-        <v>7934</v>
+        <v>0</v>
       </c>
       <c r="R26" s="20" t="n">
-        <v>0</v>
+        <v>6866</v>
       </c>
       <c r="S26" s="20" t="n">
-        <v>6866</v>
+        <v>7380</v>
       </c>
       <c r="T26" s="20" t="n">
-        <v>7380</v>
+        <v>8538</v>
       </c>
       <c r="U26" s="20" t="n">
-        <v>8538</v>
+        <v>6538</v>
       </c>
       <c r="V26" s="20" t="n">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="W26" s="20" t="n">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="X26" s="20" t="n">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="Y26" s="20" t="n">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="Z26" s="20" t="n">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="AA26" s="20" t="n">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AB26" s="20" t="n">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AC26" s="20" t="n">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AD26" s="20" t="n">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AE26" s="20" t="n">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AF26" s="20" t="n">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AG26" s="20" t="n">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AH26" s="20" t="n">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AI26" s="20" t="n">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AJ26" s="20" t="n">
+        <v>5486</v>
+      </c>
+      <c r="AK26" s="20" t="n">
         <v>5508</v>
       </c>
-      <c r="AK26" s="20" t="n">
-        <v>5486</v>
-      </c>
       <c r="AL26" s="20" t="n">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AM26" s="20" t="n">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AN26" s="20" t="n">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AO26" s="20" t="n">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AP26" s="20" t="n">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AQ26" s="20" t="n">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AR26" s="20" t="n">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AS26" s="20" t="n">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AT26" s="20" t="n">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AU26" s="20" t="n">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AV26" s="20" t="n">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="AW26" s="20" t="n">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="AX26" s="20" t="n">
-        <v>5788</v>
+        <v>5676</v>
       </c>
       <c r="AY26" s="20" t="n">
-        <v>5676</v>
+        <v>5672</v>
       </c>
       <c r="AZ26" s="20" t="n">
+        <v>5690</v>
+      </c>
+      <c r="BA26" s="20" t="n">
         <v>5672</v>
       </c>
-      <c r="BA26" s="20" t="n">
-        <v>5690</v>
-      </c>
       <c r="BB26" s="20" t="n">
-        <v>5672</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,154 +6104,154 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="n">
-        <v>1233</v>
+        <v>659</v>
       </c>
       <c r="F33" s="13" t="n">
-        <v>659</v>
+        <v>1237</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>1237</v>
+        <v>1442</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>1442</v>
+        <v>1213</v>
       </c>
       <c r="I33" s="13" t="n">
-        <v>1213</v>
+        <v>1266</v>
       </c>
       <c r="J33" s="13" t="n">
-        <v>1266</v>
+        <v>1174</v>
       </c>
       <c r="K33" s="13" t="n">
-        <v>1174</v>
+        <v>966</v>
       </c>
       <c r="L33" s="13" t="n">
-        <v>966</v>
+        <v>858</v>
       </c>
       <c r="M33" s="13" t="n">
-        <v>858</v>
+        <v>762</v>
       </c>
       <c r="N33" s="13" t="n">
-        <v>762</v>
+        <v>702</v>
       </c>
       <c r="O33" s="13" t="n">
-        <v>702</v>
+        <v>657</v>
       </c>
       <c r="P33" s="13" t="n">
-        <v>657</v>
-      </c>
-      <c r="Q33" s="13" t="n">
         <v>783</v>
       </c>
-      <c r="R33" s="13" t="s">
-        <v>57</v>
+      <c r="Q33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R33" s="13" t="n">
+        <v>1182</v>
       </c>
       <c r="S33" s="13" t="n">
-        <v>1182</v>
+        <v>1055</v>
       </c>
       <c r="T33" s="13" t="n">
-        <v>1055</v>
+        <v>1091</v>
       </c>
       <c r="U33" s="13" t="n">
-        <v>1091</v>
+        <v>1149</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>1149</v>
+        <v>1226</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>1142</v>
+        <v>797</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>797</v>
+        <v>739</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>1121</v>
+        <v>1268</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>1268</v>
+        <v>1006</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>697</v>
+        <v>558</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>675</v>
+        <v>971</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>971</v>
+        <v>647</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>647</v>
+        <v>876</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>569</v>
+        <v>989</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>989</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,58 +6263,58 @@
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F34" s="16" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G34" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H34" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="I34" s="16" t="n">
         <v>17</v>
-      </c>
-      <c r="H34" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="I34" s="16" t="n">
-        <v>27</v>
       </c>
       <c r="J34" s="16" t="n">
         <v>17</v>
       </c>
       <c r="K34" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="L34" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="M34" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="N34" s="16" t="n">
         <v>17</v>
-      </c>
-      <c r="L34" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="M34" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="N34" s="16" t="n">
-        <v>21</v>
       </c>
       <c r="O34" s="16" t="n">
         <v>17</v>
       </c>
       <c r="P34" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q34" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="R34" s="16" t="s">
-        <v>57</v>
+      <c r="Q34" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R34" s="16" t="n">
+        <v>18</v>
       </c>
       <c r="S34" s="16" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="T34" s="16" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="U34" s="16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W34" s="16" t="n">
         <v>24</v>
@@ -6323,79 +6323,79 @@
         <v>24</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AI34" s="16" t="n">
         <v>20</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AM34" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN34" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO34" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="AN34" s="16" t="n">
+      <c r="AP34" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ34" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR34" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS34" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="AO34" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AP34" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ34" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR34" s="16" t="n">
+      <c r="AT34" s="16" t="n">
         <v>18</v>
-      </c>
-      <c r="AS34" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT34" s="16" t="n">
-        <v>14</v>
       </c>
       <c r="AU34" s="16" t="n">
         <v>18</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX34" s="16" t="n">
         <v>20</v>
@@ -6404,13 +6404,13 @@
         <v>20</v>
       </c>
       <c r="AZ34" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA34" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="BA34" s="16" t="n">
-        <v>22</v>
-      </c>
       <c r="BB34" s="16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,154 +6422,154 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="n">
-        <v>3352</v>
+        <v>3233</v>
       </c>
       <c r="F35" s="13" t="n">
-        <v>3233</v>
+        <v>3216</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>3216</v>
+        <v>2919</v>
       </c>
       <c r="H35" s="13" t="n">
-        <v>2919</v>
+        <v>3397</v>
       </c>
       <c r="I35" s="13" t="n">
-        <v>3397</v>
+        <v>2478</v>
       </c>
       <c r="J35" s="13" t="n">
-        <v>2478</v>
+        <v>2621</v>
       </c>
       <c r="K35" s="13" t="n">
-        <v>2621</v>
+        <v>2786</v>
       </c>
       <c r="L35" s="13" t="n">
-        <v>2786</v>
+        <v>3360</v>
       </c>
       <c r="M35" s="13" t="n">
-        <v>3360</v>
+        <v>3257</v>
       </c>
       <c r="N35" s="13" t="n">
-        <v>3257</v>
+        <v>4063</v>
       </c>
       <c r="O35" s="13" t="n">
-        <v>4063</v>
+        <v>4580</v>
       </c>
       <c r="P35" s="13" t="n">
-        <v>4580</v>
-      </c>
-      <c r="Q35" s="13" t="n">
         <v>4338</v>
       </c>
-      <c r="R35" s="13" t="s">
-        <v>57</v>
+      <c r="Q35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R35" s="13" t="n">
+        <v>2035</v>
       </c>
       <c r="S35" s="13" t="n">
-        <v>2035</v>
+        <v>3338</v>
       </c>
       <c r="T35" s="13" t="n">
-        <v>3338</v>
+        <v>4898</v>
       </c>
       <c r="U35" s="13" t="n">
-        <v>4898</v>
+        <v>2297</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>2205</v>
+        <v>2756</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>2756</v>
+        <v>3649</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>3649</v>
+        <v>2493</v>
       </c>
       <c r="AA35" s="13" t="n">
+        <v>2633</v>
+      </c>
+      <c r="AB35" s="13" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AC35" s="13" t="n">
+        <v>3040</v>
+      </c>
+      <c r="AD35" s="13" t="n">
+        <v>2687</v>
+      </c>
+      <c r="AE35" s="13" t="n">
+        <v>2496</v>
+      </c>
+      <c r="AF35" s="13" t="n">
+        <v>2279</v>
+      </c>
+      <c r="AG35" s="13" t="n">
+        <v>2285</v>
+      </c>
+      <c r="AH35" s="13" t="n">
+        <v>2118</v>
+      </c>
+      <c r="AI35" s="13" t="n">
+        <v>2405</v>
+      </c>
+      <c r="AJ35" s="13" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AK35" s="13" t="n">
+        <v>2716</v>
+      </c>
+      <c r="AL35" s="13" t="n">
+        <v>2860</v>
+      </c>
+      <c r="AM35" s="13" t="n">
+        <v>2607</v>
+      </c>
+      <c r="AN35" s="13" t="n">
+        <v>2415</v>
+      </c>
+      <c r="AO35" s="13" t="n">
+        <v>2238</v>
+      </c>
+      <c r="AP35" s="13" t="n">
+        <v>2191</v>
+      </c>
+      <c r="AQ35" s="13" t="n">
+        <v>2092</v>
+      </c>
+      <c r="AR35" s="13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="AS35" s="13" t="n">
+        <v>2238</v>
+      </c>
+      <c r="AT35" s="13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AU35" s="13" t="n">
+        <v>2116</v>
+      </c>
+      <c r="AV35" s="13" t="n">
         <v>2493</v>
       </c>
-      <c r="AB35" s="13" t="n">
-        <v>2633</v>
-      </c>
-      <c r="AC35" s="13" t="n">
-        <v>2858</v>
-      </c>
-      <c r="AD35" s="13" t="n">
-        <v>3040</v>
-      </c>
-      <c r="AE35" s="13" t="n">
-        <v>2687</v>
-      </c>
-      <c r="AF35" s="13" t="n">
-        <v>2496</v>
-      </c>
-      <c r="AG35" s="13" t="n">
-        <v>2279</v>
-      </c>
-      <c r="AH35" s="13" t="n">
-        <v>2285</v>
-      </c>
-      <c r="AI35" s="13" t="n">
-        <v>2118</v>
-      </c>
-      <c r="AJ35" s="13" t="n">
-        <v>2405</v>
-      </c>
-      <c r="AK35" s="13" t="n">
-        <v>2280</v>
-      </c>
-      <c r="AL35" s="13" t="n">
-        <v>2716</v>
-      </c>
-      <c r="AM35" s="13" t="n">
-        <v>2860</v>
-      </c>
-      <c r="AN35" s="13" t="n">
-        <v>2607</v>
-      </c>
-      <c r="AO35" s="13" t="n">
-        <v>2415</v>
-      </c>
-      <c r="AP35" s="13" t="n">
-        <v>2238</v>
-      </c>
-      <c r="AQ35" s="13" t="n">
-        <v>2191</v>
-      </c>
-      <c r="AR35" s="13" t="n">
-        <v>2092</v>
-      </c>
-      <c r="AS35" s="13" t="n">
-        <v>1961</v>
-      </c>
-      <c r="AT35" s="13" t="n">
-        <v>2238</v>
-      </c>
-      <c r="AU35" s="13" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AV35" s="13" t="n">
-        <v>2116</v>
-      </c>
       <c r="AW35" s="13" t="n">
-        <v>2493</v>
+        <v>2732</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>2732</v>
+        <v>2894</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>2894</v>
+        <v>2838</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>2838</v>
+        <v>2911</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>2911</v>
+        <v>2499</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>2499</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,154 +6581,154 @@
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F36" s="16" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G36" s="16" t="n">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="H36" s="16" t="n">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="I36" s="16" t="n">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="J36" s="16" t="n">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="K36" s="16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="M36" s="16" t="n">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="N36" s="16" t="n">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="O36" s="16" t="n">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="P36" s="16" t="n">
-        <v>589</v>
-      </c>
-      <c r="Q36" s="16" t="n">
         <v>921</v>
       </c>
-      <c r="R36" s="16" t="s">
-        <v>57</v>
+      <c r="Q36" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" s="16" t="n">
+        <v>121</v>
       </c>
       <c r="S36" s="16" t="n">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="T36" s="16" t="n">
-        <v>272</v>
+        <v>584</v>
       </c>
       <c r="U36" s="16" t="n">
-        <v>584</v>
+        <v>259</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="X36" s="16" t="n">
         <v>305</v>
       </c>
       <c r="Y36" s="16" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z36" s="16" t="n">
+        <v>527</v>
+      </c>
+      <c r="AA36" s="16" t="n">
+        <v>363</v>
+      </c>
+      <c r="AB36" s="16" t="n">
+        <v>412</v>
+      </c>
+      <c r="AC36" s="16" t="n">
+        <v>297</v>
+      </c>
+      <c r="AD36" s="16" t="n">
         <v>305</v>
       </c>
-      <c r="Z36" s="16" t="n">
-        <v>390</v>
-      </c>
-      <c r="AA36" s="16" t="n">
-        <v>527</v>
-      </c>
-      <c r="AB36" s="16" t="n">
-        <v>363</v>
-      </c>
-      <c r="AC36" s="16" t="n">
-        <v>412</v>
-      </c>
-      <c r="AD36" s="16" t="n">
-        <v>297</v>
-      </c>
       <c r="AE36" s="16" t="n">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AH36" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="AI36" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ36" s="16" t="n">
+        <v>203</v>
+      </c>
+      <c r="AK36" s="16" t="n">
         <v>156</v>
       </c>
-      <c r="AI36" s="16" t="n">
-        <v>143</v>
-      </c>
-      <c r="AJ36" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK36" s="16" t="n">
-        <v>203</v>
-      </c>
       <c r="AL36" s="16" t="n">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="AM36" s="16" t="n">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="AN36" s="16" t="n">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="AO36" s="16" t="n">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="AP36" s="16" t="n">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AQ36" s="16" t="n">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="AR36" s="16" t="n">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AS36" s="16" t="n">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AT36" s="16" t="n">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="AU36" s="16" t="n">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AV36" s="16" t="n">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="AY36" s="16" t="n">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="AZ36" s="16" t="n">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="BA36" s="16" t="n">
-        <v>529</v>
+        <v>253</v>
       </c>
       <c r="BB36" s="16" t="n">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,154 +6740,154 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="n">
-        <v>1356</v>
+        <v>1321</v>
       </c>
       <c r="F37" s="13" t="n">
-        <v>1321</v>
+        <v>1535</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>1535</v>
+        <v>1590</v>
       </c>
       <c r="H37" s="13" t="n">
-        <v>1590</v>
+        <v>1573</v>
       </c>
       <c r="I37" s="13" t="n">
-        <v>1573</v>
+        <v>1804</v>
       </c>
       <c r="J37" s="13" t="n">
-        <v>1804</v>
+        <v>1669</v>
       </c>
       <c r="K37" s="13" t="n">
-        <v>1669</v>
+        <v>1500</v>
       </c>
       <c r="L37" s="13" t="n">
-        <v>1500</v>
+        <v>1468</v>
       </c>
       <c r="M37" s="13" t="n">
-        <v>1468</v>
+        <v>1304</v>
       </c>
       <c r="N37" s="13" t="n">
-        <v>1304</v>
+        <v>1139</v>
       </c>
       <c r="O37" s="13" t="n">
+        <v>1206</v>
+      </c>
+      <c r="P37" s="13" t="n">
+        <v>1310</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R37" s="13" t="n">
+        <v>1562</v>
+      </c>
+      <c r="S37" s="13" t="n">
+        <v>1704</v>
+      </c>
+      <c r="T37" s="13" t="n">
+        <v>1774</v>
+      </c>
+      <c r="U37" s="13" t="n">
+        <v>1752</v>
+      </c>
+      <c r="V37" s="13" t="n">
+        <v>1685</v>
+      </c>
+      <c r="W37" s="13" t="n">
+        <v>1619</v>
+      </c>
+      <c r="X37" s="13" t="n">
+        <v>1348</v>
+      </c>
+      <c r="Y37" s="13" t="n">
+        <v>1274</v>
+      </c>
+      <c r="Z37" s="13" t="n">
+        <v>1285</v>
+      </c>
+      <c r="AA37" s="13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="AB37" s="13" t="n">
+        <v>1431</v>
+      </c>
+      <c r="AC37" s="13" t="n">
+        <v>1630</v>
+      </c>
+      <c r="AD37" s="13" t="n">
+        <v>1915</v>
+      </c>
+      <c r="AE37" s="13" t="n">
+        <v>1664</v>
+      </c>
+      <c r="AF37" s="13" t="n">
+        <v>1879</v>
+      </c>
+      <c r="AG37" s="13" t="n">
+        <v>1786</v>
+      </c>
+      <c r="AH37" s="13" t="n">
+        <v>1410</v>
+      </c>
+      <c r="AI37" s="13" t="n">
+        <v>1420</v>
+      </c>
+      <c r="AJ37" s="13" t="n">
+        <v>1189</v>
+      </c>
+      <c r="AK37" s="13" t="n">
+        <v>1122</v>
+      </c>
+      <c r="AL37" s="13" t="n">
+        <v>1029</v>
+      </c>
+      <c r="AM37" s="13" t="n">
+        <v>988</v>
+      </c>
+      <c r="AN37" s="13" t="n">
         <v>1139</v>
       </c>
-      <c r="P37" s="13" t="n">
-        <v>1206</v>
-      </c>
-      <c r="Q37" s="13" t="n">
-        <v>1310</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="13" t="n">
-        <v>1562</v>
-      </c>
-      <c r="T37" s="13" t="n">
-        <v>1704</v>
-      </c>
-      <c r="U37" s="13" t="n">
-        <v>1774</v>
-      </c>
-      <c r="V37" s="13" t="n">
-        <v>1752</v>
-      </c>
-      <c r="W37" s="13" t="n">
-        <v>1685</v>
-      </c>
-      <c r="X37" s="13" t="n">
-        <v>1619</v>
-      </c>
-      <c r="Y37" s="13" t="n">
-        <v>1348</v>
-      </c>
-      <c r="Z37" s="13" t="n">
-        <v>1274</v>
-      </c>
-      <c r="AA37" s="13" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AB37" s="13" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AC37" s="13" t="n">
-        <v>1431</v>
-      </c>
-      <c r="AD37" s="13" t="n">
-        <v>1630</v>
-      </c>
-      <c r="AE37" s="13" t="n">
-        <v>1915</v>
-      </c>
-      <c r="AF37" s="13" t="n">
-        <v>1664</v>
-      </c>
-      <c r="AG37" s="13" t="n">
-        <v>1879</v>
-      </c>
-      <c r="AH37" s="13" t="n">
-        <v>1786</v>
-      </c>
-      <c r="AI37" s="13" t="n">
-        <v>1410</v>
-      </c>
-      <c r="AJ37" s="13" t="n">
-        <v>1420</v>
-      </c>
-      <c r="AK37" s="13" t="n">
-        <v>1189</v>
-      </c>
-      <c r="AL37" s="13" t="n">
-        <v>1122</v>
-      </c>
-      <c r="AM37" s="13" t="n">
-        <v>1029</v>
-      </c>
-      <c r="AN37" s="13" t="n">
-        <v>988</v>
-      </c>
       <c r="AO37" s="13" t="n">
-        <v>1139</v>
+        <v>1353</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>1353</v>
+        <v>1501</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>1501</v>
+        <v>1243</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>1243</v>
+        <v>1318</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>1297</v>
+        <v>1221</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>1221</v>
+        <v>1111</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>1197</v>
+        <v>934</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>958</v>
+        <v>1190</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>1190</v>
+        <v>1250</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>1250</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,154 +6899,154 @@
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16" t="n">
-        <v>684</v>
+        <v>444</v>
       </c>
       <c r="F38" s="16" t="n">
-        <v>444</v>
+        <v>577</v>
       </c>
       <c r="G38" s="16" t="n">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="H38" s="16" t="n">
-        <v>612</v>
+        <v>515</v>
       </c>
       <c r="I38" s="16" t="n">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="J38" s="16" t="n">
+        <v>554</v>
+      </c>
+      <c r="K38" s="16" t="n">
+        <v>571</v>
+      </c>
+      <c r="L38" s="16" t="n">
+        <v>448</v>
+      </c>
+      <c r="M38" s="16" t="n">
+        <v>553</v>
+      </c>
+      <c r="N38" s="16" t="n">
+        <v>431</v>
+      </c>
+      <c r="O38" s="16" t="n">
+        <v>448</v>
+      </c>
+      <c r="P38" s="16" t="n">
+        <v>437</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R38" s="16" t="n">
+        <v>422</v>
+      </c>
+      <c r="S38" s="16" t="n">
+        <v>534</v>
+      </c>
+      <c r="T38" s="16" t="n">
+        <v>568</v>
+      </c>
+      <c r="U38" s="16" t="n">
+        <v>609</v>
+      </c>
+      <c r="V38" s="16" t="n">
+        <v>534</v>
+      </c>
+      <c r="W38" s="16" t="n">
         <v>504</v>
       </c>
-      <c r="K38" s="16" t="n">
-        <v>554</v>
-      </c>
-      <c r="L38" s="16" t="n">
-        <v>571</v>
-      </c>
-      <c r="M38" s="16" t="n">
-        <v>448</v>
-      </c>
-      <c r="N38" s="16" t="n">
-        <v>553</v>
-      </c>
-      <c r="O38" s="16" t="n">
-        <v>431</v>
-      </c>
-      <c r="P38" s="16" t="n">
-        <v>448</v>
-      </c>
-      <c r="Q38" s="16" t="n">
-        <v>437</v>
-      </c>
-      <c r="R38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="S38" s="16" t="n">
-        <v>422</v>
-      </c>
-      <c r="T38" s="16" t="n">
-        <v>534</v>
-      </c>
-      <c r="U38" s="16" t="n">
-        <v>568</v>
-      </c>
-      <c r="V38" s="16" t="n">
-        <v>609</v>
-      </c>
-      <c r="W38" s="16" t="n">
-        <v>534</v>
-      </c>
       <c r="X38" s="16" t="n">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>428</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7058,154 +7058,154 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F39" s="13" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="H39" s="13" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I39" s="13" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J39" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K39" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="L39" s="13" t="n">
+        <v>66</v>
+      </c>
+      <c r="M39" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="N39" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="O39" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="P39" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="K39" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="L39" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="M39" s="13" t="n">
+      <c r="Q39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="S39" s="13" t="n">
         <v>66</v>
-      </c>
-      <c r="N39" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="O39" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="P39" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S39" s="13" t="n">
-        <v>16</v>
       </c>
       <c r="T39" s="13" t="n">
         <v>66</v>
       </c>
       <c r="U39" s="13" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AE39" s="13" t="n">
         <v>26</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AK39" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL39" s="13" t="n">
+        <v>58</v>
+      </c>
+      <c r="AM39" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN39" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO39" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AP39" s="13" t="n">
+        <v>323</v>
+      </c>
+      <c r="AQ39" s="13" t="n">
+        <v>143</v>
+      </c>
+      <c r="AR39" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="AL39" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM39" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="AN39" s="13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO39" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP39" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AQ39" s="13" t="n">
-        <v>323</v>
-      </c>
-      <c r="AR39" s="13" t="n">
-        <v>143</v>
-      </c>
       <c r="AS39" s="13" t="n">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>211</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7217,154 +7217,154 @@
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16" t="n">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="F40" s="16" t="n">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="G40" s="16" t="n">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="H40" s="16" t="n">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="I40" s="16" t="n">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="J40" s="16" t="n">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="K40" s="16" t="n">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L40" s="16" t="n">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M40" s="16" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N40" s="16" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O40" s="16" t="n">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="P40" s="16" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q40" s="16" t="n">
         <v>97</v>
       </c>
-      <c r="R40" s="16" t="s">
-        <v>57</v>
+      <c r="Q40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R40" s="16" t="n">
+        <v>101</v>
       </c>
       <c r="S40" s="16" t="n">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="T40" s="16" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="U40" s="16" t="n">
+        <v>264</v>
+      </c>
+      <c r="V40" s="16" t="n">
+        <v>351</v>
+      </c>
+      <c r="W40" s="16" t="n">
+        <v>117</v>
+      </c>
+      <c r="X40" s="16" t="n">
+        <v>146</v>
+      </c>
+      <c r="Y40" s="16" t="n">
+        <v>148</v>
+      </c>
+      <c r="Z40" s="16" t="n">
+        <v>227</v>
+      </c>
+      <c r="AA40" s="16" t="n">
+        <v>188</v>
+      </c>
+      <c r="AB40" s="16" t="n">
+        <v>149</v>
+      </c>
+      <c r="AC40" s="16" t="n">
+        <v>437</v>
+      </c>
+      <c r="AD40" s="16" t="n">
+        <v>247</v>
+      </c>
+      <c r="AE40" s="16" t="n">
+        <v>208</v>
+      </c>
+      <c r="AF40" s="16" t="n">
+        <v>370</v>
+      </c>
+      <c r="AG40" s="16" t="n">
+        <v>404</v>
+      </c>
+      <c r="AH40" s="16" t="n">
+        <v>172</v>
+      </c>
+      <c r="AI40" s="16" t="n">
+        <v>232</v>
+      </c>
+      <c r="AJ40" s="16" t="n">
+        <v>273</v>
+      </c>
+      <c r="AK40" s="16" t="n">
+        <v>285</v>
+      </c>
+      <c r="AL40" s="16" t="n">
+        <v>187</v>
+      </c>
+      <c r="AM40" s="16" t="n">
+        <v>183</v>
+      </c>
+      <c r="AN40" s="16" t="n">
+        <v>199</v>
+      </c>
+      <c r="AO40" s="16" t="n">
+        <v>489</v>
+      </c>
+      <c r="AP40" s="16" t="n">
+        <v>372</v>
+      </c>
+      <c r="AQ40" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="AR40" s="16" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS40" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AT40" s="16" t="n">
+        <v>488</v>
+      </c>
+      <c r="AU40" s="16" t="n">
+        <v>172</v>
+      </c>
+      <c r="AV40" s="16" t="n">
+        <v>354</v>
+      </c>
+      <c r="AW40" s="16" t="n">
+        <v>387</v>
+      </c>
+      <c r="AX40" s="16" t="n">
+        <v>421</v>
+      </c>
+      <c r="AY40" s="16" t="n">
         <v>300</v>
       </c>
-      <c r="V40" s="16" t="n">
-        <v>264</v>
-      </c>
-      <c r="W40" s="16" t="n">
-        <v>351</v>
-      </c>
-      <c r="X40" s="16" t="n">
-        <v>117</v>
-      </c>
-      <c r="Y40" s="16" t="n">
-        <v>146</v>
-      </c>
-      <c r="Z40" s="16" t="n">
-        <v>148</v>
-      </c>
-      <c r="AA40" s="16" t="n">
-        <v>227</v>
-      </c>
-      <c r="AB40" s="16" t="n">
-        <v>188</v>
-      </c>
-      <c r="AC40" s="16" t="n">
-        <v>149</v>
-      </c>
-      <c r="AD40" s="16" t="n">
-        <v>437</v>
-      </c>
-      <c r="AE40" s="16" t="n">
-        <v>247</v>
-      </c>
-      <c r="AF40" s="16" t="n">
-        <v>208</v>
-      </c>
-      <c r="AG40" s="16" t="n">
-        <v>370</v>
-      </c>
-      <c r="AH40" s="16" t="n">
-        <v>404</v>
-      </c>
-      <c r="AI40" s="16" t="n">
-        <v>172</v>
-      </c>
-      <c r="AJ40" s="16" t="n">
-        <v>232</v>
-      </c>
-      <c r="AK40" s="16" t="n">
-        <v>273</v>
-      </c>
-      <c r="AL40" s="16" t="n">
-        <v>285</v>
-      </c>
-      <c r="AM40" s="16" t="n">
-        <v>187</v>
-      </c>
-      <c r="AN40" s="16" t="n">
-        <v>183</v>
-      </c>
-      <c r="AO40" s="16" t="n">
-        <v>199</v>
-      </c>
-      <c r="AP40" s="16" t="n">
-        <v>489</v>
-      </c>
-      <c r="AQ40" s="16" t="n">
-        <v>372</v>
-      </c>
-      <c r="AR40" s="16" t="n">
-        <v>142</v>
-      </c>
-      <c r="AS40" s="16" t="n">
-        <v>71</v>
-      </c>
-      <c r="AT40" s="16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AU40" s="16" t="n">
-        <v>488</v>
-      </c>
-      <c r="AV40" s="16" t="n">
-        <v>172</v>
-      </c>
-      <c r="AW40" s="16" t="n">
-        <v>354</v>
-      </c>
-      <c r="AX40" s="16" t="n">
-        <v>387</v>
-      </c>
-      <c r="AY40" s="16" t="n">
-        <v>421</v>
-      </c>
       <c r="AZ40" s="16" t="n">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>347</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,8 +7450,8 @@
       <c r="AC41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="13" t="s">
-        <v>57</v>
+      <c r="AD41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE41" s="13" t="n">
         <v>0</v>
@@ -7483,8 +7483,8 @@
       <c r="AN41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" s="13" t="n">
-        <v>0</v>
+      <c r="AO41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP41" s="13" t="s">
         <v>57</v>
@@ -7609,14 +7609,14 @@
       <c r="AC42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD42" s="16" t="s">
-        <v>57</v>
+      <c r="AD42" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF42" s="16" t="n">
-        <v>0</v>
+      <c r="AF42" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AG42" s="16" t="s">
         <v>57</v>
@@ -7768,8 +7768,8 @@
       <c r="AC43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD43" s="13" t="s">
-        <v>57</v>
+      <c r="AD43" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE43" s="13" t="n">
         <v>0</v>
@@ -7801,8 +7801,8 @@
       <c r="AN43" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" s="13" t="n">
-        <v>0</v>
+      <c r="AO43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP43" s="13" t="s">
         <v>57</v>
@@ -7927,8 +7927,8 @@
       <c r="AC44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="16" t="s">
-        <v>57</v>
+      <c r="AD44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE44" s="16" t="n">
         <v>0</v>
@@ -7960,8 +7960,8 @@
       <c r="AN44" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" s="16" t="n">
-        <v>0</v>
+      <c r="AO44" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP44" s="16" t="s">
         <v>57</v>
@@ -8143,11 +8143,11 @@
       <c r="AC46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE46" s="13" t="n">
-        <v>0</v>
+      <c r="AD46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF46" s="13" t="s">
         <v>57</v>
@@ -8179,8 +8179,8 @@
       <c r="AO46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP46" s="13" t="s">
-        <v>57</v>
+      <c r="AP46" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ46" s="13" t="n">
         <v>0</v>
@@ -8188,29 +8188,29 @@
       <c r="AR46" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS46" s="13" t="n">
-        <v>0</v>
+      <c r="AS46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV46" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX46" s="13" t="n">
-        <v>0</v>
+      <c r="AU46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ46" s="13" t="s">
-        <v>57</v>
+      <c r="AZ46" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA46" s="13" t="n">
         <v>0</v>
@@ -8273,8 +8273,8 @@
       <c r="T47" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="18" t="s">
-        <v>57</v>
+      <c r="U47" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="18" t="n">
         <v>0</v>
@@ -8552,8 +8552,8 @@
       <c r="AO49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP49" s="13" t="s">
-        <v>57</v>
+      <c r="AP49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ49" s="13" t="n">
         <v>0</v>
@@ -8561,35 +8561,35 @@
       <c r="AR49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS49" s="13" t="n">
-        <v>0</v>
+      <c r="AS49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX49" s="13" t="n">
-        <v>0</v>
+      <c r="AU49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ49" s="13" t="s">
-        <v>57</v>
+      <c r="AZ49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB49" s="13" t="n">
-        <v>0</v>
+      <c r="BB49" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8646,8 +8646,8 @@
       <c r="T50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U50" s="18" t="s">
-        <v>57</v>
+      <c r="U50" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="18" t="n">
         <v>0</v>
@@ -8756,154 +8756,154 @@
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20" t="n">
-        <v>7146</v>
+        <v>6186</v>
       </c>
       <c r="F51" s="20" t="n">
-        <v>6186</v>
+        <v>6967</v>
       </c>
       <c r="G51" s="20" t="n">
-        <v>6967</v>
+        <v>7377</v>
       </c>
       <c r="H51" s="20" t="n">
-        <v>7377</v>
+        <v>7434</v>
       </c>
       <c r="I51" s="20" t="n">
-        <v>7434</v>
+        <v>6795</v>
       </c>
       <c r="J51" s="20" t="n">
-        <v>6795</v>
+        <v>6462</v>
       </c>
       <c r="K51" s="20" t="n">
-        <v>6462</v>
+        <v>6221</v>
       </c>
       <c r="L51" s="20" t="n">
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="M51" s="20" t="n">
-        <v>6834</v>
+        <v>6592</v>
       </c>
       <c r="N51" s="20" t="n">
-        <v>6592</v>
+        <v>7044</v>
       </c>
       <c r="O51" s="20" t="n">
-        <v>7044</v>
+        <v>7615</v>
       </c>
       <c r="P51" s="20" t="n">
-        <v>7615</v>
+        <v>7946</v>
       </c>
       <c r="Q51" s="20" t="n">
-        <v>7946</v>
+        <v>0</v>
       </c>
       <c r="R51" s="20" t="n">
-        <v>0</v>
+        <v>5457</v>
       </c>
       <c r="S51" s="20" t="n">
-        <v>5457</v>
+        <v>7292</v>
       </c>
       <c r="T51" s="20" t="n">
-        <v>7292</v>
+        <v>9303</v>
       </c>
       <c r="U51" s="20" t="n">
-        <v>9303</v>
+        <v>6396</v>
       </c>
       <c r="V51" s="20" t="n">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="W51" s="20" t="n">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="X51" s="20" t="n">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="Y51" s="20" t="n">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="Z51" s="20" t="n">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="AA51" s="20" t="n">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AB51" s="20" t="n">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AC51" s="20" t="n">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AD51" s="20" t="n">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AE51" s="20" t="n">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AF51" s="20" t="n">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AG51" s="20" t="n">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AH51" s="20" t="n">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AI51" s="20" t="n">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AJ51" s="20" t="n">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AK51" s="20" t="n">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AL51" s="20" t="n">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AM51" s="20" t="n">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AN51" s="20" t="n">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AO51" s="20" t="n">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AP51" s="20" t="n">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AQ51" s="20" t="n">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AR51" s="20" t="n">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AS51" s="20" t="n">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AT51" s="20" t="n">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AU51" s="20" t="n">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AV51" s="20" t="n">
-        <v>5123</v>
+        <v>5672</v>
       </c>
       <c r="AW51" s="20" t="n">
-        <v>5672</v>
+        <v>5662</v>
       </c>
       <c r="AX51" s="20" t="n">
-        <v>5662</v>
+        <v>5727</v>
       </c>
       <c r="AY51" s="20" t="n">
-        <v>5727</v>
+        <v>5444</v>
       </c>
       <c r="AZ51" s="20" t="n">
-        <v>5444</v>
+        <v>6029</v>
       </c>
       <c r="BA51" s="20" t="n">
-        <v>6029</v>
+        <v>5997</v>
       </c>
       <c r="BB51" s="20" t="n">
-        <v>5997</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,154 +9349,154 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="n">
-        <v>28927</v>
+        <v>13312</v>
       </c>
       <c r="F58" s="13" t="n">
-        <v>13312</v>
+        <v>29616</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>29616</v>
+        <v>34082</v>
       </c>
       <c r="H58" s="13" t="n">
-        <v>34082</v>
+        <v>29549</v>
       </c>
       <c r="I58" s="13" t="n">
-        <v>29549</v>
+        <v>35510</v>
       </c>
       <c r="J58" s="13" t="n">
-        <v>35510</v>
+        <v>32352</v>
       </c>
       <c r="K58" s="13" t="n">
-        <v>32352</v>
+        <v>28018</v>
       </c>
       <c r="L58" s="13" t="n">
-        <v>28018</v>
+        <v>25279</v>
       </c>
       <c r="M58" s="13" t="n">
-        <v>25279</v>
+        <v>22643</v>
       </c>
       <c r="N58" s="13" t="n">
-        <v>22643</v>
+        <v>21047</v>
       </c>
       <c r="O58" s="13" t="n">
-        <v>21047</v>
+        <v>19660</v>
       </c>
       <c r="P58" s="13" t="n">
-        <v>19660</v>
-      </c>
-      <c r="Q58" s="13" t="n">
         <v>23424</v>
       </c>
-      <c r="R58" s="13" t="s">
-        <v>57</v>
+      <c r="Q58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R58" s="13" t="n">
+        <v>35232</v>
       </c>
       <c r="S58" s="13" t="n">
-        <v>35232</v>
+        <v>31622</v>
       </c>
       <c r="T58" s="13" t="n">
-        <v>31622</v>
+        <v>33482</v>
       </c>
       <c r="U58" s="13" t="n">
-        <v>33482</v>
+        <v>38785</v>
       </c>
       <c r="V58" s="13" t="n">
-        <v>38785</v>
+        <v>43113</v>
       </c>
       <c r="W58" s="13" t="n">
-        <v>43113</v>
+        <v>40291</v>
       </c>
       <c r="X58" s="13" t="n">
-        <v>40291</v>
+        <v>27438</v>
       </c>
       <c r="Y58" s="13" t="n">
-        <v>27438</v>
+        <v>26664</v>
       </c>
       <c r="Z58" s="13" t="n">
-        <v>26664</v>
+        <v>30851</v>
       </c>
       <c r="AA58" s="13" t="n">
-        <v>30851</v>
+        <v>35225</v>
       </c>
       <c r="AB58" s="13" t="n">
-        <v>35225</v>
+        <v>37469</v>
       </c>
       <c r="AC58" s="13" t="n">
-        <v>37469</v>
+        <v>47172</v>
       </c>
       <c r="AD58" s="13" t="n">
-        <v>47172</v>
+        <v>54250</v>
       </c>
       <c r="AE58" s="13" t="n">
-        <v>54250</v>
+        <v>46828</v>
       </c>
       <c r="AF58" s="13" t="n">
-        <v>46828</v>
+        <v>47051</v>
       </c>
       <c r="AG58" s="13" t="n">
-        <v>47051</v>
+        <v>63130</v>
       </c>
       <c r="AH58" s="13" t="n">
-        <v>63130</v>
+        <v>45245</v>
       </c>
       <c r="AI58" s="13" t="n">
-        <v>45245</v>
+        <v>52279</v>
       </c>
       <c r="AJ58" s="13" t="n">
-        <v>52279</v>
+        <v>36911</v>
       </c>
       <c r="AK58" s="13" t="n">
-        <v>36911</v>
+        <v>44912</v>
       </c>
       <c r="AL58" s="13" t="n">
-        <v>44912</v>
+        <v>36669</v>
       </c>
       <c r="AM58" s="13" t="n">
-        <v>36669</v>
+        <v>39775</v>
       </c>
       <c r="AN58" s="13" t="n">
-        <v>39775</v>
+        <v>39040</v>
       </c>
       <c r="AO58" s="13" t="n">
-        <v>39040</v>
+        <v>44815</v>
       </c>
       <c r="AP58" s="13" t="n">
-        <v>44815</v>
+        <v>66346</v>
       </c>
       <c r="AQ58" s="13" t="n">
-        <v>66346</v>
+        <v>47689</v>
       </c>
       <c r="AR58" s="13" t="n">
-        <v>47689</v>
+        <v>94269</v>
       </c>
       <c r="AS58" s="13" t="n">
-        <v>94269</v>
+        <v>75662</v>
       </c>
       <c r="AT58" s="13" t="n">
-        <v>75662</v>
+        <v>88218</v>
       </c>
       <c r="AU58" s="13" t="n">
-        <v>88218</v>
+        <v>80680</v>
       </c>
       <c r="AV58" s="13" t="n">
-        <v>80680</v>
+        <v>67454</v>
       </c>
       <c r="AW58" s="13" t="n">
-        <v>67454</v>
+        <v>65471</v>
       </c>
       <c r="AX58" s="13" t="n">
-        <v>65471</v>
+        <v>64946</v>
       </c>
       <c r="AY58" s="13" t="n">
-        <v>64946</v>
+        <v>59945</v>
       </c>
       <c r="AZ58" s="13" t="n">
-        <v>59945</v>
+        <v>58401</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>58401</v>
+        <v>100218</v>
       </c>
       <c r="BB58" s="13" t="n">
-        <v>100218</v>
+        <v>105061</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9508,154 +9508,154 @@
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="n">
-        <v>3869</v>
+        <v>646</v>
       </c>
       <c r="F59" s="16" t="n">
-        <v>646</v>
+        <v>1586</v>
       </c>
       <c r="G59" s="16" t="n">
-        <v>1586</v>
+        <v>2682</v>
       </c>
       <c r="H59" s="16" t="n">
-        <v>2682</v>
+        <v>2483</v>
       </c>
       <c r="I59" s="16" t="n">
-        <v>2483</v>
+        <v>1823</v>
       </c>
       <c r="J59" s="16" t="n">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="K59" s="16" t="n">
-        <v>1772</v>
+        <v>1852</v>
       </c>
       <c r="L59" s="16" t="n">
-        <v>1852</v>
+        <v>2451</v>
       </c>
       <c r="M59" s="16" t="n">
-        <v>2451</v>
+        <v>2386</v>
       </c>
       <c r="N59" s="16" t="n">
-        <v>2386</v>
+        <v>2065</v>
       </c>
       <c r="O59" s="16" t="n">
-        <v>2065</v>
+        <v>2030</v>
       </c>
       <c r="P59" s="16" t="n">
-        <v>2030</v>
-      </c>
-      <c r="Q59" s="16" t="n">
         <v>2717</v>
       </c>
-      <c r="R59" s="16" t="s">
-        <v>57</v>
+      <c r="Q59" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R59" s="16" t="n">
+        <v>2165</v>
       </c>
       <c r="S59" s="16" t="n">
-        <v>2165</v>
+        <v>3464</v>
       </c>
       <c r="T59" s="16" t="n">
-        <v>3464</v>
+        <v>2745</v>
       </c>
       <c r="U59" s="16" t="n">
-        <v>2745</v>
+        <v>2697</v>
       </c>
       <c r="V59" s="16" t="n">
-        <v>2697</v>
+        <v>3596</v>
       </c>
       <c r="W59" s="16" t="n">
-        <v>3596</v>
+        <v>3573</v>
       </c>
       <c r="X59" s="16" t="n">
-        <v>3573</v>
+        <v>3323</v>
       </c>
       <c r="Y59" s="16" t="n">
-        <v>3323</v>
+        <v>3981</v>
       </c>
       <c r="Z59" s="16" t="n">
-        <v>3981</v>
+        <v>4572</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>4572</v>
+        <v>5883</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>5883</v>
+        <v>3920</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>3920</v>
+        <v>632</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>632</v>
+        <v>4547</v>
       </c>
       <c r="AE59" s="16" t="n">
-        <v>4547</v>
+        <v>7168</v>
       </c>
       <c r="AF59" s="16" t="n">
-        <v>7168</v>
+        <v>60738</v>
       </c>
       <c r="AG59" s="16" t="n">
-        <v>60738</v>
+        <v>5312</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>5312</v>
+        <v>4772</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>4772</v>
+        <v>4780</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>4780</v>
+        <v>6978</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>6978</v>
+        <v>2488</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>2488</v>
+        <v>5440</v>
       </c>
       <c r="AM59" s="16" t="n">
-        <v>5440</v>
+        <v>3026</v>
       </c>
       <c r="AN59" s="16" t="n">
-        <v>3026</v>
+        <v>7998</v>
       </c>
       <c r="AO59" s="16" t="n">
-        <v>7998</v>
+        <v>5923</v>
       </c>
       <c r="AP59" s="16" t="n">
-        <v>5923</v>
+        <v>3354</v>
       </c>
       <c r="AQ59" s="16" t="n">
-        <v>3354</v>
+        <v>5118</v>
       </c>
       <c r="AR59" s="16" t="n">
-        <v>5118</v>
+        <v>9112</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>9112</v>
+        <v>5711</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>5711</v>
+        <v>7885</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>7885</v>
+        <v>7531</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>7531</v>
+        <v>8214</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>8214</v>
+        <v>8030</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>8030</v>
+        <v>11333</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>11333</v>
+        <v>8275</v>
       </c>
       <c r="AZ59" s="16" t="n">
-        <v>8275</v>
+        <v>9311</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>9311</v>
+        <v>8350</v>
       </c>
       <c r="BB59" s="16" t="n">
-        <v>8350</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,154 +9667,154 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="n">
-        <v>115723</v>
+        <v>113624</v>
       </c>
       <c r="F60" s="13" t="n">
-        <v>113624</v>
+        <v>113287</v>
       </c>
       <c r="G60" s="13" t="n">
-        <v>113287</v>
+        <v>99237</v>
       </c>
       <c r="H60" s="13" t="n">
-        <v>99237</v>
+        <v>104528</v>
       </c>
       <c r="I60" s="13" t="n">
-        <v>104528</v>
+        <v>103205</v>
       </c>
       <c r="J60" s="13" t="n">
-        <v>103205</v>
+        <v>113058</v>
       </c>
       <c r="K60" s="13" t="n">
-        <v>113058</v>
+        <v>121405</v>
       </c>
       <c r="L60" s="13" t="n">
-        <v>121405</v>
+        <v>149869</v>
       </c>
       <c r="M60" s="13" t="n">
-        <v>149869</v>
+        <v>144163</v>
       </c>
       <c r="N60" s="13" t="n">
-        <v>144163</v>
+        <v>172360</v>
       </c>
       <c r="O60" s="13" t="n">
-        <v>172360</v>
+        <v>177692</v>
       </c>
       <c r="P60" s="13" t="n">
-        <v>177692</v>
-      </c>
-      <c r="Q60" s="13" t="n">
         <v>168284</v>
       </c>
-      <c r="R60" s="13" t="s">
-        <v>57</v>
+      <c r="Q60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R60" s="13" t="n">
+        <v>69791</v>
       </c>
       <c r="S60" s="13" t="n">
-        <v>69791</v>
+        <v>122876</v>
       </c>
       <c r="T60" s="13" t="n">
-        <v>122876</v>
+        <v>182342</v>
       </c>
       <c r="U60" s="13" t="n">
-        <v>182342</v>
+        <v>121887</v>
       </c>
       <c r="V60" s="13" t="n">
-        <v>121887</v>
+        <v>132660</v>
       </c>
       <c r="W60" s="13" t="n">
-        <v>132660</v>
+        <v>145124</v>
       </c>
       <c r="X60" s="13" t="n">
-        <v>145124</v>
+        <v>167809</v>
       </c>
       <c r="Y60" s="13" t="n">
-        <v>167809</v>
+        <v>185579</v>
       </c>
       <c r="Z60" s="13" t="n">
-        <v>185579</v>
+        <v>185852</v>
       </c>
       <c r="AA60" s="13" t="n">
-        <v>185852</v>
+        <v>237485</v>
       </c>
       <c r="AB60" s="13" t="n">
-        <v>237485</v>
+        <v>185541</v>
       </c>
       <c r="AC60" s="13" t="n">
-        <v>185541</v>
+        <v>288955</v>
       </c>
       <c r="AD60" s="13" t="n">
-        <v>288955</v>
+        <v>173889</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>173889</v>
+        <v>176230</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>176230</v>
+        <v>176151</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>176151</v>
+        <v>173479</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>173479</v>
+        <v>194080</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>194080</v>
+        <v>234992</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>234992</v>
+        <v>253784</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>253784</v>
+        <v>307531</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>307531</v>
+        <v>369184</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>369184</v>
+        <v>271129</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>271129</v>
+        <v>246789</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>246789</v>
+        <v>236627</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>236627</v>
+        <v>237213</v>
       </c>
       <c r="AQ60" s="13" t="n">
-        <v>237213</v>
+        <v>269696</v>
       </c>
       <c r="AR60" s="13" t="n">
-        <v>269696</v>
+        <v>369703</v>
       </c>
       <c r="AS60" s="13" t="n">
-        <v>369703</v>
+        <v>434957</v>
       </c>
       <c r="AT60" s="13" t="n">
-        <v>434957</v>
+        <v>389340</v>
       </c>
       <c r="AU60" s="13" t="n">
-        <v>389340</v>
+        <v>394070</v>
       </c>
       <c r="AV60" s="13" t="n">
-        <v>394070</v>
+        <v>459721</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>459721</v>
+        <v>523819</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>523819</v>
+        <v>541941</v>
       </c>
       <c r="AY60" s="13" t="n">
-        <v>541941</v>
+        <v>525099</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>525099</v>
+        <v>550048</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>550048</v>
+        <v>462280</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>462280</v>
+        <v>458987</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9826,154 +9826,154 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="n">
-        <v>33214</v>
+        <v>21545</v>
       </c>
       <c r="F61" s="16" t="n">
-        <v>21545</v>
+        <v>28137</v>
       </c>
       <c r="G61" s="16" t="n">
-        <v>28137</v>
+        <v>66268</v>
       </c>
       <c r="H61" s="16" t="n">
-        <v>66268</v>
+        <v>74531</v>
       </c>
       <c r="I61" s="16" t="n">
-        <v>74531</v>
+        <v>79243</v>
       </c>
       <c r="J61" s="16" t="n">
-        <v>79243</v>
+        <v>49106</v>
       </c>
       <c r="K61" s="16" t="n">
-        <v>49106</v>
+        <v>45675</v>
       </c>
       <c r="L61" s="16" t="n">
-        <v>45675</v>
+        <v>100089</v>
       </c>
       <c r="M61" s="16" t="n">
-        <v>100089</v>
+        <v>118697</v>
       </c>
       <c r="N61" s="16" t="n">
-        <v>118697</v>
+        <v>124595</v>
       </c>
       <c r="O61" s="16" t="n">
-        <v>124595</v>
+        <v>136158</v>
       </c>
       <c r="P61" s="16" t="n">
-        <v>136158</v>
-      </c>
-      <c r="Q61" s="16" t="n">
         <v>226270</v>
       </c>
-      <c r="R61" s="16" t="s">
-        <v>57</v>
+      <c r="Q61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R61" s="16" t="n">
+        <v>24846</v>
       </c>
       <c r="S61" s="16" t="n">
-        <v>24846</v>
+        <v>40922</v>
       </c>
       <c r="T61" s="16" t="n">
-        <v>40922</v>
+        <v>128052</v>
       </c>
       <c r="U61" s="16" t="n">
-        <v>128052</v>
+        <v>62147</v>
       </c>
       <c r="V61" s="16" t="n">
-        <v>62147</v>
+        <v>69917</v>
       </c>
       <c r="W61" s="16" t="n">
-        <v>69917</v>
+        <v>93762</v>
       </c>
       <c r="X61" s="16" t="n">
-        <v>93762</v>
+        <v>86896</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>86896</v>
+        <v>108932</v>
       </c>
       <c r="Z61" s="16" t="n">
-        <v>108932</v>
+        <v>155633</v>
       </c>
       <c r="AA61" s="16" t="n">
-        <v>155633</v>
+        <v>121928</v>
       </c>
       <c r="AB61" s="16" t="n">
-        <v>121928</v>
+        <v>116762</v>
       </c>
       <c r="AC61" s="16" t="n">
-        <v>116762</v>
+        <v>89482</v>
       </c>
       <c r="AD61" s="16" t="n">
-        <v>89482</v>
+        <v>80919</v>
       </c>
       <c r="AE61" s="16" t="n">
-        <v>80919</v>
+        <v>61813</v>
       </c>
       <c r="AF61" s="16" t="n">
-        <v>61813</v>
+        <v>47100</v>
       </c>
       <c r="AG61" s="16" t="n">
-        <v>47100</v>
+        <v>75672</v>
       </c>
       <c r="AH61" s="16" t="n">
-        <v>75672</v>
+        <v>53939</v>
       </c>
       <c r="AI61" s="16" t="n">
-        <v>53939</v>
+        <v>76395</v>
       </c>
       <c r="AJ61" s="16" t="n">
-        <v>76395</v>
+        <v>86474</v>
       </c>
       <c r="AK61" s="16" t="n">
-        <v>86474</v>
+        <v>66704</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>66704</v>
+        <v>91018</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>91018</v>
+        <v>104048</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>104048</v>
+        <v>61267</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>61267</v>
+        <v>154567</v>
       </c>
       <c r="AP61" s="16" t="n">
-        <v>154567</v>
+        <v>119681</v>
       </c>
       <c r="AQ61" s="16" t="n">
-        <v>119681</v>
+        <v>71394</v>
       </c>
       <c r="AR61" s="16" t="n">
-        <v>71394</v>
+        <v>128928</v>
       </c>
       <c r="AS61" s="16" t="n">
-        <v>128928</v>
+        <v>274221</v>
       </c>
       <c r="AT61" s="16" t="n">
-        <v>274221</v>
+        <v>205927</v>
       </c>
       <c r="AU61" s="16" t="n">
-        <v>205927</v>
+        <v>213230</v>
       </c>
       <c r="AV61" s="16" t="n">
-        <v>213230</v>
+        <v>239480</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>239480</v>
+        <v>158213</v>
       </c>
       <c r="AX61" s="16" t="n">
-        <v>158213</v>
+        <v>201781</v>
       </c>
       <c r="AY61" s="16" t="n">
-        <v>201781</v>
+        <v>262202</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>262202</v>
+        <v>328898</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>328898</v>
+        <v>142668</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>142668</v>
+        <v>166134</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9985,154 +9985,154 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="n">
-        <v>49721</v>
+        <v>43717</v>
       </c>
       <c r="F62" s="13" t="n">
-        <v>43717</v>
+        <v>59311</v>
       </c>
       <c r="G62" s="13" t="n">
-        <v>59311</v>
+        <v>62154</v>
       </c>
       <c r="H62" s="13" t="n">
-        <v>62154</v>
+        <v>63812</v>
       </c>
       <c r="I62" s="13" t="n">
-        <v>63812</v>
+        <v>83089</v>
       </c>
       <c r="J62" s="13" t="n">
-        <v>83089</v>
+        <v>76661</v>
       </c>
       <c r="K62" s="13" t="n">
-        <v>76661</v>
+        <v>69619</v>
       </c>
       <c r="L62" s="13" t="n">
-        <v>69619</v>
+        <v>68540</v>
       </c>
       <c r="M62" s="13" t="n">
-        <v>68540</v>
+        <v>60842</v>
       </c>
       <c r="N62" s="13" t="n">
-        <v>60842</v>
+        <v>52820</v>
       </c>
       <c r="O62" s="13" t="n">
-        <v>52820</v>
+        <v>56095</v>
       </c>
       <c r="P62" s="13" t="n">
-        <v>56095</v>
-      </c>
-      <c r="Q62" s="13" t="n">
         <v>60910</v>
       </c>
-      <c r="R62" s="13" t="s">
-        <v>57</v>
+      <c r="Q62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R62" s="13" t="n">
+        <v>73043</v>
       </c>
       <c r="S62" s="13" t="n">
-        <v>73043</v>
+        <v>80567</v>
       </c>
       <c r="T62" s="13" t="n">
-        <v>80567</v>
+        <v>86577</v>
       </c>
       <c r="U62" s="13" t="n">
-        <v>86577</v>
+        <v>94957</v>
       </c>
       <c r="V62" s="13" t="n">
-        <v>94957</v>
+        <v>96407</v>
       </c>
       <c r="W62" s="13" t="n">
-        <v>96407</v>
+        <v>93149</v>
       </c>
       <c r="X62" s="13" t="n">
-        <v>93149</v>
+        <v>79445</v>
       </c>
       <c r="Y62" s="13" t="n">
-        <v>79445</v>
+        <v>76264</v>
       </c>
       <c r="Z62" s="13" t="n">
-        <v>76264</v>
+        <v>92072</v>
       </c>
       <c r="AA62" s="13" t="n">
-        <v>92072</v>
+        <v>96517</v>
       </c>
       <c r="AB62" s="13" t="n">
-        <v>96517</v>
+        <v>103839</v>
       </c>
       <c r="AC62" s="13" t="n">
-        <v>103839</v>
+        <v>115312</v>
       </c>
       <c r="AD62" s="13" t="n">
-        <v>115312</v>
+        <v>140015</v>
       </c>
       <c r="AE62" s="13" t="n">
-        <v>140015</v>
+        <v>129872</v>
       </c>
       <c r="AF62" s="13" t="n">
-        <v>129872</v>
+        <v>154105</v>
       </c>
       <c r="AG62" s="13" t="n">
-        <v>154105</v>
+        <v>162073</v>
       </c>
       <c r="AH62" s="13" t="n">
-        <v>162073</v>
+        <v>149926</v>
       </c>
       <c r="AI62" s="13" t="n">
-        <v>149926</v>
+        <v>177580</v>
       </c>
       <c r="AJ62" s="13" t="n">
-        <v>177580</v>
+        <v>149679</v>
       </c>
       <c r="AK62" s="13" t="n">
-        <v>149679</v>
+        <v>141875</v>
       </c>
       <c r="AL62" s="13" t="n">
-        <v>141875</v>
+        <v>129102</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>129102</v>
+        <v>124947</v>
       </c>
       <c r="AN62" s="13" t="n">
-        <v>124947</v>
+        <v>145480</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>145480</v>
+        <v>174302</v>
       </c>
       <c r="AP62" s="13" t="n">
-        <v>174302</v>
+        <v>196260</v>
       </c>
       <c r="AQ62" s="13" t="n">
-        <v>196260</v>
+        <v>181695</v>
       </c>
       <c r="AR62" s="13" t="n">
-        <v>181695</v>
+        <v>308028</v>
       </c>
       <c r="AS62" s="13" t="n">
-        <v>308028</v>
+        <v>270018</v>
       </c>
       <c r="AT62" s="13" t="n">
-        <v>270018</v>
+        <v>297226</v>
       </c>
       <c r="AU62" s="13" t="n">
-        <v>297226</v>
+        <v>278729</v>
       </c>
       <c r="AV62" s="13" t="n">
-        <v>278729</v>
+        <v>250866</v>
       </c>
       <c r="AW62" s="13" t="n">
-        <v>250866</v>
+        <v>270141</v>
       </c>
       <c r="AX62" s="13" t="n">
-        <v>270141</v>
+        <v>206575</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>206575</v>
+        <v>213462</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>213462</v>
+        <v>265630</v>
       </c>
       <c r="BA62" s="13" t="n">
-        <v>265630</v>
+        <v>278638</v>
       </c>
       <c r="BB62" s="13" t="n">
-        <v>278638</v>
+        <v>314762</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10144,154 +10144,154 @@
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16" t="n">
-        <v>98953</v>
+        <v>65025</v>
       </c>
       <c r="F63" s="16" t="n">
-        <v>65025</v>
+        <v>84337</v>
       </c>
       <c r="G63" s="16" t="n">
-        <v>84337</v>
+        <v>90253</v>
       </c>
       <c r="H63" s="16" t="n">
-        <v>90253</v>
+        <v>73996</v>
       </c>
       <c r="I63" s="16" t="n">
-        <v>73996</v>
+        <v>86686</v>
       </c>
       <c r="J63" s="16" t="n">
-        <v>86686</v>
+        <v>95943</v>
       </c>
       <c r="K63" s="16" t="n">
-        <v>95943</v>
+        <v>102045</v>
       </c>
       <c r="L63" s="16" t="n">
-        <v>102045</v>
+        <v>82601</v>
       </c>
       <c r="M63" s="16" t="n">
-        <v>82601</v>
+        <v>101593</v>
       </c>
       <c r="N63" s="16" t="n">
-        <v>101593</v>
+        <v>78951</v>
       </c>
       <c r="O63" s="16" t="n">
-        <v>78951</v>
+        <v>83574</v>
       </c>
       <c r="P63" s="16" t="n">
-        <v>83574</v>
-      </c>
-      <c r="Q63" s="16" t="n">
         <v>79448</v>
       </c>
-      <c r="R63" s="16" t="s">
-        <v>57</v>
+      <c r="Q63" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R63" s="16" t="n">
+        <v>77529</v>
       </c>
       <c r="S63" s="16" t="n">
-        <v>77529</v>
+        <v>100441</v>
       </c>
       <c r="T63" s="16" t="n">
-        <v>100441</v>
+        <v>105831</v>
       </c>
       <c r="U63" s="16" t="n">
-        <v>105831</v>
+        <v>129740</v>
       </c>
       <c r="V63" s="16" t="n">
-        <v>129740</v>
+        <v>130365</v>
       </c>
       <c r="W63" s="16" t="n">
-        <v>130365</v>
+        <v>118621</v>
       </c>
       <c r="X63" s="16" t="n">
-        <v>118621</v>
+        <v>73158</v>
       </c>
       <c r="Y63" s="16" t="n">
-        <v>73158</v>
+        <v>94857</v>
       </c>
       <c r="Z63" s="16" t="n">
-        <v>94857</v>
+        <v>116023</v>
       </c>
       <c r="AA63" s="16" t="n">
-        <v>116023</v>
+        <v>147835</v>
       </c>
       <c r="AB63" s="16" t="n">
-        <v>147835</v>
+        <v>128504</v>
       </c>
       <c r="AC63" s="16" t="n">
-        <v>128504</v>
+        <v>118801</v>
       </c>
       <c r="AD63" s="16" t="n">
-        <v>118801</v>
+        <v>139778</v>
       </c>
       <c r="AE63" s="16" t="n">
-        <v>139778</v>
+        <v>139942</v>
       </c>
       <c r="AF63" s="16" t="n">
-        <v>139942</v>
+        <v>127350</v>
       </c>
       <c r="AG63" s="16" t="n">
-        <v>127350</v>
+        <v>173600</v>
       </c>
       <c r="AH63" s="16" t="n">
-        <v>173600</v>
+        <v>145011</v>
       </c>
       <c r="AI63" s="16" t="n">
-        <v>145011</v>
+        <v>195894</v>
       </c>
       <c r="AJ63" s="16" t="n">
-        <v>195894</v>
+        <v>168720</v>
       </c>
       <c r="AK63" s="16" t="n">
-        <v>168720</v>
+        <v>186597</v>
       </c>
       <c r="AL63" s="16" t="n">
-        <v>186597</v>
+        <v>167854</v>
       </c>
       <c r="AM63" s="16" t="n">
-        <v>167854</v>
+        <v>145656</v>
       </c>
       <c r="AN63" s="16" t="n">
-        <v>145656</v>
+        <v>125182</v>
       </c>
       <c r="AO63" s="16" t="n">
-        <v>125182</v>
+        <v>173774</v>
       </c>
       <c r="AP63" s="16" t="n">
-        <v>173774</v>
+        <v>143584</v>
       </c>
       <c r="AQ63" s="16" t="n">
-        <v>143584</v>
+        <v>211745</v>
       </c>
       <c r="AR63" s="16" t="n">
-        <v>211745</v>
+        <v>301171</v>
       </c>
       <c r="AS63" s="16" t="n">
-        <v>301171</v>
+        <v>253232</v>
       </c>
       <c r="AT63" s="16" t="n">
-        <v>253232</v>
+        <v>311621</v>
       </c>
       <c r="AU63" s="16" t="n">
-        <v>311621</v>
+        <v>287745</v>
       </c>
       <c r="AV63" s="16" t="n">
-        <v>287745</v>
+        <v>272354</v>
       </c>
       <c r="AW63" s="16" t="n">
-        <v>272354</v>
+        <v>188880</v>
       </c>
       <c r="AX63" s="16" t="n">
-        <v>188880</v>
+        <v>208403</v>
       </c>
       <c r="AY63" s="16" t="n">
-        <v>208403</v>
+        <v>183119</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>183119</v>
+        <v>225210</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>225210</v>
+        <v>338570</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>338570</v>
+        <v>241465</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10303,154 +10303,154 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13" t="n">
-        <v>19704</v>
+        <v>11846</v>
       </c>
       <c r="F64" s="13" t="n">
-        <v>11846</v>
+        <v>32668</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>32668</v>
+        <v>2354</v>
       </c>
       <c r="H64" s="13" t="n">
-        <v>2354</v>
+        <v>9251</v>
       </c>
       <c r="I64" s="13" t="n">
-        <v>9251</v>
+        <v>11881</v>
       </c>
       <c r="J64" s="13" t="n">
-        <v>11881</v>
+        <v>9452</v>
       </c>
       <c r="K64" s="13" t="n">
-        <v>9452</v>
+        <v>7822</v>
       </c>
       <c r="L64" s="13" t="n">
-        <v>7822</v>
+        <v>22811</v>
       </c>
       <c r="M64" s="13" t="n">
-        <v>22811</v>
+        <v>10231</v>
       </c>
       <c r="N64" s="13" t="n">
-        <v>10231</v>
+        <v>8995</v>
       </c>
       <c r="O64" s="13" t="n">
-        <v>8995</v>
+        <v>4086</v>
       </c>
       <c r="P64" s="13" t="n">
-        <v>4086</v>
-      </c>
-      <c r="Q64" s="13" t="n">
         <v>12914</v>
       </c>
-      <c r="R64" s="13" t="s">
-        <v>57</v>
+      <c r="Q64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R64" s="13" t="n">
+        <v>5326</v>
       </c>
       <c r="S64" s="13" t="n">
-        <v>5326</v>
+        <v>22702</v>
       </c>
       <c r="T64" s="13" t="n">
-        <v>22702</v>
+        <v>22904</v>
       </c>
       <c r="U64" s="13" t="n">
-        <v>22904</v>
+        <v>16173</v>
       </c>
       <c r="V64" s="13" t="n">
-        <v>16173</v>
+        <v>6410</v>
       </c>
       <c r="W64" s="13" t="n">
-        <v>6410</v>
+        <v>31436</v>
       </c>
       <c r="X64" s="13" t="n">
-        <v>31436</v>
+        <v>31557</v>
       </c>
       <c r="Y64" s="13" t="n">
-        <v>31557</v>
+        <v>36592</v>
       </c>
       <c r="Z64" s="13" t="n">
-        <v>36592</v>
+        <v>56165</v>
       </c>
       <c r="AA64" s="13" t="n">
-        <v>56165</v>
+        <v>15284</v>
       </c>
       <c r="AB64" s="13" t="n">
-        <v>15284</v>
+        <v>21132</v>
       </c>
       <c r="AC64" s="13" t="n">
-        <v>21132</v>
+        <v>28971</v>
       </c>
       <c r="AD64" s="13" t="n">
-        <v>28971</v>
+        <v>17678</v>
       </c>
       <c r="AE64" s="13" t="n">
-        <v>17678</v>
+        <v>18837</v>
       </c>
       <c r="AF64" s="13" t="n">
-        <v>18837</v>
+        <v>8561</v>
       </c>
       <c r="AG64" s="13" t="n">
-        <v>8561</v>
+        <v>15527</v>
       </c>
       <c r="AH64" s="13" t="n">
-        <v>15527</v>
+        <v>45634</v>
       </c>
       <c r="AI64" s="13" t="n">
-        <v>45634</v>
+        <v>53651</v>
       </c>
       <c r="AJ64" s="13" t="n">
-        <v>53651</v>
+        <v>23614</v>
       </c>
       <c r="AK64" s="13" t="n">
-        <v>23614</v>
+        <v>32109</v>
       </c>
       <c r="AL64" s="13" t="n">
-        <v>32109</v>
+        <v>50298</v>
       </c>
       <c r="AM64" s="13" t="n">
-        <v>50298</v>
+        <v>28196</v>
       </c>
       <c r="AN64" s="13" t="n">
-        <v>28196</v>
+        <v>6560</v>
       </c>
       <c r="AO64" s="13" t="n">
-        <v>6560</v>
+        <v>65469</v>
       </c>
       <c r="AP64" s="13" t="n">
-        <v>65469</v>
+        <v>229861</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>229861</v>
+        <v>111435</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>111435</v>
+        <v>39228</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>39228</v>
+        <v>304620</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>304620</v>
+        <v>106890</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>106890</v>
+        <v>170034</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>170034</v>
+        <v>401836</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>401836</v>
+        <v>315556</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>315556</v>
+        <v>337818</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>337818</v>
+        <v>158336</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>158336</v>
+        <v>312583</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>312583</v>
+        <v>308532</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>308532</v>
+        <v>190571</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10462,154 +10462,154 @@
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16" t="n">
-        <v>24498</v>
+        <v>39886</v>
       </c>
       <c r="F65" s="16" t="n">
-        <v>39886</v>
+        <v>12550</v>
       </c>
       <c r="G65" s="16" t="n">
-        <v>12550</v>
+        <v>63059</v>
       </c>
       <c r="H65" s="16" t="n">
-        <v>63059</v>
+        <v>34224</v>
       </c>
       <c r="I65" s="16" t="n">
-        <v>34224</v>
+        <v>25015</v>
       </c>
       <c r="J65" s="16" t="n">
-        <v>25015</v>
+        <v>20569</v>
       </c>
       <c r="K65" s="16" t="n">
-        <v>20569</v>
+        <v>25762</v>
       </c>
       <c r="L65" s="16" t="n">
-        <v>25762</v>
+        <v>20752</v>
       </c>
       <c r="M65" s="16" t="n">
-        <v>20752</v>
+        <v>23597</v>
       </c>
       <c r="N65" s="16" t="n">
-        <v>23597</v>
+        <v>29678</v>
       </c>
       <c r="O65" s="16" t="n">
-        <v>29678</v>
+        <v>13027</v>
       </c>
       <c r="P65" s="16" t="n">
-        <v>13027</v>
-      </c>
-      <c r="Q65" s="16" t="n">
         <v>17905</v>
       </c>
-      <c r="R65" s="16" t="s">
-        <v>57</v>
+      <c r="Q65" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R65" s="16" t="n">
+        <v>25876</v>
       </c>
       <c r="S65" s="16" t="n">
-        <v>25876</v>
+        <v>61835</v>
       </c>
       <c r="T65" s="16" t="n">
-        <v>61835</v>
+        <v>56866</v>
       </c>
       <c r="U65" s="16" t="n">
-        <v>56866</v>
+        <v>67098</v>
       </c>
       <c r="V65" s="16" t="n">
-        <v>67098</v>
+        <v>95674</v>
       </c>
       <c r="W65" s="16" t="n">
-        <v>95674</v>
+        <v>28362</v>
       </c>
       <c r="X65" s="16" t="n">
-        <v>28362</v>
+        <v>25380</v>
       </c>
       <c r="Y65" s="16" t="n">
-        <v>25380</v>
+        <v>26199</v>
       </c>
       <c r="Z65" s="16" t="n">
-        <v>26199</v>
+        <v>46704</v>
       </c>
       <c r="AA65" s="16" t="n">
-        <v>46704</v>
+        <v>50627</v>
       </c>
       <c r="AB65" s="16" t="n">
-        <v>50627</v>
+        <v>22594</v>
       </c>
       <c r="AC65" s="16" t="n">
-        <v>22594</v>
+        <v>138934</v>
       </c>
       <c r="AD65" s="16" t="n">
-        <v>138934</v>
+        <v>34153</v>
       </c>
       <c r="AE65" s="16" t="n">
-        <v>34153</v>
+        <v>41723</v>
       </c>
       <c r="AF65" s="16" t="n">
-        <v>41723</v>
+        <v>86498</v>
       </c>
       <c r="AG65" s="16" t="n">
-        <v>86498</v>
+        <v>144255</v>
       </c>
       <c r="AH65" s="16" t="n">
-        <v>144255</v>
+        <v>89327</v>
       </c>
       <c r="AI65" s="16" t="n">
-        <v>89327</v>
+        <v>98615</v>
       </c>
       <c r="AJ65" s="16" t="n">
-        <v>98615</v>
+        <v>131104</v>
       </c>
       <c r="AK65" s="16" t="n">
-        <v>131104</v>
+        <v>139543</v>
       </c>
       <c r="AL65" s="16" t="n">
-        <v>139543</v>
+        <v>114893</v>
       </c>
       <c r="AM65" s="16" t="n">
-        <v>114893</v>
+        <v>120711</v>
       </c>
       <c r="AN65" s="16" t="n">
-        <v>120711</v>
+        <v>115427</v>
       </c>
       <c r="AO65" s="16" t="n">
-        <v>115427</v>
+        <v>272339</v>
       </c>
       <c r="AP65" s="16" t="n">
-        <v>272339</v>
+        <v>221316</v>
       </c>
       <c r="AQ65" s="16" t="n">
-        <v>221316</v>
+        <v>106861</v>
       </c>
       <c r="AR65" s="16" t="n">
-        <v>106861</v>
+        <v>69614</v>
       </c>
       <c r="AS65" s="16" t="n">
-        <v>69614</v>
+        <v>69078</v>
       </c>
       <c r="AT65" s="16" t="n">
-        <v>69078</v>
+        <v>344727</v>
       </c>
       <c r="AU65" s="16" t="n">
-        <v>344727</v>
+        <v>165773</v>
       </c>
       <c r="AV65" s="16" t="n">
-        <v>165773</v>
+        <v>298780</v>
       </c>
       <c r="AW65" s="16" t="n">
-        <v>298780</v>
+        <v>297850</v>
       </c>
       <c r="AX65" s="16" t="n">
-        <v>297850</v>
+        <v>368615</v>
       </c>
       <c r="AY65" s="16" t="n">
-        <v>368615</v>
+        <v>275939</v>
       </c>
       <c r="AZ65" s="16" t="n">
-        <v>275939</v>
+        <v>270928</v>
       </c>
       <c r="BA65" s="16" t="n">
-        <v>270928</v>
+        <v>322760</v>
       </c>
       <c r="BB65" s="16" t="n">
-        <v>322760</v>
+        <v>498107</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10695,8 +10695,8 @@
       <c r="AC66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD66" s="13" t="s">
-        <v>57</v>
+      <c r="AD66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE66" s="13" t="n">
         <v>0</v>
@@ -10728,8 +10728,8 @@
       <c r="AN66" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO66" s="13" t="n">
-        <v>0</v>
+      <c r="AO66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP66" s="13" t="s">
         <v>57</v>
@@ -10854,14 +10854,14 @@
       <c r="AC67" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="16" t="s">
-        <v>57</v>
+      <c r="AD67" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE67" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF67" s="16" t="n">
-        <v>0</v>
+      <c r="AF67" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AG67" s="16" t="s">
         <v>57</v>
@@ -11013,8 +11013,8 @@
       <c r="AC68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD68" s="13" t="s">
-        <v>57</v>
+      <c r="AD68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE68" s="13" t="n">
         <v>0</v>
@@ -11046,8 +11046,8 @@
       <c r="AN68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO68" s="13" t="n">
-        <v>0</v>
+      <c r="AO68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AP68" s="13" t="s">
         <v>57</v>
@@ -11172,8 +11172,8 @@
       <c r="AC69" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="16" t="s">
-        <v>57</v>
+      <c r="AD69" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE69" s="16" t="n">
         <v>0</v>
@@ -11205,8 +11205,8 @@
       <c r="AN69" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO69" s="16" t="n">
-        <v>0</v>
+      <c r="AO69" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP69" s="16" t="s">
         <v>57</v>
@@ -11388,8 +11388,8 @@
       <c r="AC71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD71" s="13" t="s">
-        <v>57</v>
+      <c r="AD71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE71" s="13" t="n">
         <v>0</v>
@@ -11520,8 +11520,8 @@
       <c r="T72" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U72" s="18" t="s">
-        <v>57</v>
+      <c r="U72" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="21" t="n">
         <v>0</v>
@@ -11799,8 +11799,8 @@
       <c r="AO74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP74" s="13" t="s">
-        <v>57</v>
+      <c r="AP74" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ74" s="13" t="n">
         <v>0</v>
@@ -11835,8 +11835,8 @@
       <c r="BA74" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB74" s="13" t="n">
-        <v>0</v>
+      <c r="BB74" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11895,8 +11895,8 @@
       <c r="T75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U75" s="18" t="s">
-        <v>57</v>
+      <c r="U75" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V75" s="21" t="n">
         <v>0</v>
@@ -12111,8 +12111,8 @@
       <c r="T77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>57</v>
+      <c r="U77" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V77" s="13" t="n">
         <v>0</v>
@@ -12221,154 +12221,154 @@
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
       <c r="E78" s="21" t="n">
-        <v>374609</v>
+        <v>309601</v>
       </c>
       <c r="F78" s="21" t="n">
-        <v>309601</v>
+        <v>361492</v>
       </c>
       <c r="G78" s="21" t="n">
-        <v>361492</v>
+        <v>420089</v>
       </c>
       <c r="H78" s="21" t="n">
-        <v>420089</v>
+        <v>392374</v>
       </c>
       <c r="I78" s="21" t="n">
-        <v>392374</v>
+        <v>426452</v>
       </c>
       <c r="J78" s="21" t="n">
-        <v>426452</v>
+        <v>398913</v>
       </c>
       <c r="K78" s="21" t="n">
-        <v>398913</v>
+        <v>402198</v>
       </c>
       <c r="L78" s="21" t="n">
-        <v>402198</v>
+        <v>472392</v>
       </c>
       <c r="M78" s="21" t="n">
-        <v>472392</v>
+        <v>484152</v>
       </c>
       <c r="N78" s="21" t="n">
-        <v>484152</v>
+        <v>490511</v>
       </c>
       <c r="O78" s="21" t="n">
-        <v>490511</v>
+        <v>492322</v>
       </c>
       <c r="P78" s="21" t="n">
-        <v>492322</v>
+        <v>591872</v>
       </c>
       <c r="Q78" s="21" t="n">
-        <v>591872</v>
+        <v>0</v>
       </c>
       <c r="R78" s="21" t="n">
-        <v>0</v>
+        <v>313808</v>
       </c>
       <c r="S78" s="21" t="n">
-        <v>313808</v>
+        <v>464429</v>
       </c>
       <c r="T78" s="21" t="n">
-        <v>464429</v>
+        <v>618799</v>
       </c>
       <c r="U78" s="21" t="n">
-        <v>618799</v>
+        <v>533484</v>
       </c>
       <c r="V78" s="21" t="n">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="W78" s="21" t="n">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="X78" s="21" t="n">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="Y78" s="21" t="n">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="Z78" s="21" t="n">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="AA78" s="21" t="n">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AB78" s="21" t="n">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AC78" s="21" t="n">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AD78" s="21" t="n">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AE78" s="21" t="n">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AF78" s="21" t="n">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AG78" s="21" t="n">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AH78" s="21" t="n">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AI78" s="21" t="n">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AJ78" s="21" t="n">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AK78" s="21" t="n">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AL78" s="21" t="n">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AM78" s="21" t="n">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AN78" s="21" t="n">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AO78" s="21" t="n">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AP78" s="21" t="n">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AQ78" s="21" t="n">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AR78" s="21" t="n">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AS78" s="21" t="n">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AT78" s="21" t="n">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AU78" s="21" t="n">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AV78" s="21" t="n">
-        <v>1597792</v>
+        <v>1998705</v>
       </c>
       <c r="AW78" s="21" t="n">
-        <v>1998705</v>
+        <v>1827960</v>
       </c>
       <c r="AX78" s="21" t="n">
-        <v>1827960</v>
+        <v>1941412</v>
       </c>
       <c r="AY78" s="21" t="n">
-        <v>1941412</v>
+        <v>1686377</v>
       </c>
       <c r="AZ78" s="21" t="n">
-        <v>1686377</v>
+        <v>2021009</v>
       </c>
       <c r="BA78" s="21" t="n">
-        <v>2021009</v>
+        <v>1962016</v>
       </c>
       <c r="BB78" s="21" t="n">
-        <v>1962016</v>
+        <v>1986376</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12814,154 +12814,154 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="n">
-        <v>23460665</v>
+        <v>20200303</v>
       </c>
       <c r="F85" s="13" t="n">
-        <v>20200303</v>
+        <v>23941795</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>23941795</v>
+        <v>23635229</v>
       </c>
       <c r="H85" s="13" t="n">
-        <v>23635229</v>
+        <v>24360264</v>
       </c>
       <c r="I85" s="13" t="n">
-        <v>24360264</v>
+        <v>28048973</v>
       </c>
       <c r="J85" s="13" t="n">
-        <v>28048973</v>
+        <v>27557070</v>
       </c>
       <c r="K85" s="13" t="n">
-        <v>27557070</v>
+        <v>29004141</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>29004141</v>
+        <v>29462704</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>29462704</v>
+        <v>29715223</v>
       </c>
       <c r="N85" s="13" t="n">
-        <v>29715223</v>
+        <v>29981481</v>
       </c>
       <c r="O85" s="13" t="n">
-        <v>29981481</v>
+        <v>29923896</v>
       </c>
       <c r="P85" s="13" t="n">
-        <v>29923896</v>
-      </c>
-      <c r="Q85" s="13" t="n">
         <v>29915709</v>
       </c>
-      <c r="R85" s="13" t="s">
-        <v>57</v>
+      <c r="Q85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R85" s="13" t="n">
+        <v>29807107</v>
       </c>
       <c r="S85" s="13" t="n">
-        <v>29807107</v>
+        <v>29973460</v>
       </c>
       <c r="T85" s="13" t="n">
-        <v>29973460</v>
+        <v>30689276</v>
       </c>
       <c r="U85" s="13" t="n">
-        <v>30689276</v>
+        <v>33755440</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>33755440</v>
+        <v>35165579</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>35165579</v>
+        <v>35281086</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>35281086</v>
+        <v>34426600</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>34426600</v>
+        <v>36081191</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>36081191</v>
+        <v>41634278</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>41634278</v>
+        <v>45865885</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>45865885</v>
+        <v>43721120</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>43721120</v>
+        <v>42080285</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>42080285</v>
+        <v>42783912</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>42783912</v>
+        <v>46548708</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>46548708</v>
+        <v>51704396</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>51704396</v>
+        <v>61650391</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>61650391</v>
+        <v>56627034</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>56627034</v>
+        <v>65842569</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>65842569</v>
+        <v>62139731</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>62139731</v>
+        <v>64436155</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>64436155</v>
+        <v>65715054</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>65715054</v>
+        <v>66624791</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>66624791</v>
+        <v>66735043</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>66735043</v>
+        <v>66392593</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>66392593</v>
+        <v>68327497</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>68327497</v>
+        <v>73707883</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>73707883</v>
+        <v>107613014</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>107613014</v>
+        <v>104074278</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>104074278</v>
+        <v>105021429</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>105021429</v>
+        <v>103969072</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>103969072</v>
+        <v>103298622</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>103298622</v>
+        <v>103593354</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>103593354</v>
+        <v>105431818</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>105431818</v>
+        <v>100747899</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>100747899</v>
+        <v>102637961</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>102637961</v>
+        <v>101332659</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>101332659</v>
+        <v>98004664</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12973,154 +12973,154 @@
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16" t="n">
-        <v>96725000</v>
+        <v>107666667</v>
       </c>
       <c r="F86" s="16" t="n">
-        <v>107666667</v>
+        <v>93294118</v>
       </c>
       <c r="G86" s="16" t="n">
-        <v>93294118</v>
+        <v>95785714</v>
       </c>
       <c r="H86" s="16" t="n">
-        <v>95785714</v>
+        <v>91962963</v>
       </c>
       <c r="I86" s="16" t="n">
-        <v>91962963</v>
+        <v>107235294</v>
       </c>
       <c r="J86" s="16" t="n">
-        <v>107235294</v>
+        <v>104235294</v>
       </c>
       <c r="K86" s="16" t="n">
-        <v>104235294</v>
+        <v>102888889</v>
       </c>
       <c r="L86" s="16" t="n">
-        <v>102888889</v>
+        <v>106565217</v>
       </c>
       <c r="M86" s="16" t="n">
-        <v>106565217</v>
+        <v>113619048</v>
       </c>
       <c r="N86" s="16" t="n">
-        <v>113619048</v>
+        <v>121470588</v>
       </c>
       <c r="O86" s="16" t="n">
-        <v>121470588</v>
+        <v>119411765</v>
       </c>
       <c r="P86" s="16" t="n">
-        <v>119411765</v>
-      </c>
-      <c r="Q86" s="16" t="n">
         <v>118130435</v>
       </c>
-      <c r="R86" s="16" t="s">
-        <v>57</v>
+      <c r="Q86" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R86" s="16" t="n">
+        <v>120277778</v>
       </c>
       <c r="S86" s="16" t="n">
-        <v>120277778</v>
+        <v>119448276</v>
       </c>
       <c r="T86" s="16" t="n">
-        <v>119448276</v>
+        <v>124772727</v>
       </c>
       <c r="U86" s="16" t="n">
-        <v>124772727</v>
+        <v>141947368</v>
       </c>
       <c r="V86" s="16" t="n">
-        <v>141947368</v>
+        <v>149833333</v>
       </c>
       <c r="W86" s="16" t="n">
-        <v>149833333</v>
+        <v>148875000</v>
       </c>
       <c r="X86" s="16" t="n">
-        <v>148875000</v>
+        <v>138458333</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>138458333</v>
+        <v>189571429</v>
       </c>
       <c r="Z86" s="16" t="n">
-        <v>189571429</v>
+        <v>147483871</v>
       </c>
       <c r="AA86" s="16" t="n">
-        <v>147483871</v>
+        <v>168085714</v>
       </c>
       <c r="AB86" s="16" t="n">
-        <v>168085714</v>
+        <v>145185185</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>145185185</v>
+        <v>5851852</v>
       </c>
       <c r="AD86" s="16" t="n">
-        <v>5851852</v>
+        <v>174884615</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>174884615</v>
+        <v>89600000</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>89600000</v>
+        <v>164601626</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>164601626</v>
+        <v>408615385</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>408615385</v>
+        <v>238600000</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>238600000</v>
+        <v>239000000</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>239000000</v>
+        <v>240620690</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>240620690</v>
+        <v>248800000</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>248800000</v>
+        <v>247272727</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>247272727</v>
+        <v>216142857</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>216142857</v>
+        <v>258000000</v>
       </c>
       <c r="AO86" s="16" t="n">
+        <v>269227273</v>
+      </c>
+      <c r="AP86" s="16" t="n">
         <v>258000000</v>
       </c>
-      <c r="AP86" s="16" t="n">
-        <v>269227273</v>
-      </c>
       <c r="AQ86" s="16" t="n">
-        <v>258000000</v>
+        <v>284333333</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>284333333</v>
+        <v>479578947</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>479578947</v>
+        <v>407928571</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>407928571</v>
+        <v>438055556</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>438055556</v>
+        <v>418388889</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>418388889</v>
+        <v>432315789</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>432315789</v>
+        <v>401500000</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>401500000</v>
+        <v>566650000</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>566650000</v>
+        <v>413750000</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>413750000</v>
+        <v>423227273</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>423227273</v>
+        <v>417500000</v>
       </c>
       <c r="BB86" s="16" t="n">
-        <v>417500000</v>
+        <v>434192308</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13132,154 +13132,154 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="n">
-        <v>34523568</v>
+        <v>35145067</v>
       </c>
       <c r="F87" s="13" t="n">
-        <v>35145067</v>
+        <v>35226057</v>
       </c>
       <c r="G87" s="13" t="n">
-        <v>35226057</v>
+        <v>33996917</v>
       </c>
       <c r="H87" s="13" t="n">
-        <v>33996917</v>
+        <v>30770680</v>
       </c>
       <c r="I87" s="13" t="n">
-        <v>30770680</v>
+        <v>41648507</v>
       </c>
       <c r="J87" s="13" t="n">
-        <v>41648507</v>
+        <v>43135444</v>
       </c>
       <c r="K87" s="13" t="n">
-        <v>43135444</v>
+        <v>43576813</v>
       </c>
       <c r="L87" s="13" t="n">
-        <v>43576813</v>
+        <v>44603869</v>
       </c>
       <c r="M87" s="13" t="n">
-        <v>44603869</v>
+        <v>44262512</v>
       </c>
       <c r="N87" s="13" t="n">
-        <v>44262512</v>
+        <v>42421856</v>
       </c>
       <c r="O87" s="13" t="n">
-        <v>42421856</v>
+        <v>38797380</v>
       </c>
       <c r="P87" s="13" t="n">
-        <v>38797380</v>
-      </c>
-      <c r="Q87" s="13" t="n">
         <v>38792992</v>
       </c>
-      <c r="R87" s="13" t="s">
-        <v>57</v>
+      <c r="Q87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R87" s="13" t="n">
+        <v>34295332</v>
       </c>
       <c r="S87" s="13" t="n">
-        <v>34295332</v>
+        <v>36811264</v>
       </c>
       <c r="T87" s="13" t="n">
-        <v>36811264</v>
+        <v>37227848</v>
       </c>
       <c r="U87" s="13" t="n">
-        <v>37227848</v>
+        <v>53063561</v>
       </c>
       <c r="V87" s="13" t="n">
-        <v>53063561</v>
+        <v>59568927</v>
       </c>
       <c r="W87" s="13" t="n">
-        <v>59568927</v>
+        <v>65815873</v>
       </c>
       <c r="X87" s="13" t="n">
-        <v>65815873</v>
+        <v>60888607</v>
       </c>
       <c r="Y87" s="13" t="n">
-        <v>60888607</v>
+        <v>50857495</v>
       </c>
       <c r="Z87" s="13" t="n">
-        <v>50857495</v>
+        <v>74549539</v>
       </c>
       <c r="AA87" s="13" t="n">
-        <v>74549539</v>
+        <v>90195594</v>
       </c>
       <c r="AB87" s="13" t="n">
-        <v>90195594</v>
+        <v>64919874</v>
       </c>
       <c r="AC87" s="13" t="n">
-        <v>64919874</v>
+        <v>95050987</v>
       </c>
       <c r="AD87" s="13" t="n">
-        <v>95050987</v>
+        <v>64714924</v>
       </c>
       <c r="AE87" s="13" t="n">
-        <v>64714924</v>
+        <v>70604968</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>70604968</v>
+        <v>77293111</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>77293111</v>
+        <v>75920788</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>75920788</v>
+        <v>91633617</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>91633617</v>
+        <v>97709771</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>97709771</v>
+        <v>111308772</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>111308772</v>
+        <v>113229381</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>113229381</v>
+        <v>129085315</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>129085315</v>
+        <v>104000384</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>104000384</v>
+        <v>102190062</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>102190062</v>
+        <v>105731457</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>105731457</v>
+        <v>108267001</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>108267001</v>
+        <v>128917782</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>128917782</v>
+        <v>188527792</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>188527792</v>
+        <v>194350760</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>194350760</v>
+        <v>193125000</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>193125000</v>
+        <v>186233459</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>186233459</v>
+        <v>184404733</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>184404733</v>
+        <v>191734627</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>191734627</v>
+        <v>187263649</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>187263649</v>
+        <v>185024313</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>185024313</v>
+        <v>188954998</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>188954998</v>
+        <v>184985994</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>184985994</v>
+        <v>182790522</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13291,154 +13291,154 @@
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16" t="n">
-        <v>130250980</v>
+        <v>91680851</v>
       </c>
       <c r="F88" s="16" t="n">
-        <v>91680851</v>
+        <v>127895455</v>
       </c>
       <c r="G88" s="16" t="n">
-        <v>127895455</v>
+        <v>166921914</v>
       </c>
       <c r="H88" s="16" t="n">
-        <v>166921914</v>
+        <v>167109865</v>
       </c>
       <c r="I88" s="16" t="n">
-        <v>167109865</v>
+        <v>157228175</v>
       </c>
       <c r="J88" s="16" t="n">
-        <v>157228175</v>
+        <v>196424000</v>
       </c>
       <c r="K88" s="16" t="n">
-        <v>196424000</v>
+        <v>228375000</v>
       </c>
       <c r="L88" s="16" t="n">
-        <v>228375000</v>
+        <v>211158228</v>
       </c>
       <c r="M88" s="16" t="n">
-        <v>211158228</v>
+        <v>224804924</v>
       </c>
       <c r="N88" s="16" t="n">
-        <v>224804924</v>
+        <v>241932039</v>
       </c>
       <c r="O88" s="16" t="n">
-        <v>241932039</v>
+        <v>231168081</v>
       </c>
       <c r="P88" s="16" t="n">
-        <v>231168081</v>
-      </c>
-      <c r="Q88" s="16" t="n">
         <v>245678610</v>
       </c>
-      <c r="R88" s="16" t="s">
-        <v>57</v>
+      <c r="Q88" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R88" s="16" t="n">
+        <v>205338843</v>
       </c>
       <c r="S88" s="16" t="n">
-        <v>205338843</v>
+        <v>150448529</v>
       </c>
       <c r="T88" s="16" t="n">
-        <v>150448529</v>
+        <v>219267123</v>
       </c>
       <c r="U88" s="16" t="n">
-        <v>219267123</v>
+        <v>239949807</v>
       </c>
       <c r="V88" s="16" t="n">
-        <v>239949807</v>
+        <v>276351779</v>
       </c>
       <c r="W88" s="16" t="n">
-        <v>276351779</v>
+        <v>307416393</v>
       </c>
       <c r="X88" s="16" t="n">
-        <v>307416393</v>
+        <v>284904918</v>
       </c>
       <c r="Y88" s="16" t="n">
-        <v>284904918</v>
+        <v>279312821</v>
       </c>
       <c r="Z88" s="16" t="n">
-        <v>279312821</v>
+        <v>295318786</v>
       </c>
       <c r="AA88" s="16" t="n">
-        <v>295318786</v>
+        <v>335889807</v>
       </c>
       <c r="AB88" s="16" t="n">
-        <v>335889807</v>
+        <v>283402913</v>
       </c>
       <c r="AC88" s="16" t="n">
-        <v>283402913</v>
+        <v>301286195</v>
       </c>
       <c r="AD88" s="16" t="n">
-        <v>301286195</v>
+        <v>265308197</v>
       </c>
       <c r="AE88" s="16" t="n">
-        <v>265308197</v>
+        <v>330550802</v>
       </c>
       <c r="AF88" s="16" t="n">
-        <v>330550802</v>
+        <v>305844156</v>
       </c>
       <c r="AG88" s="16" t="n">
-        <v>305844156</v>
+        <v>485076923</v>
       </c>
       <c r="AH88" s="16" t="n">
-        <v>485076923</v>
+        <v>377195804</v>
       </c>
       <c r="AI88" s="16" t="n">
-        <v>377195804</v>
+        <v>449382353</v>
       </c>
       <c r="AJ88" s="16" t="n">
-        <v>449382353</v>
+        <v>425980296</v>
       </c>
       <c r="AK88" s="16" t="n">
-        <v>425980296</v>
+        <v>427589744</v>
       </c>
       <c r="AL88" s="16" t="n">
-        <v>427589744</v>
+        <v>459686869</v>
       </c>
       <c r="AM88" s="16" t="n">
-        <v>459686869</v>
+        <v>388238806</v>
       </c>
       <c r="AN88" s="16" t="n">
-        <v>388238806</v>
+        <v>352109195</v>
       </c>
       <c r="AO88" s="16" t="n">
-        <v>352109195</v>
+        <v>352892694</v>
       </c>
       <c r="AP88" s="16" t="n">
-        <v>352892694</v>
+        <v>318300532</v>
       </c>
       <c r="AQ88" s="16" t="n">
-        <v>318300532</v>
+        <v>449018868</v>
       </c>
       <c r="AR88" s="16" t="n">
-        <v>449018868</v>
+        <v>570477876</v>
       </c>
       <c r="AS88" s="16" t="n">
-        <v>570477876</v>
+        <v>577307368</v>
       </c>
       <c r="AT88" s="16" t="n">
-        <v>577307368</v>
+        <v>637544892</v>
       </c>
       <c r="AU88" s="16" t="n">
-        <v>637544892</v>
+        <v>623479532</v>
       </c>
       <c r="AV88" s="16" t="n">
-        <v>623479532</v>
+        <v>578454106</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>578454106</v>
+        <v>693916667</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>693916667</v>
+        <v>607774096</v>
       </c>
       <c r="AY88" s="16" t="n">
-        <v>607774096</v>
+        <v>699205333</v>
       </c>
       <c r="AZ88" s="16" t="n">
-        <v>699205333</v>
+        <v>621735350</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>621735350</v>
+        <v>563905138</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>563905138</v>
+        <v>680877049</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13450,154 +13450,154 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="n">
-        <v>36667404</v>
+        <v>33093868</v>
       </c>
       <c r="F89" s="13" t="n">
-        <v>33093868</v>
+        <v>38639088</v>
       </c>
       <c r="G89" s="13" t="n">
-        <v>38639088</v>
+        <v>39090566</v>
       </c>
       <c r="H89" s="13" t="n">
-        <v>39090566</v>
+        <v>40567069</v>
       </c>
       <c r="I89" s="13" t="n">
-        <v>40567069</v>
+        <v>46058204</v>
       </c>
       <c r="J89" s="13" t="n">
-        <v>46058204</v>
+        <v>45932295</v>
       </c>
       <c r="K89" s="13" t="n">
-        <v>45932295</v>
+        <v>46412667</v>
       </c>
       <c r="L89" s="13" t="n">
-        <v>46412667</v>
+        <v>46689373</v>
       </c>
       <c r="M89" s="13" t="n">
-        <v>46689373</v>
+        <v>46657975</v>
       </c>
       <c r="N89" s="13" t="n">
-        <v>46657975</v>
+        <v>46374012</v>
       </c>
       <c r="O89" s="13" t="n">
-        <v>46374012</v>
+        <v>46513267</v>
       </c>
       <c r="P89" s="13" t="n">
-        <v>46513267</v>
-      </c>
-      <c r="Q89" s="13" t="n">
         <v>46496183</v>
       </c>
-      <c r="R89" s="13" t="s">
-        <v>57</v>
+      <c r="Q89" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R89" s="13" t="n">
+        <v>46762484</v>
       </c>
       <c r="S89" s="13" t="n">
-        <v>46762484</v>
+        <v>47281103</v>
       </c>
       <c r="T89" s="13" t="n">
-        <v>47281103</v>
+        <v>48803269</v>
       </c>
       <c r="U89" s="13" t="n">
-        <v>48803269</v>
+        <v>54199201</v>
       </c>
       <c r="V89" s="13" t="n">
-        <v>54199201</v>
+        <v>57214837</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>57214837</v>
+        <v>57534898</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>57534898</v>
+        <v>58935460</v>
       </c>
       <c r="Y89" s="13" t="n">
-        <v>58935460</v>
+        <v>59861852</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>59861852</v>
+        <v>71651362</v>
       </c>
       <c r="AA89" s="13" t="n">
-        <v>71651362</v>
+        <v>74243846</v>
       </c>
       <c r="AB89" s="13" t="n">
-        <v>74243846</v>
+        <v>72563941</v>
       </c>
       <c r="AC89" s="13" t="n">
-        <v>72563941</v>
+        <v>70743558</v>
       </c>
       <c r="AD89" s="13" t="n">
-        <v>70743558</v>
+        <v>73114883</v>
       </c>
       <c r="AE89" s="13" t="n">
-        <v>73114883</v>
+        <v>78048077</v>
       </c>
       <c r="AF89" s="13" t="n">
-        <v>78048077</v>
+        <v>82014369</v>
       </c>
       <c r="AG89" s="13" t="n">
-        <v>82014369</v>
+        <v>90746361</v>
       </c>
       <c r="AH89" s="13" t="n">
-        <v>90746361</v>
+        <v>106330496</v>
       </c>
       <c r="AI89" s="13" t="n">
-        <v>106330496</v>
+        <v>125056338</v>
       </c>
       <c r="AJ89" s="13" t="n">
-        <v>125056338</v>
+        <v>125886459</v>
       </c>
       <c r="AK89" s="13" t="n">
-        <v>125886459</v>
+        <v>126448307</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>126448307</v>
+        <v>125463557</v>
       </c>
       <c r="AM89" s="13" t="n">
-        <v>125463557</v>
+        <v>126464575</v>
       </c>
       <c r="AN89" s="13" t="n">
-        <v>126464575</v>
+        <v>127726076</v>
       </c>
       <c r="AO89" s="13" t="n">
-        <v>127726076</v>
+        <v>128826312</v>
       </c>
       <c r="AP89" s="13" t="n">
-        <v>128826312</v>
+        <v>130752831</v>
       </c>
       <c r="AQ89" s="13" t="n">
-        <v>130752831</v>
+        <v>146174578</v>
       </c>
       <c r="AR89" s="13" t="n">
-        <v>146174578</v>
+        <v>233708649</v>
       </c>
       <c r="AS89" s="13" t="n">
-        <v>233708649</v>
+        <v>220963993</v>
       </c>
       <c r="AT89" s="13" t="n">
-        <v>220963993</v>
+        <v>229164225</v>
       </c>
       <c r="AU89" s="13" t="n">
-        <v>229164225</v>
+        <v>228279279</v>
       </c>
       <c r="AV89" s="13" t="n">
-        <v>228279279</v>
+        <v>225801980</v>
       </c>
       <c r="AW89" s="13" t="n">
-        <v>225801980</v>
+        <v>225681704</v>
       </c>
       <c r="AX89" s="13" t="n">
-        <v>225681704</v>
+        <v>221172377</v>
       </c>
       <c r="AY89" s="13" t="n">
-        <v>221172377</v>
+        <v>222820459</v>
       </c>
       <c r="AZ89" s="13" t="n">
-        <v>222820459</v>
+        <v>223218487</v>
       </c>
       <c r="BA89" s="13" t="n">
-        <v>223218487</v>
+        <v>222910400</v>
       </c>
       <c r="BB89" s="13" t="n">
-        <v>222910400</v>
+        <v>222446643</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13609,154 +13609,154 @@
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="n">
-        <v>144668129</v>
+        <v>146452703</v>
       </c>
       <c r="F90" s="16" t="n">
-        <v>146452703</v>
+        <v>146164645</v>
       </c>
       <c r="G90" s="16" t="n">
-        <v>146164645</v>
+        <v>147472222</v>
       </c>
       <c r="H90" s="16" t="n">
-        <v>147472222</v>
+        <v>143681553</v>
       </c>
       <c r="I90" s="16" t="n">
-        <v>143681553</v>
+        <v>171996032</v>
       </c>
       <c r="J90" s="16" t="n">
-        <v>171996032</v>
+        <v>173182310</v>
       </c>
       <c r="K90" s="16" t="n">
-        <v>173182310</v>
+        <v>178712785</v>
       </c>
       <c r="L90" s="16" t="n">
-        <v>178712785</v>
+        <v>184377232</v>
       </c>
       <c r="M90" s="16" t="n">
-        <v>184377232</v>
+        <v>183712477</v>
       </c>
       <c r="N90" s="16" t="n">
-        <v>183712477</v>
+        <v>183180974</v>
       </c>
       <c r="O90" s="16" t="n">
-        <v>183180974</v>
+        <v>186549107</v>
       </c>
       <c r="P90" s="16" t="n">
-        <v>186549107</v>
-      </c>
-      <c r="Q90" s="16" t="n">
         <v>181803204</v>
       </c>
-      <c r="R90" s="16" t="s">
-        <v>57</v>
+      <c r="Q90" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R90" s="16" t="n">
+        <v>183718010</v>
       </c>
       <c r="S90" s="16" t="n">
-        <v>183718010</v>
+        <v>188091760</v>
       </c>
       <c r="T90" s="16" t="n">
-        <v>188091760</v>
+        <v>186322183</v>
       </c>
       <c r="U90" s="16" t="n">
-        <v>186322183</v>
+        <v>213037767</v>
       </c>
       <c r="V90" s="16" t="n">
-        <v>213037767</v>
+        <v>244129213</v>
       </c>
       <c r="W90" s="16" t="n">
-        <v>244129213</v>
+        <v>235359127</v>
       </c>
       <c r="X90" s="16" t="n">
-        <v>235359127</v>
+        <v>240651316</v>
       </c>
       <c r="Y90" s="16" t="n">
-        <v>240651316</v>
+        <v>256370270</v>
       </c>
       <c r="Z90" s="16" t="n">
-        <v>256370270</v>
+        <v>324086592</v>
       </c>
       <c r="AA90" s="16" t="n">
-        <v>324086592</v>
+        <v>367748756</v>
       </c>
       <c r="AB90" s="16" t="n">
-        <v>367748756</v>
+        <v>314190709</v>
       </c>
       <c r="AC90" s="16" t="n">
-        <v>314190709</v>
+        <v>244446502</v>
       </c>
       <c r="AD90" s="16" t="n">
-        <v>244446502</v>
+        <v>312702461</v>
       </c>
       <c r="AE90" s="16" t="n">
-        <v>312702461</v>
+        <v>310982222</v>
       </c>
       <c r="AF90" s="16" t="n">
-        <v>310982222</v>
+        <v>336904762</v>
       </c>
       <c r="AG90" s="16" t="n">
-        <v>336904762</v>
+        <v>363941300</v>
       </c>
       <c r="AH90" s="16" t="n">
-        <v>363941300</v>
+        <v>392983740</v>
       </c>
       <c r="AI90" s="16" t="n">
-        <v>392983740</v>
+        <v>439224215</v>
       </c>
       <c r="AJ90" s="16" t="n">
-        <v>439224215</v>
+        <v>438233766</v>
       </c>
       <c r="AK90" s="16" t="n">
-        <v>438233766</v>
+        <v>438021127</v>
       </c>
       <c r="AL90" s="16" t="n">
-        <v>438021127</v>
+        <v>445236074</v>
       </c>
       <c r="AM90" s="16" t="n">
-        <v>445236074</v>
+        <v>442723404</v>
       </c>
       <c r="AN90" s="16" t="n">
-        <v>442723404</v>
+        <v>433155709</v>
       </c>
       <c r="AO90" s="16" t="n">
-        <v>433155709</v>
+        <v>434435000</v>
       </c>
       <c r="AP90" s="16" t="n">
-        <v>434435000</v>
+        <v>431183183</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>431183183</v>
+        <v>525421836</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>525421836</v>
+        <v>845985955</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>845985955</v>
+        <v>772048780</v>
       </c>
       <c r="AT90" s="16" t="n">
-        <v>772048780</v>
+        <v>811513021</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>811513021</v>
+        <v>790508242</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>790508242</v>
+        <v>805781065</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>805781065</v>
+        <v>758554217</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>758554217</v>
+        <v>771862963</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>771862963</v>
+        <v>729557769</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>729557769</v>
+        <v>726483871</v>
       </c>
       <c r="BA90" s="16" t="n">
-        <v>726483871</v>
+        <v>791051402</v>
       </c>
       <c r="BB90" s="16" t="n">
-        <v>791051402</v>
+        <v>773926282</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13768,154 +13768,154 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="n">
-        <v>269917808</v>
+        <v>215381818</v>
       </c>
       <c r="F91" s="13" t="n">
-        <v>215381818</v>
+        <v>323445545</v>
       </c>
       <c r="G91" s="13" t="n">
-        <v>323445545</v>
+        <v>294250000</v>
       </c>
       <c r="H91" s="13" t="n">
-        <v>294250000</v>
+        <v>272088235</v>
       </c>
       <c r="I91" s="13" t="n">
-        <v>272088235</v>
+        <v>321108108</v>
       </c>
       <c r="J91" s="13" t="n">
-        <v>321108108</v>
+        <v>315066667</v>
       </c>
       <c r="K91" s="13" t="n">
-        <v>315066667</v>
+        <v>325916667</v>
       </c>
       <c r="L91" s="13" t="n">
-        <v>325916667</v>
+        <v>345621212</v>
       </c>
       <c r="M91" s="13" t="n">
-        <v>345621212</v>
+        <v>352793103</v>
       </c>
       <c r="N91" s="13" t="n">
-        <v>352793103</v>
+        <v>345961538</v>
       </c>
       <c r="O91" s="13" t="n">
-        <v>345961538</v>
+        <v>340500000</v>
       </c>
       <c r="P91" s="13" t="n">
-        <v>340500000</v>
-      </c>
-      <c r="Q91" s="13" t="n">
         <v>349027027</v>
       </c>
-      <c r="R91" s="13" t="s">
-        <v>57</v>
+      <c r="Q91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R91" s="13" t="n">
+        <v>332875000</v>
       </c>
       <c r="S91" s="13" t="n">
-        <v>332875000</v>
+        <v>343969697</v>
       </c>
       <c r="T91" s="13" t="n">
-        <v>343969697</v>
+        <v>347030303</v>
       </c>
       <c r="U91" s="13" t="n">
-        <v>347030303</v>
+        <v>344106383</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>344106383</v>
+        <v>356111111</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>356111111</v>
+        <v>469194030</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>469194030</v>
+        <v>631140000</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>631140000</v>
+        <v>630896552</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>630896552</v>
+        <v>676686747</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>676686747</v>
+        <v>636833333</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>636833333</v>
+        <v>681677419</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>681677419</v>
+        <v>742846154</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>742846154</v>
+        <v>679923077</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>679923077</v>
+        <v>724500000</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>724500000</v>
+        <v>778272727</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>778272727</v>
+        <v>913352941</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>913352941</v>
+        <v>671088235</v>
       </c>
       <c r="AI91" s="13" t="n">
-        <v>671088235</v>
+        <v>755647887</v>
       </c>
       <c r="AJ91" s="13" t="n">
-        <v>755647887</v>
+        <v>787133333</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>787133333</v>
+        <v>867810811</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>867810811</v>
+        <v>867206897</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>867206897</v>
+        <v>829294118</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>829294118</v>
+        <v>820000000</v>
       </c>
       <c r="AO91" s="13" t="n">
-        <v>820000000</v>
+        <v>779392857</v>
       </c>
       <c r="AP91" s="13" t="n">
-        <v>779392857</v>
+        <v>711643963</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>711643963</v>
+        <v>779265734</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>779265734</v>
+        <v>1307600000</v>
       </c>
       <c r="AS91" s="13" t="n">
-        <v>1307600000</v>
+        <v>1347876106</v>
       </c>
       <c r="AT91" s="13" t="n">
-        <v>1347876106</v>
+        <v>1644461538</v>
       </c>
       <c r="AU91" s="13" t="n">
-        <v>1644461538</v>
+        <v>1491526316</v>
       </c>
       <c r="AV91" s="13" t="n">
-        <v>1491526316</v>
+        <v>1385641379</v>
       </c>
       <c r="AW91" s="13" t="n">
-        <v>1385641379</v>
+        <v>1454175115</v>
       </c>
       <c r="AX91" s="13" t="n">
-        <v>1454175115</v>
+        <v>1407575000</v>
       </c>
       <c r="AY91" s="13" t="n">
-        <v>1407575000</v>
+        <v>1479775701</v>
       </c>
       <c r="AZ91" s="13" t="n">
-        <v>1479775701</v>
+        <v>1488490476</v>
       </c>
       <c r="BA91" s="13" t="n">
-        <v>1488490476</v>
+        <v>1462236967</v>
       </c>
       <c r="BB91" s="13" t="n">
-        <v>1462236967</v>
+        <v>1500559055</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13927,154 +13927,154 @@
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="n">
-        <v>160117647</v>
+        <v>171184549</v>
       </c>
       <c r="F92" s="16" t="n">
-        <v>171184549</v>
+        <v>196093750</v>
       </c>
       <c r="G92" s="16" t="n">
-        <v>196093750</v>
+        <v>165509186</v>
       </c>
       <c r="H92" s="16" t="n">
-        <v>165509186</v>
+        <v>149449782</v>
       </c>
       <c r="I92" s="16" t="n">
-        <v>149449782</v>
+        <v>135216216</v>
       </c>
       <c r="J92" s="16" t="n">
-        <v>135216216</v>
+        <v>139925170</v>
       </c>
       <c r="K92" s="16" t="n">
-        <v>139925170</v>
+        <v>165141026</v>
       </c>
       <c r="L92" s="16" t="n">
-        <v>165141026</v>
+        <v>151474453</v>
       </c>
       <c r="M92" s="16" t="n">
-        <v>151474453</v>
+        <v>170992754</v>
       </c>
       <c r="N92" s="16" t="n">
-        <v>170992754</v>
+        <v>196543046</v>
       </c>
       <c r="O92" s="16" t="n">
-        <v>196543046</v>
+        <v>122896226</v>
       </c>
       <c r="P92" s="16" t="n">
-        <v>122896226</v>
-      </c>
-      <c r="Q92" s="16" t="n">
         <v>184587629</v>
       </c>
-      <c r="R92" s="16" t="s">
-        <v>57</v>
+      <c r="Q92" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="R92" s="16" t="n">
+        <v>256198020</v>
       </c>
       <c r="S92" s="16" t="n">
-        <v>256198020</v>
+        <v>210323129</v>
       </c>
       <c r="T92" s="16" t="n">
-        <v>210323129</v>
+        <v>189553333</v>
       </c>
       <c r="U92" s="16" t="n">
-        <v>189553333</v>
+        <v>254159091</v>
       </c>
       <c r="V92" s="16" t="n">
-        <v>254159091</v>
+        <v>272575499</v>
       </c>
       <c r="W92" s="16" t="n">
-        <v>272575499</v>
+        <v>242410256</v>
       </c>
       <c r="X92" s="16" t="n">
-        <v>242410256</v>
+        <v>173835616</v>
       </c>
       <c r="Y92" s="16" t="n">
-        <v>173835616</v>
+        <v>177020270</v>
       </c>
       <c r="Z92" s="16" t="n">
-        <v>177020270</v>
+        <v>205744493</v>
       </c>
       <c r="AA92" s="16" t="n">
-        <v>205744493</v>
+        <v>269292553</v>
       </c>
       <c r="AB92" s="16" t="n">
-        <v>269292553</v>
+        <v>151637584</v>
       </c>
       <c r="AC92" s="16" t="n">
-        <v>151637584</v>
+        <v>317926773</v>
       </c>
       <c r="AD92" s="16" t="n">
-        <v>317926773</v>
+        <v>138271255</v>
       </c>
       <c r="AE92" s="16" t="n">
-        <v>138271255</v>
+        <v>200591346</v>
       </c>
       <c r="AF92" s="16" t="n">
-        <v>200591346</v>
+        <v>233778378</v>
       </c>
       <c r="AG92" s="16" t="n">
-        <v>233778378</v>
+        <v>357066832</v>
       </c>
       <c r="AH92" s="16" t="n">
-        <v>357066832</v>
+        <v>519343023</v>
       </c>
       <c r="AI92" s="16" t="n">
-        <v>519343023</v>
+        <v>425064655</v>
       </c>
       <c r="AJ92" s="16" t="n">
-        <v>425064655</v>
+        <v>480234432</v>
       </c>
       <c r="AK92" s="16" t="n">
-        <v>480234432</v>
+        <v>489624561</v>
       </c>
       <c r="AL92" s="16" t="n">
-        <v>489624561</v>
+        <v>614401070</v>
       </c>
       <c r="AM92" s="16" t="n">
-        <v>614401070</v>
+        <v>659622951</v>
       </c>
       <c r="AN92" s="16" t="n">
-        <v>659622951</v>
+        <v>580035176</v>
       </c>
       <c r="AO92" s="16" t="n">
-        <v>580035176</v>
+        <v>556930470</v>
       </c>
       <c r="AP92" s="16" t="n">
-        <v>556930470</v>
+        <v>594935484</v>
       </c>
       <c r="AQ92" s="16" t="n">
-        <v>594935484</v>
+        <v>752542254</v>
       </c>
       <c r="AR92" s="16" t="n">
-        <v>752542254</v>
+        <v>980478873</v>
       </c>
       <c r="AS92" s="16" t="n">
-        <v>980478873</v>
+        <v>1233535714</v>
       </c>
       <c r="AT92" s="16" t="n">
-        <v>1233535714</v>
+        <v>706407787</v>
       </c>
       <c r="AU92" s="16" t="n">
-        <v>706407787</v>
+        <v>963796512</v>
       </c>
       <c r="AV92" s="16" t="n">
-        <v>963796512</v>
+        <v>844011299</v>
       </c>
       <c r="AW92" s="16" t="n">
-        <v>844011299</v>
+        <v>769638243</v>
       </c>
       <c r="AX92" s="16" t="n">
-        <v>769638243</v>
+        <v>875570071</v>
       </c>
       <c r="AY92" s="16" t="n">
-        <v>875570071</v>
+        <v>919796667</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>919796667</v>
+        <v>940722222</v>
       </c>
       <c r="BA92" s="16" t="n">
-        <v>940722222</v>
+        <v>930144092</v>
       </c>
       <c r="BB92" s="16" t="n">
-        <v>930144092</v>
+        <v>957898077</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14217,8 +14217,8 @@
       <c r="AC94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD94" s="13" t="s">
-        <v>57</v>
+      <c r="AD94" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE94" s="13" t="n">
         <v>0</v>

--- a/database/industries/ghaza/ghefars/product/monthly.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghefars\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghefars\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5ADB7-6070-4735-A028-39C3581B11AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A928C-114F-4A73-8C4B-37E1590C48D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>دوغ</t>
@@ -1427,154 +1427,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>878</v>
+        <v>1228</v>
       </c>
       <c r="F11" s="11">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="G11" s="11">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="H11" s="11">
-        <v>1212</v>
+        <v>1254</v>
       </c>
       <c r="I11" s="11">
-        <v>1254</v>
+        <v>1140</v>
       </c>
       <c r="J11" s="11">
-        <v>1140</v>
+        <v>951</v>
       </c>
       <c r="K11" s="11">
-        <v>951</v>
+        <v>1030</v>
       </c>
       <c r="L11" s="11">
-        <v>1030</v>
+        <v>723</v>
       </c>
       <c r="M11" s="11">
-        <v>723</v>
+        <v>501</v>
       </c>
       <c r="N11" s="11">
-        <v>501</v>
+        <v>795</v>
       </c>
       <c r="O11" s="11">
-        <v>795</v>
-      </c>
-      <c r="P11" s="11">
         <v>681</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>57</v>
+      <c r="P11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1102</v>
       </c>
       <c r="R11" s="11">
-        <v>1102</v>
+        <v>1051</v>
       </c>
       <c r="S11" s="11">
-        <v>1051</v>
+        <v>1128</v>
       </c>
       <c r="T11" s="11">
-        <v>1128</v>
+        <v>1149</v>
       </c>
       <c r="U11" s="11">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="V11" s="11">
+        <v>1136</v>
+      </c>
+      <c r="W11" s="11">
+        <v>762</v>
+      </c>
+      <c r="X11" s="11">
+        <v>989</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>633</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>726</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>917</v>
+      </c>
+      <c r="AB11" s="11">
         <v>1185</v>
       </c>
-      <c r="W11" s="11">
-        <v>1136</v>
-      </c>
-      <c r="X11" s="11">
-        <v>762</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>989</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>633</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>726</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>917</v>
-      </c>
       <c r="AC11" s="11">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="AD11" s="11">
-        <v>1161</v>
+        <v>1061</v>
       </c>
       <c r="AE11" s="11">
-        <v>1061</v>
+        <v>800</v>
       </c>
       <c r="AF11" s="11">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="AG11" s="11">
-        <v>1046</v>
+        <v>837</v>
       </c>
       <c r="AH11" s="11">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AI11" s="11">
         <v>716</v>
       </c>
       <c r="AJ11" s="11">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AK11" s="11">
-        <v>667</v>
+        <v>494</v>
       </c>
       <c r="AL11" s="11">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="AM11" s="11">
-        <v>701</v>
+        <v>514</v>
       </c>
       <c r="AN11" s="11">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="AO11" s="11">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="AP11" s="11">
-        <v>990</v>
+        <v>581</v>
       </c>
       <c r="AQ11" s="11">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="AR11" s="11">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="AS11" s="11">
-        <v>708</v>
+        <v>935</v>
       </c>
       <c r="AT11" s="11">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="AU11" s="11">
+        <v>673</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>656</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>536</v>
+      </c>
+      <c r="AX11" s="11">
         <v>709</v>
       </c>
-      <c r="AV11" s="11">
-        <v>673</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>656</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>536</v>
-      </c>
       <c r="AY11" s="11">
-        <v>709</v>
+        <v>439</v>
       </c>
       <c r="AZ11" s="11">
-        <v>439</v>
+        <v>966</v>
       </c>
       <c r="BA11" s="11">
-        <v>966</v>
+        <v>1078</v>
       </c>
       <c r="BB11" s="11">
-        <v>1078</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1586,94 +1586,94 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13">
+        <v>36</v>
+      </c>
+      <c r="G12" s="13">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13">
+        <v>11</v>
+      </c>
+      <c r="I12" s="13">
+        <v>19</v>
+      </c>
+      <c r="J12" s="13">
+        <v>21</v>
+      </c>
+      <c r="K12" s="13">
+        <v>22</v>
+      </c>
+      <c r="L12" s="13">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13">
+        <v>16</v>
+      </c>
+      <c r="N12" s="13">
+        <v>23</v>
+      </c>
+      <c r="O12" s="13">
+        <v>17</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="13">
         <v>24</v>
       </c>
-      <c r="F12" s="13">
-        <v>11</v>
-      </c>
-      <c r="G12" s="13">
-        <v>36</v>
-      </c>
-      <c r="H12" s="13">
-        <v>25</v>
-      </c>
-      <c r="I12" s="13">
-        <v>11</v>
-      </c>
-      <c r="J12" s="13">
-        <v>19</v>
-      </c>
-      <c r="K12" s="13">
-        <v>21</v>
-      </c>
-      <c r="L12" s="13">
-        <v>22</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="R12" s="13">
+        <v>34</v>
+      </c>
+      <c r="S12" s="13">
+        <v>13</v>
+      </c>
+      <c r="T12" s="13">
         <v>18</v>
       </c>
-      <c r="N12" s="13">
-        <v>16</v>
-      </c>
-      <c r="O12" s="13">
-        <v>23</v>
-      </c>
-      <c r="P12" s="13">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="13">
-        <v>24</v>
-      </c>
-      <c r="S12" s="13">
-        <v>34</v>
-      </c>
-      <c r="T12" s="13">
-        <v>13</v>
-      </c>
       <c r="U12" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V12" s="13">
         <v>29</v>
       </c>
       <c r="W12" s="13">
+        <v>17</v>
+      </c>
+      <c r="X12" s="13">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="13">
         <v>29</v>
       </c>
-      <c r="X12" s="13">
+      <c r="AB12" s="13">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>182</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>82</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>239</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AG12" s="13">
         <v>17</v>
       </c>
-      <c r="Y12" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>38</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>116</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>182</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>82</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>239</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>18</v>
-      </c>
       <c r="AH12" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI12" s="13">
         <v>20</v>
@@ -1682,58 +1682,58 @@
         <v>20</v>
       </c>
       <c r="AK12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>34</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AT12" s="13">
         <v>20</v>
       </c>
-      <c r="AL12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>34</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AR12" s="13">
+      <c r="AU12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>23</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>19</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>22</v>
+      </c>
+      <c r="AY12" s="13">
         <v>21</v>
       </c>
-      <c r="AS12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AT12" s="13">
+      <c r="AZ12" s="13">
+        <v>20</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>24</v>
+      </c>
+      <c r="BB12" s="13">
         <v>16</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>20</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>16</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>23</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>19</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>22</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>21</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>20</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1745,154 +1745,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="F13" s="11">
-        <v>3154</v>
+        <v>3000</v>
       </c>
       <c r="G13" s="11">
-        <v>3000</v>
+        <v>3293</v>
       </c>
       <c r="H13" s="11">
-        <v>3293</v>
+        <v>2131</v>
       </c>
       <c r="I13" s="11">
-        <v>2131</v>
+        <v>2366</v>
       </c>
       <c r="J13" s="11">
-        <v>2366</v>
+        <v>2860</v>
       </c>
       <c r="K13" s="11">
-        <v>2860</v>
+        <v>3401</v>
       </c>
       <c r="L13" s="11">
-        <v>3401</v>
+        <v>3144</v>
       </c>
       <c r="M13" s="11">
-        <v>3144</v>
+        <v>4159</v>
       </c>
       <c r="N13" s="11">
-        <v>4159</v>
+        <v>4441</v>
       </c>
       <c r="O13" s="11">
-        <v>4441</v>
-      </c>
-      <c r="P13" s="11">
         <v>4190</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>57</v>
+      <c r="P13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>2578</v>
       </c>
       <c r="R13" s="11">
-        <v>2578</v>
+        <v>3286</v>
       </c>
       <c r="S13" s="11">
-        <v>3286</v>
+        <v>4634</v>
       </c>
       <c r="T13" s="11">
-        <v>4634</v>
+        <v>2364</v>
       </c>
       <c r="U13" s="11">
-        <v>2364</v>
+        <v>2283</v>
       </c>
       <c r="V13" s="11">
-        <v>2283</v>
+        <v>2103</v>
       </c>
       <c r="W13" s="11">
-        <v>2103</v>
+        <v>2709</v>
       </c>
       <c r="X13" s="11">
-        <v>2709</v>
+        <v>3188</v>
       </c>
       <c r="Y13" s="11">
-        <v>3188</v>
+        <v>2437</v>
       </c>
       <c r="Z13" s="11">
-        <v>2437</v>
+        <v>3200</v>
       </c>
       <c r="AA13" s="11">
-        <v>3200</v>
+        <v>2889</v>
       </c>
       <c r="AB13" s="11">
-        <v>2889</v>
+        <v>1917</v>
       </c>
       <c r="AC13" s="11">
-        <v>1917</v>
+        <v>2985</v>
       </c>
       <c r="AD13" s="11">
-        <v>2985</v>
+        <v>2133</v>
       </c>
       <c r="AE13" s="11">
-        <v>2133</v>
+        <v>2391</v>
       </c>
       <c r="AF13" s="11">
-        <v>2391</v>
+        <v>2371</v>
       </c>
       <c r="AG13" s="11">
-        <v>2371</v>
+        <v>2262</v>
       </c>
       <c r="AH13" s="11">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AI13" s="11">
         <v>2259</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AK13" s="11">
-        <v>2684</v>
+        <v>2852</v>
       </c>
       <c r="AL13" s="11">
+        <v>2854</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>2337</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>2248</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>1899</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>2265</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>1976</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2351</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>2410</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AW13" s="11">
         <v>2852</v>
       </c>
-      <c r="AM13" s="11">
-        <v>2854</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>2337</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>2248</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>2201</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>1899</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2265</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>1976</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>2165</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>2351</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>2410</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>2716</v>
-      </c>
       <c r="AX13" s="11">
-        <v>2852</v>
+        <v>2749</v>
       </c>
       <c r="AY13" s="11">
-        <v>2749</v>
+        <v>2945</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2945</v>
+        <v>2461</v>
       </c>
       <c r="BA13" s="11">
-        <v>2461</v>
+        <v>2416</v>
       </c>
       <c r="BB13" s="11">
-        <v>2416</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1904,154 +1904,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F14" s="13">
-        <v>243</v>
+        <v>431</v>
       </c>
       <c r="G14" s="13">
-        <v>431</v>
+        <v>520</v>
       </c>
       <c r="H14" s="13">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="I14" s="13">
-        <v>493</v>
+        <v>205</v>
       </c>
       <c r="J14" s="13">
-        <v>205</v>
+        <v>337</v>
       </c>
       <c r="K14" s="13">
-        <v>337</v>
+        <v>530</v>
       </c>
       <c r="L14" s="13">
-        <v>530</v>
+        <v>570</v>
       </c>
       <c r="M14" s="13">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="N14" s="13">
-        <v>498</v>
+        <v>590</v>
       </c>
       <c r="O14" s="13">
-        <v>590</v>
-      </c>
-      <c r="P14" s="13">
         <v>897</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>57</v>
+      <c r="P14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>582</v>
       </c>
       <c r="R14" s="13">
-        <v>582</v>
+        <v>358</v>
       </c>
       <c r="S14" s="13">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="T14" s="13">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="U14" s="13">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="V14" s="13">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="W14" s="13">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="X14" s="13">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="Y14" s="13">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="Z14" s="13">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="AA14" s="13">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AB14" s="13">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="AC14" s="13">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AD14" s="13">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AE14" s="13">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AF14" s="13">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG14" s="13">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AH14" s="13">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AI14" s="13">
         <v>282</v>
       </c>
       <c r="AJ14" s="13">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="AK14" s="13">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AL14" s="13">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AM14" s="13">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AN14" s="13">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="AO14" s="13">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AP14" s="13">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="AQ14" s="13">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AR14" s="13">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AS14" s="13">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AT14" s="13">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AU14" s="13">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="AV14" s="13">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="AW14" s="13">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AX14" s="13">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="AY14" s="13">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AZ14" s="13">
-        <v>471</v>
+        <v>189</v>
       </c>
       <c r="BA14" s="13">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="BB14" s="13">
-        <v>345</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2063,154 +2063,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1312</v>
+        <v>1559</v>
       </c>
       <c r="F15" s="11">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="G15" s="11">
-        <v>1543</v>
+        <v>1576</v>
       </c>
       <c r="H15" s="11">
-        <v>1576</v>
+        <v>1826</v>
       </c>
       <c r="I15" s="11">
-        <v>1826</v>
+        <v>1676</v>
       </c>
       <c r="J15" s="11">
-        <v>1676</v>
+        <v>1368</v>
       </c>
       <c r="K15" s="11">
-        <v>1368</v>
+        <v>1482</v>
       </c>
       <c r="L15" s="11">
-        <v>1482</v>
+        <v>1223</v>
       </c>
       <c r="M15" s="11">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="N15" s="11">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="O15" s="11">
-        <v>1194</v>
-      </c>
-      <c r="P15" s="11">
         <v>1236</v>
       </c>
-      <c r="Q15" s="11" t="s">
-        <v>57</v>
+      <c r="P15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1629</v>
       </c>
       <c r="R15" s="11">
-        <v>1629</v>
+        <v>1753</v>
       </c>
       <c r="S15" s="11">
-        <v>1753</v>
+        <v>1734</v>
       </c>
       <c r="T15" s="11">
-        <v>1734</v>
+        <v>1783</v>
       </c>
       <c r="U15" s="11">
-        <v>1783</v>
+        <v>1640</v>
       </c>
       <c r="V15" s="11">
+        <v>1638</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1296</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1336</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1317</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1255</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1610</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AD15" s="11">
         <v>1640</v>
       </c>
-      <c r="W15" s="11">
-        <v>1638</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1296</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>1336</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>1317</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>1255</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1610</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1909</v>
-      </c>
       <c r="AE15" s="11">
-        <v>1640</v>
+        <v>1824</v>
       </c>
       <c r="AF15" s="11">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="AG15" s="11">
-        <v>1831</v>
+        <v>1347</v>
       </c>
       <c r="AH15" s="11">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AI15" s="11">
         <v>1494</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AK15" s="11">
-        <v>1139</v>
+        <v>1017</v>
       </c>
       <c r="AL15" s="11">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AM15" s="11">
-        <v>1009</v>
+        <v>1138</v>
       </c>
       <c r="AN15" s="11">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="AO15" s="11">
-        <v>1043</v>
+        <v>1583</v>
       </c>
       <c r="AP15" s="11">
-        <v>1583</v>
+        <v>1176</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1176</v>
+        <v>1338</v>
       </c>
       <c r="AR15" s="11">
-        <v>1338</v>
+        <v>1226</v>
       </c>
       <c r="AS15" s="11">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="AT15" s="11">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="AU15" s="11">
-        <v>1247</v>
+        <v>1127</v>
       </c>
       <c r="AV15" s="11">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="AW15" s="11">
-        <v>1113</v>
+        <v>1033</v>
       </c>
       <c r="AX15" s="11">
-        <v>1033</v>
+        <v>946</v>
       </c>
       <c r="AY15" s="11">
-        <v>946</v>
+        <v>1112</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1112</v>
+        <v>1212</v>
       </c>
       <c r="BA15" s="11">
-        <v>1212</v>
+        <v>1414</v>
       </c>
       <c r="BB15" s="11">
-        <v>1414</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2222,154 +2222,154 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>431</v>
+        <v>596</v>
       </c>
       <c r="F16" s="13">
-        <v>596</v>
+        <v>450</v>
       </c>
       <c r="G16" s="13">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="H16" s="13">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="I16" s="13">
+        <v>591</v>
+      </c>
+      <c r="J16" s="13">
+        <v>550</v>
+      </c>
+      <c r="K16" s="13">
+        <v>512</v>
+      </c>
+      <c r="L16" s="13">
+        <v>529</v>
+      </c>
+      <c r="M16" s="13">
+        <v>508</v>
+      </c>
+      <c r="N16" s="13">
+        <v>415</v>
+      </c>
+      <c r="O16" s="13">
+        <v>403</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>458</v>
+      </c>
+      <c r="R16" s="13">
         <v>485</v>
       </c>
-      <c r="J16" s="13">
-        <v>591</v>
-      </c>
-      <c r="K16" s="13">
-        <v>550</v>
-      </c>
-      <c r="L16" s="13">
-        <v>512</v>
-      </c>
-      <c r="M16" s="13">
-        <v>529</v>
-      </c>
-      <c r="N16" s="13">
-        <v>508</v>
-      </c>
-      <c r="O16" s="13">
-        <v>415</v>
-      </c>
-      <c r="P16" s="13">
-        <v>403</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R16" s="13">
-        <v>458</v>
-      </c>
       <c r="S16" s="13">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="T16" s="13">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="U16" s="13">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="V16" s="13">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="W16" s="13">
+        <v>376</v>
+      </c>
+      <c r="X16" s="13">
+        <v>357</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>414</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AA16" s="13">
         <v>440</v>
       </c>
-      <c r="X16" s="13">
-        <v>376</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>357</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>414</v>
-      </c>
-      <c r="AA16" s="13">
+      <c r="AB16" s="13">
+        <v>408</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>427</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>425</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>347</v>
+      </c>
+      <c r="AF16" s="13">
         <v>473</v>
       </c>
-      <c r="AB16" s="13">
-        <v>440</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>408</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>427</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>425</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>347</v>
-      </c>
       <c r="AG16" s="13">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="AH16" s="13">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AI16" s="13">
         <v>412</v>
       </c>
       <c r="AJ16" s="13">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AK16" s="13">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AL16" s="13">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AM16" s="13">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AN16" s="13">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="AO16" s="13">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AP16" s="13">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AQ16" s="13">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AR16" s="13">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AS16" s="13">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="AT16" s="13">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AU16" s="13">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="AV16" s="13">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AW16" s="13">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="AX16" s="13">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AY16" s="13">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AZ16" s="13">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="BA16" s="13">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="BB16" s="13">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2381,154 +2381,154 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F17" s="11">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G17" s="11">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H17" s="11">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="I17" s="11">
+        <v>38</v>
+      </c>
+      <c r="J17" s="11">
         <v>19</v>
       </c>
-      <c r="J17" s="11">
-        <v>38</v>
-      </c>
       <c r="K17" s="11">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="L17" s="11">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M17" s="11">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N17" s="11">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O17" s="11">
         <v>14</v>
       </c>
-      <c r="P17" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>57</v>
+      <c r="P17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>15</v>
       </c>
       <c r="R17" s="11">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="S17" s="11">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="T17" s="11">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="U17" s="11">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="V17" s="11">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="W17" s="11">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="X17" s="11">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y17" s="11">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA17" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="11">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AC17" s="11">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AD17" s="11">
+        <v>13</v>
+      </c>
+      <c r="AE17" s="11">
         <v>18</v>
       </c>
-      <c r="AE17" s="11">
-        <v>13</v>
-      </c>
       <c r="AF17" s="11">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AG17" s="11">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AH17" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AI17" s="11">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AJ17" s="11">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AK17" s="11">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AL17" s="11">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AM17" s="11">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AN17" s="11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AO17" s="11">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="AP17" s="11">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="AQ17" s="11">
+        <v>181</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>228</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>194</v>
+      </c>
+      <c r="AT17" s="11">
         <v>195</v>
       </c>
-      <c r="AR17" s="11">
-        <v>181</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>228</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>194</v>
-      </c>
       <c r="AU17" s="11">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="AV17" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="AW17" s="11">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AX17" s="11">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="AY17" s="11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AZ17" s="11">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="BA17" s="11">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="BB17" s="11">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2540,154 +2540,154 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F18" s="13">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="G18" s="13">
-        <v>277</v>
+        <v>153</v>
       </c>
       <c r="H18" s="13">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="I18" s="13">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="J18" s="13">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K18" s="13">
         <v>303</v>
       </c>
       <c r="L18" s="13">
-        <v>303</v>
+        <v>513</v>
       </c>
       <c r="M18" s="13">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="N18" s="13">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="O18" s="13">
-        <v>439</v>
-      </c>
-      <c r="P18" s="13">
         <v>496</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>57</v>
+      <c r="P18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>478</v>
       </c>
       <c r="R18" s="13">
-        <v>478</v>
+        <v>333</v>
       </c>
       <c r="S18" s="13">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="T18" s="13">
-        <v>348</v>
+        <v>257</v>
       </c>
       <c r="U18" s="13">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="V18" s="13">
+        <v>237</v>
+      </c>
+      <c r="W18" s="13">
+        <v>742</v>
+      </c>
+      <c r="X18" s="13">
         <v>265</v>
       </c>
-      <c r="W18" s="13">
-        <v>237</v>
-      </c>
-      <c r="X18" s="13">
-        <v>742</v>
-      </c>
       <c r="Y18" s="13">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="Z18" s="13">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AA18" s="13">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="AB18" s="13">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="13">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AD18" s="13">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AE18" s="13">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="AF18" s="13">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="AG18" s="13">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AH18" s="13">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI18" s="13">
         <v>264</v>
       </c>
       <c r="AJ18" s="13">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AK18" s="13">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AL18" s="13">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="AM18" s="13">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AN18" s="13">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO18" s="13">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AP18" s="13">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AQ18" s="13">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AR18" s="13">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AS18" s="13">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AT18" s="13">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AU18" s="13">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AV18" s="13">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="AW18" s="13">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="AX18" s="13">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AY18" s="13">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="AZ18" s="13">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BA18" s="13">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="BB18" s="13">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2770,8 +2770,8 @@
       <c r="AB19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC19" s="11" t="s">
-        <v>57</v>
+      <c r="AC19" s="11">
+        <v>0</v>
       </c>
       <c r="AD19" s="11">
         <v>0</v>
@@ -2803,8 +2803,8 @@
       <c r="AM19" s="11">
         <v>0</v>
       </c>
-      <c r="AN19" s="11">
-        <v>0</v>
+      <c r="AN19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO19" s="11" t="s">
         <v>57</v>
@@ -2929,14 +2929,14 @@
       <c r="AB20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC20" s="13" t="s">
-        <v>57</v>
+      <c r="AC20" s="13">
+        <v>0</v>
       </c>
       <c r="AD20" s="13">
         <v>0</v>
       </c>
-      <c r="AE20" s="13">
-        <v>0</v>
+      <c r="AE20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF20" s="13" t="s">
         <v>57</v>
@@ -3088,8 +3088,8 @@
       <c r="AB21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC21" s="11" t="s">
-        <v>57</v>
+      <c r="AC21" s="11">
+        <v>0</v>
       </c>
       <c r="AD21" s="11">
         <v>0</v>
@@ -3121,8 +3121,8 @@
       <c r="AM21" s="11">
         <v>0</v>
       </c>
-      <c r="AN21" s="11">
-        <v>0</v>
+      <c r="AN21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO21" s="11" t="s">
         <v>57</v>
@@ -3247,8 +3247,8 @@
       <c r="AB22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC22" s="13" t="s">
-        <v>57</v>
+      <c r="AC22" s="13">
+        <v>0</v>
       </c>
       <c r="AD22" s="13">
         <v>0</v>
@@ -3280,8 +3280,8 @@
       <c r="AM22" s="13">
         <v>0</v>
       </c>
-      <c r="AN22" s="13">
-        <v>0</v>
+      <c r="AN22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO22" s="13" t="s">
         <v>57</v>
@@ -3463,11 +3463,11 @@
       <c r="AB24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD24" s="11">
-        <v>0</v>
+      <c r="AC24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE24" s="11" t="s">
         <v>57</v>
@@ -3499,8 +3499,8 @@
       <c r="AN24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO24" s="11" t="s">
-        <v>57</v>
+      <c r="AO24" s="11">
+        <v>0</v>
       </c>
       <c r="AP24" s="11">
         <v>0</v>
@@ -3508,29 +3508,29 @@
       <c r="AQ24" s="11">
         <v>0</v>
       </c>
-      <c r="AR24" s="11">
-        <v>0</v>
+      <c r="AR24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW24" s="11">
-        <v>0</v>
+      <c r="AT24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY24" s="11" t="s">
-        <v>57</v>
+      <c r="AY24" s="11">
+        <v>0</v>
       </c>
       <c r="AZ24" s="11">
         <v>0</v>
@@ -3593,8 +3593,8 @@
       <c r="S25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T25" s="15" t="s">
-        <v>57</v>
+      <c r="T25" s="15">
+        <v>0</v>
       </c>
       <c r="U25" s="15">
         <v>0</v>
@@ -3706,154 +3706,154 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
-        <v>6550</v>
+        <v>7240</v>
       </c>
       <c r="F26" s="17">
-        <v>7240</v>
+        <v>6975</v>
       </c>
       <c r="G26" s="17">
-        <v>6975</v>
+        <v>7343</v>
       </c>
       <c r="H26" s="17">
-        <v>7343</v>
+        <v>6388</v>
       </c>
       <c r="I26" s="17">
-        <v>6388</v>
+        <v>6310</v>
       </c>
       <c r="J26" s="17">
-        <v>6310</v>
+        <v>6409</v>
       </c>
       <c r="K26" s="17">
-        <v>6409</v>
+        <v>7338</v>
       </c>
       <c r="L26" s="17">
-        <v>7338</v>
+        <v>6743</v>
       </c>
       <c r="M26" s="17">
-        <v>6743</v>
+        <v>7336</v>
       </c>
       <c r="N26" s="17">
-        <v>7336</v>
+        <v>7911</v>
       </c>
       <c r="O26" s="17">
-        <v>7911</v>
+        <v>7934</v>
       </c>
       <c r="P26" s="17">
-        <v>7934</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="17">
-        <v>0</v>
+        <v>6866</v>
       </c>
       <c r="R26" s="17">
-        <v>6866</v>
+        <v>7380</v>
       </c>
       <c r="S26" s="17">
-        <v>7380</v>
+        <v>8538</v>
       </c>
       <c r="T26" s="17">
-        <v>8538</v>
+        <v>6538</v>
       </c>
       <c r="U26" s="17">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="V26" s="17">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="W26" s="17">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="X26" s="17">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="Y26" s="17">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="Z26" s="17">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AA26" s="17">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AB26" s="17">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AC26" s="17">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AD26" s="17">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AE26" s="17">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AF26" s="17">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AG26" s="17">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AH26" s="17">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AI26" s="17">
+        <v>5486</v>
+      </c>
+      <c r="AJ26" s="17">
         <v>5508</v>
       </c>
-      <c r="AJ26" s="17">
-        <v>5486</v>
-      </c>
       <c r="AK26" s="17">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AL26" s="17">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AM26" s="17">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AN26" s="17">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AO26" s="17">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AP26" s="17">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AQ26" s="17">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AR26" s="17">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AS26" s="17">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AT26" s="17">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AU26" s="17">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="AV26" s="17">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="AW26" s="17">
-        <v>5788</v>
+        <v>5676</v>
       </c>
       <c r="AX26" s="17">
-        <v>5676</v>
+        <v>5672</v>
       </c>
       <c r="AY26" s="17">
+        <v>5690</v>
+      </c>
+      <c r="AZ26" s="17">
         <v>5672</v>
       </c>
-      <c r="AZ26" s="17">
-        <v>5690</v>
-      </c>
       <c r="BA26" s="17">
-        <v>5672</v>
+        <v>6270</v>
       </c>
       <c r="BB26" s="17">
-        <v>6270</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -4299,154 +4299,154 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>659</v>
+        <v>1237</v>
       </c>
       <c r="F33" s="11">
-        <v>1237</v>
+        <v>1442</v>
       </c>
       <c r="G33" s="11">
-        <v>1442</v>
+        <v>1213</v>
       </c>
       <c r="H33" s="11">
-        <v>1213</v>
+        <v>1266</v>
       </c>
       <c r="I33" s="11">
-        <v>1266</v>
+        <v>1174</v>
       </c>
       <c r="J33" s="11">
-        <v>1174</v>
+        <v>966</v>
       </c>
       <c r="K33" s="11">
-        <v>966</v>
+        <v>858</v>
       </c>
       <c r="L33" s="11">
-        <v>858</v>
+        <v>762</v>
       </c>
       <c r="M33" s="11">
-        <v>762</v>
+        <v>702</v>
       </c>
       <c r="N33" s="11">
-        <v>702</v>
+        <v>657</v>
       </c>
       <c r="O33" s="11">
-        <v>657</v>
-      </c>
-      <c r="P33" s="11">
         <v>783</v>
       </c>
-      <c r="Q33" s="11" t="s">
-        <v>57</v>
+      <c r="P33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>1182</v>
       </c>
       <c r="R33" s="11">
-        <v>1182</v>
+        <v>1055</v>
       </c>
       <c r="S33" s="11">
-        <v>1055</v>
+        <v>1091</v>
       </c>
       <c r="T33" s="11">
-        <v>1091</v>
+        <v>1149</v>
       </c>
       <c r="U33" s="11">
-        <v>1149</v>
+        <v>1226</v>
       </c>
       <c r="V33" s="11">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="W33" s="11">
-        <v>1142</v>
+        <v>797</v>
       </c>
       <c r="X33" s="11">
-        <v>797</v>
+        <v>739</v>
       </c>
       <c r="Y33" s="11">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Z33" s="11">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="AA33" s="11">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="AB33" s="11">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="AC33" s="11">
-        <v>1121</v>
+        <v>1268</v>
       </c>
       <c r="AD33" s="11">
-        <v>1268</v>
+        <v>1006</v>
       </c>
       <c r="AE33" s="11">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="AF33" s="11">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="AG33" s="11">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="AH33" s="11">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AI33" s="11">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="AJ33" s="11">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="AK33" s="11">
-        <v>697</v>
+        <v>558</v>
       </c>
       <c r="AL33" s="11">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="AM33" s="11">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AN33" s="11">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="AO33" s="11">
-        <v>675</v>
+        <v>971</v>
       </c>
       <c r="AP33" s="11">
-        <v>971</v>
+        <v>647</v>
       </c>
       <c r="AQ33" s="11">
-        <v>647</v>
+        <v>876</v>
       </c>
       <c r="AR33" s="11">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="AS33" s="11">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="AT33" s="11">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="AU33" s="11">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="AV33" s="11">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="AW33" s="11">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AX33" s="11">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="AY33" s="11">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="AZ33" s="11">
-        <v>569</v>
+        <v>989</v>
       </c>
       <c r="BA33" s="11">
-        <v>989</v>
+        <v>1072</v>
       </c>
       <c r="BB33" s="11">
-        <v>1072</v>
+        <v>819</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4458,55 +4458,55 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F34" s="13">
+        <v>28</v>
+      </c>
+      <c r="G34" s="13">
+        <v>27</v>
+      </c>
+      <c r="H34" s="13">
         <v>17</v>
-      </c>
-      <c r="G34" s="13">
-        <v>28</v>
-      </c>
-      <c r="H34" s="13">
-        <v>27</v>
       </c>
       <c r="I34" s="13">
         <v>17</v>
       </c>
       <c r="J34" s="13">
+        <v>18</v>
+      </c>
+      <c r="K34" s="13">
+        <v>23</v>
+      </c>
+      <c r="L34" s="13">
+        <v>21</v>
+      </c>
+      <c r="M34" s="13">
         <v>17</v>
-      </c>
-      <c r="K34" s="13">
-        <v>18</v>
-      </c>
-      <c r="L34" s="13">
-        <v>23</v>
-      </c>
-      <c r="M34" s="13">
-        <v>21</v>
       </c>
       <c r="N34" s="13">
         <v>17</v>
       </c>
       <c r="O34" s="13">
-        <v>17</v>
-      </c>
-      <c r="P34" s="13">
         <v>23</v>
       </c>
-      <c r="Q34" s="13" t="s">
-        <v>57</v>
+      <c r="P34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>18</v>
       </c>
       <c r="R34" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="S34" s="13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="T34" s="13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U34" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V34" s="13">
         <v>24</v>
@@ -4515,79 +4515,79 @@
         <v>24</v>
       </c>
       <c r="X34" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y34" s="13">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Z34" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AA34" s="13">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AB34" s="13">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="AC34" s="13">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="AD34" s="13">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AE34" s="13">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AF34" s="13">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="AG34" s="13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH34" s="13">
         <v>20</v>
       </c>
       <c r="AI34" s="13">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ34" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AK34" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AL34" s="13">
+        <v>14</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN34" s="13">
         <v>22</v>
       </c>
-      <c r="AM34" s="13">
+      <c r="AO34" s="13">
+        <v>13</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>19</v>
+      </c>
+      <c r="AR34" s="13">
         <v>14</v>
       </c>
-      <c r="AN34" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>22</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>13</v>
-      </c>
-      <c r="AQ34" s="13">
+      <c r="AS34" s="13">
         <v>18</v>
-      </c>
-      <c r="AR34" s="13">
-        <v>19</v>
-      </c>
-      <c r="AS34" s="13">
-        <v>14</v>
       </c>
       <c r="AT34" s="13">
         <v>18</v>
       </c>
       <c r="AU34" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV34" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW34" s="13">
         <v>20</v>
@@ -4596,16 +4596,16 @@
         <v>20</v>
       </c>
       <c r="AY34" s="13">
+        <v>22</v>
+      </c>
+      <c r="AZ34" s="13">
         <v>20</v>
       </c>
-      <c r="AZ34" s="13">
-        <v>22</v>
-      </c>
       <c r="BA34" s="13">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BB34" s="13">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4617,154 +4617,154 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>3233</v>
+        <v>3216</v>
       </c>
       <c r="F35" s="11">
-        <v>3216</v>
+        <v>2919</v>
       </c>
       <c r="G35" s="11">
-        <v>2919</v>
+        <v>3397</v>
       </c>
       <c r="H35" s="11">
-        <v>3397</v>
+        <v>2478</v>
       </c>
       <c r="I35" s="11">
-        <v>2478</v>
+        <v>2621</v>
       </c>
       <c r="J35" s="11">
-        <v>2621</v>
+        <v>2786</v>
       </c>
       <c r="K35" s="11">
-        <v>2786</v>
+        <v>3360</v>
       </c>
       <c r="L35" s="11">
-        <v>3360</v>
+        <v>3257</v>
       </c>
       <c r="M35" s="11">
-        <v>3257</v>
+        <v>4063</v>
       </c>
       <c r="N35" s="11">
-        <v>4063</v>
+        <v>4580</v>
       </c>
       <c r="O35" s="11">
-        <v>4580</v>
-      </c>
-      <c r="P35" s="11">
         <v>4338</v>
       </c>
-      <c r="Q35" s="11" t="s">
-        <v>57</v>
+      <c r="P35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>2035</v>
       </c>
       <c r="R35" s="11">
-        <v>2035</v>
+        <v>3338</v>
       </c>
       <c r="S35" s="11">
-        <v>3338</v>
+        <v>4898</v>
       </c>
       <c r="T35" s="11">
-        <v>4898</v>
+        <v>2297</v>
       </c>
       <c r="U35" s="11">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="V35" s="11">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="W35" s="11">
-        <v>2205</v>
+        <v>2756</v>
       </c>
       <c r="X35" s="11">
-        <v>2756</v>
+        <v>3649</v>
       </c>
       <c r="Y35" s="11">
-        <v>3649</v>
+        <v>2493</v>
       </c>
       <c r="Z35" s="11">
+        <v>2633</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>2858</v>
+      </c>
+      <c r="AB35" s="11">
+        <v>3040</v>
+      </c>
+      <c r="AC35" s="11">
+        <v>2687</v>
+      </c>
+      <c r="AD35" s="11">
+        <v>2496</v>
+      </c>
+      <c r="AE35" s="11">
+        <v>2279</v>
+      </c>
+      <c r="AF35" s="11">
+        <v>2285</v>
+      </c>
+      <c r="AG35" s="11">
+        <v>2118</v>
+      </c>
+      <c r="AH35" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>2607</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>2415</v>
+      </c>
+      <c r="AN35" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AO35" s="11">
+        <v>2191</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>2092</v>
+      </c>
+      <c r="AQ35" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AR35" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AT35" s="11">
+        <v>2116</v>
+      </c>
+      <c r="AU35" s="11">
         <v>2493</v>
       </c>
-      <c r="AA35" s="11">
-        <v>2633</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>2858</v>
-      </c>
-      <c r="AC35" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>2687</v>
-      </c>
-      <c r="AE35" s="11">
-        <v>2496</v>
-      </c>
-      <c r="AF35" s="11">
-        <v>2279</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>2285</v>
-      </c>
-      <c r="AH35" s="11">
-        <v>2118</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AJ35" s="11">
-        <v>2280</v>
-      </c>
-      <c r="AK35" s="11">
-        <v>2716</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>2860</v>
-      </c>
-      <c r="AM35" s="11">
-        <v>2607</v>
-      </c>
-      <c r="AN35" s="11">
-        <v>2415</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AP35" s="11">
-        <v>2191</v>
-      </c>
-      <c r="AQ35" s="11">
-        <v>2092</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AS35" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AT35" s="11">
-        <v>2016</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>2116</v>
-      </c>
       <c r="AV35" s="11">
-        <v>2493</v>
+        <v>2732</v>
       </c>
       <c r="AW35" s="11">
-        <v>2732</v>
+        <v>2894</v>
       </c>
       <c r="AX35" s="11">
-        <v>2894</v>
+        <v>2838</v>
       </c>
       <c r="AY35" s="11">
-        <v>2838</v>
+        <v>2911</v>
       </c>
       <c r="AZ35" s="11">
-        <v>2911</v>
+        <v>2499</v>
       </c>
       <c r="BA35" s="11">
-        <v>2499</v>
+        <v>2511</v>
       </c>
       <c r="BB35" s="11">
-        <v>2511</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4776,154 +4776,154 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F36" s="13">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="G36" s="13">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="H36" s="13">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="I36" s="13">
-        <v>504</v>
+        <v>250</v>
       </c>
       <c r="J36" s="13">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K36" s="13">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="L36" s="13">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="M36" s="13">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="N36" s="13">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="O36" s="13">
-        <v>589</v>
-      </c>
-      <c r="P36" s="13">
         <v>921</v>
       </c>
-      <c r="Q36" s="13" t="s">
-        <v>57</v>
+      <c r="P36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>121</v>
       </c>
       <c r="R36" s="13">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="S36" s="13">
-        <v>272</v>
+        <v>584</v>
       </c>
       <c r="T36" s="13">
-        <v>584</v>
+        <v>259</v>
       </c>
       <c r="U36" s="13">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="V36" s="13">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="W36" s="13">
         <v>305</v>
       </c>
       <c r="X36" s="13">
+        <v>390</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>527</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>363</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>412</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>297</v>
+      </c>
+      <c r="AC36" s="13">
         <v>305</v>
       </c>
-      <c r="Y36" s="13">
-        <v>390</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>527</v>
-      </c>
-      <c r="AA36" s="13">
-        <v>363</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>412</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>297</v>
-      </c>
       <c r="AD36" s="13">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="AE36" s="13">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AF36" s="13">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG36" s="13">
+        <v>143</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>170</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>203</v>
+      </c>
+      <c r="AJ36" s="13">
         <v>156</v>
       </c>
-      <c r="AH36" s="13">
-        <v>143</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>170</v>
-      </c>
-      <c r="AJ36" s="13">
-        <v>203</v>
-      </c>
       <c r="AK36" s="13">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="AL36" s="13">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="AM36" s="13">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="AN36" s="13">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="AO36" s="13">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AP36" s="13">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="AQ36" s="13">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AR36" s="13">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AS36" s="13">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="AT36" s="13">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AU36" s="13">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="AV36" s="13">
-        <v>414</v>
+        <v>228</v>
       </c>
       <c r="AW36" s="13">
-        <v>228</v>
+        <v>332</v>
       </c>
       <c r="AX36" s="13">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="AY36" s="13">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="AZ36" s="13">
-        <v>529</v>
+        <v>253</v>
       </c>
       <c r="BA36" s="13">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BB36" s="13">
-        <v>244</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4935,154 +4935,154 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>1321</v>
+        <v>1535</v>
       </c>
       <c r="F37" s="11">
-        <v>1535</v>
+        <v>1590</v>
       </c>
       <c r="G37" s="11">
-        <v>1590</v>
+        <v>1573</v>
       </c>
       <c r="H37" s="11">
-        <v>1573</v>
+        <v>1804</v>
       </c>
       <c r="I37" s="11">
-        <v>1804</v>
+        <v>1669</v>
       </c>
       <c r="J37" s="11">
-        <v>1669</v>
+        <v>1500</v>
       </c>
       <c r="K37" s="11">
-        <v>1500</v>
+        <v>1468</v>
       </c>
       <c r="L37" s="11">
-        <v>1468</v>
+        <v>1304</v>
       </c>
       <c r="M37" s="11">
-        <v>1304</v>
+        <v>1139</v>
       </c>
       <c r="N37" s="11">
+        <v>1206</v>
+      </c>
+      <c r="O37" s="11">
+        <v>1310</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>1562</v>
+      </c>
+      <c r="R37" s="11">
+        <v>1704</v>
+      </c>
+      <c r="S37" s="11">
+        <v>1774</v>
+      </c>
+      <c r="T37" s="11">
+        <v>1752</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1685</v>
+      </c>
+      <c r="V37" s="11">
+        <v>1619</v>
+      </c>
+      <c r="W37" s="11">
+        <v>1348</v>
+      </c>
+      <c r="X37" s="11">
+        <v>1274</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>1285</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>1300</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>1431</v>
+      </c>
+      <c r="AB37" s="11">
+        <v>1630</v>
+      </c>
+      <c r="AC37" s="11">
+        <v>1915</v>
+      </c>
+      <c r="AD37" s="11">
+        <v>1664</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>1879</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>1786</v>
+      </c>
+      <c r="AG37" s="11">
+        <v>1410</v>
+      </c>
+      <c r="AH37" s="11">
+        <v>1420</v>
+      </c>
+      <c r="AI37" s="11">
+        <v>1189</v>
+      </c>
+      <c r="AJ37" s="11">
+        <v>1122</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>1029</v>
+      </c>
+      <c r="AL37" s="11">
+        <v>988</v>
+      </c>
+      <c r="AM37" s="11">
         <v>1139</v>
       </c>
-      <c r="O37" s="11">
-        <v>1206</v>
-      </c>
-      <c r="P37" s="11">
-        <v>1310</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R37" s="11">
-        <v>1562</v>
-      </c>
-      <c r="S37" s="11">
-        <v>1704</v>
-      </c>
-      <c r="T37" s="11">
-        <v>1774</v>
-      </c>
-      <c r="U37" s="11">
-        <v>1752</v>
-      </c>
-      <c r="V37" s="11">
-        <v>1685</v>
-      </c>
-      <c r="W37" s="11">
-        <v>1619</v>
-      </c>
-      <c r="X37" s="11">
-        <v>1348</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>1274</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>1285</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>1300</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>1431</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>1630</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>1915</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>1664</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>1879</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>1786</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>1410</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>1420</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>1189</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>1122</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>1029</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>988</v>
-      </c>
       <c r="AN37" s="11">
-        <v>1139</v>
+        <v>1353</v>
       </c>
       <c r="AO37" s="11">
-        <v>1353</v>
+        <v>1501</v>
       </c>
       <c r="AP37" s="11">
-        <v>1501</v>
+        <v>1243</v>
       </c>
       <c r="AQ37" s="11">
-        <v>1243</v>
+        <v>1318</v>
       </c>
       <c r="AR37" s="11">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="AS37" s="11">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="AT37" s="11">
-        <v>1297</v>
+        <v>1221</v>
       </c>
       <c r="AU37" s="11">
-        <v>1221</v>
+        <v>1111</v>
       </c>
       <c r="AV37" s="11">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="AW37" s="11">
-        <v>1197</v>
+        <v>934</v>
       </c>
       <c r="AX37" s="11">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="AY37" s="11">
-        <v>958</v>
+        <v>1190</v>
       </c>
       <c r="AZ37" s="11">
-        <v>1190</v>
+        <v>1250</v>
       </c>
       <c r="BA37" s="11">
-        <v>1250</v>
+        <v>1415</v>
       </c>
       <c r="BB37" s="11">
-        <v>1415</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5094,154 +5094,154 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>444</v>
+        <v>577</v>
       </c>
       <c r="F38" s="13">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="G38" s="13">
-        <v>612</v>
+        <v>515</v>
       </c>
       <c r="H38" s="13">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="I38" s="13">
+        <v>554</v>
+      </c>
+      <c r="J38" s="13">
+        <v>571</v>
+      </c>
+      <c r="K38" s="13">
+        <v>448</v>
+      </c>
+      <c r="L38" s="13">
+        <v>553</v>
+      </c>
+      <c r="M38" s="13">
+        <v>431</v>
+      </c>
+      <c r="N38" s="13">
+        <v>448</v>
+      </c>
+      <c r="O38" s="13">
+        <v>437</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>422</v>
+      </c>
+      <c r="R38" s="13">
+        <v>534</v>
+      </c>
+      <c r="S38" s="13">
+        <v>568</v>
+      </c>
+      <c r="T38" s="13">
+        <v>609</v>
+      </c>
+      <c r="U38" s="13">
+        <v>534</v>
+      </c>
+      <c r="V38" s="13">
         <v>504</v>
       </c>
-      <c r="J38" s="13">
-        <v>554</v>
-      </c>
-      <c r="K38" s="13">
-        <v>571</v>
-      </c>
-      <c r="L38" s="13">
-        <v>448</v>
-      </c>
-      <c r="M38" s="13">
-        <v>553</v>
-      </c>
-      <c r="N38" s="13">
-        <v>431</v>
-      </c>
-      <c r="O38" s="13">
-        <v>448</v>
-      </c>
-      <c r="P38" s="13">
-        <v>437</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="R38" s="13">
-        <v>422</v>
-      </c>
-      <c r="S38" s="13">
-        <v>534</v>
-      </c>
-      <c r="T38" s="13">
-        <v>568</v>
-      </c>
-      <c r="U38" s="13">
-        <v>609</v>
-      </c>
-      <c r="V38" s="13">
-        <v>534</v>
-      </c>
       <c r="W38" s="13">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="X38" s="13">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="Y38" s="13">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Z38" s="13">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AA38" s="13">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AB38" s="13">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="AC38" s="13">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AD38" s="13">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AE38" s="13">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AF38" s="13">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="AG38" s="13">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="AH38" s="13">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="AI38" s="13">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="AJ38" s="13">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AK38" s="13">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="AL38" s="13">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AM38" s="13">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AN38" s="13">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="AO38" s="13">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="AP38" s="13">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AQ38" s="13">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AR38" s="13">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AS38" s="13">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="AT38" s="13">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AU38" s="13">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="AV38" s="13">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="AW38" s="13">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AX38" s="13">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AY38" s="13">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="AZ38" s="13">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="BA38" s="13">
-        <v>428</v>
+        <v>312</v>
       </c>
       <c r="BB38" s="13">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5253,154 +5253,154 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="F39" s="11">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="G39" s="11">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H39" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I39" s="11">
+        <v>30</v>
+      </c>
+      <c r="J39" s="11">
+        <v>24</v>
+      </c>
+      <c r="K39" s="11">
+        <v>66</v>
+      </c>
+      <c r="L39" s="11">
+        <v>29</v>
+      </c>
+      <c r="M39" s="11">
+        <v>26</v>
+      </c>
+      <c r="N39" s="11">
+        <v>12</v>
+      </c>
+      <c r="O39" s="11">
         <v>37</v>
       </c>
-      <c r="J39" s="11">
-        <v>30</v>
-      </c>
-      <c r="K39" s="11">
-        <v>24</v>
-      </c>
-      <c r="L39" s="11">
+      <c r="P39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>16</v>
+      </c>
+      <c r="R39" s="11">
         <v>66</v>
-      </c>
-      <c r="M39" s="11">
-        <v>29</v>
-      </c>
-      <c r="N39" s="11">
-        <v>26</v>
-      </c>
-      <c r="O39" s="11">
-        <v>12</v>
-      </c>
-      <c r="P39" s="11">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="R39" s="11">
-        <v>16</v>
       </c>
       <c r="S39" s="11">
         <v>66</v>
       </c>
       <c r="T39" s="11">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="U39" s="11">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="V39" s="11">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="W39" s="11">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="X39" s="11">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y39" s="11">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="Z39" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="AA39" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AB39" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC39" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AD39" s="11">
         <v>26</v>
       </c>
       <c r="AE39" s="11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AF39" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG39" s="11">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AH39" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AI39" s="11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AJ39" s="11">
+        <v>37</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>58</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>34</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>84</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>323</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>143</v>
+      </c>
+      <c r="AQ39" s="11">
         <v>30</v>
       </c>
-      <c r="AK39" s="11">
-        <v>37</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>58</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>34</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>84</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>323</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>143</v>
-      </c>
       <c r="AR39" s="11">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AS39" s="11">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="AT39" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AU39" s="11">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="AV39" s="11">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="AW39" s="11">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="AX39" s="11">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="AY39" s="11">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="AZ39" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BA39" s="11">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="BB39" s="11">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5412,154 +5412,154 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="F40" s="13">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="G40" s="13">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="H40" s="13">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="I40" s="13">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="J40" s="13">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K40" s="13">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L40" s="13">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M40" s="13">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="N40" s="13">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="O40" s="13">
-        <v>106</v>
-      </c>
-      <c r="P40" s="13">
         <v>97</v>
       </c>
-      <c r="Q40" s="13" t="s">
-        <v>57</v>
+      <c r="P40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>101</v>
       </c>
       <c r="R40" s="13">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="S40" s="13">
+        <v>300</v>
+      </c>
+      <c r="T40" s="13">
+        <v>264</v>
+      </c>
+      <c r="U40" s="13">
+        <v>351</v>
+      </c>
+      <c r="V40" s="13">
+        <v>117</v>
+      </c>
+      <c r="W40" s="13">
+        <v>146</v>
+      </c>
+      <c r="X40" s="13">
+        <v>148</v>
+      </c>
+      <c r="Y40" s="13">
+        <v>227</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>188</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>149</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>437</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>247</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>208</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>370</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>404</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>172</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>232</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>273</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>285</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>187</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>183</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>199</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>489</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>372</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>142</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>71</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>56</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>488</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>172</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>354</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>387</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>421</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>300</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>288</v>
+      </c>
+      <c r="AZ40" s="13">
+        <v>347</v>
+      </c>
+      <c r="BA40" s="13">
+        <v>520</v>
+      </c>
+      <c r="BB40" s="13">
         <v>294</v>
-      </c>
-      <c r="T40" s="13">
-        <v>300</v>
-      </c>
-      <c r="U40" s="13">
-        <v>264</v>
-      </c>
-      <c r="V40" s="13">
-        <v>351</v>
-      </c>
-      <c r="W40" s="13">
-        <v>117</v>
-      </c>
-      <c r="X40" s="13">
-        <v>146</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>148</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>227</v>
-      </c>
-      <c r="AA40" s="13">
-        <v>188</v>
-      </c>
-      <c r="AB40" s="13">
-        <v>149</v>
-      </c>
-      <c r="AC40" s="13">
-        <v>437</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>247</v>
-      </c>
-      <c r="AE40" s="13">
-        <v>208</v>
-      </c>
-      <c r="AF40" s="13">
-        <v>370</v>
-      </c>
-      <c r="AG40" s="13">
-        <v>404</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>172</v>
-      </c>
-      <c r="AI40" s="13">
-        <v>232</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>273</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>285</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>187</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>183</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>199</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>489</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>372</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>142</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>71</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>56</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>488</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>172</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>354</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>387</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>421</v>
-      </c>
-      <c r="AY40" s="13">
-        <v>300</v>
-      </c>
-      <c r="AZ40" s="13">
-        <v>288</v>
-      </c>
-      <c r="BA40" s="13">
-        <v>347</v>
-      </c>
-      <c r="BB40" s="13">
-        <v>520</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5642,8 +5642,8 @@
       <c r="AB41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC41" s="11" t="s">
-        <v>57</v>
+      <c r="AC41" s="11">
+        <v>0</v>
       </c>
       <c r="AD41" s="11">
         <v>0</v>
@@ -5675,8 +5675,8 @@
       <c r="AM41" s="11">
         <v>0</v>
       </c>
-      <c r="AN41" s="11">
-        <v>0</v>
+      <c r="AN41" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO41" s="11" t="s">
         <v>57</v>
@@ -5801,14 +5801,14 @@
       <c r="AB42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC42" s="13" t="s">
-        <v>57</v>
+      <c r="AC42" s="13">
+        <v>0</v>
       </c>
       <c r="AD42" s="13">
         <v>0</v>
       </c>
-      <c r="AE42" s="13">
-        <v>0</v>
+      <c r="AE42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF42" s="13" t="s">
         <v>57</v>
@@ -5960,8 +5960,8 @@
       <c r="AB43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC43" s="11" t="s">
-        <v>57</v>
+      <c r="AC43" s="11">
+        <v>0</v>
       </c>
       <c r="AD43" s="11">
         <v>0</v>
@@ -5993,8 +5993,8 @@
       <c r="AM43" s="11">
         <v>0</v>
       </c>
-      <c r="AN43" s="11">
-        <v>0</v>
+      <c r="AN43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO43" s="11" t="s">
         <v>57</v>
@@ -6119,8 +6119,8 @@
       <c r="AB44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC44" s="13" t="s">
-        <v>57</v>
+      <c r="AC44" s="13">
+        <v>0</v>
       </c>
       <c r="AD44" s="13">
         <v>0</v>
@@ -6152,8 +6152,8 @@
       <c r="AM44" s="13">
         <v>0</v>
       </c>
-      <c r="AN44" s="13">
-        <v>0</v>
+      <c r="AN44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO44" s="13" t="s">
         <v>57</v>
@@ -6335,11 +6335,11 @@
       <c r="AB46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD46" s="11">
-        <v>0</v>
+      <c r="AC46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AE46" s="11" t="s">
         <v>57</v>
@@ -6371,8 +6371,8 @@
       <c r="AN46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO46" s="11" t="s">
-        <v>57</v>
+      <c r="AO46" s="11">
+        <v>0</v>
       </c>
       <c r="AP46" s="11">
         <v>0</v>
@@ -6380,29 +6380,29 @@
       <c r="AQ46" s="11">
         <v>0</v>
       </c>
-      <c r="AR46" s="11">
-        <v>0</v>
+      <c r="AR46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU46" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW46" s="11">
-        <v>0</v>
+      <c r="AT46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY46" s="11" t="s">
-        <v>57</v>
+      <c r="AY46" s="11">
+        <v>0</v>
       </c>
       <c r="AZ46" s="11">
         <v>0</v>
@@ -6465,8 +6465,8 @@
       <c r="S47" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T47" s="15" t="s">
-        <v>57</v>
+      <c r="T47" s="15">
+        <v>0</v>
       </c>
       <c r="U47" s="15">
         <v>0</v>
@@ -6744,8 +6744,8 @@
       <c r="AN49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO49" s="11" t="s">
-        <v>57</v>
+      <c r="AO49" s="11">
+        <v>0</v>
       </c>
       <c r="AP49" s="11">
         <v>0</v>
@@ -6753,35 +6753,35 @@
       <c r="AQ49" s="11">
         <v>0</v>
       </c>
-      <c r="AR49" s="11">
-        <v>0</v>
+      <c r="AR49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW49" s="11">
-        <v>0</v>
+      <c r="AT49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY49" s="11" t="s">
-        <v>57</v>
+      <c r="AY49" s="11">
+        <v>0</v>
       </c>
       <c r="AZ49" s="11">
         <v>0</v>
       </c>
-      <c r="BA49" s="11">
-        <v>0</v>
+      <c r="BA49" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB49" s="11" t="s">
         <v>57</v>
@@ -6838,8 +6838,8 @@
       <c r="S50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T50" s="15" t="s">
-        <v>57</v>
+      <c r="T50" s="15">
+        <v>0</v>
       </c>
       <c r="U50" s="15">
         <v>0</v>
@@ -6951,154 +6951,154 @@
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17">
-        <v>6186</v>
+        <v>6967</v>
       </c>
       <c r="F51" s="17">
-        <v>6967</v>
+        <v>7377</v>
       </c>
       <c r="G51" s="17">
-        <v>7377</v>
+        <v>7434</v>
       </c>
       <c r="H51" s="17">
-        <v>7434</v>
+        <v>6795</v>
       </c>
       <c r="I51" s="17">
-        <v>6795</v>
+        <v>6462</v>
       </c>
       <c r="J51" s="17">
-        <v>6462</v>
+        <v>6221</v>
       </c>
       <c r="K51" s="17">
-        <v>6221</v>
+        <v>6834</v>
       </c>
       <c r="L51" s="17">
-        <v>6834</v>
+        <v>6592</v>
       </c>
       <c r="M51" s="17">
-        <v>6592</v>
+        <v>7044</v>
       </c>
       <c r="N51" s="17">
-        <v>7044</v>
+        <v>7615</v>
       </c>
       <c r="O51" s="17">
-        <v>7615</v>
+        <v>7946</v>
       </c>
       <c r="P51" s="17">
-        <v>7946</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="17">
-        <v>0</v>
+        <v>5457</v>
       </c>
       <c r="R51" s="17">
-        <v>5457</v>
+        <v>7292</v>
       </c>
       <c r="S51" s="17">
-        <v>7292</v>
+        <v>9303</v>
       </c>
       <c r="T51" s="17">
-        <v>9303</v>
+        <v>6396</v>
       </c>
       <c r="U51" s="17">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="V51" s="17">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="W51" s="17">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="X51" s="17">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="Y51" s="17">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="Z51" s="17">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AA51" s="17">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AB51" s="17">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AC51" s="17">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AD51" s="17">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AE51" s="17">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AF51" s="17">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AG51" s="17">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AH51" s="17">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AI51" s="17">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AJ51" s="17">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AK51" s="17">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AL51" s="17">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AM51" s="17">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AN51" s="17">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AO51" s="17">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AP51" s="17">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AQ51" s="17">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AR51" s="17">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AS51" s="17">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AT51" s="17">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AU51" s="17">
-        <v>5123</v>
+        <v>5672</v>
       </c>
       <c r="AV51" s="17">
-        <v>5672</v>
+        <v>5662</v>
       </c>
       <c r="AW51" s="17">
-        <v>5662</v>
+        <v>5727</v>
       </c>
       <c r="AX51" s="17">
-        <v>5727</v>
+        <v>5444</v>
       </c>
       <c r="AY51" s="17">
-        <v>5444</v>
+        <v>6029</v>
       </c>
       <c r="AZ51" s="17">
-        <v>6029</v>
+        <v>5997</v>
       </c>
       <c r="BA51" s="17">
-        <v>5997</v>
+        <v>6227</v>
       </c>
       <c r="BB51" s="17">
-        <v>6227</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7544,154 +7544,154 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>13312</v>
+        <v>29616</v>
       </c>
       <c r="F58" s="11">
-        <v>29616</v>
+        <v>34082</v>
       </c>
       <c r="G58" s="11">
-        <v>34082</v>
+        <v>29549</v>
       </c>
       <c r="H58" s="11">
-        <v>29549</v>
+        <v>35510</v>
       </c>
       <c r="I58" s="11">
-        <v>35510</v>
+        <v>32352</v>
       </c>
       <c r="J58" s="11">
-        <v>32352</v>
+        <v>28018</v>
       </c>
       <c r="K58" s="11">
-        <v>28018</v>
+        <v>25279</v>
       </c>
       <c r="L58" s="11">
-        <v>25279</v>
+        <v>22643</v>
       </c>
       <c r="M58" s="11">
-        <v>22643</v>
+        <v>21047</v>
       </c>
       <c r="N58" s="11">
-        <v>21047</v>
+        <v>19660</v>
       </c>
       <c r="O58" s="11">
-        <v>19660</v>
-      </c>
-      <c r="P58" s="11">
         <v>23424</v>
       </c>
-      <c r="Q58" s="11" t="s">
-        <v>57</v>
+      <c r="P58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>35232</v>
       </c>
       <c r="R58" s="11">
-        <v>35232</v>
+        <v>31622</v>
       </c>
       <c r="S58" s="11">
-        <v>31622</v>
+        <v>33482</v>
       </c>
       <c r="T58" s="11">
-        <v>33482</v>
+        <v>38785</v>
       </c>
       <c r="U58" s="11">
-        <v>38785</v>
+        <v>43113</v>
       </c>
       <c r="V58" s="11">
-        <v>43113</v>
+        <v>40291</v>
       </c>
       <c r="W58" s="11">
-        <v>40291</v>
+        <v>27438</v>
       </c>
       <c r="X58" s="11">
-        <v>27438</v>
+        <v>26664</v>
       </c>
       <c r="Y58" s="11">
-        <v>26664</v>
+        <v>30851</v>
       </c>
       <c r="Z58" s="11">
-        <v>30851</v>
+        <v>35225</v>
       </c>
       <c r="AA58" s="11">
-        <v>35225</v>
+        <v>37469</v>
       </c>
       <c r="AB58" s="11">
-        <v>37469</v>
+        <v>47172</v>
       </c>
       <c r="AC58" s="11">
-        <v>47172</v>
+        <v>54250</v>
       </c>
       <c r="AD58" s="11">
-        <v>54250</v>
+        <v>46828</v>
       </c>
       <c r="AE58" s="11">
-        <v>46828</v>
+        <v>47051</v>
       </c>
       <c r="AF58" s="11">
-        <v>47051</v>
+        <v>63130</v>
       </c>
       <c r="AG58" s="11">
-        <v>63130</v>
+        <v>45245</v>
       </c>
       <c r="AH58" s="11">
-        <v>45245</v>
+        <v>52279</v>
       </c>
       <c r="AI58" s="11">
-        <v>52279</v>
+        <v>36911</v>
       </c>
       <c r="AJ58" s="11">
-        <v>36911</v>
+        <v>44912</v>
       </c>
       <c r="AK58" s="11">
-        <v>44912</v>
+        <v>36669</v>
       </c>
       <c r="AL58" s="11">
-        <v>36669</v>
+        <v>39775</v>
       </c>
       <c r="AM58" s="11">
-        <v>39775</v>
+        <v>39040</v>
       </c>
       <c r="AN58" s="11">
-        <v>39040</v>
+        <v>44815</v>
       </c>
       <c r="AO58" s="11">
-        <v>44815</v>
+        <v>66346</v>
       </c>
       <c r="AP58" s="11">
-        <v>66346</v>
+        <v>47689</v>
       </c>
       <c r="AQ58" s="11">
-        <v>47689</v>
+        <v>94269</v>
       </c>
       <c r="AR58" s="11">
-        <v>94269</v>
+        <v>75662</v>
       </c>
       <c r="AS58" s="11">
-        <v>75662</v>
+        <v>88218</v>
       </c>
       <c r="AT58" s="11">
-        <v>88218</v>
+        <v>80680</v>
       </c>
       <c r="AU58" s="11">
-        <v>80680</v>
+        <v>67454</v>
       </c>
       <c r="AV58" s="11">
-        <v>67454</v>
+        <v>65471</v>
       </c>
       <c r="AW58" s="11">
-        <v>65471</v>
+        <v>64946</v>
       </c>
       <c r="AX58" s="11">
-        <v>64946</v>
+        <v>59945</v>
       </c>
       <c r="AY58" s="11">
-        <v>59945</v>
+        <v>58401</v>
       </c>
       <c r="AZ58" s="11">
-        <v>58401</v>
+        <v>100218</v>
       </c>
       <c r="BA58" s="11">
-        <v>100218</v>
+        <v>105061</v>
       </c>
       <c r="BB58" s="11">
-        <v>105061</v>
+        <v>83174</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7703,154 +7703,154 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>646</v>
+        <v>1586</v>
       </c>
       <c r="F59" s="13">
-        <v>1586</v>
+        <v>2682</v>
       </c>
       <c r="G59" s="13">
-        <v>2682</v>
+        <v>2483</v>
       </c>
       <c r="H59" s="13">
-        <v>2483</v>
+        <v>1823</v>
       </c>
       <c r="I59" s="13">
-        <v>1823</v>
+        <v>1772</v>
       </c>
       <c r="J59" s="13">
-        <v>1772</v>
+        <v>1852</v>
       </c>
       <c r="K59" s="13">
-        <v>1852</v>
+        <v>2451</v>
       </c>
       <c r="L59" s="13">
-        <v>2451</v>
+        <v>2386</v>
       </c>
       <c r="M59" s="13">
-        <v>2386</v>
+        <v>2065</v>
       </c>
       <c r="N59" s="13">
-        <v>2065</v>
+        <v>2030</v>
       </c>
       <c r="O59" s="13">
-        <v>2030</v>
-      </c>
-      <c r="P59" s="13">
         <v>2717</v>
       </c>
-      <c r="Q59" s="13" t="s">
-        <v>57</v>
+      <c r="P59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>2165</v>
       </c>
       <c r="R59" s="13">
-        <v>2165</v>
+        <v>3464</v>
       </c>
       <c r="S59" s="13">
-        <v>3464</v>
+        <v>2745</v>
       </c>
       <c r="T59" s="13">
-        <v>2745</v>
+        <v>2697</v>
       </c>
       <c r="U59" s="13">
-        <v>2697</v>
+        <v>3596</v>
       </c>
       <c r="V59" s="13">
-        <v>3596</v>
+        <v>3573</v>
       </c>
       <c r="W59" s="13">
-        <v>3573</v>
+        <v>3323</v>
       </c>
       <c r="X59" s="13">
-        <v>3323</v>
+        <v>3981</v>
       </c>
       <c r="Y59" s="13">
-        <v>3981</v>
+        <v>4572</v>
       </c>
       <c r="Z59" s="13">
-        <v>4572</v>
+        <v>5883</v>
       </c>
       <c r="AA59" s="13">
-        <v>5883</v>
+        <v>3920</v>
       </c>
       <c r="AB59" s="13">
-        <v>3920</v>
+        <v>632</v>
       </c>
       <c r="AC59" s="13">
-        <v>632</v>
+        <v>4547</v>
       </c>
       <c r="AD59" s="13">
-        <v>4547</v>
+        <v>7168</v>
       </c>
       <c r="AE59" s="13">
-        <v>7168</v>
+        <v>60738</v>
       </c>
       <c r="AF59" s="13">
-        <v>60738</v>
+        <v>5312</v>
       </c>
       <c r="AG59" s="13">
-        <v>5312</v>
+        <v>4772</v>
       </c>
       <c r="AH59" s="13">
-        <v>4772</v>
+        <v>4780</v>
       </c>
       <c r="AI59" s="13">
-        <v>4780</v>
+        <v>6978</v>
       </c>
       <c r="AJ59" s="13">
-        <v>6978</v>
+        <v>2488</v>
       </c>
       <c r="AK59" s="13">
-        <v>2488</v>
+        <v>5440</v>
       </c>
       <c r="AL59" s="13">
-        <v>5440</v>
+        <v>3026</v>
       </c>
       <c r="AM59" s="13">
-        <v>3026</v>
+        <v>7998</v>
       </c>
       <c r="AN59" s="13">
-        <v>7998</v>
+        <v>5923</v>
       </c>
       <c r="AO59" s="13">
-        <v>5923</v>
+        <v>3354</v>
       </c>
       <c r="AP59" s="13">
-        <v>3354</v>
+        <v>5118</v>
       </c>
       <c r="AQ59" s="13">
-        <v>5118</v>
+        <v>9112</v>
       </c>
       <c r="AR59" s="13">
-        <v>9112</v>
+        <v>5711</v>
       </c>
       <c r="AS59" s="13">
-        <v>5711</v>
+        <v>7885</v>
       </c>
       <c r="AT59" s="13">
-        <v>7885</v>
+        <v>7531</v>
       </c>
       <c r="AU59" s="13">
-        <v>7531</v>
+        <v>8214</v>
       </c>
       <c r="AV59" s="13">
-        <v>8214</v>
+        <v>8030</v>
       </c>
       <c r="AW59" s="13">
-        <v>8030</v>
+        <v>11333</v>
       </c>
       <c r="AX59" s="13">
-        <v>11333</v>
+        <v>8275</v>
       </c>
       <c r="AY59" s="13">
-        <v>8275</v>
+        <v>9311</v>
       </c>
       <c r="AZ59" s="13">
-        <v>9311</v>
+        <v>8350</v>
       </c>
       <c r="BA59" s="13">
-        <v>8350</v>
+        <v>11289</v>
       </c>
       <c r="BB59" s="13">
-        <v>11289</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7862,154 +7862,154 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>113624</v>
+        <v>113287</v>
       </c>
       <c r="F60" s="11">
-        <v>113287</v>
+        <v>99237</v>
       </c>
       <c r="G60" s="11">
-        <v>99237</v>
+        <v>104528</v>
       </c>
       <c r="H60" s="11">
-        <v>104528</v>
+        <v>103205</v>
       </c>
       <c r="I60" s="11">
-        <v>103205</v>
+        <v>113058</v>
       </c>
       <c r="J60" s="11">
-        <v>113058</v>
+        <v>121405</v>
       </c>
       <c r="K60" s="11">
-        <v>121405</v>
+        <v>149869</v>
       </c>
       <c r="L60" s="11">
-        <v>149869</v>
+        <v>144163</v>
       </c>
       <c r="M60" s="11">
-        <v>144163</v>
+        <v>172360</v>
       </c>
       <c r="N60" s="11">
-        <v>172360</v>
+        <v>177692</v>
       </c>
       <c r="O60" s="11">
-        <v>177692</v>
-      </c>
-      <c r="P60" s="11">
         <v>168284</v>
       </c>
-      <c r="Q60" s="11" t="s">
-        <v>57</v>
+      <c r="P60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>69791</v>
       </c>
       <c r="R60" s="11">
-        <v>69791</v>
+        <v>122876</v>
       </c>
       <c r="S60" s="11">
-        <v>122876</v>
+        <v>182342</v>
       </c>
       <c r="T60" s="11">
-        <v>182342</v>
+        <v>121887</v>
       </c>
       <c r="U60" s="11">
-        <v>121887</v>
+        <v>132660</v>
       </c>
       <c r="V60" s="11">
-        <v>132660</v>
+        <v>145124</v>
       </c>
       <c r="W60" s="11">
-        <v>145124</v>
+        <v>167809</v>
       </c>
       <c r="X60" s="11">
-        <v>167809</v>
+        <v>185579</v>
       </c>
       <c r="Y60" s="11">
-        <v>185579</v>
+        <v>185852</v>
       </c>
       <c r="Z60" s="11">
-        <v>185852</v>
+        <v>237485</v>
       </c>
       <c r="AA60" s="11">
-        <v>237485</v>
+        <v>185541</v>
       </c>
       <c r="AB60" s="11">
-        <v>185541</v>
+        <v>288955</v>
       </c>
       <c r="AC60" s="11">
-        <v>288955</v>
+        <v>173889</v>
       </c>
       <c r="AD60" s="11">
-        <v>173889</v>
+        <v>176230</v>
       </c>
       <c r="AE60" s="11">
-        <v>176230</v>
+        <v>176151</v>
       </c>
       <c r="AF60" s="11">
-        <v>176151</v>
+        <v>173479</v>
       </c>
       <c r="AG60" s="11">
-        <v>173479</v>
+        <v>194080</v>
       </c>
       <c r="AH60" s="11">
-        <v>194080</v>
+        <v>234992</v>
       </c>
       <c r="AI60" s="11">
-        <v>234992</v>
+        <v>253784</v>
       </c>
       <c r="AJ60" s="11">
-        <v>253784</v>
+        <v>307531</v>
       </c>
       <c r="AK60" s="11">
-        <v>307531</v>
+        <v>369184</v>
       </c>
       <c r="AL60" s="11">
-        <v>369184</v>
+        <v>271129</v>
       </c>
       <c r="AM60" s="11">
-        <v>271129</v>
+        <v>246789</v>
       </c>
       <c r="AN60" s="11">
-        <v>246789</v>
+        <v>236627</v>
       </c>
       <c r="AO60" s="11">
-        <v>236627</v>
+        <v>237213</v>
       </c>
       <c r="AP60" s="11">
-        <v>237213</v>
+        <v>269696</v>
       </c>
       <c r="AQ60" s="11">
-        <v>269696</v>
+        <v>369703</v>
       </c>
       <c r="AR60" s="11">
-        <v>369703</v>
+        <v>434957</v>
       </c>
       <c r="AS60" s="11">
-        <v>434957</v>
+        <v>389340</v>
       </c>
       <c r="AT60" s="11">
-        <v>389340</v>
+        <v>394070</v>
       </c>
       <c r="AU60" s="11">
-        <v>394070</v>
+        <v>459721</v>
       </c>
       <c r="AV60" s="11">
-        <v>459721</v>
+        <v>523819</v>
       </c>
       <c r="AW60" s="11">
-        <v>523819</v>
+        <v>541941</v>
       </c>
       <c r="AX60" s="11">
-        <v>541941</v>
+        <v>525099</v>
       </c>
       <c r="AY60" s="11">
-        <v>525099</v>
+        <v>550048</v>
       </c>
       <c r="AZ60" s="11">
-        <v>550048</v>
+        <v>462280</v>
       </c>
       <c r="BA60" s="11">
-        <v>462280</v>
+        <v>458987</v>
       </c>
       <c r="BB60" s="11">
-        <v>458987</v>
+        <v>482511</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8021,154 +8021,154 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>21545</v>
+        <v>28137</v>
       </c>
       <c r="F61" s="13">
-        <v>28137</v>
+        <v>66268</v>
       </c>
       <c r="G61" s="13">
-        <v>66268</v>
+        <v>74531</v>
       </c>
       <c r="H61" s="13">
-        <v>74531</v>
+        <v>79243</v>
       </c>
       <c r="I61" s="13">
-        <v>79243</v>
+        <v>49106</v>
       </c>
       <c r="J61" s="13">
-        <v>49106</v>
+        <v>45675</v>
       </c>
       <c r="K61" s="13">
-        <v>45675</v>
+        <v>100089</v>
       </c>
       <c r="L61" s="13">
-        <v>100089</v>
+        <v>118697</v>
       </c>
       <c r="M61" s="13">
-        <v>118697</v>
+        <v>124595</v>
       </c>
       <c r="N61" s="13">
-        <v>124595</v>
+        <v>136158</v>
       </c>
       <c r="O61" s="13">
-        <v>136158</v>
-      </c>
-      <c r="P61" s="13">
         <v>226270</v>
       </c>
-      <c r="Q61" s="13" t="s">
-        <v>57</v>
+      <c r="P61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>24846</v>
       </c>
       <c r="R61" s="13">
-        <v>24846</v>
+        <v>40922</v>
       </c>
       <c r="S61" s="13">
-        <v>40922</v>
+        <v>128052</v>
       </c>
       <c r="T61" s="13">
-        <v>128052</v>
+        <v>62147</v>
       </c>
       <c r="U61" s="13">
-        <v>62147</v>
+        <v>69917</v>
       </c>
       <c r="V61" s="13">
-        <v>69917</v>
+        <v>93762</v>
       </c>
       <c r="W61" s="13">
-        <v>93762</v>
+        <v>86896</v>
       </c>
       <c r="X61" s="13">
-        <v>86896</v>
+        <v>108932</v>
       </c>
       <c r="Y61" s="13">
-        <v>108932</v>
+        <v>155633</v>
       </c>
       <c r="Z61" s="13">
-        <v>155633</v>
+        <v>121928</v>
       </c>
       <c r="AA61" s="13">
-        <v>121928</v>
+        <v>116762</v>
       </c>
       <c r="AB61" s="13">
-        <v>116762</v>
+        <v>89482</v>
       </c>
       <c r="AC61" s="13">
-        <v>89482</v>
+        <v>80919</v>
       </c>
       <c r="AD61" s="13">
-        <v>80919</v>
+        <v>61813</v>
       </c>
       <c r="AE61" s="13">
-        <v>61813</v>
+        <v>47100</v>
       </c>
       <c r="AF61" s="13">
-        <v>47100</v>
+        <v>75672</v>
       </c>
       <c r="AG61" s="13">
-        <v>75672</v>
+        <v>53939</v>
       </c>
       <c r="AH61" s="13">
-        <v>53939</v>
+        <v>76395</v>
       </c>
       <c r="AI61" s="13">
-        <v>76395</v>
+        <v>86474</v>
       </c>
       <c r="AJ61" s="13">
-        <v>86474</v>
+        <v>66704</v>
       </c>
       <c r="AK61" s="13">
-        <v>66704</v>
+        <v>91018</v>
       </c>
       <c r="AL61" s="13">
-        <v>91018</v>
+        <v>104048</v>
       </c>
       <c r="AM61" s="13">
-        <v>104048</v>
+        <v>61267</v>
       </c>
       <c r="AN61" s="13">
-        <v>61267</v>
+        <v>154567</v>
       </c>
       <c r="AO61" s="13">
-        <v>154567</v>
+        <v>119681</v>
       </c>
       <c r="AP61" s="13">
-        <v>119681</v>
+        <v>71394</v>
       </c>
       <c r="AQ61" s="13">
-        <v>71394</v>
+        <v>128928</v>
       </c>
       <c r="AR61" s="13">
-        <v>128928</v>
+        <v>274221</v>
       </c>
       <c r="AS61" s="13">
-        <v>274221</v>
+        <v>205927</v>
       </c>
       <c r="AT61" s="13">
-        <v>205927</v>
+        <v>213230</v>
       </c>
       <c r="AU61" s="13">
-        <v>213230</v>
+        <v>239480</v>
       </c>
       <c r="AV61" s="13">
-        <v>239480</v>
+        <v>158213</v>
       </c>
       <c r="AW61" s="13">
-        <v>158213</v>
+        <v>201781</v>
       </c>
       <c r="AX61" s="13">
-        <v>201781</v>
+        <v>262202</v>
       </c>
       <c r="AY61" s="13">
-        <v>262202</v>
+        <v>328898</v>
       </c>
       <c r="AZ61" s="13">
-        <v>328898</v>
+        <v>142668</v>
       </c>
       <c r="BA61" s="13">
-        <v>142668</v>
+        <v>166134</v>
       </c>
       <c r="BB61" s="13">
-        <v>166134</v>
+        <v>192615</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8180,154 +8180,154 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>43717</v>
+        <v>59311</v>
       </c>
       <c r="F62" s="11">
-        <v>59311</v>
+        <v>62154</v>
       </c>
       <c r="G62" s="11">
-        <v>62154</v>
+        <v>63812</v>
       </c>
       <c r="H62" s="11">
-        <v>63812</v>
+        <v>83089</v>
       </c>
       <c r="I62" s="11">
-        <v>83089</v>
+        <v>76661</v>
       </c>
       <c r="J62" s="11">
-        <v>76661</v>
+        <v>69619</v>
       </c>
       <c r="K62" s="11">
-        <v>69619</v>
+        <v>68540</v>
       </c>
       <c r="L62" s="11">
-        <v>68540</v>
+        <v>60842</v>
       </c>
       <c r="M62" s="11">
-        <v>60842</v>
+        <v>52820</v>
       </c>
       <c r="N62" s="11">
-        <v>52820</v>
+        <v>56095</v>
       </c>
       <c r="O62" s="11">
-        <v>56095</v>
-      </c>
-      <c r="P62" s="11">
         <v>60910</v>
       </c>
-      <c r="Q62" s="11" t="s">
-        <v>57</v>
+      <c r="P62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>73043</v>
       </c>
       <c r="R62" s="11">
-        <v>73043</v>
+        <v>80567</v>
       </c>
       <c r="S62" s="11">
-        <v>80567</v>
+        <v>86577</v>
       </c>
       <c r="T62" s="11">
-        <v>86577</v>
+        <v>94957</v>
       </c>
       <c r="U62" s="11">
-        <v>94957</v>
+        <v>96407</v>
       </c>
       <c r="V62" s="11">
-        <v>96407</v>
+        <v>93149</v>
       </c>
       <c r="W62" s="11">
-        <v>93149</v>
+        <v>79445</v>
       </c>
       <c r="X62" s="11">
-        <v>79445</v>
+        <v>76264</v>
       </c>
       <c r="Y62" s="11">
-        <v>76264</v>
+        <v>92072</v>
       </c>
       <c r="Z62" s="11">
-        <v>92072</v>
+        <v>96517</v>
       </c>
       <c r="AA62" s="11">
-        <v>96517</v>
+        <v>103839</v>
       </c>
       <c r="AB62" s="11">
-        <v>103839</v>
+        <v>115312</v>
       </c>
       <c r="AC62" s="11">
-        <v>115312</v>
+        <v>140015</v>
       </c>
       <c r="AD62" s="11">
-        <v>140015</v>
+        <v>129872</v>
       </c>
       <c r="AE62" s="11">
-        <v>129872</v>
+        <v>154105</v>
       </c>
       <c r="AF62" s="11">
-        <v>154105</v>
+        <v>162073</v>
       </c>
       <c r="AG62" s="11">
-        <v>162073</v>
+        <v>149926</v>
       </c>
       <c r="AH62" s="11">
-        <v>149926</v>
+        <v>177580</v>
       </c>
       <c r="AI62" s="11">
-        <v>177580</v>
+        <v>149679</v>
       </c>
       <c r="AJ62" s="11">
-        <v>149679</v>
+        <v>141875</v>
       </c>
       <c r="AK62" s="11">
-        <v>141875</v>
+        <v>129102</v>
       </c>
       <c r="AL62" s="11">
-        <v>129102</v>
+        <v>124947</v>
       </c>
       <c r="AM62" s="11">
-        <v>124947</v>
+        <v>145480</v>
       </c>
       <c r="AN62" s="11">
-        <v>145480</v>
+        <v>174302</v>
       </c>
       <c r="AO62" s="11">
-        <v>174302</v>
+        <v>196260</v>
       </c>
       <c r="AP62" s="11">
-        <v>196260</v>
+        <v>181695</v>
       </c>
       <c r="AQ62" s="11">
-        <v>181695</v>
+        <v>308028</v>
       </c>
       <c r="AR62" s="11">
-        <v>308028</v>
+        <v>270018</v>
       </c>
       <c r="AS62" s="11">
-        <v>270018</v>
+        <v>297226</v>
       </c>
       <c r="AT62" s="11">
-        <v>297226</v>
+        <v>278729</v>
       </c>
       <c r="AU62" s="11">
-        <v>278729</v>
+        <v>250866</v>
       </c>
       <c r="AV62" s="11">
-        <v>250866</v>
+        <v>270141</v>
       </c>
       <c r="AW62" s="11">
-        <v>270141</v>
+        <v>206575</v>
       </c>
       <c r="AX62" s="11">
-        <v>206575</v>
+        <v>213462</v>
       </c>
       <c r="AY62" s="11">
-        <v>213462</v>
+        <v>265630</v>
       </c>
       <c r="AZ62" s="11">
-        <v>265630</v>
+        <v>278638</v>
       </c>
       <c r="BA62" s="11">
-        <v>278638</v>
+        <v>314762</v>
       </c>
       <c r="BB62" s="11">
-        <v>314762</v>
+        <v>295321</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8339,154 +8339,154 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>65025</v>
+        <v>84337</v>
       </c>
       <c r="F63" s="13">
-        <v>84337</v>
+        <v>90253</v>
       </c>
       <c r="G63" s="13">
-        <v>90253</v>
+        <v>73996</v>
       </c>
       <c r="H63" s="13">
-        <v>73996</v>
+        <v>86686</v>
       </c>
       <c r="I63" s="13">
-        <v>86686</v>
+        <v>95943</v>
       </c>
       <c r="J63" s="13">
-        <v>95943</v>
+        <v>102045</v>
       </c>
       <c r="K63" s="13">
-        <v>102045</v>
+        <v>82601</v>
       </c>
       <c r="L63" s="13">
-        <v>82601</v>
+        <v>101593</v>
       </c>
       <c r="M63" s="13">
-        <v>101593</v>
+        <v>78951</v>
       </c>
       <c r="N63" s="13">
-        <v>78951</v>
+        <v>83574</v>
       </c>
       <c r="O63" s="13">
-        <v>83574</v>
-      </c>
-      <c r="P63" s="13">
         <v>79448</v>
       </c>
-      <c r="Q63" s="13" t="s">
-        <v>57</v>
+      <c r="P63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>77529</v>
       </c>
       <c r="R63" s="13">
-        <v>77529</v>
+        <v>100441</v>
       </c>
       <c r="S63" s="13">
-        <v>100441</v>
+        <v>105831</v>
       </c>
       <c r="T63" s="13">
-        <v>105831</v>
+        <v>129740</v>
       </c>
       <c r="U63" s="13">
-        <v>129740</v>
+        <v>130365</v>
       </c>
       <c r="V63" s="13">
-        <v>130365</v>
+        <v>118621</v>
       </c>
       <c r="W63" s="13">
-        <v>118621</v>
+        <v>73158</v>
       </c>
       <c r="X63" s="13">
-        <v>73158</v>
+        <v>94857</v>
       </c>
       <c r="Y63" s="13">
-        <v>94857</v>
+        <v>116023</v>
       </c>
       <c r="Z63" s="13">
-        <v>116023</v>
+        <v>147835</v>
       </c>
       <c r="AA63" s="13">
-        <v>147835</v>
+        <v>128504</v>
       </c>
       <c r="AB63" s="13">
-        <v>128504</v>
+        <v>118801</v>
       </c>
       <c r="AC63" s="13">
-        <v>118801</v>
+        <v>139778</v>
       </c>
       <c r="AD63" s="13">
-        <v>139778</v>
+        <v>139942</v>
       </c>
       <c r="AE63" s="13">
-        <v>139942</v>
+        <v>127350</v>
       </c>
       <c r="AF63" s="13">
-        <v>127350</v>
+        <v>173600</v>
       </c>
       <c r="AG63" s="13">
-        <v>173600</v>
+        <v>145011</v>
       </c>
       <c r="AH63" s="13">
-        <v>145011</v>
+        <v>195894</v>
       </c>
       <c r="AI63" s="13">
-        <v>195894</v>
+        <v>168720</v>
       </c>
       <c r="AJ63" s="13">
-        <v>168720</v>
+        <v>186597</v>
       </c>
       <c r="AK63" s="13">
-        <v>186597</v>
+        <v>167854</v>
       </c>
       <c r="AL63" s="13">
-        <v>167854</v>
+        <v>145656</v>
       </c>
       <c r="AM63" s="13">
-        <v>145656</v>
+        <v>125182</v>
       </c>
       <c r="AN63" s="13">
-        <v>125182</v>
+        <v>173774</v>
       </c>
       <c r="AO63" s="13">
-        <v>173774</v>
+        <v>143584</v>
       </c>
       <c r="AP63" s="13">
-        <v>143584</v>
+        <v>211745</v>
       </c>
       <c r="AQ63" s="13">
-        <v>211745</v>
+        <v>301171</v>
       </c>
       <c r="AR63" s="13">
-        <v>301171</v>
+        <v>253232</v>
       </c>
       <c r="AS63" s="13">
-        <v>253232</v>
+        <v>311621</v>
       </c>
       <c r="AT63" s="13">
-        <v>311621</v>
+        <v>287745</v>
       </c>
       <c r="AU63" s="13">
-        <v>287745</v>
+        <v>272354</v>
       </c>
       <c r="AV63" s="13">
-        <v>272354</v>
+        <v>188880</v>
       </c>
       <c r="AW63" s="13">
-        <v>188880</v>
+        <v>208403</v>
       </c>
       <c r="AX63" s="13">
-        <v>208403</v>
+        <v>183119</v>
       </c>
       <c r="AY63" s="13">
-        <v>183119</v>
+        <v>225210</v>
       </c>
       <c r="AZ63" s="13">
-        <v>225210</v>
+        <v>338570</v>
       </c>
       <c r="BA63" s="13">
-        <v>338570</v>
+        <v>241465</v>
       </c>
       <c r="BB63" s="13">
-        <v>241465</v>
+        <v>247822</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8498,154 +8498,154 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>11846</v>
+        <v>32668</v>
       </c>
       <c r="F64" s="11">
-        <v>32668</v>
+        <v>2354</v>
       </c>
       <c r="G64" s="11">
-        <v>2354</v>
+        <v>9251</v>
       </c>
       <c r="H64" s="11">
-        <v>9251</v>
+        <v>11881</v>
       </c>
       <c r="I64" s="11">
-        <v>11881</v>
+        <v>9452</v>
       </c>
       <c r="J64" s="11">
-        <v>9452</v>
+        <v>7822</v>
       </c>
       <c r="K64" s="11">
-        <v>7822</v>
+        <v>22811</v>
       </c>
       <c r="L64" s="11">
-        <v>22811</v>
+        <v>10231</v>
       </c>
       <c r="M64" s="11">
-        <v>10231</v>
+        <v>8995</v>
       </c>
       <c r="N64" s="11">
-        <v>8995</v>
+        <v>4086</v>
       </c>
       <c r="O64" s="11">
-        <v>4086</v>
-      </c>
-      <c r="P64" s="11">
         <v>12914</v>
       </c>
-      <c r="Q64" s="11" t="s">
-        <v>57</v>
+      <c r="P64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>5326</v>
       </c>
       <c r="R64" s="11">
-        <v>5326</v>
+        <v>22702</v>
       </c>
       <c r="S64" s="11">
-        <v>22702</v>
+        <v>22904</v>
       </c>
       <c r="T64" s="11">
-        <v>22904</v>
+        <v>16173</v>
       </c>
       <c r="U64" s="11">
-        <v>16173</v>
+        <v>6410</v>
       </c>
       <c r="V64" s="11">
-        <v>6410</v>
+        <v>31436</v>
       </c>
       <c r="W64" s="11">
-        <v>31436</v>
+        <v>31557</v>
       </c>
       <c r="X64" s="11">
-        <v>31557</v>
+        <v>36592</v>
       </c>
       <c r="Y64" s="11">
-        <v>36592</v>
+        <v>56165</v>
       </c>
       <c r="Z64" s="11">
-        <v>56165</v>
+        <v>15284</v>
       </c>
       <c r="AA64" s="11">
-        <v>15284</v>
+        <v>21132</v>
       </c>
       <c r="AB64" s="11">
-        <v>21132</v>
+        <v>28971</v>
       </c>
       <c r="AC64" s="11">
-        <v>28971</v>
+        <v>17678</v>
       </c>
       <c r="AD64" s="11">
-        <v>17678</v>
+        <v>18837</v>
       </c>
       <c r="AE64" s="11">
-        <v>18837</v>
+        <v>8561</v>
       </c>
       <c r="AF64" s="11">
-        <v>8561</v>
+        <v>15527</v>
       </c>
       <c r="AG64" s="11">
-        <v>15527</v>
+        <v>45634</v>
       </c>
       <c r="AH64" s="11">
-        <v>45634</v>
+        <v>53651</v>
       </c>
       <c r="AI64" s="11">
-        <v>53651</v>
+        <v>23614</v>
       </c>
       <c r="AJ64" s="11">
-        <v>23614</v>
+        <v>32109</v>
       </c>
       <c r="AK64" s="11">
-        <v>32109</v>
+        <v>50298</v>
       </c>
       <c r="AL64" s="11">
-        <v>50298</v>
+        <v>28196</v>
       </c>
       <c r="AM64" s="11">
-        <v>28196</v>
+        <v>6560</v>
       </c>
       <c r="AN64" s="11">
-        <v>6560</v>
+        <v>65469</v>
       </c>
       <c r="AO64" s="11">
-        <v>65469</v>
+        <v>229861</v>
       </c>
       <c r="AP64" s="11">
-        <v>229861</v>
+        <v>111435</v>
       </c>
       <c r="AQ64" s="11">
-        <v>111435</v>
+        <v>39228</v>
       </c>
       <c r="AR64" s="11">
-        <v>39228</v>
+        <v>304620</v>
       </c>
       <c r="AS64" s="11">
-        <v>304620</v>
+        <v>106890</v>
       </c>
       <c r="AT64" s="11">
-        <v>106890</v>
+        <v>170034</v>
       </c>
       <c r="AU64" s="11">
-        <v>170034</v>
+        <v>401836</v>
       </c>
       <c r="AV64" s="11">
-        <v>401836</v>
+        <v>315556</v>
       </c>
       <c r="AW64" s="11">
-        <v>315556</v>
+        <v>337818</v>
       </c>
       <c r="AX64" s="11">
-        <v>337818</v>
+        <v>158336</v>
       </c>
       <c r="AY64" s="11">
-        <v>158336</v>
+        <v>312583</v>
       </c>
       <c r="AZ64" s="11">
-        <v>312583</v>
+        <v>308532</v>
       </c>
       <c r="BA64" s="11">
-        <v>308532</v>
+        <v>190571</v>
       </c>
       <c r="BB64" s="11">
-        <v>190571</v>
+        <v>60010</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8657,154 +8657,154 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>39886</v>
+        <v>12550</v>
       </c>
       <c r="F65" s="13">
-        <v>12550</v>
+        <v>63059</v>
       </c>
       <c r="G65" s="13">
-        <v>63059</v>
+        <v>34224</v>
       </c>
       <c r="H65" s="13">
-        <v>34224</v>
+        <v>25015</v>
       </c>
       <c r="I65" s="13">
-        <v>25015</v>
+        <v>20569</v>
       </c>
       <c r="J65" s="13">
-        <v>20569</v>
+        <v>25762</v>
       </c>
       <c r="K65" s="13">
-        <v>25762</v>
+        <v>20752</v>
       </c>
       <c r="L65" s="13">
-        <v>20752</v>
+        <v>23597</v>
       </c>
       <c r="M65" s="13">
-        <v>23597</v>
+        <v>29678</v>
       </c>
       <c r="N65" s="13">
-        <v>29678</v>
+        <v>13027</v>
       </c>
       <c r="O65" s="13">
-        <v>13027</v>
-      </c>
-      <c r="P65" s="13">
         <v>17905</v>
       </c>
-      <c r="Q65" s="13" t="s">
-        <v>57</v>
+      <c r="P65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>25876</v>
       </c>
       <c r="R65" s="13">
-        <v>25876</v>
+        <v>61835</v>
       </c>
       <c r="S65" s="13">
-        <v>61835</v>
+        <v>56866</v>
       </c>
       <c r="T65" s="13">
-        <v>56866</v>
+        <v>67098</v>
       </c>
       <c r="U65" s="13">
-        <v>67098</v>
+        <v>95674</v>
       </c>
       <c r="V65" s="13">
-        <v>95674</v>
+        <v>28362</v>
       </c>
       <c r="W65" s="13">
-        <v>28362</v>
+        <v>25380</v>
       </c>
       <c r="X65" s="13">
-        <v>25380</v>
+        <v>26199</v>
       </c>
       <c r="Y65" s="13">
-        <v>26199</v>
+        <v>46704</v>
       </c>
       <c r="Z65" s="13">
-        <v>46704</v>
+        <v>50627</v>
       </c>
       <c r="AA65" s="13">
-        <v>50627</v>
+        <v>22594</v>
       </c>
       <c r="AB65" s="13">
-        <v>22594</v>
+        <v>138934</v>
       </c>
       <c r="AC65" s="13">
-        <v>138934</v>
+        <v>34153</v>
       </c>
       <c r="AD65" s="13">
-        <v>34153</v>
+        <v>41723</v>
       </c>
       <c r="AE65" s="13">
-        <v>41723</v>
+        <v>86498</v>
       </c>
       <c r="AF65" s="13">
-        <v>86498</v>
+        <v>144255</v>
       </c>
       <c r="AG65" s="13">
-        <v>144255</v>
+        <v>89327</v>
       </c>
       <c r="AH65" s="13">
-        <v>89327</v>
+        <v>98615</v>
       </c>
       <c r="AI65" s="13">
-        <v>98615</v>
+        <v>131104</v>
       </c>
       <c r="AJ65" s="13">
-        <v>131104</v>
+        <v>139543</v>
       </c>
       <c r="AK65" s="13">
-        <v>139543</v>
+        <v>114893</v>
       </c>
       <c r="AL65" s="13">
-        <v>114893</v>
+        <v>120711</v>
       </c>
       <c r="AM65" s="13">
-        <v>120711</v>
+        <v>115427</v>
       </c>
       <c r="AN65" s="13">
-        <v>115427</v>
+        <v>272339</v>
       </c>
       <c r="AO65" s="13">
-        <v>272339</v>
+        <v>221316</v>
       </c>
       <c r="AP65" s="13">
-        <v>221316</v>
+        <v>106861</v>
       </c>
       <c r="AQ65" s="13">
-        <v>106861</v>
+        <v>69614</v>
       </c>
       <c r="AR65" s="13">
-        <v>69614</v>
+        <v>69078</v>
       </c>
       <c r="AS65" s="13">
-        <v>69078</v>
+        <v>344727</v>
       </c>
       <c r="AT65" s="13">
-        <v>344727</v>
+        <v>165773</v>
       </c>
       <c r="AU65" s="13">
-        <v>165773</v>
+        <v>298780</v>
       </c>
       <c r="AV65" s="13">
-        <v>298780</v>
+        <v>297850</v>
       </c>
       <c r="AW65" s="13">
-        <v>297850</v>
+        <v>368615</v>
       </c>
       <c r="AX65" s="13">
-        <v>368615</v>
+        <v>275939</v>
       </c>
       <c r="AY65" s="13">
-        <v>275939</v>
+        <v>270928</v>
       </c>
       <c r="AZ65" s="13">
-        <v>270928</v>
+        <v>322760</v>
       </c>
       <c r="BA65" s="13">
-        <v>322760</v>
+        <v>498107</v>
       </c>
       <c r="BB65" s="13">
-        <v>498107</v>
+        <v>351878</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8887,8 +8887,8 @@
       <c r="AB66" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC66" s="11" t="s">
-        <v>57</v>
+      <c r="AC66" s="11">
+        <v>0</v>
       </c>
       <c r="AD66" s="11">
         <v>0</v>
@@ -8920,8 +8920,8 @@
       <c r="AM66" s="11">
         <v>0</v>
       </c>
-      <c r="AN66" s="11">
-        <v>0</v>
+      <c r="AN66" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO66" s="11" t="s">
         <v>57</v>
@@ -9046,14 +9046,14 @@
       <c r="AB67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC67" s="13" t="s">
-        <v>57</v>
+      <c r="AC67" s="13">
+        <v>0</v>
       </c>
       <c r="AD67" s="13">
         <v>0</v>
       </c>
-      <c r="AE67" s="13">
-        <v>0</v>
+      <c r="AE67" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AF67" s="13" t="s">
         <v>57</v>
@@ -9205,8 +9205,8 @@
       <c r="AB68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC68" s="11" t="s">
-        <v>57</v>
+      <c r="AC68" s="11">
+        <v>0</v>
       </c>
       <c r="AD68" s="11">
         <v>0</v>
@@ -9238,8 +9238,8 @@
       <c r="AM68" s="11">
         <v>0</v>
       </c>
-      <c r="AN68" s="11">
-        <v>0</v>
+      <c r="AN68" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO68" s="11" t="s">
         <v>57</v>
@@ -9364,8 +9364,8 @@
       <c r="AB69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC69" s="13" t="s">
-        <v>57</v>
+      <c r="AC69" s="13">
+        <v>0</v>
       </c>
       <c r="AD69" s="13">
         <v>0</v>
@@ -9397,8 +9397,8 @@
       <c r="AM69" s="13">
         <v>0</v>
       </c>
-      <c r="AN69" s="13">
-        <v>0</v>
+      <c r="AN69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO69" s="13" t="s">
         <v>57</v>
@@ -9580,8 +9580,8 @@
       <c r="AB71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC71" s="11" t="s">
-        <v>57</v>
+      <c r="AC71" s="11">
+        <v>0</v>
       </c>
       <c r="AD71" s="11">
         <v>0</v>
@@ -9712,8 +9712,8 @@
       <c r="S72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T72" s="15" t="s">
-        <v>57</v>
+      <c r="T72" s="15">
+        <v>0</v>
       </c>
       <c r="U72" s="15">
         <v>0</v>
@@ -9991,8 +9991,8 @@
       <c r="AN74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO74" s="11" t="s">
-        <v>57</v>
+      <c r="AO74" s="11">
+        <v>0</v>
       </c>
       <c r="AP74" s="11">
         <v>0</v>
@@ -10027,8 +10027,8 @@
       <c r="AZ74" s="11">
         <v>0</v>
       </c>
-      <c r="BA74" s="11">
-        <v>0</v>
+      <c r="BA74" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB74" s="11" t="s">
         <v>57</v>
@@ -10087,8 +10087,8 @@
       <c r="S75" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T75" s="15" t="s">
-        <v>57</v>
+      <c r="T75" s="15">
+        <v>0</v>
       </c>
       <c r="U75" s="15">
         <v>0</v>
@@ -10303,8 +10303,8 @@
       <c r="S77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T77" s="11" t="s">
-        <v>57</v>
+      <c r="T77" s="11">
+        <v>0</v>
       </c>
       <c r="U77" s="11">
         <v>0</v>
@@ -10416,154 +10416,154 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>309601</v>
+        <v>361492</v>
       </c>
       <c r="F78" s="15">
-        <v>361492</v>
+        <v>420089</v>
       </c>
       <c r="G78" s="15">
-        <v>420089</v>
+        <v>392374</v>
       </c>
       <c r="H78" s="15">
-        <v>392374</v>
+        <v>426452</v>
       </c>
       <c r="I78" s="15">
-        <v>426452</v>
+        <v>398913</v>
       </c>
       <c r="J78" s="15">
-        <v>398913</v>
+        <v>402198</v>
       </c>
       <c r="K78" s="15">
-        <v>402198</v>
+        <v>472392</v>
       </c>
       <c r="L78" s="15">
-        <v>472392</v>
+        <v>484152</v>
       </c>
       <c r="M78" s="15">
-        <v>484152</v>
+        <v>490511</v>
       </c>
       <c r="N78" s="15">
-        <v>490511</v>
+        <v>492322</v>
       </c>
       <c r="O78" s="15">
-        <v>492322</v>
+        <v>591872</v>
       </c>
       <c r="P78" s="15">
-        <v>591872</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="15">
-        <v>0</v>
+        <v>313808</v>
       </c>
       <c r="R78" s="15">
-        <v>313808</v>
+        <v>464429</v>
       </c>
       <c r="S78" s="15">
-        <v>464429</v>
+        <v>618799</v>
       </c>
       <c r="T78" s="15">
-        <v>618799</v>
+        <v>533484</v>
       </c>
       <c r="U78" s="15">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="V78" s="15">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="W78" s="15">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="X78" s="15">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="Y78" s="15">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="Z78" s="15">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AA78" s="15">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AB78" s="15">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AC78" s="15">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AD78" s="15">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AE78" s="15">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AF78" s="15">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AG78" s="15">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AH78" s="15">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AI78" s="15">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AJ78" s="15">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AK78" s="15">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AL78" s="15">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AM78" s="15">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AN78" s="15">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AO78" s="15">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AP78" s="15">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AQ78" s="15">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AR78" s="15">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AS78" s="15">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AT78" s="15">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AU78" s="15">
-        <v>1597792</v>
+        <v>1998705</v>
       </c>
       <c r="AV78" s="15">
-        <v>1998705</v>
+        <v>1827960</v>
       </c>
       <c r="AW78" s="15">
-        <v>1827960</v>
+        <v>1941412</v>
       </c>
       <c r="AX78" s="15">
-        <v>1941412</v>
+        <v>1686377</v>
       </c>
       <c r="AY78" s="15">
-        <v>1686377</v>
+        <v>2021009</v>
       </c>
       <c r="AZ78" s="15">
-        <v>2021009</v>
+        <v>1962016</v>
       </c>
       <c r="BA78" s="15">
-        <v>1962016</v>
+        <v>1986376</v>
       </c>
       <c r="BB78" s="15">
-        <v>1986376</v>
+        <v>1720086</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -11009,154 +11009,154 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>20200303</v>
+        <v>23941795</v>
       </c>
       <c r="F85" s="11">
-        <v>23941795</v>
+        <v>23635229</v>
       </c>
       <c r="G85" s="11">
-        <v>23635229</v>
+        <v>24360264</v>
       </c>
       <c r="H85" s="11">
-        <v>24360264</v>
+        <v>28048973</v>
       </c>
       <c r="I85" s="11">
-        <v>28048973</v>
+        <v>27557070</v>
       </c>
       <c r="J85" s="11">
-        <v>27557070</v>
+        <v>29004141</v>
       </c>
       <c r="K85" s="11">
-        <v>29004141</v>
+        <v>29462704</v>
       </c>
       <c r="L85" s="11">
-        <v>29462704</v>
+        <v>29715223</v>
       </c>
       <c r="M85" s="11">
-        <v>29715223</v>
+        <v>29981481</v>
       </c>
       <c r="N85" s="11">
-        <v>29981481</v>
+        <v>29923896</v>
       </c>
       <c r="O85" s="11">
-        <v>29923896</v>
-      </c>
-      <c r="P85" s="11">
         <v>29915709</v>
       </c>
-      <c r="Q85" s="11" t="s">
-        <v>57</v>
+      <c r="P85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q85" s="11">
+        <v>29807107</v>
       </c>
       <c r="R85" s="11">
-        <v>29807107</v>
+        <v>29973460</v>
       </c>
       <c r="S85" s="11">
-        <v>29973460</v>
+        <v>30689276</v>
       </c>
       <c r="T85" s="11">
-        <v>30689276</v>
+        <v>33755440</v>
       </c>
       <c r="U85" s="11">
-        <v>33755440</v>
+        <v>35165579</v>
       </c>
       <c r="V85" s="11">
-        <v>35165579</v>
+        <v>35281086</v>
       </c>
       <c r="W85" s="11">
-        <v>35281086</v>
+        <v>34426600</v>
       </c>
       <c r="X85" s="11">
-        <v>34426600</v>
+        <v>36081191</v>
       </c>
       <c r="Y85" s="11">
-        <v>36081191</v>
+        <v>41634278</v>
       </c>
       <c r="Z85" s="11">
-        <v>41634278</v>
+        <v>45865885</v>
       </c>
       <c r="AA85" s="11">
-        <v>45865885</v>
+        <v>43721120</v>
       </c>
       <c r="AB85" s="11">
-        <v>43721120</v>
+        <v>42080285</v>
       </c>
       <c r="AC85" s="11">
-        <v>42080285</v>
+        <v>42783912</v>
       </c>
       <c r="AD85" s="11">
-        <v>42783912</v>
+        <v>46548708</v>
       </c>
       <c r="AE85" s="11">
-        <v>46548708</v>
+        <v>51704396</v>
       </c>
       <c r="AF85" s="11">
-        <v>51704396</v>
+        <v>61650391</v>
       </c>
       <c r="AG85" s="11">
-        <v>61650391</v>
+        <v>56627034</v>
       </c>
       <c r="AH85" s="11">
-        <v>56627034</v>
+        <v>65842569</v>
       </c>
       <c r="AI85" s="11">
-        <v>65842569</v>
+        <v>62139731</v>
       </c>
       <c r="AJ85" s="11">
-        <v>62139731</v>
+        <v>64436155</v>
       </c>
       <c r="AK85" s="11">
-        <v>64436155</v>
+        <v>65715054</v>
       </c>
       <c r="AL85" s="11">
-        <v>65715054</v>
+        <v>66624791</v>
       </c>
       <c r="AM85" s="11">
-        <v>66624791</v>
+        <v>66735043</v>
       </c>
       <c r="AN85" s="11">
-        <v>66735043</v>
+        <v>66392593</v>
       </c>
       <c r="AO85" s="11">
-        <v>66392593</v>
+        <v>68327497</v>
       </c>
       <c r="AP85" s="11">
-        <v>68327497</v>
+        <v>73707883</v>
       </c>
       <c r="AQ85" s="11">
-        <v>73707883</v>
+        <v>107613014</v>
       </c>
       <c r="AR85" s="11">
-        <v>107613014</v>
+        <v>104074278</v>
       </c>
       <c r="AS85" s="11">
-        <v>104074278</v>
+        <v>105021429</v>
       </c>
       <c r="AT85" s="11">
-        <v>105021429</v>
+        <v>103969072</v>
       </c>
       <c r="AU85" s="11">
-        <v>103969072</v>
+        <v>103298622</v>
       </c>
       <c r="AV85" s="11">
-        <v>103298622</v>
+        <v>103593354</v>
       </c>
       <c r="AW85" s="11">
-        <v>103593354</v>
+        <v>105431818</v>
       </c>
       <c r="AX85" s="11">
-        <v>105431818</v>
+        <v>100747899</v>
       </c>
       <c r="AY85" s="11">
-        <v>100747899</v>
+        <v>102637961</v>
       </c>
       <c r="AZ85" s="11">
-        <v>102637961</v>
+        <v>101332659</v>
       </c>
       <c r="BA85" s="11">
-        <v>101332659</v>
+        <v>98004664</v>
       </c>
       <c r="BB85" s="11">
-        <v>98004664</v>
+        <v>101555556</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11168,154 +11168,154 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>107666667</v>
+        <v>93294118</v>
       </c>
       <c r="F86" s="13">
-        <v>93294118</v>
+        <v>95785714</v>
       </c>
       <c r="G86" s="13">
-        <v>95785714</v>
+        <v>91962963</v>
       </c>
       <c r="H86" s="13">
-        <v>91962963</v>
+        <v>107235294</v>
       </c>
       <c r="I86" s="13">
-        <v>107235294</v>
+        <v>104235294</v>
       </c>
       <c r="J86" s="13">
-        <v>104235294</v>
+        <v>102888889</v>
       </c>
       <c r="K86" s="13">
-        <v>102888889</v>
+        <v>106565217</v>
       </c>
       <c r="L86" s="13">
-        <v>106565217</v>
+        <v>113619048</v>
       </c>
       <c r="M86" s="13">
-        <v>113619048</v>
+        <v>121470588</v>
       </c>
       <c r="N86" s="13">
-        <v>121470588</v>
+        <v>119411765</v>
       </c>
       <c r="O86" s="13">
-        <v>119411765</v>
-      </c>
-      <c r="P86" s="13">
         <v>118130435</v>
       </c>
-      <c r="Q86" s="13" t="s">
-        <v>57</v>
+      <c r="P86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q86" s="13">
+        <v>120277778</v>
       </c>
       <c r="R86" s="13">
-        <v>120277778</v>
+        <v>119448276</v>
       </c>
       <c r="S86" s="13">
-        <v>119448276</v>
+        <v>124772727</v>
       </c>
       <c r="T86" s="13">
-        <v>124772727</v>
+        <v>141947368</v>
       </c>
       <c r="U86" s="13">
-        <v>141947368</v>
+        <v>149833333</v>
       </c>
       <c r="V86" s="13">
-        <v>149833333</v>
+        <v>148875000</v>
       </c>
       <c r="W86" s="13">
-        <v>148875000</v>
+        <v>138458333</v>
       </c>
       <c r="X86" s="13">
-        <v>138458333</v>
+        <v>189571429</v>
       </c>
       <c r="Y86" s="13">
-        <v>189571429</v>
+        <v>147483871</v>
       </c>
       <c r="Z86" s="13">
-        <v>147483871</v>
+        <v>168085714</v>
       </c>
       <c r="AA86" s="13">
-        <v>168085714</v>
+        <v>145185185</v>
       </c>
       <c r="AB86" s="13">
-        <v>145185185</v>
+        <v>5851852</v>
       </c>
       <c r="AC86" s="13">
-        <v>5851852</v>
+        <v>174884615</v>
       </c>
       <c r="AD86" s="13">
-        <v>174884615</v>
+        <v>89600000</v>
       </c>
       <c r="AE86" s="13">
-        <v>89600000</v>
+        <v>164601626</v>
       </c>
       <c r="AF86" s="13">
-        <v>164601626</v>
+        <v>408615385</v>
       </c>
       <c r="AG86" s="13">
-        <v>408615385</v>
+        <v>238600000</v>
       </c>
       <c r="AH86" s="13">
-        <v>238600000</v>
+        <v>239000000</v>
       </c>
       <c r="AI86" s="13">
-        <v>239000000</v>
+        <v>240620690</v>
       </c>
       <c r="AJ86" s="13">
-        <v>240620690</v>
+        <v>248800000</v>
       </c>
       <c r="AK86" s="13">
-        <v>248800000</v>
+        <v>247272727</v>
       </c>
       <c r="AL86" s="13">
-        <v>247272727</v>
+        <v>216142857</v>
       </c>
       <c r="AM86" s="13">
-        <v>216142857</v>
+        <v>258000000</v>
       </c>
       <c r="AN86" s="13">
+        <v>269227273</v>
+      </c>
+      <c r="AO86" s="13">
         <v>258000000</v>
       </c>
-      <c r="AO86" s="13">
-        <v>269227273</v>
-      </c>
       <c r="AP86" s="13">
-        <v>258000000</v>
+        <v>284333333</v>
       </c>
       <c r="AQ86" s="13">
-        <v>284333333</v>
+        <v>479578947</v>
       </c>
       <c r="AR86" s="13">
-        <v>479578947</v>
+        <v>407928571</v>
       </c>
       <c r="AS86" s="13">
-        <v>407928571</v>
+        <v>438055556</v>
       </c>
       <c r="AT86" s="13">
-        <v>438055556</v>
+        <v>418388889</v>
       </c>
       <c r="AU86" s="13">
-        <v>418388889</v>
+        <v>432315789</v>
       </c>
       <c r="AV86" s="13">
-        <v>432315789</v>
+        <v>401500000</v>
       </c>
       <c r="AW86" s="13">
-        <v>401500000</v>
+        <v>566650000</v>
       </c>
       <c r="AX86" s="13">
-        <v>566650000</v>
+        <v>413750000</v>
       </c>
       <c r="AY86" s="13">
-        <v>413750000</v>
+        <v>423227273</v>
       </c>
       <c r="AZ86" s="13">
-        <v>423227273</v>
+        <v>417500000</v>
       </c>
       <c r="BA86" s="13">
-        <v>417500000</v>
+        <v>434192308</v>
       </c>
       <c r="BB86" s="13">
-        <v>434192308</v>
+        <v>450333333</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11327,154 +11327,154 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>35145067</v>
+        <v>35226057</v>
       </c>
       <c r="F87" s="11">
-        <v>35226057</v>
+        <v>33996917</v>
       </c>
       <c r="G87" s="11">
-        <v>33996917</v>
+        <v>30770680</v>
       </c>
       <c r="H87" s="11">
-        <v>30770680</v>
+        <v>41648507</v>
       </c>
       <c r="I87" s="11">
-        <v>41648507</v>
+        <v>43135444</v>
       </c>
       <c r="J87" s="11">
-        <v>43135444</v>
+        <v>43576813</v>
       </c>
       <c r="K87" s="11">
-        <v>43576813</v>
+        <v>44603869</v>
       </c>
       <c r="L87" s="11">
-        <v>44603869</v>
+        <v>44262512</v>
       </c>
       <c r="M87" s="11">
-        <v>44262512</v>
+        <v>42421856</v>
       </c>
       <c r="N87" s="11">
-        <v>42421856</v>
+        <v>38797380</v>
       </c>
       <c r="O87" s="11">
-        <v>38797380</v>
-      </c>
-      <c r="P87" s="11">
         <v>38792992</v>
       </c>
-      <c r="Q87" s="11" t="s">
-        <v>57</v>
+      <c r="P87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q87" s="11">
+        <v>34295332</v>
       </c>
       <c r="R87" s="11">
-        <v>34295332</v>
+        <v>36811264</v>
       </c>
       <c r="S87" s="11">
-        <v>36811264</v>
+        <v>37227848</v>
       </c>
       <c r="T87" s="11">
-        <v>37227848</v>
+        <v>53063561</v>
       </c>
       <c r="U87" s="11">
-        <v>53063561</v>
+        <v>59568927</v>
       </c>
       <c r="V87" s="11">
-        <v>59568927</v>
+        <v>65815873</v>
       </c>
       <c r="W87" s="11">
-        <v>65815873</v>
+        <v>60888607</v>
       </c>
       <c r="X87" s="11">
-        <v>60888607</v>
+        <v>50857495</v>
       </c>
       <c r="Y87" s="11">
-        <v>50857495</v>
+        <v>74549539</v>
       </c>
       <c r="Z87" s="11">
-        <v>74549539</v>
+        <v>90195594</v>
       </c>
       <c r="AA87" s="11">
-        <v>90195594</v>
+        <v>64919874</v>
       </c>
       <c r="AB87" s="11">
-        <v>64919874</v>
+        <v>95050987</v>
       </c>
       <c r="AC87" s="11">
-        <v>95050987</v>
+        <v>64714924</v>
       </c>
       <c r="AD87" s="11">
-        <v>64714924</v>
+        <v>70604968</v>
       </c>
       <c r="AE87" s="11">
-        <v>70604968</v>
+        <v>77293111</v>
       </c>
       <c r="AF87" s="11">
-        <v>77293111</v>
+        <v>75920788</v>
       </c>
       <c r="AG87" s="11">
-        <v>75920788</v>
+        <v>91633617</v>
       </c>
       <c r="AH87" s="11">
-        <v>91633617</v>
+        <v>97709771</v>
       </c>
       <c r="AI87" s="11">
-        <v>97709771</v>
+        <v>111308772</v>
       </c>
       <c r="AJ87" s="11">
-        <v>111308772</v>
+        <v>113229381</v>
       </c>
       <c r="AK87" s="11">
-        <v>113229381</v>
+        <v>129085315</v>
       </c>
       <c r="AL87" s="11">
-        <v>129085315</v>
+        <v>104000384</v>
       </c>
       <c r="AM87" s="11">
-        <v>104000384</v>
+        <v>102190062</v>
       </c>
       <c r="AN87" s="11">
-        <v>102190062</v>
+        <v>105731457</v>
       </c>
       <c r="AO87" s="11">
-        <v>105731457</v>
+        <v>108267001</v>
       </c>
       <c r="AP87" s="11">
-        <v>108267001</v>
+        <v>128917782</v>
       </c>
       <c r="AQ87" s="11">
-        <v>128917782</v>
+        <v>188527792</v>
       </c>
       <c r="AR87" s="11">
-        <v>188527792</v>
+        <v>194350760</v>
       </c>
       <c r="AS87" s="11">
-        <v>194350760</v>
+        <v>193125000</v>
       </c>
       <c r="AT87" s="11">
-        <v>193125000</v>
+        <v>186233459</v>
       </c>
       <c r="AU87" s="11">
-        <v>186233459</v>
+        <v>184404733</v>
       </c>
       <c r="AV87" s="11">
-        <v>184404733</v>
+        <v>191734627</v>
       </c>
       <c r="AW87" s="11">
-        <v>191734627</v>
+        <v>187263649</v>
       </c>
       <c r="AX87" s="11">
-        <v>187263649</v>
+        <v>185024313</v>
       </c>
       <c r="AY87" s="11">
-        <v>185024313</v>
+        <v>188954998</v>
       </c>
       <c r="AZ87" s="11">
-        <v>188954998</v>
+        <v>184985994</v>
       </c>
       <c r="BA87" s="11">
-        <v>184985994</v>
+        <v>182790522</v>
       </c>
       <c r="BB87" s="11">
-        <v>182790522</v>
+        <v>197346012</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11486,154 +11486,154 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>91680851</v>
+        <v>127895455</v>
       </c>
       <c r="F88" s="13">
-        <v>127895455</v>
+        <v>166921914</v>
       </c>
       <c r="G88" s="13">
-        <v>166921914</v>
+        <v>167109865</v>
       </c>
       <c r="H88" s="13">
-        <v>167109865</v>
+        <v>157228175</v>
       </c>
       <c r="I88" s="13">
-        <v>157228175</v>
+        <v>196424000</v>
       </c>
       <c r="J88" s="13">
-        <v>196424000</v>
+        <v>228375000</v>
       </c>
       <c r="K88" s="13">
-        <v>228375000</v>
+        <v>211158228</v>
       </c>
       <c r="L88" s="13">
-        <v>211158228</v>
+        <v>224804924</v>
       </c>
       <c r="M88" s="13">
-        <v>224804924</v>
+        <v>241932039</v>
       </c>
       <c r="N88" s="13">
-        <v>241932039</v>
+        <v>231168081</v>
       </c>
       <c r="O88" s="13">
-        <v>231168081</v>
-      </c>
-      <c r="P88" s="13">
         <v>245678610</v>
       </c>
-      <c r="Q88" s="13" t="s">
-        <v>57</v>
+      <c r="P88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q88" s="13">
+        <v>205338843</v>
       </c>
       <c r="R88" s="13">
-        <v>205338843</v>
+        <v>150448529</v>
       </c>
       <c r="S88" s="13">
-        <v>150448529</v>
+        <v>219267123</v>
       </c>
       <c r="T88" s="13">
-        <v>219267123</v>
+        <v>239949807</v>
       </c>
       <c r="U88" s="13">
-        <v>239949807</v>
+        <v>276351779</v>
       </c>
       <c r="V88" s="13">
-        <v>276351779</v>
+        <v>307416393</v>
       </c>
       <c r="W88" s="13">
-        <v>307416393</v>
+        <v>284904918</v>
       </c>
       <c r="X88" s="13">
-        <v>284904918</v>
+        <v>279312821</v>
       </c>
       <c r="Y88" s="13">
-        <v>279312821</v>
+        <v>295318786</v>
       </c>
       <c r="Z88" s="13">
-        <v>295318786</v>
+        <v>335889807</v>
       </c>
       <c r="AA88" s="13">
-        <v>335889807</v>
+        <v>283402913</v>
       </c>
       <c r="AB88" s="13">
-        <v>283402913</v>
+        <v>301286195</v>
       </c>
       <c r="AC88" s="13">
-        <v>301286195</v>
+        <v>265308197</v>
       </c>
       <c r="AD88" s="13">
-        <v>265308197</v>
+        <v>330550802</v>
       </c>
       <c r="AE88" s="13">
-        <v>330550802</v>
+        <v>305844156</v>
       </c>
       <c r="AF88" s="13">
-        <v>305844156</v>
+        <v>485076923</v>
       </c>
       <c r="AG88" s="13">
-        <v>485076923</v>
+        <v>377195804</v>
       </c>
       <c r="AH88" s="13">
-        <v>377195804</v>
+        <v>449382353</v>
       </c>
       <c r="AI88" s="13">
-        <v>449382353</v>
+        <v>425980296</v>
       </c>
       <c r="AJ88" s="13">
-        <v>425980296</v>
+        <v>427589744</v>
       </c>
       <c r="AK88" s="13">
-        <v>427589744</v>
+        <v>459686869</v>
       </c>
       <c r="AL88" s="13">
-        <v>459686869</v>
+        <v>388238806</v>
       </c>
       <c r="AM88" s="13">
-        <v>388238806</v>
+        <v>352109195</v>
       </c>
       <c r="AN88" s="13">
-        <v>352109195</v>
+        <v>352892694</v>
       </c>
       <c r="AO88" s="13">
-        <v>352892694</v>
+        <v>318300532</v>
       </c>
       <c r="AP88" s="13">
-        <v>318300532</v>
+        <v>449018868</v>
       </c>
       <c r="AQ88" s="13">
-        <v>449018868</v>
+        <v>570477876</v>
       </c>
       <c r="AR88" s="13">
-        <v>570477876</v>
+        <v>577307368</v>
       </c>
       <c r="AS88" s="13">
-        <v>577307368</v>
+        <v>637544892</v>
       </c>
       <c r="AT88" s="13">
-        <v>637544892</v>
+        <v>623479532</v>
       </c>
       <c r="AU88" s="13">
-        <v>623479532</v>
+        <v>578454106</v>
       </c>
       <c r="AV88" s="13">
-        <v>578454106</v>
+        <v>693916667</v>
       </c>
       <c r="AW88" s="13">
-        <v>693916667</v>
+        <v>607774096</v>
       </c>
       <c r="AX88" s="13">
-        <v>607774096</v>
+        <v>699205333</v>
       </c>
       <c r="AY88" s="13">
-        <v>699205333</v>
+        <v>621735350</v>
       </c>
       <c r="AZ88" s="13">
-        <v>621735350</v>
+        <v>563905138</v>
       </c>
       <c r="BA88" s="13">
-        <v>563905138</v>
+        <v>680877049</v>
       </c>
       <c r="BB88" s="13">
-        <v>680877049</v>
+        <v>516394102</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11645,154 +11645,154 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>33093868</v>
+        <v>38639088</v>
       </c>
       <c r="F89" s="11">
-        <v>38639088</v>
+        <v>39090566</v>
       </c>
       <c r="G89" s="11">
-        <v>39090566</v>
+        <v>40567069</v>
       </c>
       <c r="H89" s="11">
-        <v>40567069</v>
+        <v>46058204</v>
       </c>
       <c r="I89" s="11">
-        <v>46058204</v>
+        <v>45932295</v>
       </c>
       <c r="J89" s="11">
-        <v>45932295</v>
+        <v>46412667</v>
       </c>
       <c r="K89" s="11">
-        <v>46412667</v>
+        <v>46689373</v>
       </c>
       <c r="L89" s="11">
-        <v>46689373</v>
+        <v>46657975</v>
       </c>
       <c r="M89" s="11">
-        <v>46657975</v>
+        <v>46374012</v>
       </c>
       <c r="N89" s="11">
-        <v>46374012</v>
+        <v>46513267</v>
       </c>
       <c r="O89" s="11">
-        <v>46513267</v>
-      </c>
-      <c r="P89" s="11">
         <v>46496183</v>
       </c>
-      <c r="Q89" s="11" t="s">
-        <v>57</v>
+      <c r="P89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>46762484</v>
       </c>
       <c r="R89" s="11">
-        <v>46762484</v>
+        <v>47281103</v>
       </c>
       <c r="S89" s="11">
-        <v>47281103</v>
+        <v>48803269</v>
       </c>
       <c r="T89" s="11">
-        <v>48803269</v>
+        <v>54199201</v>
       </c>
       <c r="U89" s="11">
-        <v>54199201</v>
+        <v>57214837</v>
       </c>
       <c r="V89" s="11">
-        <v>57214837</v>
+        <v>57534898</v>
       </c>
       <c r="W89" s="11">
-        <v>57534898</v>
+        <v>58935460</v>
       </c>
       <c r="X89" s="11">
-        <v>58935460</v>
+        <v>59861852</v>
       </c>
       <c r="Y89" s="11">
-        <v>59861852</v>
+        <v>71651362</v>
       </c>
       <c r="Z89" s="11">
-        <v>71651362</v>
+        <v>74243846</v>
       </c>
       <c r="AA89" s="11">
-        <v>74243846</v>
+        <v>72563941</v>
       </c>
       <c r="AB89" s="11">
-        <v>72563941</v>
+        <v>70743558</v>
       </c>
       <c r="AC89" s="11">
-        <v>70743558</v>
+        <v>73114883</v>
       </c>
       <c r="AD89" s="11">
-        <v>73114883</v>
+        <v>78048077</v>
       </c>
       <c r="AE89" s="11">
-        <v>78048077</v>
+        <v>82014369</v>
       </c>
       <c r="AF89" s="11">
-        <v>82014369</v>
+        <v>90746361</v>
       </c>
       <c r="AG89" s="11">
-        <v>90746361</v>
+        <v>106330496</v>
       </c>
       <c r="AH89" s="11">
-        <v>106330496</v>
+        <v>125056338</v>
       </c>
       <c r="AI89" s="11">
-        <v>125056338</v>
+        <v>125886459</v>
       </c>
       <c r="AJ89" s="11">
-        <v>125886459</v>
+        <v>126448307</v>
       </c>
       <c r="AK89" s="11">
-        <v>126448307</v>
+        <v>125463557</v>
       </c>
       <c r="AL89" s="11">
-        <v>125463557</v>
+        <v>126464575</v>
       </c>
       <c r="AM89" s="11">
-        <v>126464575</v>
+        <v>127726076</v>
       </c>
       <c r="AN89" s="11">
-        <v>127726076</v>
+        <v>128826312</v>
       </c>
       <c r="AO89" s="11">
-        <v>128826312</v>
+        <v>130752831</v>
       </c>
       <c r="AP89" s="11">
-        <v>130752831</v>
+        <v>146174578</v>
       </c>
       <c r="AQ89" s="11">
-        <v>146174578</v>
+        <v>233708649</v>
       </c>
       <c r="AR89" s="11">
-        <v>233708649</v>
+        <v>220963993</v>
       </c>
       <c r="AS89" s="11">
-        <v>220963993</v>
+        <v>229164225</v>
       </c>
       <c r="AT89" s="11">
-        <v>229164225</v>
+        <v>228279279</v>
       </c>
       <c r="AU89" s="11">
-        <v>228279279</v>
+        <v>225801980</v>
       </c>
       <c r="AV89" s="11">
-        <v>225801980</v>
+        <v>225681704</v>
       </c>
       <c r="AW89" s="11">
-        <v>225681704</v>
+        <v>221172377</v>
       </c>
       <c r="AX89" s="11">
-        <v>221172377</v>
+        <v>222820459</v>
       </c>
       <c r="AY89" s="11">
-        <v>222820459</v>
+        <v>223218487</v>
       </c>
       <c r="AZ89" s="11">
-        <v>223218487</v>
+        <v>222910400</v>
       </c>
       <c r="BA89" s="11">
-        <v>222910400</v>
+        <v>222446643</v>
       </c>
       <c r="BB89" s="11">
-        <v>222446643</v>
+        <v>222547852</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11804,154 +11804,154 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>146452703</v>
+        <v>146164645</v>
       </c>
       <c r="F90" s="13">
-        <v>146164645</v>
+        <v>147472222</v>
       </c>
       <c r="G90" s="13">
-        <v>147472222</v>
+        <v>143681553</v>
       </c>
       <c r="H90" s="13">
-        <v>143681553</v>
+        <v>171996032</v>
       </c>
       <c r="I90" s="13">
-        <v>171996032</v>
+        <v>173182310</v>
       </c>
       <c r="J90" s="13">
-        <v>173182310</v>
+        <v>178712785</v>
       </c>
       <c r="K90" s="13">
-        <v>178712785</v>
+        <v>184377232</v>
       </c>
       <c r="L90" s="13">
-        <v>184377232</v>
+        <v>183712477</v>
       </c>
       <c r="M90" s="13">
-        <v>183712477</v>
+        <v>183180974</v>
       </c>
       <c r="N90" s="13">
-        <v>183180974</v>
+        <v>186549107</v>
       </c>
       <c r="O90" s="13">
-        <v>186549107</v>
-      </c>
-      <c r="P90" s="13">
         <v>181803204</v>
       </c>
-      <c r="Q90" s="13" t="s">
-        <v>57</v>
+      <c r="P90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q90" s="13">
+        <v>183718010</v>
       </c>
       <c r="R90" s="13">
-        <v>183718010</v>
+        <v>188091760</v>
       </c>
       <c r="S90" s="13">
-        <v>188091760</v>
+        <v>186322183</v>
       </c>
       <c r="T90" s="13">
-        <v>186322183</v>
+        <v>213037767</v>
       </c>
       <c r="U90" s="13">
-        <v>213037767</v>
+        <v>244129213</v>
       </c>
       <c r="V90" s="13">
-        <v>244129213</v>
+        <v>235359127</v>
       </c>
       <c r="W90" s="13">
-        <v>235359127</v>
+        <v>240651316</v>
       </c>
       <c r="X90" s="13">
-        <v>240651316</v>
+        <v>256370270</v>
       </c>
       <c r="Y90" s="13">
-        <v>256370270</v>
+        <v>324086592</v>
       </c>
       <c r="Z90" s="13">
-        <v>324086592</v>
+        <v>367748756</v>
       </c>
       <c r="AA90" s="13">
-        <v>367748756</v>
+        <v>314190709</v>
       </c>
       <c r="AB90" s="13">
-        <v>314190709</v>
+        <v>244446502</v>
       </c>
       <c r="AC90" s="13">
-        <v>244446502</v>
+        <v>312702461</v>
       </c>
       <c r="AD90" s="13">
-        <v>312702461</v>
+        <v>310982222</v>
       </c>
       <c r="AE90" s="13">
-        <v>310982222</v>
+        <v>336904762</v>
       </c>
       <c r="AF90" s="13">
-        <v>336904762</v>
+        <v>363941300</v>
       </c>
       <c r="AG90" s="13">
-        <v>363941300</v>
+        <v>392983740</v>
       </c>
       <c r="AH90" s="13">
-        <v>392983740</v>
+        <v>439224215</v>
       </c>
       <c r="AI90" s="13">
-        <v>439224215</v>
+        <v>438233766</v>
       </c>
       <c r="AJ90" s="13">
-        <v>438233766</v>
+        <v>438021127</v>
       </c>
       <c r="AK90" s="13">
-        <v>438021127</v>
+        <v>445236074</v>
       </c>
       <c r="AL90" s="13">
-        <v>445236074</v>
+        <v>442723404</v>
       </c>
       <c r="AM90" s="13">
-        <v>442723404</v>
+        <v>433155709</v>
       </c>
       <c r="AN90" s="13">
-        <v>433155709</v>
+        <v>434435000</v>
       </c>
       <c r="AO90" s="13">
-        <v>434435000</v>
+        <v>431183183</v>
       </c>
       <c r="AP90" s="13">
-        <v>431183183</v>
+        <v>525421836</v>
       </c>
       <c r="AQ90" s="13">
-        <v>525421836</v>
+        <v>845985955</v>
       </c>
       <c r="AR90" s="13">
-        <v>845985955</v>
+        <v>772048780</v>
       </c>
       <c r="AS90" s="13">
-        <v>772048780</v>
+        <v>811513021</v>
       </c>
       <c r="AT90" s="13">
-        <v>811513021</v>
+        <v>790508242</v>
       </c>
       <c r="AU90" s="13">
-        <v>790508242</v>
+        <v>805781065</v>
       </c>
       <c r="AV90" s="13">
-        <v>805781065</v>
+        <v>758554217</v>
       </c>
       <c r="AW90" s="13">
-        <v>758554217</v>
+        <v>771862963</v>
       </c>
       <c r="AX90" s="13">
-        <v>771862963</v>
+        <v>729557769</v>
       </c>
       <c r="AY90" s="13">
-        <v>729557769</v>
+        <v>726483871</v>
       </c>
       <c r="AZ90" s="13">
-        <v>726483871</v>
+        <v>791051402</v>
       </c>
       <c r="BA90" s="13">
-        <v>791051402</v>
+        <v>773926282</v>
       </c>
       <c r="BB90" s="13">
-        <v>773926282</v>
+        <v>823328904</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11963,154 +11963,154 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>215381818</v>
+        <v>323445545</v>
       </c>
       <c r="F91" s="11">
-        <v>323445545</v>
+        <v>294250000</v>
       </c>
       <c r="G91" s="11">
-        <v>294250000</v>
+        <v>272088235</v>
       </c>
       <c r="H91" s="11">
-        <v>272088235</v>
+        <v>321108108</v>
       </c>
       <c r="I91" s="11">
-        <v>321108108</v>
+        <v>315066667</v>
       </c>
       <c r="J91" s="11">
-        <v>315066667</v>
+        <v>325916667</v>
       </c>
       <c r="K91" s="11">
-        <v>325916667</v>
+        <v>345621212</v>
       </c>
       <c r="L91" s="11">
-        <v>345621212</v>
+        <v>352793103</v>
       </c>
       <c r="M91" s="11">
-        <v>352793103</v>
+        <v>345961538</v>
       </c>
       <c r="N91" s="11">
-        <v>345961538</v>
+        <v>340500000</v>
       </c>
       <c r="O91" s="11">
-        <v>340500000</v>
-      </c>
-      <c r="P91" s="11">
         <v>349027027</v>
       </c>
-      <c r="Q91" s="11" t="s">
-        <v>57</v>
+      <c r="P91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q91" s="11">
+        <v>332875000</v>
       </c>
       <c r="R91" s="11">
-        <v>332875000</v>
+        <v>343969697</v>
       </c>
       <c r="S91" s="11">
-        <v>343969697</v>
+        <v>347030303</v>
       </c>
       <c r="T91" s="11">
-        <v>347030303</v>
+        <v>344106383</v>
       </c>
       <c r="U91" s="11">
-        <v>344106383</v>
+        <v>356111111</v>
       </c>
       <c r="V91" s="11">
-        <v>356111111</v>
+        <v>469194030</v>
       </c>
       <c r="W91" s="11">
-        <v>469194030</v>
+        <v>631140000</v>
       </c>
       <c r="X91" s="11">
-        <v>631140000</v>
+        <v>630896552</v>
       </c>
       <c r="Y91" s="11">
-        <v>630896552</v>
+        <v>676686747</v>
       </c>
       <c r="Z91" s="11">
-        <v>676686747</v>
+        <v>636833333</v>
       </c>
       <c r="AA91" s="11">
-        <v>636833333</v>
+        <v>681677419</v>
       </c>
       <c r="AB91" s="11">
-        <v>681677419</v>
+        <v>742846154</v>
       </c>
       <c r="AC91" s="11">
-        <v>742846154</v>
+        <v>679923077</v>
       </c>
       <c r="AD91" s="11">
-        <v>679923077</v>
+        <v>724500000</v>
       </c>
       <c r="AE91" s="11">
-        <v>724500000</v>
+        <v>778272727</v>
       </c>
       <c r="AF91" s="11">
-        <v>778272727</v>
+        <v>913352941</v>
       </c>
       <c r="AG91" s="11">
-        <v>913352941</v>
+        <v>671088235</v>
       </c>
       <c r="AH91" s="11">
-        <v>671088235</v>
+        <v>755647887</v>
       </c>
       <c r="AI91" s="11">
-        <v>755647887</v>
+        <v>787133333</v>
       </c>
       <c r="AJ91" s="11">
-        <v>787133333</v>
+        <v>867810811</v>
       </c>
       <c r="AK91" s="11">
-        <v>867810811</v>
+        <v>867206897</v>
       </c>
       <c r="AL91" s="11">
-        <v>867206897</v>
+        <v>829294118</v>
       </c>
       <c r="AM91" s="11">
-        <v>829294118</v>
+        <v>820000000</v>
       </c>
       <c r="AN91" s="11">
-        <v>820000000</v>
+        <v>779392857</v>
       </c>
       <c r="AO91" s="11">
-        <v>779392857</v>
+        <v>711643963</v>
       </c>
       <c r="AP91" s="11">
-        <v>711643963</v>
+        <v>779265734</v>
       </c>
       <c r="AQ91" s="11">
-        <v>779265734</v>
+        <v>1307600000</v>
       </c>
       <c r="AR91" s="11">
-        <v>1307600000</v>
+        <v>1347876106</v>
       </c>
       <c r="AS91" s="11">
-        <v>1347876106</v>
+        <v>1644461538</v>
       </c>
       <c r="AT91" s="11">
-        <v>1644461538</v>
+        <v>1491526316</v>
       </c>
       <c r="AU91" s="11">
-        <v>1491526316</v>
+        <v>1385641379</v>
       </c>
       <c r="AV91" s="11">
-        <v>1385641379</v>
+        <v>1454175115</v>
       </c>
       <c r="AW91" s="11">
-        <v>1454175115</v>
+        <v>1407575000</v>
       </c>
       <c r="AX91" s="11">
-        <v>1407575000</v>
+        <v>1479775701</v>
       </c>
       <c r="AY91" s="11">
-        <v>1479775701</v>
+        <v>1488490476</v>
       </c>
       <c r="AZ91" s="11">
-        <v>1488490476</v>
+        <v>1462236967</v>
       </c>
       <c r="BA91" s="11">
-        <v>1462236967</v>
+        <v>1500559055</v>
       </c>
       <c r="BB91" s="11">
-        <v>1500559055</v>
+        <v>1818484848</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12122,154 +12122,154 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>171184549</v>
+        <v>196093750</v>
       </c>
       <c r="F92" s="13">
-        <v>196093750</v>
+        <v>165509186</v>
       </c>
       <c r="G92" s="13">
-        <v>165509186</v>
+        <v>149449782</v>
       </c>
       <c r="H92" s="13">
-        <v>149449782</v>
+        <v>135216216</v>
       </c>
       <c r="I92" s="13">
-        <v>135216216</v>
+        <v>139925170</v>
       </c>
       <c r="J92" s="13">
-        <v>139925170</v>
+        <v>165141026</v>
       </c>
       <c r="K92" s="13">
-        <v>165141026</v>
+        <v>151474453</v>
       </c>
       <c r="L92" s="13">
-        <v>151474453</v>
+        <v>170992754</v>
       </c>
       <c r="M92" s="13">
-        <v>170992754</v>
+        <v>196543046</v>
       </c>
       <c r="N92" s="13">
-        <v>196543046</v>
+        <v>122896226</v>
       </c>
       <c r="O92" s="13">
-        <v>122896226</v>
-      </c>
-      <c r="P92" s="13">
         <v>184587629</v>
       </c>
-      <c r="Q92" s="13" t="s">
-        <v>57</v>
+      <c r="P92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q92" s="13">
+        <v>256198020</v>
       </c>
       <c r="R92" s="13">
-        <v>256198020</v>
+        <v>210323129</v>
       </c>
       <c r="S92" s="13">
-        <v>210323129</v>
+        <v>189553333</v>
       </c>
       <c r="T92" s="13">
-        <v>189553333</v>
+        <v>254159091</v>
       </c>
       <c r="U92" s="13">
-        <v>254159091</v>
+        <v>272575499</v>
       </c>
       <c r="V92" s="13">
-        <v>272575499</v>
+        <v>242410256</v>
       </c>
       <c r="W92" s="13">
-        <v>242410256</v>
+        <v>173835616</v>
       </c>
       <c r="X92" s="13">
-        <v>173835616</v>
+        <v>177020270</v>
       </c>
       <c r="Y92" s="13">
-        <v>177020270</v>
+        <v>205744493</v>
       </c>
       <c r="Z92" s="13">
-        <v>205744493</v>
+        <v>269292553</v>
       </c>
       <c r="AA92" s="13">
-        <v>269292553</v>
+        <v>151637584</v>
       </c>
       <c r="AB92" s="13">
-        <v>151637584</v>
+        <v>317926773</v>
       </c>
       <c r="AC92" s="13">
-        <v>317926773</v>
+        <v>138271255</v>
       </c>
       <c r="AD92" s="13">
-        <v>138271255</v>
+        <v>200591346</v>
       </c>
       <c r="AE92" s="13">
-        <v>200591346</v>
+        <v>233778378</v>
       </c>
       <c r="AF92" s="13">
-        <v>233778378</v>
+        <v>357066832</v>
       </c>
       <c r="AG92" s="13">
-        <v>357066832</v>
+        <v>519343023</v>
       </c>
       <c r="AH92" s="13">
-        <v>519343023</v>
+        <v>425064655</v>
       </c>
       <c r="AI92" s="13">
-        <v>425064655</v>
+        <v>480234432</v>
       </c>
       <c r="AJ92" s="13">
-        <v>480234432</v>
+        <v>489624561</v>
       </c>
       <c r="AK92" s="13">
-        <v>489624561</v>
+        <v>614401070</v>
       </c>
       <c r="AL92" s="13">
-        <v>614401070</v>
+        <v>659622951</v>
       </c>
       <c r="AM92" s="13">
-        <v>659622951</v>
+        <v>580035176</v>
       </c>
       <c r="AN92" s="13">
-        <v>580035176</v>
+        <v>556930470</v>
       </c>
       <c r="AO92" s="13">
-        <v>556930470</v>
+        <v>594935484</v>
       </c>
       <c r="AP92" s="13">
-        <v>594935484</v>
+        <v>752542254</v>
       </c>
       <c r="AQ92" s="13">
-        <v>752542254</v>
+        <v>980478873</v>
       </c>
       <c r="AR92" s="13">
-        <v>980478873</v>
+        <v>1233535714</v>
       </c>
       <c r="AS92" s="13">
-        <v>1233535714</v>
+        <v>706407787</v>
       </c>
       <c r="AT92" s="13">
-        <v>706407787</v>
+        <v>963796512</v>
       </c>
       <c r="AU92" s="13">
-        <v>963796512</v>
+        <v>844011299</v>
       </c>
       <c r="AV92" s="13">
-        <v>844011299</v>
+        <v>769638243</v>
       </c>
       <c r="AW92" s="13">
-        <v>769638243</v>
+        <v>875570071</v>
       </c>
       <c r="AX92" s="13">
-        <v>875570071</v>
+        <v>919796667</v>
       </c>
       <c r="AY92" s="13">
-        <v>919796667</v>
+        <v>940722222</v>
       </c>
       <c r="AZ92" s="13">
-        <v>940722222</v>
+        <v>930144092</v>
       </c>
       <c r="BA92" s="13">
-        <v>930144092</v>
+        <v>957898077</v>
       </c>
       <c r="BB92" s="13">
-        <v>957898077</v>
+        <v>1196863946</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12409,8 +12409,8 @@
       <c r="AB94" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC94" s="11" t="s">
-        <v>57</v>
+      <c r="AC94" s="11">
+        <v>0</v>
       </c>
       <c r="AD94" s="11">
         <v>0</v>
